--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vinay\Documents\GitHub\vinaymangal.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5DF0D01-C03D-4856-8E38-D78436E4DE6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8137B46-737C-49B3-A7AD-7DCEFEACD47D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{16055459-FD74-4EFA-B158-34138CA988AB}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3072" uniqueCount="1111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3072" uniqueCount="1135">
   <si>
     <t>Ashwini (ruled by Ketu) is represented by "A"</t>
   </si>
@@ -3365,6 +3365,78 @@
   </si>
   <si>
     <t>display</t>
+  </si>
+  <si>
+    <t>Nakshatra (Moon Nakshatra)</t>
+  </si>
+  <si>
+    <t>Ruling Deity (Main deity)</t>
+  </si>
+  <si>
+    <t>Symbol (can keep symbol/painting of same in bedroom or desktop)</t>
+  </si>
+  <si>
+    <t>Purpose (one should strive for)</t>
+  </si>
+  <si>
+    <t>Tree (offer reverance or have it in house if possible)</t>
+  </si>
+  <si>
+    <t>Gemstone (natural gemstone)</t>
+  </si>
+  <si>
+    <t>Color (natural effinity)</t>
+  </si>
+  <si>
+    <t>Planet (ruling planet)</t>
+  </si>
+  <si>
+    <t>Mantra (one must chant daily)</t>
+  </si>
+  <si>
+    <t>Health Issues (should take care)</t>
+  </si>
+  <si>
+    <t>Historical/Mythological Significance (must read these stories)</t>
+  </si>
+  <si>
+    <t>Mudra (learn and often sit in this mudra)</t>
+  </si>
+  <si>
+    <t>Food/Dietary Recommendation (should intake)</t>
+  </si>
+  <si>
+    <t>Yoga Posture/Asana (should do these yogas)</t>
+  </si>
+  <si>
+    <t>Hindu Festivals/Holidays (do sadhna on these festivals)</t>
+  </si>
+  <si>
+    <t>Chakra/Energy Center (do puja, meditation for this chakra)</t>
+  </si>
+  <si>
+    <t>Yantra/Sacred Geometry (can keep this yantra in puja sthal)</t>
+  </si>
+  <si>
+    <t>Spiritual Practice/Sadhana (must observe daily)</t>
+  </si>
+  <si>
+    <t>Metal/Mineral (natural affliliation)</t>
+  </si>
+  <si>
+    <t>Aromatherapy/Essential Oils (should apply these)</t>
+  </si>
+  <si>
+    <t>Mythological Story/Legend (must read these stories)</t>
+  </si>
+  <si>
+    <t>Sound/Mantra (must chant this mantra)</t>
+  </si>
+  <si>
+    <t>Flower (keep these nearby)</t>
+  </si>
+  <si>
+    <t>Dosha Element (must keep the element in check, learn more from ayurveda)</t>
   </si>
 </sst>
 </file>
@@ -3879,10 +3951,10 @@
   <dimension ref="A1:CP37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="AU2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="AN2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AU4" sqref="AU4"/>
+      <selection pane="bottomRight" activeCell="AU1" sqref="AU1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.88671875" defaultRowHeight="12"/>
@@ -3901,13 +3973,13 @@
         <v>116</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>29</v>
+        <v>1111</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>30</v>
+        <v>1112</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>31</v>
+        <v>1113</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>32</v>
@@ -3925,13 +3997,13 @@
         <v>36</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>37</v>
+        <v>1114</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>38</v>
+        <v>1115</v>
       </c>
       <c r="L1" s="8" t="s">
-        <v>39</v>
+        <v>1116</v>
       </c>
       <c r="M1" s="8" t="s">
         <v>40</v>
@@ -3940,13 +4012,13 @@
         <v>182</v>
       </c>
       <c r="O1" s="8" t="s">
-        <v>41</v>
+        <v>1117</v>
       </c>
       <c r="P1" s="8" t="s">
-        <v>42</v>
+        <v>1118</v>
       </c>
       <c r="Q1" s="9" t="s">
-        <v>43</v>
+        <v>1119</v>
       </c>
       <c r="R1" s="9" t="s">
         <v>292</v>
@@ -3973,55 +4045,55 @@
         <v>390</v>
       </c>
       <c r="Z1" s="9" t="s">
-        <v>391</v>
+        <v>1120</v>
       </c>
       <c r="AA1" s="9" t="s">
         <v>392</v>
       </c>
       <c r="AB1" s="9" t="s">
-        <v>393</v>
+        <v>1121</v>
       </c>
       <c r="AC1" s="9" t="s">
-        <v>496</v>
+        <v>1122</v>
       </c>
       <c r="AD1" s="9" t="s">
-        <v>497</v>
+        <v>1123</v>
       </c>
       <c r="AE1" s="9" t="s">
-        <v>498</v>
+        <v>1124</v>
       </c>
       <c r="AF1" s="9" t="s">
         <v>499</v>
       </c>
       <c r="AG1" s="9" t="s">
-        <v>500</v>
+        <v>1125</v>
       </c>
       <c r="AH1" s="9" t="s">
-        <v>501</v>
+        <v>1126</v>
       </c>
       <c r="AI1" s="9" t="s">
-        <v>502</v>
+        <v>1127</v>
       </c>
       <c r="AJ1" s="9" t="s">
-        <v>503</v>
+        <v>1128</v>
       </c>
       <c r="AK1" s="9" t="s">
-        <v>504</v>
+        <v>1129</v>
       </c>
       <c r="AL1" s="9" t="s">
-        <v>505</v>
+        <v>1130</v>
       </c>
       <c r="AM1" s="9" t="s">
         <v>506</v>
       </c>
       <c r="AN1" s="9" t="s">
-        <v>507</v>
+        <v>1131</v>
       </c>
       <c r="AO1" s="9" t="s">
-        <v>508</v>
+        <v>1132</v>
       </c>
       <c r="AP1" s="9" t="s">
-        <v>509</v>
+        <v>1133</v>
       </c>
       <c r="AQ1" s="9" t="s">
         <v>510</v>
@@ -4033,7 +4105,7 @@
         <v>512</v>
       </c>
       <c r="AT1" s="9" t="s">
-        <v>513</v>
+        <v>1134</v>
       </c>
       <c r="AU1" s="14" t="s">
         <v>1110</v>
@@ -4181,22 +4253,22 @@
       </c>
       <c r="AU2" s="5" t="str">
         <f>AV2</f>
-        <v xml:space="preserve">Nakshatra --&gt; Ashwini
-Ruling Deity --&gt; Ashvins
-Symbol --&gt; Horse Head
+        <v xml:space="preserve">Nakshatra (Moon Nakshatra) --&gt; Ashwini
+Ruling Deity (Main deity) --&gt; Ashvins
+Symbol (can keep symbol/painting of same in bedroom or desktop) --&gt; Horse Head
 Animal --&gt; Male Horse
 Nature --&gt; Sattva
 Gender --&gt; Male
 Dosha --&gt; Pitta
 Guna --&gt; Sattva
-Purpose --&gt; Health
-Tree --&gt; Asvattha
-Gemstone --&gt; Ketu's Gem
+Purpose (one should strive for) --&gt; Health
+Tree (offer reverance or have it in house if possible) --&gt; Asvattha
+Gemstone (natural gemstone) --&gt; Ketu's Gem
 Yoga --&gt; Saubhagya
 Plant/Flower --&gt; Asvattha
-Color --&gt; Light Blue
-Planet --&gt; Ketu
-Mantra --&gt; Om Ashvinau Namaha
+Color (natural effinity) --&gt; Light Blue
+Planet (ruling planet) --&gt; Ketu
+Mantra (one must chant daily) --&gt; Om Ashvinau Namaha
 Body Temperament --&gt; Fiery
 Career/Profession --&gt; Surgeons, Athletes, Entrepreneurs
 Compatibility --&gt; Bharani, Krittika, Rohini, Mrigashirsha, Punarvasu
@@ -4205,47 +4277,47 @@
 Lucky Directions --&gt; East
 Auspicious Activities --&gt; Starting new projects, marriage, buying vehicles
 Inauspicious Activities --&gt; Surgery, disputes, arguments
-Health Issues --&gt; Headaches, migraines
+Health Issues (should take care) --&gt; Headaches, migraines
 Prayers or Rituals --&gt; Worship Lord Ketu
-Historical/Mythological Significance --&gt; Ashwini Kumaras, the divine physician twins
-Mudra --&gt; Aswini Mudra
-Food/Dietary Recommendation --&gt; Light foods, vegetarian, fresh fruits and vegetables
-Yoga Posture/Asana --&gt; Surya Namaskar, Trikonasana, Tadasana
+Historical/Mythological Significance (must read these stories) --&gt; Ashwini Kumaras, the divine physician twins
+Mudra (learn and often sit in this mudra) --&gt; Aswini Mudra
+Food/Dietary Recommendation (should intake) --&gt; Light foods, vegetarian, fresh fruits and vegetables
+Yoga Posture/Asana (should do these yogas) --&gt; Surya Namaskar, Trikonasana, Tadasana
 Tarot Card/Divination Symbol --&gt; The Chariot
-Hindu Festivals/Holidays --&gt; Holi
-Chakra/Energy Center --&gt; Muladhara
-Yantra/Sacred Geometry --&gt; Surya Yantra
-Spiritual Practice/Sadhana --&gt; Visualize the chariot of the sun
-Metal/Mineral --&gt; Gold
-Aromatherapy/Essential Oils --&gt; Lemon, ginger, basil
+Hindu Festivals/Holidays (do sadhna on these festivals) --&gt; Holi
+Chakra/Energy Center (do puja, meditation for this chakra) --&gt; Muladhara
+Yantra/Sacred Geometry (can keep this yantra in puja sthal) --&gt; Surya Yantra
+Spiritual Practice/Sadhana (must observe daily) --&gt; Visualize the chariot of the sun
+Metal/Mineral (natural affliliation) --&gt; Gold
+Aromatherapy/Essential Oils (should apply these) --&gt; Lemon, ginger, basil
 Personality Traits/Characteristics --&gt; Energetic, adventurous, spontaneous
-Mythological Story/Legend --&gt; The Ashwins, twin horsemen
-Sound/Mantra --&gt; Om Ram
-Flower --&gt; Carnation
+Mythological Story/Legend (must read these stories) --&gt; The Ashwins, twin horsemen
+Sound/Mantra (must chant this mantra) --&gt; Om Ram
+Flower (keep these nearby) --&gt; Carnation
 Prana --&gt; Prana Vayu
 Varna --&gt; Vaishya
 Taste --&gt; Sweet
-Dosha Element --&gt; Pitta
+Dosha Element (must keep the element in check, learn more from ayurveda) --&gt; Pitta
 </v>
       </c>
       <c r="AV2" s="5" t="str">
         <f>AW2&amp;AX2&amp;AY2&amp;AZ2&amp;BA2&amp;BB2&amp;BC2&amp;BD2&amp;BE2&amp;BF2&amp;BG2&amp;BH2&amp;BI2&amp;BJ2&amp;BK2&amp;BL2&amp;BM2&amp;BN2&amp;BO2&amp;BP2&amp;BQ2&amp;BR2&amp;BS2&amp;BT2&amp;BU2&amp;BV2&amp;BW2&amp;BX2&amp;BY2&amp;BZ2&amp;CA2&amp;CB2&amp;CC2&amp;CD2&amp;CE2&amp;CF2&amp;CG2&amp;CH2&amp;CI2&amp;CJ2&amp;CK2&amp;CL2&amp;CM2&amp;CN2&amp;CO2</f>
-        <v xml:space="preserve">Nakshatra --&gt; Ashwini
-Ruling Deity --&gt; Ashvins
-Symbol --&gt; Horse Head
+        <v xml:space="preserve">Nakshatra (Moon Nakshatra) --&gt; Ashwini
+Ruling Deity (Main deity) --&gt; Ashvins
+Symbol (can keep symbol/painting of same in bedroom or desktop) --&gt; Horse Head
 Animal --&gt; Male Horse
 Nature --&gt; Sattva
 Gender --&gt; Male
 Dosha --&gt; Pitta
 Guna --&gt; Sattva
-Purpose --&gt; Health
-Tree --&gt; Asvattha
-Gemstone --&gt; Ketu's Gem
+Purpose (one should strive for) --&gt; Health
+Tree (offer reverance or have it in house if possible) --&gt; Asvattha
+Gemstone (natural gemstone) --&gt; Ketu's Gem
 Yoga --&gt; Saubhagya
 Plant/Flower --&gt; Asvattha
-Color --&gt; Light Blue
-Planet --&gt; Ketu
-Mantra --&gt; Om Ashvinau Namaha
+Color (natural effinity) --&gt; Light Blue
+Planet (ruling planet) --&gt; Ketu
+Mantra (one must chant daily) --&gt; Om Ashvinau Namaha
 Body Temperament --&gt; Fiery
 Career/Profession --&gt; Surgeons, Athletes, Entrepreneurs
 Compatibility --&gt; Bharani, Krittika, Rohini, Mrigashirsha, Punarvasu
@@ -4254,42 +4326,42 @@
 Lucky Directions --&gt; East
 Auspicious Activities --&gt; Starting new projects, marriage, buying vehicles
 Inauspicious Activities --&gt; Surgery, disputes, arguments
-Health Issues --&gt; Headaches, migraines
+Health Issues (should take care) --&gt; Headaches, migraines
 Prayers or Rituals --&gt; Worship Lord Ketu
-Historical/Mythological Significance --&gt; Ashwini Kumaras, the divine physician twins
-Mudra --&gt; Aswini Mudra
-Food/Dietary Recommendation --&gt; Light foods, vegetarian, fresh fruits and vegetables
-Yoga Posture/Asana --&gt; Surya Namaskar, Trikonasana, Tadasana
+Historical/Mythological Significance (must read these stories) --&gt; Ashwini Kumaras, the divine physician twins
+Mudra (learn and often sit in this mudra) --&gt; Aswini Mudra
+Food/Dietary Recommendation (should intake) --&gt; Light foods, vegetarian, fresh fruits and vegetables
+Yoga Posture/Asana (should do these yogas) --&gt; Surya Namaskar, Trikonasana, Tadasana
 Tarot Card/Divination Symbol --&gt; The Chariot
-Hindu Festivals/Holidays --&gt; Holi
-Chakra/Energy Center --&gt; Muladhara
-Yantra/Sacred Geometry --&gt; Surya Yantra
-Spiritual Practice/Sadhana --&gt; Visualize the chariot of the sun
-Metal/Mineral --&gt; Gold
-Aromatherapy/Essential Oils --&gt; Lemon, ginger, basil
+Hindu Festivals/Holidays (do sadhna on these festivals) --&gt; Holi
+Chakra/Energy Center (do puja, meditation for this chakra) --&gt; Muladhara
+Yantra/Sacred Geometry (can keep this yantra in puja sthal) --&gt; Surya Yantra
+Spiritual Practice/Sadhana (must observe daily) --&gt; Visualize the chariot of the sun
+Metal/Mineral (natural affliliation) --&gt; Gold
+Aromatherapy/Essential Oils (should apply these) --&gt; Lemon, ginger, basil
 Personality Traits/Characteristics --&gt; Energetic, adventurous, spontaneous
-Mythological Story/Legend --&gt; The Ashwins, twin horsemen
-Sound/Mantra --&gt; Om Ram
-Flower --&gt; Carnation
+Mythological Story/Legend (must read these stories) --&gt; The Ashwins, twin horsemen
+Sound/Mantra (must chant this mantra) --&gt; Om Ram
+Flower (keep these nearby) --&gt; Carnation
 Prana --&gt; Prana Vayu
 Varna --&gt; Vaishya
 Taste --&gt; Sweet
-Dosha Element --&gt; Pitta
+Dosha Element (must keep the element in check, learn more from ayurveda) --&gt; Pitta
 </v>
       </c>
       <c r="AW2" s="5" t="str">
         <f>B$1&amp;" --&gt; "&amp;B2&amp;CHAR(10)</f>
-        <v xml:space="preserve">Nakshatra --&gt; Ashwini
+        <v xml:space="preserve">Nakshatra (Moon Nakshatra) --&gt; Ashwini
 </v>
       </c>
       <c r="AX2" s="5" t="str">
         <f t="shared" ref="AX2:CO2" si="0">C$1&amp;" --&gt; "&amp;C2&amp;CHAR(10)</f>
-        <v xml:space="preserve">Ruling Deity --&gt; Ashvins
+        <v xml:space="preserve">Ruling Deity (Main deity) --&gt; Ashvins
 </v>
       </c>
       <c r="AY2" s="5" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">Symbol --&gt; Horse Head
+        <v xml:space="preserve">Symbol (can keep symbol/painting of same in bedroom or desktop) --&gt; Horse Head
 </v>
       </c>
       <c r="AZ2" s="5" t="str">
@@ -4319,17 +4391,17 @@
       </c>
       <c r="BE2" s="5" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">Purpose --&gt; Health
+        <v xml:space="preserve">Purpose (one should strive for) --&gt; Health
 </v>
       </c>
       <c r="BF2" s="5" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">Tree --&gt; Asvattha
+        <v xml:space="preserve">Tree (offer reverance or have it in house if possible) --&gt; Asvattha
 </v>
       </c>
       <c r="BG2" s="5" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">Gemstone --&gt; Ketu's Gem
+        <v xml:space="preserve">Gemstone (natural gemstone) --&gt; Ketu's Gem
 </v>
       </c>
       <c r="BH2" s="5" t="str">
@@ -4344,17 +4416,17 @@
       </c>
       <c r="BJ2" s="5" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">Color --&gt; Light Blue
+        <v xml:space="preserve">Color (natural effinity) --&gt; Light Blue
 </v>
       </c>
       <c r="BK2" s="5" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">Planet --&gt; Ketu
+        <v xml:space="preserve">Planet (ruling planet) --&gt; Ketu
 </v>
       </c>
       <c r="BL2" s="5" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">Mantra --&gt; Om Ashvinau Namaha
+        <v xml:space="preserve">Mantra (one must chant daily) --&gt; Om Ashvinau Namaha
 </v>
       </c>
       <c r="BM2" s="5" t="str">
@@ -4399,7 +4471,7 @@
       </c>
       <c r="BU2" s="5" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">Health Issues --&gt; Headaches, migraines
+        <v xml:space="preserve">Health Issues (should take care) --&gt; Headaches, migraines
 </v>
       </c>
       <c r="BV2" s="5" t="str">
@@ -4409,22 +4481,22 @@
       </c>
       <c r="BW2" s="5" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">Historical/Mythological Significance --&gt; Ashwini Kumaras, the divine physician twins
+        <v xml:space="preserve">Historical/Mythological Significance (must read these stories) --&gt; Ashwini Kumaras, the divine physician twins
 </v>
       </c>
       <c r="BX2" s="5" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">Mudra --&gt; Aswini Mudra
+        <v xml:space="preserve">Mudra (learn and often sit in this mudra) --&gt; Aswini Mudra
 </v>
       </c>
       <c r="BY2" s="5" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">Food/Dietary Recommendation --&gt; Light foods, vegetarian, fresh fruits and vegetables
+        <v xml:space="preserve">Food/Dietary Recommendation (should intake) --&gt; Light foods, vegetarian, fresh fruits and vegetables
 </v>
       </c>
       <c r="BZ2" s="5" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">Yoga Posture/Asana --&gt; Surya Namaskar, Trikonasana, Tadasana
+        <v xml:space="preserve">Yoga Posture/Asana (should do these yogas) --&gt; Surya Namaskar, Trikonasana, Tadasana
 </v>
       </c>
       <c r="CA2" s="5" t="str">
@@ -4434,32 +4506,32 @@
       </c>
       <c r="CB2" s="5" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">Hindu Festivals/Holidays --&gt; Holi
+        <v xml:space="preserve">Hindu Festivals/Holidays (do sadhna on these festivals) --&gt; Holi
 </v>
       </c>
       <c r="CC2" s="5" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">Chakra/Energy Center --&gt; Muladhara
+        <v xml:space="preserve">Chakra/Energy Center (do puja, meditation for this chakra) --&gt; Muladhara
 </v>
       </c>
       <c r="CD2" s="5" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">Yantra/Sacred Geometry --&gt; Surya Yantra
+        <v xml:space="preserve">Yantra/Sacred Geometry (can keep this yantra in puja sthal) --&gt; Surya Yantra
 </v>
       </c>
       <c r="CE2" s="5" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">Spiritual Practice/Sadhana --&gt; Visualize the chariot of the sun
+        <v xml:space="preserve">Spiritual Practice/Sadhana (must observe daily) --&gt; Visualize the chariot of the sun
 </v>
       </c>
       <c r="CF2" s="5" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">Metal/Mineral --&gt; Gold
+        <v xml:space="preserve">Metal/Mineral (natural affliliation) --&gt; Gold
 </v>
       </c>
       <c r="CG2" s="5" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">Aromatherapy/Essential Oils --&gt; Lemon, ginger, basil
+        <v xml:space="preserve">Aromatherapy/Essential Oils (should apply these) --&gt; Lemon, ginger, basil
 </v>
       </c>
       <c r="CH2" s="5" t="str">
@@ -4469,17 +4541,17 @@
       </c>
       <c r="CI2" s="5" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">Mythological Story/Legend --&gt; The Ashwins, twin horsemen
+        <v xml:space="preserve">Mythological Story/Legend (must read these stories) --&gt; The Ashwins, twin horsemen
 </v>
       </c>
       <c r="CJ2" s="5" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">Sound/Mantra --&gt; Om Ram
+        <v xml:space="preserve">Sound/Mantra (must chant this mantra) --&gt; Om Ram
 </v>
       </c>
       <c r="CK2" s="5" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">Flower --&gt; Carnation
+        <v xml:space="preserve">Flower (keep these nearby) --&gt; Carnation
 </v>
       </c>
       <c r="CL2" s="5" t="str">
@@ -4499,7 +4571,7 @@
       </c>
       <c r="CO2" s="5" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">Dosha Element --&gt; Pitta
+        <v xml:space="preserve">Dosha Element (must keep the element in check, learn more from ayurveda) --&gt; Pitta
 </v>
       </c>
     </row>
@@ -4644,22 +4716,22 @@
       </c>
       <c r="AU3" s="5" t="str">
         <f t="shared" ref="AU3:AU28" si="1">AV3</f>
-        <v xml:space="preserve">Nakshatra --&gt; Bharani
-Ruling Deity --&gt; Yama
-Symbol --&gt; Yoni
+        <v xml:space="preserve">Nakshatra (Moon Nakshatra) --&gt; Bharani
+Ruling Deity (Main deity) --&gt; Yama
+Symbol (can keep symbol/painting of same in bedroom or desktop) --&gt; Yoni
 Animal --&gt; Male Elephant
 Nature --&gt; Rajas
 Gender --&gt; Female
 Dosha --&gt; Pitta
 Guna --&gt; Tamas
-Purpose --&gt; Spiritual and Material Growth
-Tree --&gt; Kadam
-Gemstone --&gt; Pearl
+Purpose (one should strive for) --&gt; Spiritual and Material Growth
+Tree (offer reverance or have it in house if possible) --&gt; Kadam
+Gemstone (natural gemstone) --&gt; Pearl
 Yoga --&gt; Vaidhriti
 Plant/Flower --&gt; Kadam
-Color --&gt; Blue
-Planet --&gt; Venus
-Mantra --&gt; Om Yamaaya Namaha
+Color (natural effinity) --&gt; Blue
+Planet (ruling planet) --&gt; Venus
+Mantra (one must chant daily) --&gt; Om Yamaaya Namaha
 Body Temperament --&gt; Earthy
 Career/Profession --&gt; Bankers, Accountants, Engineers
 Compatibility --&gt; Ashwini, Krittika, Rohini, Mrigashirsha, Ardra
@@ -4668,47 +4740,47 @@
 Lucky Directions --&gt; South
 Auspicious Activities --&gt; Starting new ventures, spiritual practices
 Inauspicious Activities --&gt; Debts, legal issues
-Health Issues --&gt; Stomach ailments, obesity
+Health Issues (should take care) --&gt; Stomach ailments, obesity
 Prayers or Rituals --&gt; Perform Tarpana for ancestors
-Historical/Mythological Significance --&gt; Birthplace of Yama, lord of death
-Mudra --&gt; Varada Mudra
-Food/Dietary Recommendation --&gt; Light and easy to digest food, raw fruits and vegetables
-Yoga Posture/Asana --&gt; Uttanasana, Paschimottanasana, Ardha Matsyendrasana
+Historical/Mythological Significance (must read these stories) --&gt; Birthplace of Yama, lord of death
+Mudra (learn and often sit in this mudra) --&gt; Varada Mudra
+Food/Dietary Recommendation (should intake) --&gt; Light and easy to digest food, raw fruits and vegetables
+Yoga Posture/Asana (should do these yogas) --&gt; Uttanasana, Paschimottanasana, Ardha Matsyendrasana
 Tarot Card/Divination Symbol --&gt; The Emperor
-Hindu Festivals/Holidays --&gt; Mahashivratri
-Chakra/Energy Center --&gt; Swadhisthana
-Yantra/Sacred Geometry --&gt; Chandra Yantra
-Spiritual Practice/Sadhana --&gt; Devotion to Lord Shiva
-Metal/Mineral --&gt; Silver
-Aromatherapy/Essential Oils --&gt; Ylang-ylang, rose, sandalwood
+Hindu Festivals/Holidays (do sadhna on these festivals) --&gt; Mahashivratri
+Chakra/Energy Center (do puja, meditation for this chakra) --&gt; Swadhisthana
+Yantra/Sacred Geometry (can keep this yantra in puja sthal) --&gt; Chandra Yantra
+Spiritual Practice/Sadhana (must observe daily) --&gt; Devotion to Lord Shiva
+Metal/Mineral (natural affliliation) --&gt; Silver
+Aromatherapy/Essential Oils (should apply these) --&gt; Ylang-ylang, rose, sandalwood
 Personality Traits/Characteristics --&gt; Strong-willed, determined, ambitious
-Mythological Story/Legend --&gt; Yama and Yami, the lord and lady of death
-Sound/Mantra --&gt; Om Lam
-Flower --&gt; Lotus
+Mythological Story/Legend (must read these stories) --&gt; Yama and Yami, the lord and lady of death
+Sound/Mantra (must chant this mantra) --&gt; Om Lam
+Flower (keep these nearby) --&gt; Lotus
 Prana --&gt; Apana Vayu
 Varna --&gt; Kshatriya
 Taste --&gt; Astringent
-Dosha Element --&gt; Kapha
+Dosha Element (must keep the element in check, learn more from ayurveda) --&gt; Kapha
 </v>
       </c>
       <c r="AV3" s="5" t="str">
         <f t="shared" ref="AV3:AV28" si="2">AW3&amp;AX3&amp;AY3&amp;AZ3&amp;BA3&amp;BB3&amp;BC3&amp;BD3&amp;BE3&amp;BF3&amp;BG3&amp;BH3&amp;BI3&amp;BJ3&amp;BK3&amp;BL3&amp;BM3&amp;BN3&amp;BO3&amp;BP3&amp;BQ3&amp;BR3&amp;BS3&amp;BT3&amp;BU3&amp;BV3&amp;BW3&amp;BX3&amp;BY3&amp;BZ3&amp;CA3&amp;CB3&amp;CC3&amp;CD3&amp;CE3&amp;CF3&amp;CG3&amp;CH3&amp;CI3&amp;CJ3&amp;CK3&amp;CL3&amp;CM3&amp;CN3&amp;CO3</f>
-        <v xml:space="preserve">Nakshatra --&gt; Bharani
-Ruling Deity --&gt; Yama
-Symbol --&gt; Yoni
+        <v xml:space="preserve">Nakshatra (Moon Nakshatra) --&gt; Bharani
+Ruling Deity (Main deity) --&gt; Yama
+Symbol (can keep symbol/painting of same in bedroom or desktop) --&gt; Yoni
 Animal --&gt; Male Elephant
 Nature --&gt; Rajas
 Gender --&gt; Female
 Dosha --&gt; Pitta
 Guna --&gt; Tamas
-Purpose --&gt; Spiritual and Material Growth
-Tree --&gt; Kadam
-Gemstone --&gt; Pearl
+Purpose (one should strive for) --&gt; Spiritual and Material Growth
+Tree (offer reverance or have it in house if possible) --&gt; Kadam
+Gemstone (natural gemstone) --&gt; Pearl
 Yoga --&gt; Vaidhriti
 Plant/Flower --&gt; Kadam
-Color --&gt; Blue
-Planet --&gt; Venus
-Mantra --&gt; Om Yamaaya Namaha
+Color (natural effinity) --&gt; Blue
+Planet (ruling planet) --&gt; Venus
+Mantra (one must chant daily) --&gt; Om Yamaaya Namaha
 Body Temperament --&gt; Earthy
 Career/Profession --&gt; Bankers, Accountants, Engineers
 Compatibility --&gt; Ashwini, Krittika, Rohini, Mrigashirsha, Ardra
@@ -4717,42 +4789,42 @@
 Lucky Directions --&gt; South
 Auspicious Activities --&gt; Starting new ventures, spiritual practices
 Inauspicious Activities --&gt; Debts, legal issues
-Health Issues --&gt; Stomach ailments, obesity
+Health Issues (should take care) --&gt; Stomach ailments, obesity
 Prayers or Rituals --&gt; Perform Tarpana for ancestors
-Historical/Mythological Significance --&gt; Birthplace of Yama, lord of death
-Mudra --&gt; Varada Mudra
-Food/Dietary Recommendation --&gt; Light and easy to digest food, raw fruits and vegetables
-Yoga Posture/Asana --&gt; Uttanasana, Paschimottanasana, Ardha Matsyendrasana
+Historical/Mythological Significance (must read these stories) --&gt; Birthplace of Yama, lord of death
+Mudra (learn and often sit in this mudra) --&gt; Varada Mudra
+Food/Dietary Recommendation (should intake) --&gt; Light and easy to digest food, raw fruits and vegetables
+Yoga Posture/Asana (should do these yogas) --&gt; Uttanasana, Paschimottanasana, Ardha Matsyendrasana
 Tarot Card/Divination Symbol --&gt; The Emperor
-Hindu Festivals/Holidays --&gt; Mahashivratri
-Chakra/Energy Center --&gt; Swadhisthana
-Yantra/Sacred Geometry --&gt; Chandra Yantra
-Spiritual Practice/Sadhana --&gt; Devotion to Lord Shiva
-Metal/Mineral --&gt; Silver
-Aromatherapy/Essential Oils --&gt; Ylang-ylang, rose, sandalwood
+Hindu Festivals/Holidays (do sadhna on these festivals) --&gt; Mahashivratri
+Chakra/Energy Center (do puja, meditation for this chakra) --&gt; Swadhisthana
+Yantra/Sacred Geometry (can keep this yantra in puja sthal) --&gt; Chandra Yantra
+Spiritual Practice/Sadhana (must observe daily) --&gt; Devotion to Lord Shiva
+Metal/Mineral (natural affliliation) --&gt; Silver
+Aromatherapy/Essential Oils (should apply these) --&gt; Ylang-ylang, rose, sandalwood
 Personality Traits/Characteristics --&gt; Strong-willed, determined, ambitious
-Mythological Story/Legend --&gt; Yama and Yami, the lord and lady of death
-Sound/Mantra --&gt; Om Lam
-Flower --&gt; Lotus
+Mythological Story/Legend (must read these stories) --&gt; Yama and Yami, the lord and lady of death
+Sound/Mantra (must chant this mantra) --&gt; Om Lam
+Flower (keep these nearby) --&gt; Lotus
 Prana --&gt; Apana Vayu
 Varna --&gt; Kshatriya
 Taste --&gt; Astringent
-Dosha Element --&gt; Kapha
+Dosha Element (must keep the element in check, learn more from ayurveda) --&gt; Kapha
 </v>
       </c>
       <c r="AW3" s="5" t="str">
         <f t="shared" ref="AW3:AW28" si="3">B$1&amp;" --&gt; "&amp;B3&amp;CHAR(10)</f>
-        <v xml:space="preserve">Nakshatra --&gt; Bharani
+        <v xml:space="preserve">Nakshatra (Moon Nakshatra) --&gt; Bharani
 </v>
       </c>
       <c r="AX3" s="5" t="str">
         <f t="shared" ref="AX3:AX28" si="4">C$1&amp;" --&gt; "&amp;C3&amp;CHAR(10)</f>
-        <v xml:space="preserve">Ruling Deity --&gt; Yama
+        <v xml:space="preserve">Ruling Deity (Main deity) --&gt; Yama
 </v>
       </c>
       <c r="AY3" s="5" t="str">
         <f t="shared" ref="AY3:AY28" si="5">D$1&amp;" --&gt; "&amp;D3&amp;CHAR(10)</f>
-        <v xml:space="preserve">Symbol --&gt; Yoni
+        <v xml:space="preserve">Symbol (can keep symbol/painting of same in bedroom or desktop) --&gt; Yoni
 </v>
       </c>
       <c r="AZ3" s="5" t="str">
@@ -4782,17 +4854,17 @@
       </c>
       <c r="BE3" s="5" t="str">
         <f t="shared" ref="BE3:BE28" si="11">J$1&amp;" --&gt; "&amp;J3&amp;CHAR(10)</f>
-        <v xml:space="preserve">Purpose --&gt; Spiritual and Material Growth
+        <v xml:space="preserve">Purpose (one should strive for) --&gt; Spiritual and Material Growth
 </v>
       </c>
       <c r="BF3" s="5" t="str">
         <f t="shared" ref="BF3:BF28" si="12">K$1&amp;" --&gt; "&amp;K3&amp;CHAR(10)</f>
-        <v xml:space="preserve">Tree --&gt; Kadam
+        <v xml:space="preserve">Tree (offer reverance or have it in house if possible) --&gt; Kadam
 </v>
       </c>
       <c r="BG3" s="5" t="str">
         <f t="shared" ref="BG3:BG28" si="13">L$1&amp;" --&gt; "&amp;L3&amp;CHAR(10)</f>
-        <v xml:space="preserve">Gemstone --&gt; Pearl
+        <v xml:space="preserve">Gemstone (natural gemstone) --&gt; Pearl
 </v>
       </c>
       <c r="BH3" s="5" t="str">
@@ -4807,17 +4879,17 @@
       </c>
       <c r="BJ3" s="5" t="str">
         <f t="shared" ref="BJ3:BJ28" si="16">O$1&amp;" --&gt; "&amp;O3&amp;CHAR(10)</f>
-        <v xml:space="preserve">Color --&gt; Blue
+        <v xml:space="preserve">Color (natural effinity) --&gt; Blue
 </v>
       </c>
       <c r="BK3" s="5" t="str">
         <f t="shared" ref="BK3:BK28" si="17">P$1&amp;" --&gt; "&amp;P3&amp;CHAR(10)</f>
-        <v xml:space="preserve">Planet --&gt; Venus
+        <v xml:space="preserve">Planet (ruling planet) --&gt; Venus
 </v>
       </c>
       <c r="BL3" s="5" t="str">
         <f t="shared" ref="BL3:BL28" si="18">Q$1&amp;" --&gt; "&amp;Q3&amp;CHAR(10)</f>
-        <v xml:space="preserve">Mantra --&gt; Om Yamaaya Namaha
+        <v xml:space="preserve">Mantra (one must chant daily) --&gt; Om Yamaaya Namaha
 </v>
       </c>
       <c r="BM3" s="5" t="str">
@@ -4862,7 +4934,7 @@
       </c>
       <c r="BU3" s="5" t="str">
         <f t="shared" ref="BU3:BU28" si="27">Z$1&amp;" --&gt; "&amp;Z3&amp;CHAR(10)</f>
-        <v xml:space="preserve">Health Issues --&gt; Stomach ailments, obesity
+        <v xml:space="preserve">Health Issues (should take care) --&gt; Stomach ailments, obesity
 </v>
       </c>
       <c r="BV3" s="5" t="str">
@@ -4872,22 +4944,22 @@
       </c>
       <c r="BW3" s="5" t="str">
         <f t="shared" ref="BW3:BW28" si="29">AB$1&amp;" --&gt; "&amp;AB3&amp;CHAR(10)</f>
-        <v xml:space="preserve">Historical/Mythological Significance --&gt; Birthplace of Yama, lord of death
+        <v xml:space="preserve">Historical/Mythological Significance (must read these stories) --&gt; Birthplace of Yama, lord of death
 </v>
       </c>
       <c r="BX3" s="5" t="str">
         <f t="shared" ref="BX3:BX28" si="30">AC$1&amp;" --&gt; "&amp;AC3&amp;CHAR(10)</f>
-        <v xml:space="preserve">Mudra --&gt; Varada Mudra
+        <v xml:space="preserve">Mudra (learn and often sit in this mudra) --&gt; Varada Mudra
 </v>
       </c>
       <c r="BY3" s="5" t="str">
         <f t="shared" ref="BY3:BY28" si="31">AD$1&amp;" --&gt; "&amp;AD3&amp;CHAR(10)</f>
-        <v xml:space="preserve">Food/Dietary Recommendation --&gt; Light and easy to digest food, raw fruits and vegetables
+        <v xml:space="preserve">Food/Dietary Recommendation (should intake) --&gt; Light and easy to digest food, raw fruits and vegetables
 </v>
       </c>
       <c r="BZ3" s="5" t="str">
         <f t="shared" ref="BZ3:BZ28" si="32">AE$1&amp;" --&gt; "&amp;AE3&amp;CHAR(10)</f>
-        <v xml:space="preserve">Yoga Posture/Asana --&gt; Uttanasana, Paschimottanasana, Ardha Matsyendrasana
+        <v xml:space="preserve">Yoga Posture/Asana (should do these yogas) --&gt; Uttanasana, Paschimottanasana, Ardha Matsyendrasana
 </v>
       </c>
       <c r="CA3" s="5" t="str">
@@ -4897,32 +4969,32 @@
       </c>
       <c r="CB3" s="5" t="str">
         <f t="shared" ref="CB3:CB28" si="34">AG$1&amp;" --&gt; "&amp;AG3&amp;CHAR(10)</f>
-        <v xml:space="preserve">Hindu Festivals/Holidays --&gt; Mahashivratri
+        <v xml:space="preserve">Hindu Festivals/Holidays (do sadhna on these festivals) --&gt; Mahashivratri
 </v>
       </c>
       <c r="CC3" s="5" t="str">
         <f t="shared" ref="CC3:CC28" si="35">AH$1&amp;" --&gt; "&amp;AH3&amp;CHAR(10)</f>
-        <v xml:space="preserve">Chakra/Energy Center --&gt; Swadhisthana
+        <v xml:space="preserve">Chakra/Energy Center (do puja, meditation for this chakra) --&gt; Swadhisthana
 </v>
       </c>
       <c r="CD3" s="5" t="str">
         <f t="shared" ref="CD3:CD28" si="36">AI$1&amp;" --&gt; "&amp;AI3&amp;CHAR(10)</f>
-        <v xml:space="preserve">Yantra/Sacred Geometry --&gt; Chandra Yantra
+        <v xml:space="preserve">Yantra/Sacred Geometry (can keep this yantra in puja sthal) --&gt; Chandra Yantra
 </v>
       </c>
       <c r="CE3" s="5" t="str">
         <f t="shared" ref="CE3:CE28" si="37">AJ$1&amp;" --&gt; "&amp;AJ3&amp;CHAR(10)</f>
-        <v xml:space="preserve">Spiritual Practice/Sadhana --&gt; Devotion to Lord Shiva
+        <v xml:space="preserve">Spiritual Practice/Sadhana (must observe daily) --&gt; Devotion to Lord Shiva
 </v>
       </c>
       <c r="CF3" s="5" t="str">
         <f t="shared" ref="CF3:CF28" si="38">AK$1&amp;" --&gt; "&amp;AK3&amp;CHAR(10)</f>
-        <v xml:space="preserve">Metal/Mineral --&gt; Silver
+        <v xml:space="preserve">Metal/Mineral (natural affliliation) --&gt; Silver
 </v>
       </c>
       <c r="CG3" s="5" t="str">
         <f t="shared" ref="CG3:CG28" si="39">AL$1&amp;" --&gt; "&amp;AL3&amp;CHAR(10)</f>
-        <v xml:space="preserve">Aromatherapy/Essential Oils --&gt; Ylang-ylang, rose, sandalwood
+        <v xml:space="preserve">Aromatherapy/Essential Oils (should apply these) --&gt; Ylang-ylang, rose, sandalwood
 </v>
       </c>
       <c r="CH3" s="5" t="str">
@@ -4932,17 +5004,17 @@
       </c>
       <c r="CI3" s="5" t="str">
         <f t="shared" ref="CI3:CI28" si="41">AN$1&amp;" --&gt; "&amp;AN3&amp;CHAR(10)</f>
-        <v xml:space="preserve">Mythological Story/Legend --&gt; Yama and Yami, the lord and lady of death
+        <v xml:space="preserve">Mythological Story/Legend (must read these stories) --&gt; Yama and Yami, the lord and lady of death
 </v>
       </c>
       <c r="CJ3" s="5" t="str">
         <f t="shared" ref="CJ3:CJ28" si="42">AO$1&amp;" --&gt; "&amp;AO3&amp;CHAR(10)</f>
-        <v xml:space="preserve">Sound/Mantra --&gt; Om Lam
+        <v xml:space="preserve">Sound/Mantra (must chant this mantra) --&gt; Om Lam
 </v>
       </c>
       <c r="CK3" s="5" t="str">
         <f t="shared" ref="CK3:CK28" si="43">AP$1&amp;" --&gt; "&amp;AP3&amp;CHAR(10)</f>
-        <v xml:space="preserve">Flower --&gt; Lotus
+        <v xml:space="preserve">Flower (keep these nearby) --&gt; Lotus
 </v>
       </c>
       <c r="CL3" s="5" t="str">
@@ -4962,7 +5034,7 @@
       </c>
       <c r="CO3" s="5" t="str">
         <f t="shared" ref="CO3:CO28" si="47">AT$1&amp;" --&gt; "&amp;AT3&amp;CHAR(10)</f>
-        <v xml:space="preserve">Dosha Element --&gt; Kapha
+        <v xml:space="preserve">Dosha Element (must keep the element in check, learn more from ayurveda) --&gt; Kapha
 </v>
       </c>
     </row>
@@ -5107,22 +5179,22 @@
       </c>
       <c r="AU4" s="5" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">Nakshatra --&gt; Krittika
-Ruling Deity --&gt; Agni
-Symbol --&gt; Razor or Axe
+        <v xml:space="preserve">Nakshatra (Moon Nakshatra) --&gt; Krittika
+Ruling Deity (Main deity) --&gt; Agni
+Symbol (can keep symbol/painting of same in bedroom or desktop) --&gt; Razor or Axe
 Animal --&gt; Female Sheep
 Nature --&gt; Sattva
 Gender --&gt; Female
 Dosha --&gt; Vata
 Guna --&gt; Rajas
-Purpose --&gt; Spiritual Enlightenment
-Tree --&gt; Bakula
-Gemstone --&gt; Ruby
+Purpose (one should strive for) --&gt; Spiritual Enlightenment
+Tree (offer reverance or have it in house if possible) --&gt; Bakula
+Gemstone (natural gemstone) --&gt; Ruby
 Yoga --&gt; Vyatipata
 Plant/Flower --&gt; Bakula
-Color --&gt; White
-Planet --&gt; Sun
-Mantra --&gt; Om Agnaye Namaha
+Color (natural effinity) --&gt; White
+Planet (ruling planet) --&gt; Sun
+Mantra (one must chant daily) --&gt; Om Agnaye Namaha
 Body Temperament --&gt; Fiery
 Career/Profession --&gt; Military, Police, Politicians
 Compatibility --&gt; Ashwini, Bharani, Rohini, Mrigashirsha, Punarvasu
@@ -5131,47 +5203,47 @@
 Lucky Directions --&gt; East
 Auspicious Activities --&gt; Marriage, starting new ventures, spiritual practices
 Inauspicious Activities --&gt; Fights, disputes, arguments
-Health Issues --&gt; Eye problems, headaches
+Health Issues (should take care) --&gt; Eye problems, headaches
 Prayers or Rituals --&gt; Worship Lord Agni
-Historical/Mythological Significance --&gt; Birthplace of Kartikeya, son of Lord Shiva
-Mudra --&gt; Gyan Mudra
-Food/Dietary Recommendation --&gt; Cooling foods, cucumber, watermelon, coconut water
-Yoga Posture/Asana --&gt; Virabhadrasana, Ustrasana, Matsyasana
+Historical/Mythological Significance (must read these stories) --&gt; Birthplace of Kartikeya, son of Lord Shiva
+Mudra (learn and often sit in this mudra) --&gt; Gyan Mudra
+Food/Dietary Recommendation (should intake) --&gt; Cooling foods, cucumber, watermelon, coconut water
+Yoga Posture/Asana (should do these yogas) --&gt; Virabhadrasana, Ustrasana, Matsyasana
 Tarot Card/Divination Symbol --&gt; The Hierophant
-Hindu Festivals/Holidays --&gt; Akshaya Tritiya
-Chakra/Energy Center --&gt; Manipura
-Yantra/Sacred Geometry --&gt; Agni Yantra
-Spiritual Practice/Sadhana --&gt; Mantra chanting and fire rituals
-Metal/Mineral --&gt; Copper
-Aromatherapy/Essential Oils --&gt; Peppermint, eucalyptus, frankincense
+Hindu Festivals/Holidays (do sadhna on these festivals) --&gt; Akshaya Tritiya
+Chakra/Energy Center (do puja, meditation for this chakra) --&gt; Manipura
+Yantra/Sacred Geometry (can keep this yantra in puja sthal) --&gt; Agni Yantra
+Spiritual Practice/Sadhana (must observe daily) --&gt; Mantra chanting and fire rituals
+Metal/Mineral (natural affliliation) --&gt; Copper
+Aromatherapy/Essential Oils (should apply these) --&gt; Peppermint, eucalyptus, frankincense
 Personality Traits/Characteristics --&gt; Charismatic, confident, authoritative
-Mythological Story/Legend --&gt; Kartikeya, the god of war
-Sound/Mantra --&gt; Om Hrim
-Flower --&gt; White Lotus
+Mythological Story/Legend (must read these stories) --&gt; Kartikeya, the god of war
+Sound/Mantra (must chant this mantra) --&gt; Om Hrim
+Flower (keep these nearby) --&gt; White Lotus
 Prana --&gt; Samana Vayu
 Varna --&gt; Brahmin
 Taste --&gt; Bitter
-Dosha Element --&gt; Vata
+Dosha Element (must keep the element in check, learn more from ayurveda) --&gt; Vata
 </v>
       </c>
       <c r="AV4" s="5" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">Nakshatra --&gt; Krittika
-Ruling Deity --&gt; Agni
-Symbol --&gt; Razor or Axe
+        <v xml:space="preserve">Nakshatra (Moon Nakshatra) --&gt; Krittika
+Ruling Deity (Main deity) --&gt; Agni
+Symbol (can keep symbol/painting of same in bedroom or desktop) --&gt; Razor or Axe
 Animal --&gt; Female Sheep
 Nature --&gt; Sattva
 Gender --&gt; Female
 Dosha --&gt; Vata
 Guna --&gt; Rajas
-Purpose --&gt; Spiritual Enlightenment
-Tree --&gt; Bakula
-Gemstone --&gt; Ruby
+Purpose (one should strive for) --&gt; Spiritual Enlightenment
+Tree (offer reverance or have it in house if possible) --&gt; Bakula
+Gemstone (natural gemstone) --&gt; Ruby
 Yoga --&gt; Vyatipata
 Plant/Flower --&gt; Bakula
-Color --&gt; White
-Planet --&gt; Sun
-Mantra --&gt; Om Agnaye Namaha
+Color (natural effinity) --&gt; White
+Planet (ruling planet) --&gt; Sun
+Mantra (one must chant daily) --&gt; Om Agnaye Namaha
 Body Temperament --&gt; Fiery
 Career/Profession --&gt; Military, Police, Politicians
 Compatibility --&gt; Ashwini, Bharani, Rohini, Mrigashirsha, Punarvasu
@@ -5180,42 +5252,42 @@
 Lucky Directions --&gt; East
 Auspicious Activities --&gt; Marriage, starting new ventures, spiritual practices
 Inauspicious Activities --&gt; Fights, disputes, arguments
-Health Issues --&gt; Eye problems, headaches
+Health Issues (should take care) --&gt; Eye problems, headaches
 Prayers or Rituals --&gt; Worship Lord Agni
-Historical/Mythological Significance --&gt; Birthplace of Kartikeya, son of Lord Shiva
-Mudra --&gt; Gyan Mudra
-Food/Dietary Recommendation --&gt; Cooling foods, cucumber, watermelon, coconut water
-Yoga Posture/Asana --&gt; Virabhadrasana, Ustrasana, Matsyasana
+Historical/Mythological Significance (must read these stories) --&gt; Birthplace of Kartikeya, son of Lord Shiva
+Mudra (learn and often sit in this mudra) --&gt; Gyan Mudra
+Food/Dietary Recommendation (should intake) --&gt; Cooling foods, cucumber, watermelon, coconut water
+Yoga Posture/Asana (should do these yogas) --&gt; Virabhadrasana, Ustrasana, Matsyasana
 Tarot Card/Divination Symbol --&gt; The Hierophant
-Hindu Festivals/Holidays --&gt; Akshaya Tritiya
-Chakra/Energy Center --&gt; Manipura
-Yantra/Sacred Geometry --&gt; Agni Yantra
-Spiritual Practice/Sadhana --&gt; Mantra chanting and fire rituals
-Metal/Mineral --&gt; Copper
-Aromatherapy/Essential Oils --&gt; Peppermint, eucalyptus, frankincense
+Hindu Festivals/Holidays (do sadhna on these festivals) --&gt; Akshaya Tritiya
+Chakra/Energy Center (do puja, meditation for this chakra) --&gt; Manipura
+Yantra/Sacred Geometry (can keep this yantra in puja sthal) --&gt; Agni Yantra
+Spiritual Practice/Sadhana (must observe daily) --&gt; Mantra chanting and fire rituals
+Metal/Mineral (natural affliliation) --&gt; Copper
+Aromatherapy/Essential Oils (should apply these) --&gt; Peppermint, eucalyptus, frankincense
 Personality Traits/Characteristics --&gt; Charismatic, confident, authoritative
-Mythological Story/Legend --&gt; Kartikeya, the god of war
-Sound/Mantra --&gt; Om Hrim
-Flower --&gt; White Lotus
+Mythological Story/Legend (must read these stories) --&gt; Kartikeya, the god of war
+Sound/Mantra (must chant this mantra) --&gt; Om Hrim
+Flower (keep these nearby) --&gt; White Lotus
 Prana --&gt; Samana Vayu
 Varna --&gt; Brahmin
 Taste --&gt; Bitter
-Dosha Element --&gt; Vata
+Dosha Element (must keep the element in check, learn more from ayurveda) --&gt; Vata
 </v>
       </c>
       <c r="AW4" s="5" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">Nakshatra --&gt; Krittika
+        <v xml:space="preserve">Nakshatra (Moon Nakshatra) --&gt; Krittika
 </v>
       </c>
       <c r="AX4" s="5" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">Ruling Deity --&gt; Agni
+        <v xml:space="preserve">Ruling Deity (Main deity) --&gt; Agni
 </v>
       </c>
       <c r="AY4" s="5" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">Symbol --&gt; Razor or Axe
+        <v xml:space="preserve">Symbol (can keep symbol/painting of same in bedroom or desktop) --&gt; Razor or Axe
 </v>
       </c>
       <c r="AZ4" s="5" t="str">
@@ -5245,17 +5317,17 @@
       </c>
       <c r="BE4" s="5" t="str">
         <f t="shared" si="11"/>
-        <v xml:space="preserve">Purpose --&gt; Spiritual Enlightenment
+        <v xml:space="preserve">Purpose (one should strive for) --&gt; Spiritual Enlightenment
 </v>
       </c>
       <c r="BF4" s="5" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">Tree --&gt; Bakula
+        <v xml:space="preserve">Tree (offer reverance or have it in house if possible) --&gt; Bakula
 </v>
       </c>
       <c r="BG4" s="5" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">Gemstone --&gt; Ruby
+        <v xml:space="preserve">Gemstone (natural gemstone) --&gt; Ruby
 </v>
       </c>
       <c r="BH4" s="5" t="str">
@@ -5270,17 +5342,17 @@
       </c>
       <c r="BJ4" s="5" t="str">
         <f t="shared" si="16"/>
-        <v xml:space="preserve">Color --&gt; White
+        <v xml:space="preserve">Color (natural effinity) --&gt; White
 </v>
       </c>
       <c r="BK4" s="5" t="str">
         <f t="shared" si="17"/>
-        <v xml:space="preserve">Planet --&gt; Sun
+        <v xml:space="preserve">Planet (ruling planet) --&gt; Sun
 </v>
       </c>
       <c r="BL4" s="5" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">Mantra --&gt; Om Agnaye Namaha
+        <v xml:space="preserve">Mantra (one must chant daily) --&gt; Om Agnaye Namaha
 </v>
       </c>
       <c r="BM4" s="5" t="str">
@@ -5325,7 +5397,7 @@
       </c>
       <c r="BU4" s="5" t="str">
         <f t="shared" si="27"/>
-        <v xml:space="preserve">Health Issues --&gt; Eye problems, headaches
+        <v xml:space="preserve">Health Issues (should take care) --&gt; Eye problems, headaches
 </v>
       </c>
       <c r="BV4" s="5" t="str">
@@ -5335,22 +5407,22 @@
       </c>
       <c r="BW4" s="5" t="str">
         <f t="shared" si="29"/>
-        <v xml:space="preserve">Historical/Mythological Significance --&gt; Birthplace of Kartikeya, son of Lord Shiva
+        <v xml:space="preserve">Historical/Mythological Significance (must read these stories) --&gt; Birthplace of Kartikeya, son of Lord Shiva
 </v>
       </c>
       <c r="BX4" s="5" t="str">
         <f t="shared" si="30"/>
-        <v xml:space="preserve">Mudra --&gt; Gyan Mudra
+        <v xml:space="preserve">Mudra (learn and often sit in this mudra) --&gt; Gyan Mudra
 </v>
       </c>
       <c r="BY4" s="5" t="str">
         <f t="shared" si="31"/>
-        <v xml:space="preserve">Food/Dietary Recommendation --&gt; Cooling foods, cucumber, watermelon, coconut water
+        <v xml:space="preserve">Food/Dietary Recommendation (should intake) --&gt; Cooling foods, cucumber, watermelon, coconut water
 </v>
       </c>
       <c r="BZ4" s="5" t="str">
         <f t="shared" si="32"/>
-        <v xml:space="preserve">Yoga Posture/Asana --&gt; Virabhadrasana, Ustrasana, Matsyasana
+        <v xml:space="preserve">Yoga Posture/Asana (should do these yogas) --&gt; Virabhadrasana, Ustrasana, Matsyasana
 </v>
       </c>
       <c r="CA4" s="5" t="str">
@@ -5360,32 +5432,32 @@
       </c>
       <c r="CB4" s="5" t="str">
         <f t="shared" si="34"/>
-        <v xml:space="preserve">Hindu Festivals/Holidays --&gt; Akshaya Tritiya
+        <v xml:space="preserve">Hindu Festivals/Holidays (do sadhna on these festivals) --&gt; Akshaya Tritiya
 </v>
       </c>
       <c r="CC4" s="5" t="str">
         <f t="shared" si="35"/>
-        <v xml:space="preserve">Chakra/Energy Center --&gt; Manipura
+        <v xml:space="preserve">Chakra/Energy Center (do puja, meditation for this chakra) --&gt; Manipura
 </v>
       </c>
       <c r="CD4" s="5" t="str">
         <f t="shared" si="36"/>
-        <v xml:space="preserve">Yantra/Sacred Geometry --&gt; Agni Yantra
+        <v xml:space="preserve">Yantra/Sacred Geometry (can keep this yantra in puja sthal) --&gt; Agni Yantra
 </v>
       </c>
       <c r="CE4" s="5" t="str">
         <f t="shared" si="37"/>
-        <v xml:space="preserve">Spiritual Practice/Sadhana --&gt; Mantra chanting and fire rituals
+        <v xml:space="preserve">Spiritual Practice/Sadhana (must observe daily) --&gt; Mantra chanting and fire rituals
 </v>
       </c>
       <c r="CF4" s="5" t="str">
         <f t="shared" si="38"/>
-        <v xml:space="preserve">Metal/Mineral --&gt; Copper
+        <v xml:space="preserve">Metal/Mineral (natural affliliation) --&gt; Copper
 </v>
       </c>
       <c r="CG4" s="5" t="str">
         <f t="shared" si="39"/>
-        <v xml:space="preserve">Aromatherapy/Essential Oils --&gt; Peppermint, eucalyptus, frankincense
+        <v xml:space="preserve">Aromatherapy/Essential Oils (should apply these) --&gt; Peppermint, eucalyptus, frankincense
 </v>
       </c>
       <c r="CH4" s="5" t="str">
@@ -5395,17 +5467,17 @@
       </c>
       <c r="CI4" s="5" t="str">
         <f t="shared" si="41"/>
-        <v xml:space="preserve">Mythological Story/Legend --&gt; Kartikeya, the god of war
+        <v xml:space="preserve">Mythological Story/Legend (must read these stories) --&gt; Kartikeya, the god of war
 </v>
       </c>
       <c r="CJ4" s="5" t="str">
         <f t="shared" si="42"/>
-        <v xml:space="preserve">Sound/Mantra --&gt; Om Hrim
+        <v xml:space="preserve">Sound/Mantra (must chant this mantra) --&gt; Om Hrim
 </v>
       </c>
       <c r="CK4" s="5" t="str">
         <f t="shared" si="43"/>
-        <v xml:space="preserve">Flower --&gt; White Lotus
+        <v xml:space="preserve">Flower (keep these nearby) --&gt; White Lotus
 </v>
       </c>
       <c r="CL4" s="5" t="str">
@@ -5425,7 +5497,7 @@
       </c>
       <c r="CO4" s="5" t="str">
         <f t="shared" si="47"/>
-        <v xml:space="preserve">Dosha Element --&gt; Vata
+        <v xml:space="preserve">Dosha Element (must keep the element in check, learn more from ayurveda) --&gt; Vata
 </v>
       </c>
       <c r="CP4" s="13"/>
@@ -5571,22 +5643,22 @@
       </c>
       <c r="AU5" s="5" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">Nakshatra --&gt; Rohini
-Ruling Deity --&gt; Brahma
-Symbol --&gt; Chariot or Ox Cart
+        <v xml:space="preserve">Nakshatra (Moon Nakshatra) --&gt; Rohini
+Ruling Deity (Main deity) --&gt; Brahma
+Symbol (can keep symbol/painting of same in bedroom or desktop) --&gt; Chariot or Ox Cart
 Animal --&gt; Male Snake
 Nature --&gt; Tamas
 Gender --&gt; Female
 Dosha --&gt; Kapha
 Guna --&gt; Sattva
-Purpose --&gt; Growth and Nourishment
-Tree --&gt; Palasa
-Gemstone --&gt; Pearl
+Purpose (one should strive for) --&gt; Growth and Nourishment
+Tree (offer reverance or have it in house if possible) --&gt; Palasa
+Gemstone (natural gemstone) --&gt; Pearl
 Yoga --&gt; Vajra
 Plant/Flower --&gt; Palasa
-Color --&gt; Red
-Planet --&gt; Moon
-Mantra --&gt; Om BrahmaNe Namaha
+Color (natural effinity) --&gt; Red
+Planet (ruling planet) --&gt; Moon
+Mantra (one must chant daily) --&gt; Om BrahmaNe Namaha
 Body Temperament --&gt; Earthy
 Career/Profession --&gt; Artists, Musicians, Designers
 Compatibility --&gt; Ashwini, Bharani, Krittika, Mrigashirsha, Ardra
@@ -5595,47 +5667,47 @@
 Lucky Directions --&gt; North
 Auspicious Activities --&gt; Marriage, artistic pursuits, starting new ventures
 Inauspicious Activities --&gt; Theft, deceit, lies
-Health Issues --&gt; Eye problems, reproductive issues
+Health Issues (should take care) --&gt; Eye problems, reproductive issues
 Prayers or Rituals --&gt; Worship Lord Brahma
-Historical/Mythological Significance --&gt; Birthplace of Lord Krishna
-Mudra --&gt; Hakini Mudra
-Food/Dietary Recommendation --&gt; Light and wholesome food, milk and dairy products
-Yoga Posture/Asana --&gt; Balasana, Matsyasana, Viparita Karani
+Historical/Mythological Significance (must read these stories) --&gt; Birthplace of Lord Krishna
+Mudra (learn and often sit in this mudra) --&gt; Hakini Mudra
+Food/Dietary Recommendation (should intake) --&gt; Light and wholesome food, milk and dairy products
+Yoga Posture/Asana (should do these yogas) --&gt; Balasana, Matsyasana, Viparita Karani
 Tarot Card/Divination Symbol --&gt; The Empress
-Hindu Festivals/Holidays --&gt; Raksha Bandhan
-Chakra/Energy Center --&gt; Anahata
-Yantra/Sacred Geometry --&gt; Vastu Yantra
-Spiritual Practice/Sadhana --&gt; Meditation and pranayama
-Metal/Mineral --&gt; Pearl
-Aromatherapy/Essential Oils --&gt; Rose, jasmine, lavender
+Hindu Festivals/Holidays (do sadhna on these festivals) --&gt; Raksha Bandhan
+Chakra/Energy Center (do puja, meditation for this chakra) --&gt; Anahata
+Yantra/Sacred Geometry (can keep this yantra in puja sthal) --&gt; Vastu Yantra
+Spiritual Practice/Sadhana (must observe daily) --&gt; Meditation and pranayama
+Metal/Mineral (natural affliliation) --&gt; Pearl
+Aromatherapy/Essential Oils (should apply these) --&gt; Rose, jasmine, lavender
 Personality Traits/Characteristics --&gt; Artistic, creative, nurturing
-Mythological Story/Legend --&gt; Rohini, the beloved of the moon
-Sound/Mantra --&gt; Om Hrim
-Flower --&gt; Wild Rose
+Mythological Story/Legend (must read these stories) --&gt; Rohini, the beloved of the moon
+Sound/Mantra (must chant this mantra) --&gt; Om Hrim
+Flower (keep these nearby) --&gt; Wild Rose
 Prana --&gt; Vyana Vayu
 Varna --&gt; Kshatriya
 Taste --&gt; Astringent
-Dosha Element --&gt; Kapha
+Dosha Element (must keep the element in check, learn more from ayurveda) --&gt; Kapha
 </v>
       </c>
       <c r="AV5" s="5" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">Nakshatra --&gt; Rohini
-Ruling Deity --&gt; Brahma
-Symbol --&gt; Chariot or Ox Cart
+        <v xml:space="preserve">Nakshatra (Moon Nakshatra) --&gt; Rohini
+Ruling Deity (Main deity) --&gt; Brahma
+Symbol (can keep symbol/painting of same in bedroom or desktop) --&gt; Chariot or Ox Cart
 Animal --&gt; Male Snake
 Nature --&gt; Tamas
 Gender --&gt; Female
 Dosha --&gt; Kapha
 Guna --&gt; Sattva
-Purpose --&gt; Growth and Nourishment
-Tree --&gt; Palasa
-Gemstone --&gt; Pearl
+Purpose (one should strive for) --&gt; Growth and Nourishment
+Tree (offer reverance or have it in house if possible) --&gt; Palasa
+Gemstone (natural gemstone) --&gt; Pearl
 Yoga --&gt; Vajra
 Plant/Flower --&gt; Palasa
-Color --&gt; Red
-Planet --&gt; Moon
-Mantra --&gt; Om BrahmaNe Namaha
+Color (natural effinity) --&gt; Red
+Planet (ruling planet) --&gt; Moon
+Mantra (one must chant daily) --&gt; Om BrahmaNe Namaha
 Body Temperament --&gt; Earthy
 Career/Profession --&gt; Artists, Musicians, Designers
 Compatibility --&gt; Ashwini, Bharani, Krittika, Mrigashirsha, Ardra
@@ -5644,42 +5716,42 @@
 Lucky Directions --&gt; North
 Auspicious Activities --&gt; Marriage, artistic pursuits, starting new ventures
 Inauspicious Activities --&gt; Theft, deceit, lies
-Health Issues --&gt; Eye problems, reproductive issues
+Health Issues (should take care) --&gt; Eye problems, reproductive issues
 Prayers or Rituals --&gt; Worship Lord Brahma
-Historical/Mythological Significance --&gt; Birthplace of Lord Krishna
-Mudra --&gt; Hakini Mudra
-Food/Dietary Recommendation --&gt; Light and wholesome food, milk and dairy products
-Yoga Posture/Asana --&gt; Balasana, Matsyasana, Viparita Karani
+Historical/Mythological Significance (must read these stories) --&gt; Birthplace of Lord Krishna
+Mudra (learn and often sit in this mudra) --&gt; Hakini Mudra
+Food/Dietary Recommendation (should intake) --&gt; Light and wholesome food, milk and dairy products
+Yoga Posture/Asana (should do these yogas) --&gt; Balasana, Matsyasana, Viparita Karani
 Tarot Card/Divination Symbol --&gt; The Empress
-Hindu Festivals/Holidays --&gt; Raksha Bandhan
-Chakra/Energy Center --&gt; Anahata
-Yantra/Sacred Geometry --&gt; Vastu Yantra
-Spiritual Practice/Sadhana --&gt; Meditation and pranayama
-Metal/Mineral --&gt; Pearl
-Aromatherapy/Essential Oils --&gt; Rose, jasmine, lavender
+Hindu Festivals/Holidays (do sadhna on these festivals) --&gt; Raksha Bandhan
+Chakra/Energy Center (do puja, meditation for this chakra) --&gt; Anahata
+Yantra/Sacred Geometry (can keep this yantra in puja sthal) --&gt; Vastu Yantra
+Spiritual Practice/Sadhana (must observe daily) --&gt; Meditation and pranayama
+Metal/Mineral (natural affliliation) --&gt; Pearl
+Aromatherapy/Essential Oils (should apply these) --&gt; Rose, jasmine, lavender
 Personality Traits/Characteristics --&gt; Artistic, creative, nurturing
-Mythological Story/Legend --&gt; Rohini, the beloved of the moon
-Sound/Mantra --&gt; Om Hrim
-Flower --&gt; Wild Rose
+Mythological Story/Legend (must read these stories) --&gt; Rohini, the beloved of the moon
+Sound/Mantra (must chant this mantra) --&gt; Om Hrim
+Flower (keep these nearby) --&gt; Wild Rose
 Prana --&gt; Vyana Vayu
 Varna --&gt; Kshatriya
 Taste --&gt; Astringent
-Dosha Element --&gt; Kapha
+Dosha Element (must keep the element in check, learn more from ayurveda) --&gt; Kapha
 </v>
       </c>
       <c r="AW5" s="5" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">Nakshatra --&gt; Rohini
+        <v xml:space="preserve">Nakshatra (Moon Nakshatra) --&gt; Rohini
 </v>
       </c>
       <c r="AX5" s="5" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">Ruling Deity --&gt; Brahma
+        <v xml:space="preserve">Ruling Deity (Main deity) --&gt; Brahma
 </v>
       </c>
       <c r="AY5" s="5" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">Symbol --&gt; Chariot or Ox Cart
+        <v xml:space="preserve">Symbol (can keep symbol/painting of same in bedroom or desktop) --&gt; Chariot or Ox Cart
 </v>
       </c>
       <c r="AZ5" s="5" t="str">
@@ -5709,17 +5781,17 @@
       </c>
       <c r="BE5" s="5" t="str">
         <f t="shared" si="11"/>
-        <v xml:space="preserve">Purpose --&gt; Growth and Nourishment
+        <v xml:space="preserve">Purpose (one should strive for) --&gt; Growth and Nourishment
 </v>
       </c>
       <c r="BF5" s="5" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">Tree --&gt; Palasa
+        <v xml:space="preserve">Tree (offer reverance or have it in house if possible) --&gt; Palasa
 </v>
       </c>
       <c r="BG5" s="5" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">Gemstone --&gt; Pearl
+        <v xml:space="preserve">Gemstone (natural gemstone) --&gt; Pearl
 </v>
       </c>
       <c r="BH5" s="5" t="str">
@@ -5734,17 +5806,17 @@
       </c>
       <c r="BJ5" s="5" t="str">
         <f t="shared" si="16"/>
-        <v xml:space="preserve">Color --&gt; Red
+        <v xml:space="preserve">Color (natural effinity) --&gt; Red
 </v>
       </c>
       <c r="BK5" s="5" t="str">
         <f t="shared" si="17"/>
-        <v xml:space="preserve">Planet --&gt; Moon
+        <v xml:space="preserve">Planet (ruling planet) --&gt; Moon
 </v>
       </c>
       <c r="BL5" s="5" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">Mantra --&gt; Om BrahmaNe Namaha
+        <v xml:space="preserve">Mantra (one must chant daily) --&gt; Om BrahmaNe Namaha
 </v>
       </c>
       <c r="BM5" s="5" t="str">
@@ -5789,7 +5861,7 @@
       </c>
       <c r="BU5" s="5" t="str">
         <f t="shared" si="27"/>
-        <v xml:space="preserve">Health Issues --&gt; Eye problems, reproductive issues
+        <v xml:space="preserve">Health Issues (should take care) --&gt; Eye problems, reproductive issues
 </v>
       </c>
       <c r="BV5" s="5" t="str">
@@ -5799,22 +5871,22 @@
       </c>
       <c r="BW5" s="5" t="str">
         <f t="shared" si="29"/>
-        <v xml:space="preserve">Historical/Mythological Significance --&gt; Birthplace of Lord Krishna
+        <v xml:space="preserve">Historical/Mythological Significance (must read these stories) --&gt; Birthplace of Lord Krishna
 </v>
       </c>
       <c r="BX5" s="5" t="str">
         <f t="shared" si="30"/>
-        <v xml:space="preserve">Mudra --&gt; Hakini Mudra
+        <v xml:space="preserve">Mudra (learn and often sit in this mudra) --&gt; Hakini Mudra
 </v>
       </c>
       <c r="BY5" s="5" t="str">
         <f t="shared" si="31"/>
-        <v xml:space="preserve">Food/Dietary Recommendation --&gt; Light and wholesome food, milk and dairy products
+        <v xml:space="preserve">Food/Dietary Recommendation (should intake) --&gt; Light and wholesome food, milk and dairy products
 </v>
       </c>
       <c r="BZ5" s="5" t="str">
         <f t="shared" si="32"/>
-        <v xml:space="preserve">Yoga Posture/Asana --&gt; Balasana, Matsyasana, Viparita Karani
+        <v xml:space="preserve">Yoga Posture/Asana (should do these yogas) --&gt; Balasana, Matsyasana, Viparita Karani
 </v>
       </c>
       <c r="CA5" s="5" t="str">
@@ -5824,32 +5896,32 @@
       </c>
       <c r="CB5" s="5" t="str">
         <f t="shared" si="34"/>
-        <v xml:space="preserve">Hindu Festivals/Holidays --&gt; Raksha Bandhan
+        <v xml:space="preserve">Hindu Festivals/Holidays (do sadhna on these festivals) --&gt; Raksha Bandhan
 </v>
       </c>
       <c r="CC5" s="5" t="str">
         <f t="shared" si="35"/>
-        <v xml:space="preserve">Chakra/Energy Center --&gt; Anahata
+        <v xml:space="preserve">Chakra/Energy Center (do puja, meditation for this chakra) --&gt; Anahata
 </v>
       </c>
       <c r="CD5" s="5" t="str">
         <f t="shared" si="36"/>
-        <v xml:space="preserve">Yantra/Sacred Geometry --&gt; Vastu Yantra
+        <v xml:space="preserve">Yantra/Sacred Geometry (can keep this yantra in puja sthal) --&gt; Vastu Yantra
 </v>
       </c>
       <c r="CE5" s="5" t="str">
         <f t="shared" si="37"/>
-        <v xml:space="preserve">Spiritual Practice/Sadhana --&gt; Meditation and pranayama
+        <v xml:space="preserve">Spiritual Practice/Sadhana (must observe daily) --&gt; Meditation and pranayama
 </v>
       </c>
       <c r="CF5" s="5" t="str">
         <f t="shared" si="38"/>
-        <v xml:space="preserve">Metal/Mineral --&gt; Pearl
+        <v xml:space="preserve">Metal/Mineral (natural affliliation) --&gt; Pearl
 </v>
       </c>
       <c r="CG5" s="5" t="str">
         <f t="shared" si="39"/>
-        <v xml:space="preserve">Aromatherapy/Essential Oils --&gt; Rose, jasmine, lavender
+        <v xml:space="preserve">Aromatherapy/Essential Oils (should apply these) --&gt; Rose, jasmine, lavender
 </v>
       </c>
       <c r="CH5" s="5" t="str">
@@ -5859,17 +5931,17 @@
       </c>
       <c r="CI5" s="5" t="str">
         <f t="shared" si="41"/>
-        <v xml:space="preserve">Mythological Story/Legend --&gt; Rohini, the beloved of the moon
+        <v xml:space="preserve">Mythological Story/Legend (must read these stories) --&gt; Rohini, the beloved of the moon
 </v>
       </c>
       <c r="CJ5" s="5" t="str">
         <f t="shared" si="42"/>
-        <v xml:space="preserve">Sound/Mantra --&gt; Om Hrim
+        <v xml:space="preserve">Sound/Mantra (must chant this mantra) --&gt; Om Hrim
 </v>
       </c>
       <c r="CK5" s="5" t="str">
         <f t="shared" si="43"/>
-        <v xml:space="preserve">Flower --&gt; Wild Rose
+        <v xml:space="preserve">Flower (keep these nearby) --&gt; Wild Rose
 </v>
       </c>
       <c r="CL5" s="5" t="str">
@@ -5889,7 +5961,7 @@
       </c>
       <c r="CO5" s="5" t="str">
         <f t="shared" si="47"/>
-        <v xml:space="preserve">Dosha Element --&gt; Kapha
+        <v xml:space="preserve">Dosha Element (must keep the element in check, learn more from ayurveda) --&gt; Kapha
 </v>
       </c>
     </row>
@@ -6034,22 +6106,22 @@
       </c>
       <c r="AU6" s="5" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">Nakshatra --&gt; Mrigashirsha
-Ruling Deity --&gt; Soma
-Symbol --&gt; Deer Head
+        <v xml:space="preserve">Nakshatra (Moon Nakshatra) --&gt; Mrigashirsha
+Ruling Deity (Main deity) --&gt; Soma
+Symbol (can keep symbol/painting of same in bedroom or desktop) --&gt; Deer Head
 Animal --&gt; Male Deer
 Nature --&gt; Rajas
 Gender --&gt; Male
 Dosha --&gt; Kapha
 Guna --&gt; Rajas
-Purpose --&gt; Creativity
-Tree --&gt; Arjuna
-Gemstone --&gt; Coral
+Purpose (one should strive for) --&gt; Creativity
+Tree (offer reverance or have it in house if possible) --&gt; Arjuna
+Gemstone (natural gemstone) --&gt; Coral
 Yoga --&gt; Vyatipata
 Plant/Flower --&gt; Arjuna
-Color --&gt; Green
-Planet --&gt; Mars
-Mantra --&gt; Om Somaya Namaha
+Color (natural effinity) --&gt; Green
+Planet (ruling planet) --&gt; Mars
+Mantra (one must chant daily) --&gt; Om Somaya Namaha
 Body Temperament --&gt; Airy
 Career/Profession --&gt; Writers, Poets, Scholars
 Compatibility --&gt; Ashwini, Bharani, Krittika, Rohini, Ardra, Punarvasu
@@ -6058,47 +6130,47 @@
 Lucky Directions --&gt; West
 Auspicious Activities --&gt; Travel, buying property, starting new ventures
 Inauspicious Activities --&gt; Disputes, arguments, theft
-Health Issues --&gt; Respiratory issues, fever
+Health Issues (should take care) --&gt; Respiratory issues, fever
 Prayers or Rituals --&gt; Worship Lord Chandra
-Historical/Mythological Significance --&gt; Birthplace of Soma, the moon god
-Mudra --&gt; Shunya Mudra
-Food/Dietary Recommendation --&gt; Light and fresh food, fruits and salads
-Yoga Posture/Asana --&gt; Bhujangasana, Makarasana, Pavanamuktasana
+Historical/Mythological Significance (must read these stories) --&gt; Birthplace of Soma, the moon god
+Mudra (learn and often sit in this mudra) --&gt; Shunya Mudra
+Food/Dietary Recommendation (should intake) --&gt; Light and fresh food, fruits and salads
+Yoga Posture/Asana (should do these yogas) --&gt; Bhujangasana, Makarasana, Pavanamuktasana
 Tarot Card/Divination Symbol --&gt; The Lovers
-Hindu Festivals/Holidays --&gt; Diwali
-Chakra/Energy Center --&gt; Vishuddha
-Yantra/Sacred Geometry --&gt; Meru Yantra
-Spiritual Practice/Sadhana --&gt; Chanting mantras and meditation
-Metal/Mineral --&gt; Topaz
-Aromatherapy/Essential Oils --&gt; Peppermint, lavender, chamomile
+Hindu Festivals/Holidays (do sadhna on these festivals) --&gt; Diwali
+Chakra/Energy Center (do puja, meditation for this chakra) --&gt; Vishuddha
+Yantra/Sacred Geometry (can keep this yantra in puja sthal) --&gt; Meru Yantra
+Spiritual Practice/Sadhana (must observe daily) --&gt; Chanting mantras and meditation
+Metal/Mineral (natural affliliation) --&gt; Topaz
+Aromatherapy/Essential Oils (should apply these) --&gt; Peppermint, lavender, chamomile
 Personality Traits/Characteristics --&gt; Curious, playful, flirtatious
-Mythological Story/Legend --&gt; Soma, the god of the moon
-Sound/Mantra --&gt; Om Sham
-Flower --&gt; Jasmine
+Mythological Story/Legend (must read these stories) --&gt; Soma, the god of the moon
+Sound/Mantra (must chant this mantra) --&gt; Om Sham
+Flower (keep these nearby) --&gt; Jasmine
 Prana --&gt; Prana Vayu
 Varna --&gt; Vaishya
 Taste --&gt; Sweet
-Dosha Element --&gt; Vata
+Dosha Element (must keep the element in check, learn more from ayurveda) --&gt; Vata
 </v>
       </c>
       <c r="AV6" s="5" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">Nakshatra --&gt; Mrigashirsha
-Ruling Deity --&gt; Soma
-Symbol --&gt; Deer Head
+        <v xml:space="preserve">Nakshatra (Moon Nakshatra) --&gt; Mrigashirsha
+Ruling Deity (Main deity) --&gt; Soma
+Symbol (can keep symbol/painting of same in bedroom or desktop) --&gt; Deer Head
 Animal --&gt; Male Deer
 Nature --&gt; Rajas
 Gender --&gt; Male
 Dosha --&gt; Kapha
 Guna --&gt; Rajas
-Purpose --&gt; Creativity
-Tree --&gt; Arjuna
-Gemstone --&gt; Coral
+Purpose (one should strive for) --&gt; Creativity
+Tree (offer reverance or have it in house if possible) --&gt; Arjuna
+Gemstone (natural gemstone) --&gt; Coral
 Yoga --&gt; Vyatipata
 Plant/Flower --&gt; Arjuna
-Color --&gt; Green
-Planet --&gt; Mars
-Mantra --&gt; Om Somaya Namaha
+Color (natural effinity) --&gt; Green
+Planet (ruling planet) --&gt; Mars
+Mantra (one must chant daily) --&gt; Om Somaya Namaha
 Body Temperament --&gt; Airy
 Career/Profession --&gt; Writers, Poets, Scholars
 Compatibility --&gt; Ashwini, Bharani, Krittika, Rohini, Ardra, Punarvasu
@@ -6107,42 +6179,42 @@
 Lucky Directions --&gt; West
 Auspicious Activities --&gt; Travel, buying property, starting new ventures
 Inauspicious Activities --&gt; Disputes, arguments, theft
-Health Issues --&gt; Respiratory issues, fever
+Health Issues (should take care) --&gt; Respiratory issues, fever
 Prayers or Rituals --&gt; Worship Lord Chandra
-Historical/Mythological Significance --&gt; Birthplace of Soma, the moon god
-Mudra --&gt; Shunya Mudra
-Food/Dietary Recommendation --&gt; Light and fresh food, fruits and salads
-Yoga Posture/Asana --&gt; Bhujangasana, Makarasana, Pavanamuktasana
+Historical/Mythological Significance (must read these stories) --&gt; Birthplace of Soma, the moon god
+Mudra (learn and often sit in this mudra) --&gt; Shunya Mudra
+Food/Dietary Recommendation (should intake) --&gt; Light and fresh food, fruits and salads
+Yoga Posture/Asana (should do these yogas) --&gt; Bhujangasana, Makarasana, Pavanamuktasana
 Tarot Card/Divination Symbol --&gt; The Lovers
-Hindu Festivals/Holidays --&gt; Diwali
-Chakra/Energy Center --&gt; Vishuddha
-Yantra/Sacred Geometry --&gt; Meru Yantra
-Spiritual Practice/Sadhana --&gt; Chanting mantras and meditation
-Metal/Mineral --&gt; Topaz
-Aromatherapy/Essential Oils --&gt; Peppermint, lavender, chamomile
+Hindu Festivals/Holidays (do sadhna on these festivals) --&gt; Diwali
+Chakra/Energy Center (do puja, meditation for this chakra) --&gt; Vishuddha
+Yantra/Sacred Geometry (can keep this yantra in puja sthal) --&gt; Meru Yantra
+Spiritual Practice/Sadhana (must observe daily) --&gt; Chanting mantras and meditation
+Metal/Mineral (natural affliliation) --&gt; Topaz
+Aromatherapy/Essential Oils (should apply these) --&gt; Peppermint, lavender, chamomile
 Personality Traits/Characteristics --&gt; Curious, playful, flirtatious
-Mythological Story/Legend --&gt; Soma, the god of the moon
-Sound/Mantra --&gt; Om Sham
-Flower --&gt; Jasmine
+Mythological Story/Legend (must read these stories) --&gt; Soma, the god of the moon
+Sound/Mantra (must chant this mantra) --&gt; Om Sham
+Flower (keep these nearby) --&gt; Jasmine
 Prana --&gt; Prana Vayu
 Varna --&gt; Vaishya
 Taste --&gt; Sweet
-Dosha Element --&gt; Vata
+Dosha Element (must keep the element in check, learn more from ayurveda) --&gt; Vata
 </v>
       </c>
       <c r="AW6" s="5" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">Nakshatra --&gt; Mrigashirsha
+        <v xml:space="preserve">Nakshatra (Moon Nakshatra) --&gt; Mrigashirsha
 </v>
       </c>
       <c r="AX6" s="5" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">Ruling Deity --&gt; Soma
+        <v xml:space="preserve">Ruling Deity (Main deity) --&gt; Soma
 </v>
       </c>
       <c r="AY6" s="5" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">Symbol --&gt; Deer Head
+        <v xml:space="preserve">Symbol (can keep symbol/painting of same in bedroom or desktop) --&gt; Deer Head
 </v>
       </c>
       <c r="AZ6" s="5" t="str">
@@ -6172,17 +6244,17 @@
       </c>
       <c r="BE6" s="5" t="str">
         <f t="shared" si="11"/>
-        <v xml:space="preserve">Purpose --&gt; Creativity
+        <v xml:space="preserve">Purpose (one should strive for) --&gt; Creativity
 </v>
       </c>
       <c r="BF6" s="5" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">Tree --&gt; Arjuna
+        <v xml:space="preserve">Tree (offer reverance or have it in house if possible) --&gt; Arjuna
 </v>
       </c>
       <c r="BG6" s="5" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">Gemstone --&gt; Coral
+        <v xml:space="preserve">Gemstone (natural gemstone) --&gt; Coral
 </v>
       </c>
       <c r="BH6" s="5" t="str">
@@ -6197,17 +6269,17 @@
       </c>
       <c r="BJ6" s="5" t="str">
         <f t="shared" si="16"/>
-        <v xml:space="preserve">Color --&gt; Green
+        <v xml:space="preserve">Color (natural effinity) --&gt; Green
 </v>
       </c>
       <c r="BK6" s="5" t="str">
         <f t="shared" si="17"/>
-        <v xml:space="preserve">Planet --&gt; Mars
+        <v xml:space="preserve">Planet (ruling planet) --&gt; Mars
 </v>
       </c>
       <c r="BL6" s="5" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">Mantra --&gt; Om Somaya Namaha
+        <v xml:space="preserve">Mantra (one must chant daily) --&gt; Om Somaya Namaha
 </v>
       </c>
       <c r="BM6" s="5" t="str">
@@ -6252,7 +6324,7 @@
       </c>
       <c r="BU6" s="5" t="str">
         <f t="shared" si="27"/>
-        <v xml:space="preserve">Health Issues --&gt; Respiratory issues, fever
+        <v xml:space="preserve">Health Issues (should take care) --&gt; Respiratory issues, fever
 </v>
       </c>
       <c r="BV6" s="5" t="str">
@@ -6262,22 +6334,22 @@
       </c>
       <c r="BW6" s="5" t="str">
         <f t="shared" si="29"/>
-        <v xml:space="preserve">Historical/Mythological Significance --&gt; Birthplace of Soma, the moon god
+        <v xml:space="preserve">Historical/Mythological Significance (must read these stories) --&gt; Birthplace of Soma, the moon god
 </v>
       </c>
       <c r="BX6" s="5" t="str">
         <f t="shared" si="30"/>
-        <v xml:space="preserve">Mudra --&gt; Shunya Mudra
+        <v xml:space="preserve">Mudra (learn and often sit in this mudra) --&gt; Shunya Mudra
 </v>
       </c>
       <c r="BY6" s="5" t="str">
         <f t="shared" si="31"/>
-        <v xml:space="preserve">Food/Dietary Recommendation --&gt; Light and fresh food, fruits and salads
+        <v xml:space="preserve">Food/Dietary Recommendation (should intake) --&gt; Light and fresh food, fruits and salads
 </v>
       </c>
       <c r="BZ6" s="5" t="str">
         <f t="shared" si="32"/>
-        <v xml:space="preserve">Yoga Posture/Asana --&gt; Bhujangasana, Makarasana, Pavanamuktasana
+        <v xml:space="preserve">Yoga Posture/Asana (should do these yogas) --&gt; Bhujangasana, Makarasana, Pavanamuktasana
 </v>
       </c>
       <c r="CA6" s="5" t="str">
@@ -6287,32 +6359,32 @@
       </c>
       <c r="CB6" s="5" t="str">
         <f t="shared" si="34"/>
-        <v xml:space="preserve">Hindu Festivals/Holidays --&gt; Diwali
+        <v xml:space="preserve">Hindu Festivals/Holidays (do sadhna on these festivals) --&gt; Diwali
 </v>
       </c>
       <c r="CC6" s="5" t="str">
         <f t="shared" si="35"/>
-        <v xml:space="preserve">Chakra/Energy Center --&gt; Vishuddha
+        <v xml:space="preserve">Chakra/Energy Center (do puja, meditation for this chakra) --&gt; Vishuddha
 </v>
       </c>
       <c r="CD6" s="5" t="str">
         <f t="shared" si="36"/>
-        <v xml:space="preserve">Yantra/Sacred Geometry --&gt; Meru Yantra
+        <v xml:space="preserve">Yantra/Sacred Geometry (can keep this yantra in puja sthal) --&gt; Meru Yantra
 </v>
       </c>
       <c r="CE6" s="5" t="str">
         <f t="shared" si="37"/>
-        <v xml:space="preserve">Spiritual Practice/Sadhana --&gt; Chanting mantras and meditation
+        <v xml:space="preserve">Spiritual Practice/Sadhana (must observe daily) --&gt; Chanting mantras and meditation
 </v>
       </c>
       <c r="CF6" s="5" t="str">
         <f t="shared" si="38"/>
-        <v xml:space="preserve">Metal/Mineral --&gt; Topaz
+        <v xml:space="preserve">Metal/Mineral (natural affliliation) --&gt; Topaz
 </v>
       </c>
       <c r="CG6" s="5" t="str">
         <f t="shared" si="39"/>
-        <v xml:space="preserve">Aromatherapy/Essential Oils --&gt; Peppermint, lavender, chamomile
+        <v xml:space="preserve">Aromatherapy/Essential Oils (should apply these) --&gt; Peppermint, lavender, chamomile
 </v>
       </c>
       <c r="CH6" s="5" t="str">
@@ -6322,17 +6394,17 @@
       </c>
       <c r="CI6" s="5" t="str">
         <f t="shared" si="41"/>
-        <v xml:space="preserve">Mythological Story/Legend --&gt; Soma, the god of the moon
+        <v xml:space="preserve">Mythological Story/Legend (must read these stories) --&gt; Soma, the god of the moon
 </v>
       </c>
       <c r="CJ6" s="5" t="str">
         <f t="shared" si="42"/>
-        <v xml:space="preserve">Sound/Mantra --&gt; Om Sham
+        <v xml:space="preserve">Sound/Mantra (must chant this mantra) --&gt; Om Sham
 </v>
       </c>
       <c r="CK6" s="5" t="str">
         <f t="shared" si="43"/>
-        <v xml:space="preserve">Flower --&gt; Jasmine
+        <v xml:space="preserve">Flower (keep these nearby) --&gt; Jasmine
 </v>
       </c>
       <c r="CL6" s="5" t="str">
@@ -6352,7 +6424,7 @@
       </c>
       <c r="CO6" s="5" t="str">
         <f t="shared" si="47"/>
-        <v xml:space="preserve">Dosha Element --&gt; Vata
+        <v xml:space="preserve">Dosha Element (must keep the element in check, learn more from ayurveda) --&gt; Vata
 </v>
       </c>
     </row>
@@ -6497,22 +6569,22 @@
       </c>
       <c r="AU7" s="5" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">Nakshatra --&gt; Ardra
-Ruling Deity --&gt; Rudra
-Symbol --&gt; Teardrop or Gem
+        <v xml:space="preserve">Nakshatra (Moon Nakshatra) --&gt; Ardra
+Ruling Deity (Main deity) --&gt; Rudra
+Symbol (can keep symbol/painting of same in bedroom or desktop) --&gt; Teardrop or Gem
 Animal --&gt; Female Dog
 Nature --&gt; Tamas
 Gender --&gt; Female
 Dosha --&gt; Vata
 Guna --&gt; Tamas
-Purpose --&gt; Transformation
-Tree --&gt; Rudraksha
-Gemstone --&gt; Cat's Eye
+Purpose (one should strive for) --&gt; Transformation
+Tree (offer reverance or have it in house if possible) --&gt; Rudraksha
+Gemstone (natural gemstone) --&gt; Cat's Eye
 Yoga --&gt; Variyan
 Plant/Flower --&gt; Rudraksha
-Color --&gt; Grey
-Planet --&gt; Rahu
-Mantra --&gt; Om Rudraya Namaha
+Color (natural effinity) --&gt; Grey
+Planet (ruling planet) --&gt; Rahu
+Mantra (one must chant daily) --&gt; Om Rudraya Namaha
 Body Temperament --&gt; Airy
 Career/Profession --&gt; Scientists, Researchers, Inventors
 Compatibility --&gt; Mrigashirsha, Punarvasu, Pushya, Ashlesha, Magha
@@ -6521,47 +6593,47 @@
 Lucky Directions --&gt; North
 Auspicious Activities --&gt; Spiritual practices, seeking knowledge, starting new ventures
 Inauspicious Activities --&gt; Arguments, conflicts, injury
-Health Issues --&gt; Asthma, breathing difficulties
+Health Issues (should take care) --&gt; Asthma, breathing difficulties
 Prayers or Rituals --&gt; Worship Lord Shiva
-Historical/Mythological Significance --&gt; Birthplace of Rudra, fierce form of Lord Shiva
-Mudra --&gt; Prana Mudra
-Food/Dietary Recommendation --&gt; Cooling and hydrating foods, watery fruits and vegetables
-Yoga Posture/Asana --&gt; Utkatasana, Natarajasana, Garudasana
+Historical/Mythological Significance (must read these stories) --&gt; Birthplace of Rudra, fierce form of Lord Shiva
+Mudra (learn and often sit in this mudra) --&gt; Prana Mudra
+Food/Dietary Recommendation (should intake) --&gt; Cooling and hydrating foods, watery fruits and vegetables
+Yoga Posture/Asana (should do these yogas) --&gt; Utkatasana, Natarajasana, Garudasana
 Tarot Card/Divination Symbol --&gt; The Tower
-Hindu Festivals/Holidays --&gt; Shiva Ratri
-Chakra/Energy Center --&gt; Vishuddha
-Yantra/Sacred Geometry --&gt; Rudra Yantra
-Spiritual Practice/Sadhana --&gt; Meditation and surrendering to the divine
-Metal/Mineral --&gt; Rahu's gemstone - Hessonite Garnet
-Aromatherapy/Essential Oils --&gt; Eucalyptus, Peppermint, Lemon
+Hindu Festivals/Holidays (do sadhna on these festivals) --&gt; Shiva Ratri
+Chakra/Energy Center (do puja, meditation for this chakra) --&gt; Vishuddha
+Yantra/Sacred Geometry (can keep this yantra in puja sthal) --&gt; Rudra Yantra
+Spiritual Practice/Sadhana (must observe daily) --&gt; Meditation and surrendering to the divine
+Metal/Mineral (natural affliliation) --&gt; Rahu's gemstone - Hessonite Garnet
+Aromatherapy/Essential Oils (should apply these) --&gt; Eucalyptus, Peppermint, Lemon
 Personality Traits/Characteristics --&gt; Restless, emotional, intense
-Mythological Story/Legend --&gt; Rudra, the fierce form of Lord Shiva
-Sound/Mantra --&gt; Om Aim
-Flower --&gt; Blue Lotus
+Mythological Story/Legend (must read these stories) --&gt; Rudra, the fierce form of Lord Shiva
+Sound/Mantra (must chant this mantra) --&gt; Om Aim
+Flower (keep these nearby) --&gt; Blue Lotus
 Prana --&gt; Prana Vayu
 Varna --&gt; Sudra
 Taste --&gt; Astringent
-Dosha Element --&gt; Vata
+Dosha Element (must keep the element in check, learn more from ayurveda) --&gt; Vata
 </v>
       </c>
       <c r="AV7" s="5" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">Nakshatra --&gt; Ardra
-Ruling Deity --&gt; Rudra
-Symbol --&gt; Teardrop or Gem
+        <v xml:space="preserve">Nakshatra (Moon Nakshatra) --&gt; Ardra
+Ruling Deity (Main deity) --&gt; Rudra
+Symbol (can keep symbol/painting of same in bedroom or desktop) --&gt; Teardrop or Gem
 Animal --&gt; Female Dog
 Nature --&gt; Tamas
 Gender --&gt; Female
 Dosha --&gt; Vata
 Guna --&gt; Tamas
-Purpose --&gt; Transformation
-Tree --&gt; Rudraksha
-Gemstone --&gt; Cat's Eye
+Purpose (one should strive for) --&gt; Transformation
+Tree (offer reverance or have it in house if possible) --&gt; Rudraksha
+Gemstone (natural gemstone) --&gt; Cat's Eye
 Yoga --&gt; Variyan
 Plant/Flower --&gt; Rudraksha
-Color --&gt; Grey
-Planet --&gt; Rahu
-Mantra --&gt; Om Rudraya Namaha
+Color (natural effinity) --&gt; Grey
+Planet (ruling planet) --&gt; Rahu
+Mantra (one must chant daily) --&gt; Om Rudraya Namaha
 Body Temperament --&gt; Airy
 Career/Profession --&gt; Scientists, Researchers, Inventors
 Compatibility --&gt; Mrigashirsha, Punarvasu, Pushya, Ashlesha, Magha
@@ -6570,42 +6642,42 @@
 Lucky Directions --&gt; North
 Auspicious Activities --&gt; Spiritual practices, seeking knowledge, starting new ventures
 Inauspicious Activities --&gt; Arguments, conflicts, injury
-Health Issues --&gt; Asthma, breathing difficulties
+Health Issues (should take care) --&gt; Asthma, breathing difficulties
 Prayers or Rituals --&gt; Worship Lord Shiva
-Historical/Mythological Significance --&gt; Birthplace of Rudra, fierce form of Lord Shiva
-Mudra --&gt; Prana Mudra
-Food/Dietary Recommendation --&gt; Cooling and hydrating foods, watery fruits and vegetables
-Yoga Posture/Asana --&gt; Utkatasana, Natarajasana, Garudasana
+Historical/Mythological Significance (must read these stories) --&gt; Birthplace of Rudra, fierce form of Lord Shiva
+Mudra (learn and often sit in this mudra) --&gt; Prana Mudra
+Food/Dietary Recommendation (should intake) --&gt; Cooling and hydrating foods, watery fruits and vegetables
+Yoga Posture/Asana (should do these yogas) --&gt; Utkatasana, Natarajasana, Garudasana
 Tarot Card/Divination Symbol --&gt; The Tower
-Hindu Festivals/Holidays --&gt; Shiva Ratri
-Chakra/Energy Center --&gt; Vishuddha
-Yantra/Sacred Geometry --&gt; Rudra Yantra
-Spiritual Practice/Sadhana --&gt; Meditation and surrendering to the divine
-Metal/Mineral --&gt; Rahu's gemstone - Hessonite Garnet
-Aromatherapy/Essential Oils --&gt; Eucalyptus, Peppermint, Lemon
+Hindu Festivals/Holidays (do sadhna on these festivals) --&gt; Shiva Ratri
+Chakra/Energy Center (do puja, meditation for this chakra) --&gt; Vishuddha
+Yantra/Sacred Geometry (can keep this yantra in puja sthal) --&gt; Rudra Yantra
+Spiritual Practice/Sadhana (must observe daily) --&gt; Meditation and surrendering to the divine
+Metal/Mineral (natural affliliation) --&gt; Rahu's gemstone - Hessonite Garnet
+Aromatherapy/Essential Oils (should apply these) --&gt; Eucalyptus, Peppermint, Lemon
 Personality Traits/Characteristics --&gt; Restless, emotional, intense
-Mythological Story/Legend --&gt; Rudra, the fierce form of Lord Shiva
-Sound/Mantra --&gt; Om Aim
-Flower --&gt; Blue Lotus
+Mythological Story/Legend (must read these stories) --&gt; Rudra, the fierce form of Lord Shiva
+Sound/Mantra (must chant this mantra) --&gt; Om Aim
+Flower (keep these nearby) --&gt; Blue Lotus
 Prana --&gt; Prana Vayu
 Varna --&gt; Sudra
 Taste --&gt; Astringent
-Dosha Element --&gt; Vata
+Dosha Element (must keep the element in check, learn more from ayurveda) --&gt; Vata
 </v>
       </c>
       <c r="AW7" s="5" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">Nakshatra --&gt; Ardra
+        <v xml:space="preserve">Nakshatra (Moon Nakshatra) --&gt; Ardra
 </v>
       </c>
       <c r="AX7" s="5" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">Ruling Deity --&gt; Rudra
+        <v xml:space="preserve">Ruling Deity (Main deity) --&gt; Rudra
 </v>
       </c>
       <c r="AY7" s="5" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">Symbol --&gt; Teardrop or Gem
+        <v xml:space="preserve">Symbol (can keep symbol/painting of same in bedroom or desktop) --&gt; Teardrop or Gem
 </v>
       </c>
       <c r="AZ7" s="5" t="str">
@@ -6635,17 +6707,17 @@
       </c>
       <c r="BE7" s="5" t="str">
         <f t="shared" si="11"/>
-        <v xml:space="preserve">Purpose --&gt; Transformation
+        <v xml:space="preserve">Purpose (one should strive for) --&gt; Transformation
 </v>
       </c>
       <c r="BF7" s="5" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">Tree --&gt; Rudraksha
+        <v xml:space="preserve">Tree (offer reverance or have it in house if possible) --&gt; Rudraksha
 </v>
       </c>
       <c r="BG7" s="5" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">Gemstone --&gt; Cat's Eye
+        <v xml:space="preserve">Gemstone (natural gemstone) --&gt; Cat's Eye
 </v>
       </c>
       <c r="BH7" s="5" t="str">
@@ -6660,17 +6732,17 @@
       </c>
       <c r="BJ7" s="5" t="str">
         <f t="shared" si="16"/>
-        <v xml:space="preserve">Color --&gt; Grey
+        <v xml:space="preserve">Color (natural effinity) --&gt; Grey
 </v>
       </c>
       <c r="BK7" s="5" t="str">
         <f t="shared" si="17"/>
-        <v xml:space="preserve">Planet --&gt; Rahu
+        <v xml:space="preserve">Planet (ruling planet) --&gt; Rahu
 </v>
       </c>
       <c r="BL7" s="5" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">Mantra --&gt; Om Rudraya Namaha
+        <v xml:space="preserve">Mantra (one must chant daily) --&gt; Om Rudraya Namaha
 </v>
       </c>
       <c r="BM7" s="5" t="str">
@@ -6715,7 +6787,7 @@
       </c>
       <c r="BU7" s="5" t="str">
         <f t="shared" si="27"/>
-        <v xml:space="preserve">Health Issues --&gt; Asthma, breathing difficulties
+        <v xml:space="preserve">Health Issues (should take care) --&gt; Asthma, breathing difficulties
 </v>
       </c>
       <c r="BV7" s="5" t="str">
@@ -6725,22 +6797,22 @@
       </c>
       <c r="BW7" s="5" t="str">
         <f t="shared" si="29"/>
-        <v xml:space="preserve">Historical/Mythological Significance --&gt; Birthplace of Rudra, fierce form of Lord Shiva
+        <v xml:space="preserve">Historical/Mythological Significance (must read these stories) --&gt; Birthplace of Rudra, fierce form of Lord Shiva
 </v>
       </c>
       <c r="BX7" s="5" t="str">
         <f t="shared" si="30"/>
-        <v xml:space="preserve">Mudra --&gt; Prana Mudra
+        <v xml:space="preserve">Mudra (learn and often sit in this mudra) --&gt; Prana Mudra
 </v>
       </c>
       <c r="BY7" s="5" t="str">
         <f t="shared" si="31"/>
-        <v xml:space="preserve">Food/Dietary Recommendation --&gt; Cooling and hydrating foods, watery fruits and vegetables
+        <v xml:space="preserve">Food/Dietary Recommendation (should intake) --&gt; Cooling and hydrating foods, watery fruits and vegetables
 </v>
       </c>
       <c r="BZ7" s="5" t="str">
         <f t="shared" si="32"/>
-        <v xml:space="preserve">Yoga Posture/Asana --&gt; Utkatasana, Natarajasana, Garudasana
+        <v xml:space="preserve">Yoga Posture/Asana (should do these yogas) --&gt; Utkatasana, Natarajasana, Garudasana
 </v>
       </c>
       <c r="CA7" s="5" t="str">
@@ -6750,32 +6822,32 @@
       </c>
       <c r="CB7" s="5" t="str">
         <f t="shared" si="34"/>
-        <v xml:space="preserve">Hindu Festivals/Holidays --&gt; Shiva Ratri
+        <v xml:space="preserve">Hindu Festivals/Holidays (do sadhna on these festivals) --&gt; Shiva Ratri
 </v>
       </c>
       <c r="CC7" s="5" t="str">
         <f t="shared" si="35"/>
-        <v xml:space="preserve">Chakra/Energy Center --&gt; Vishuddha
+        <v xml:space="preserve">Chakra/Energy Center (do puja, meditation for this chakra) --&gt; Vishuddha
 </v>
       </c>
       <c r="CD7" s="5" t="str">
         <f t="shared" si="36"/>
-        <v xml:space="preserve">Yantra/Sacred Geometry --&gt; Rudra Yantra
+        <v xml:space="preserve">Yantra/Sacred Geometry (can keep this yantra in puja sthal) --&gt; Rudra Yantra
 </v>
       </c>
       <c r="CE7" s="5" t="str">
         <f t="shared" si="37"/>
-        <v xml:space="preserve">Spiritual Practice/Sadhana --&gt; Meditation and surrendering to the divine
+        <v xml:space="preserve">Spiritual Practice/Sadhana (must observe daily) --&gt; Meditation and surrendering to the divine
 </v>
       </c>
       <c r="CF7" s="5" t="str">
         <f t="shared" si="38"/>
-        <v xml:space="preserve">Metal/Mineral --&gt; Rahu's gemstone - Hessonite Garnet
+        <v xml:space="preserve">Metal/Mineral (natural affliliation) --&gt; Rahu's gemstone - Hessonite Garnet
 </v>
       </c>
       <c r="CG7" s="5" t="str">
         <f t="shared" si="39"/>
-        <v xml:space="preserve">Aromatherapy/Essential Oils --&gt; Eucalyptus, Peppermint, Lemon
+        <v xml:space="preserve">Aromatherapy/Essential Oils (should apply these) --&gt; Eucalyptus, Peppermint, Lemon
 </v>
       </c>
       <c r="CH7" s="5" t="str">
@@ -6785,17 +6857,17 @@
       </c>
       <c r="CI7" s="5" t="str">
         <f t="shared" si="41"/>
-        <v xml:space="preserve">Mythological Story/Legend --&gt; Rudra, the fierce form of Lord Shiva
+        <v xml:space="preserve">Mythological Story/Legend (must read these stories) --&gt; Rudra, the fierce form of Lord Shiva
 </v>
       </c>
       <c r="CJ7" s="5" t="str">
         <f t="shared" si="42"/>
-        <v xml:space="preserve">Sound/Mantra --&gt; Om Aim
+        <v xml:space="preserve">Sound/Mantra (must chant this mantra) --&gt; Om Aim
 </v>
       </c>
       <c r="CK7" s="5" t="str">
         <f t="shared" si="43"/>
-        <v xml:space="preserve">Flower --&gt; Blue Lotus
+        <v xml:space="preserve">Flower (keep these nearby) --&gt; Blue Lotus
 </v>
       </c>
       <c r="CL7" s="5" t="str">
@@ -6815,7 +6887,7 @@
       </c>
       <c r="CO7" s="5" t="str">
         <f t="shared" si="47"/>
-        <v xml:space="preserve">Dosha Element --&gt; Vata
+        <v xml:space="preserve">Dosha Element (must keep the element in check, learn more from ayurveda) --&gt; Vata
 </v>
       </c>
     </row>
@@ -6960,22 +7032,22 @@
       </c>
       <c r="AU8" s="5" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">Nakshatra --&gt; Punarvasu
-Ruling Deity --&gt; Aditi
-Symbol --&gt; Bow and Quiver
+        <v xml:space="preserve">Nakshatra (Moon Nakshatra) --&gt; Punarvasu
+Ruling Deity (Main deity) --&gt; Aditi
+Symbol (can keep symbol/painting of same in bedroom or desktop) --&gt; Bow and Quiver
 Animal --&gt; Male Cat
 Nature --&gt; Sattva
 Gender --&gt; Male
 Dosha --&gt; Vata
 Guna --&gt; Sattva
-Purpose --&gt; Rejuvenation
-Tree --&gt; Ashvattha
-Gemstone --&gt; Diamond
+Purpose (one should strive for) --&gt; Rejuvenation
+Tree (offer reverance or have it in house if possible) --&gt; Ashvattha
+Gemstone (natural gemstone) --&gt; Diamond
 Yoga --&gt; Vishti
 Plant/Flower --&gt; Ashvattha
-Color --&gt; Red
-Planet --&gt; Jupiter
-Mantra --&gt; Om Adityaya Namaha
+Color (natural effinity) --&gt; Red
+Planet (ruling planet) --&gt; Jupiter
+Mantra (one must chant daily) --&gt; Om Adityaya Namaha
 Body Temperament --&gt; Watery
 Career/Profession --&gt; Teachers, Counselors, Psychologists
 Compatibility --&gt; Ashwini, Krittika, Mrigashirsha, Ardra, Pushya, Ashlesha
@@ -6984,47 +7056,47 @@
 Lucky Directions --&gt; East
 Auspicious Activities --&gt; Starting new ventures, marriage, spiritual practices
 Inauspicious Activities --&gt; Arguments, conflicts, legal issues
-Health Issues --&gt; Digestive issues, liver problems
+Health Issues (should take care) --&gt; Digestive issues, liver problems
 Prayers or Rituals --&gt; Worship Lord Jupiter
-Historical/Mythological Significance --&gt; Birthplace of Goddess Aditi
-Mudra --&gt; Ganesha Mudra
-Food/Dietary Recommendation --&gt; Light and easy to digest meals, fruits and vegetables
-Yoga Posture/Asana --&gt; Baddha Konasana, Matsyasana, Gomukhasana
+Historical/Mythological Significance (must read these stories) --&gt; Birthplace of Goddess Aditi
+Mudra (learn and often sit in this mudra) --&gt; Ganesha Mudra
+Food/Dietary Recommendation (should intake) --&gt; Light and easy to digest meals, fruits and vegetables
+Yoga Posture/Asana (should do these yogas) --&gt; Baddha Konasana, Matsyasana, Gomukhasana
 Tarot Card/Divination Symbol --&gt; The Lovers
-Hindu Festivals/Holidays --&gt; Diwali
-Chakra/Energy Center --&gt; Anahata
-Yantra/Sacred Geometry --&gt; Sri Yantra
-Spiritual Practice/Sadhana --&gt; Connecting with the divine through prayer and devotion
-Metal/Mineral --&gt; Gold
-Aromatherapy/Essential Oils --&gt; Lavender, Chamomile, Bergamot
+Hindu Festivals/Holidays (do sadhna on these festivals) --&gt; Diwali
+Chakra/Energy Center (do puja, meditation for this chakra) --&gt; Anahata
+Yantra/Sacred Geometry (can keep this yantra in puja sthal) --&gt; Sri Yantra
+Spiritual Practice/Sadhana (must observe daily) --&gt; Connecting with the divine through prayer and devotion
+Metal/Mineral (natural affliliation) --&gt; Gold
+Aromatherapy/Essential Oils (should apply these) --&gt; Lavender, Chamomile, Bergamot
 Personality Traits/Characteristics --&gt; Nurturing, sensitive, intuitive
-Mythological Story/Legend --&gt; The story of Lord Rama and his journey
-Sound/Mantra --&gt; Om Namo Narayanaya
-Flower --&gt; Yellow Lotus
+Mythological Story/Legend (must read these stories) --&gt; The story of Lord Rama and his journey
+Sound/Mantra (must chant this mantra) --&gt; Om Namo Narayanaya
+Flower (keep these nearby) --&gt; Yellow Lotus
 Prana --&gt; Vyana Vayu
 Varna --&gt; Brahmin
 Taste --&gt; Astringent, Bitter, Sweet
-Dosha Element --&gt; Kapha
+Dosha Element (must keep the element in check, learn more from ayurveda) --&gt; Kapha
 </v>
       </c>
       <c r="AV8" s="5" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">Nakshatra --&gt; Punarvasu
-Ruling Deity --&gt; Aditi
-Symbol --&gt; Bow and Quiver
+        <v xml:space="preserve">Nakshatra (Moon Nakshatra) --&gt; Punarvasu
+Ruling Deity (Main deity) --&gt; Aditi
+Symbol (can keep symbol/painting of same in bedroom or desktop) --&gt; Bow and Quiver
 Animal --&gt; Male Cat
 Nature --&gt; Sattva
 Gender --&gt; Male
 Dosha --&gt; Vata
 Guna --&gt; Sattva
-Purpose --&gt; Rejuvenation
-Tree --&gt; Ashvattha
-Gemstone --&gt; Diamond
+Purpose (one should strive for) --&gt; Rejuvenation
+Tree (offer reverance or have it in house if possible) --&gt; Ashvattha
+Gemstone (natural gemstone) --&gt; Diamond
 Yoga --&gt; Vishti
 Plant/Flower --&gt; Ashvattha
-Color --&gt; Red
-Planet --&gt; Jupiter
-Mantra --&gt; Om Adityaya Namaha
+Color (natural effinity) --&gt; Red
+Planet (ruling planet) --&gt; Jupiter
+Mantra (one must chant daily) --&gt; Om Adityaya Namaha
 Body Temperament --&gt; Watery
 Career/Profession --&gt; Teachers, Counselors, Psychologists
 Compatibility --&gt; Ashwini, Krittika, Mrigashirsha, Ardra, Pushya, Ashlesha
@@ -7033,42 +7105,42 @@
 Lucky Directions --&gt; East
 Auspicious Activities --&gt; Starting new ventures, marriage, spiritual practices
 Inauspicious Activities --&gt; Arguments, conflicts, legal issues
-Health Issues --&gt; Digestive issues, liver problems
+Health Issues (should take care) --&gt; Digestive issues, liver problems
 Prayers or Rituals --&gt; Worship Lord Jupiter
-Historical/Mythological Significance --&gt; Birthplace of Goddess Aditi
-Mudra --&gt; Ganesha Mudra
-Food/Dietary Recommendation --&gt; Light and easy to digest meals, fruits and vegetables
-Yoga Posture/Asana --&gt; Baddha Konasana, Matsyasana, Gomukhasana
+Historical/Mythological Significance (must read these stories) --&gt; Birthplace of Goddess Aditi
+Mudra (learn and often sit in this mudra) --&gt; Ganesha Mudra
+Food/Dietary Recommendation (should intake) --&gt; Light and easy to digest meals, fruits and vegetables
+Yoga Posture/Asana (should do these yogas) --&gt; Baddha Konasana, Matsyasana, Gomukhasana
 Tarot Card/Divination Symbol --&gt; The Lovers
-Hindu Festivals/Holidays --&gt; Diwali
-Chakra/Energy Center --&gt; Anahata
-Yantra/Sacred Geometry --&gt; Sri Yantra
-Spiritual Practice/Sadhana --&gt; Connecting with the divine through prayer and devotion
-Metal/Mineral --&gt; Gold
-Aromatherapy/Essential Oils --&gt; Lavender, Chamomile, Bergamot
+Hindu Festivals/Holidays (do sadhna on these festivals) --&gt; Diwali
+Chakra/Energy Center (do puja, meditation for this chakra) --&gt; Anahata
+Yantra/Sacred Geometry (can keep this yantra in puja sthal) --&gt; Sri Yantra
+Spiritual Practice/Sadhana (must observe daily) --&gt; Connecting with the divine through prayer and devotion
+Metal/Mineral (natural affliliation) --&gt; Gold
+Aromatherapy/Essential Oils (should apply these) --&gt; Lavender, Chamomile, Bergamot
 Personality Traits/Characteristics --&gt; Nurturing, sensitive, intuitive
-Mythological Story/Legend --&gt; The story of Lord Rama and his journey
-Sound/Mantra --&gt; Om Namo Narayanaya
-Flower --&gt; Yellow Lotus
+Mythological Story/Legend (must read these stories) --&gt; The story of Lord Rama and his journey
+Sound/Mantra (must chant this mantra) --&gt; Om Namo Narayanaya
+Flower (keep these nearby) --&gt; Yellow Lotus
 Prana --&gt; Vyana Vayu
 Varna --&gt; Brahmin
 Taste --&gt; Astringent, Bitter, Sweet
-Dosha Element --&gt; Kapha
+Dosha Element (must keep the element in check, learn more from ayurveda) --&gt; Kapha
 </v>
       </c>
       <c r="AW8" s="5" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">Nakshatra --&gt; Punarvasu
+        <v xml:space="preserve">Nakshatra (Moon Nakshatra) --&gt; Punarvasu
 </v>
       </c>
       <c r="AX8" s="5" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">Ruling Deity --&gt; Aditi
+        <v xml:space="preserve">Ruling Deity (Main deity) --&gt; Aditi
 </v>
       </c>
       <c r="AY8" s="5" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">Symbol --&gt; Bow and Quiver
+        <v xml:space="preserve">Symbol (can keep symbol/painting of same in bedroom or desktop) --&gt; Bow and Quiver
 </v>
       </c>
       <c r="AZ8" s="5" t="str">
@@ -7098,17 +7170,17 @@
       </c>
       <c r="BE8" s="5" t="str">
         <f t="shared" si="11"/>
-        <v xml:space="preserve">Purpose --&gt; Rejuvenation
+        <v xml:space="preserve">Purpose (one should strive for) --&gt; Rejuvenation
 </v>
       </c>
       <c r="BF8" s="5" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">Tree --&gt; Ashvattha
+        <v xml:space="preserve">Tree (offer reverance or have it in house if possible) --&gt; Ashvattha
 </v>
       </c>
       <c r="BG8" s="5" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">Gemstone --&gt; Diamond
+        <v xml:space="preserve">Gemstone (natural gemstone) --&gt; Diamond
 </v>
       </c>
       <c r="BH8" s="5" t="str">
@@ -7123,17 +7195,17 @@
       </c>
       <c r="BJ8" s="5" t="str">
         <f t="shared" si="16"/>
-        <v xml:space="preserve">Color --&gt; Red
+        <v xml:space="preserve">Color (natural effinity) --&gt; Red
 </v>
       </c>
       <c r="BK8" s="5" t="str">
         <f t="shared" si="17"/>
-        <v xml:space="preserve">Planet --&gt; Jupiter
+        <v xml:space="preserve">Planet (ruling planet) --&gt; Jupiter
 </v>
       </c>
       <c r="BL8" s="5" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">Mantra --&gt; Om Adityaya Namaha
+        <v xml:space="preserve">Mantra (one must chant daily) --&gt; Om Adityaya Namaha
 </v>
       </c>
       <c r="BM8" s="5" t="str">
@@ -7178,7 +7250,7 @@
       </c>
       <c r="BU8" s="5" t="str">
         <f t="shared" si="27"/>
-        <v xml:space="preserve">Health Issues --&gt; Digestive issues, liver problems
+        <v xml:space="preserve">Health Issues (should take care) --&gt; Digestive issues, liver problems
 </v>
       </c>
       <c r="BV8" s="5" t="str">
@@ -7188,22 +7260,22 @@
       </c>
       <c r="BW8" s="5" t="str">
         <f t="shared" si="29"/>
-        <v xml:space="preserve">Historical/Mythological Significance --&gt; Birthplace of Goddess Aditi
+        <v xml:space="preserve">Historical/Mythological Significance (must read these stories) --&gt; Birthplace of Goddess Aditi
 </v>
       </c>
       <c r="BX8" s="5" t="str">
         <f t="shared" si="30"/>
-        <v xml:space="preserve">Mudra --&gt; Ganesha Mudra
+        <v xml:space="preserve">Mudra (learn and often sit in this mudra) --&gt; Ganesha Mudra
 </v>
       </c>
       <c r="BY8" s="5" t="str">
         <f t="shared" si="31"/>
-        <v xml:space="preserve">Food/Dietary Recommendation --&gt; Light and easy to digest meals, fruits and vegetables
+        <v xml:space="preserve">Food/Dietary Recommendation (should intake) --&gt; Light and easy to digest meals, fruits and vegetables
 </v>
       </c>
       <c r="BZ8" s="5" t="str">
         <f t="shared" si="32"/>
-        <v xml:space="preserve">Yoga Posture/Asana --&gt; Baddha Konasana, Matsyasana, Gomukhasana
+        <v xml:space="preserve">Yoga Posture/Asana (should do these yogas) --&gt; Baddha Konasana, Matsyasana, Gomukhasana
 </v>
       </c>
       <c r="CA8" s="5" t="str">
@@ -7213,32 +7285,32 @@
       </c>
       <c r="CB8" s="5" t="str">
         <f t="shared" si="34"/>
-        <v xml:space="preserve">Hindu Festivals/Holidays --&gt; Diwali
+        <v xml:space="preserve">Hindu Festivals/Holidays (do sadhna on these festivals) --&gt; Diwali
 </v>
       </c>
       <c r="CC8" s="5" t="str">
         <f t="shared" si="35"/>
-        <v xml:space="preserve">Chakra/Energy Center --&gt; Anahata
+        <v xml:space="preserve">Chakra/Energy Center (do puja, meditation for this chakra) --&gt; Anahata
 </v>
       </c>
       <c r="CD8" s="5" t="str">
         <f t="shared" si="36"/>
-        <v xml:space="preserve">Yantra/Sacred Geometry --&gt; Sri Yantra
+        <v xml:space="preserve">Yantra/Sacred Geometry (can keep this yantra in puja sthal) --&gt; Sri Yantra
 </v>
       </c>
       <c r="CE8" s="5" t="str">
         <f t="shared" si="37"/>
-        <v xml:space="preserve">Spiritual Practice/Sadhana --&gt; Connecting with the divine through prayer and devotion
+        <v xml:space="preserve">Spiritual Practice/Sadhana (must observe daily) --&gt; Connecting with the divine through prayer and devotion
 </v>
       </c>
       <c r="CF8" s="5" t="str">
         <f t="shared" si="38"/>
-        <v xml:space="preserve">Metal/Mineral --&gt; Gold
+        <v xml:space="preserve">Metal/Mineral (natural affliliation) --&gt; Gold
 </v>
       </c>
       <c r="CG8" s="5" t="str">
         <f t="shared" si="39"/>
-        <v xml:space="preserve">Aromatherapy/Essential Oils --&gt; Lavender, Chamomile, Bergamot
+        <v xml:space="preserve">Aromatherapy/Essential Oils (should apply these) --&gt; Lavender, Chamomile, Bergamot
 </v>
       </c>
       <c r="CH8" s="5" t="str">
@@ -7248,17 +7320,17 @@
       </c>
       <c r="CI8" s="5" t="str">
         <f t="shared" si="41"/>
-        <v xml:space="preserve">Mythological Story/Legend --&gt; The story of Lord Rama and his journey
+        <v xml:space="preserve">Mythological Story/Legend (must read these stories) --&gt; The story of Lord Rama and his journey
 </v>
       </c>
       <c r="CJ8" s="5" t="str">
         <f t="shared" si="42"/>
-        <v xml:space="preserve">Sound/Mantra --&gt; Om Namo Narayanaya
+        <v xml:space="preserve">Sound/Mantra (must chant this mantra) --&gt; Om Namo Narayanaya
 </v>
       </c>
       <c r="CK8" s="5" t="str">
         <f t="shared" si="43"/>
-        <v xml:space="preserve">Flower --&gt; Yellow Lotus
+        <v xml:space="preserve">Flower (keep these nearby) --&gt; Yellow Lotus
 </v>
       </c>
       <c r="CL8" s="5" t="str">
@@ -7278,7 +7350,7 @@
       </c>
       <c r="CO8" s="5" t="str">
         <f t="shared" si="47"/>
-        <v xml:space="preserve">Dosha Element --&gt; Kapha
+        <v xml:space="preserve">Dosha Element (must keep the element in check, learn more from ayurveda) --&gt; Kapha
 </v>
       </c>
     </row>
@@ -7423,22 +7495,22 @@
       </c>
       <c r="AU9" s="5" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">Nakshatra --&gt; Pushya
-Ruling Deity --&gt; Brihaspati
-Symbol --&gt; Flower or Circle
+        <v xml:space="preserve">Nakshatra (Moon Nakshatra) --&gt; Pushya
+Ruling Deity (Main deity) --&gt; Brihaspati
+Symbol (can keep symbol/painting of same in bedroom or desktop) --&gt; Flower or Circle
 Animal --&gt; Male Goat
 Nature --&gt; Sattva
 Gender --&gt; Female
 Dosha --&gt; Kapha
 Guna --&gt; Sattva
-Purpose --&gt; Nourishment
-Tree --&gt; Shami
-Gemstone --&gt; Blue Sapphire
+Purpose (one should strive for) --&gt; Nourishment
+Tree (offer reverance or have it in house if possible) --&gt; Shami
+Gemstone (natural gemstone) --&gt; Blue Sapphire
 Yoga --&gt; Ayushman
 Plant/Flower --&gt; Shami
-Color --&gt; Yellow
-Planet --&gt; Saturn
-Mantra --&gt; Om Brihaspate Namaha
+Color (natural effinity) --&gt; Yellow
+Planet (ruling planet) --&gt; Saturn
+Mantra (one must chant daily) --&gt; Om Brihaspate Namaha
 Body Temperament --&gt; Watery
 Career/Profession --&gt; Priests, Spiritual Leaders, Healers
 Compatibility --&gt; Punarvasu, Ashlesha, Magha, Uttara Phalguni, Hasta
@@ -7447,47 +7519,47 @@
 Lucky Directions --&gt; West
 Auspicious Activities --&gt; Marriage, starting new ventures, spiritual practices
 Inauspicious Activities --&gt; Quarrels, conflicts, loss of wealth
-Health Issues --&gt; Stomach ailments, skin issues
+Health Issues (should take care) --&gt; Stomach ailments, skin issues
 Prayers or Rituals --&gt; Worship Lord Saturn
-Historical/Mythological Significance --&gt; Birthplace of Lord Brihaspati
-Mudra --&gt; Kubera Mudra
-Food/Dietary Recommendation --&gt; Warm and nourishing foods, root vegetables and grains
-Yoga Posture/Asana --&gt; Bhujangasana, Sarpasana, Garudasana
+Historical/Mythological Significance (must read these stories) --&gt; Birthplace of Lord Brihaspati
+Mudra (learn and often sit in this mudra) --&gt; Kubera Mudra
+Food/Dietary Recommendation (should intake) --&gt; Warm and nourishing foods, root vegetables and grains
+Yoga Posture/Asana (should do these yogas) --&gt; Bhujangasana, Sarpasana, Garudasana
 Tarot Card/Divination Symbol --&gt; The Devil
-Hindu Festivals/Holidays --&gt; Nag Panchami
-Chakra/Energy Center --&gt; Manipura
-Yantra/Sacred Geometry --&gt; Swastik Yantra
-Spiritual Practice/Sadhana --&gt; Purification through introspection and self-awareness
-Metal/Mineral --&gt; Lead
-Aromatherapy/Essential Oils --&gt; Cedarwood, Sandalwood, Rose
+Hindu Festivals/Holidays (do sadhna on these festivals) --&gt; Nag Panchami
+Chakra/Energy Center (do puja, meditation for this chakra) --&gt; Manipura
+Yantra/Sacred Geometry (can keep this yantra in puja sthal) --&gt; Swastik Yantra
+Spiritual Practice/Sadhana (must observe daily) --&gt; Purification through introspection and self-awareness
+Metal/Mineral (natural affliliation) --&gt; Lead
+Aromatherapy/Essential Oils (should apply these) --&gt; Cedarwood, Sandalwood, Rose
 Personality Traits/Characteristics --&gt; Secretive, mysterious, intense
-Mythological Story/Legend --&gt; The story of Lord Vishnu and the serpent Adishesha
-Sound/Mantra --&gt; Om Krim Kalikayai Namah
-Flower --&gt; White Lotus
+Mythological Story/Legend (must read these stories) --&gt; The story of Lord Vishnu and the serpent Adishesha
+Sound/Mantra (must chant this mantra) --&gt; Om Krim Kalikayai Namah
+Flower (keep these nearby) --&gt; White Lotus
 Prana --&gt; Prana Vayu
 Varna --&gt; Shudra
 Taste --&gt; Salty, Sour, Pungent
-Dosha Element --&gt; Kapha
+Dosha Element (must keep the element in check, learn more from ayurveda) --&gt; Kapha
 </v>
       </c>
       <c r="AV9" s="5" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">Nakshatra --&gt; Pushya
-Ruling Deity --&gt; Brihaspati
-Symbol --&gt; Flower or Circle
+        <v xml:space="preserve">Nakshatra (Moon Nakshatra) --&gt; Pushya
+Ruling Deity (Main deity) --&gt; Brihaspati
+Symbol (can keep symbol/painting of same in bedroom or desktop) --&gt; Flower or Circle
 Animal --&gt; Male Goat
 Nature --&gt; Sattva
 Gender --&gt; Female
 Dosha --&gt; Kapha
 Guna --&gt; Sattva
-Purpose --&gt; Nourishment
-Tree --&gt; Shami
-Gemstone --&gt; Blue Sapphire
+Purpose (one should strive for) --&gt; Nourishment
+Tree (offer reverance or have it in house if possible) --&gt; Shami
+Gemstone (natural gemstone) --&gt; Blue Sapphire
 Yoga --&gt; Ayushman
 Plant/Flower --&gt; Shami
-Color --&gt; Yellow
-Planet --&gt; Saturn
-Mantra --&gt; Om Brihaspate Namaha
+Color (natural effinity) --&gt; Yellow
+Planet (ruling planet) --&gt; Saturn
+Mantra (one must chant daily) --&gt; Om Brihaspate Namaha
 Body Temperament --&gt; Watery
 Career/Profession --&gt; Priests, Spiritual Leaders, Healers
 Compatibility --&gt; Punarvasu, Ashlesha, Magha, Uttara Phalguni, Hasta
@@ -7496,42 +7568,42 @@
 Lucky Directions --&gt; West
 Auspicious Activities --&gt; Marriage, starting new ventures, spiritual practices
 Inauspicious Activities --&gt; Quarrels, conflicts, loss of wealth
-Health Issues --&gt; Stomach ailments, skin issues
+Health Issues (should take care) --&gt; Stomach ailments, skin issues
 Prayers or Rituals --&gt; Worship Lord Saturn
-Historical/Mythological Significance --&gt; Birthplace of Lord Brihaspati
-Mudra --&gt; Kubera Mudra
-Food/Dietary Recommendation --&gt; Warm and nourishing foods, root vegetables and grains
-Yoga Posture/Asana --&gt; Bhujangasana, Sarpasana, Garudasana
+Historical/Mythological Significance (must read these stories) --&gt; Birthplace of Lord Brihaspati
+Mudra (learn and often sit in this mudra) --&gt; Kubera Mudra
+Food/Dietary Recommendation (should intake) --&gt; Warm and nourishing foods, root vegetables and grains
+Yoga Posture/Asana (should do these yogas) --&gt; Bhujangasana, Sarpasana, Garudasana
 Tarot Card/Divination Symbol --&gt; The Devil
-Hindu Festivals/Holidays --&gt; Nag Panchami
-Chakra/Energy Center --&gt; Manipura
-Yantra/Sacred Geometry --&gt; Swastik Yantra
-Spiritual Practice/Sadhana --&gt; Purification through introspection and self-awareness
-Metal/Mineral --&gt; Lead
-Aromatherapy/Essential Oils --&gt; Cedarwood, Sandalwood, Rose
+Hindu Festivals/Holidays (do sadhna on these festivals) --&gt; Nag Panchami
+Chakra/Energy Center (do puja, meditation for this chakra) --&gt; Manipura
+Yantra/Sacred Geometry (can keep this yantra in puja sthal) --&gt; Swastik Yantra
+Spiritual Practice/Sadhana (must observe daily) --&gt; Purification through introspection and self-awareness
+Metal/Mineral (natural affliliation) --&gt; Lead
+Aromatherapy/Essential Oils (should apply these) --&gt; Cedarwood, Sandalwood, Rose
 Personality Traits/Characteristics --&gt; Secretive, mysterious, intense
-Mythological Story/Legend --&gt; The story of Lord Vishnu and the serpent Adishesha
-Sound/Mantra --&gt; Om Krim Kalikayai Namah
-Flower --&gt; White Lotus
+Mythological Story/Legend (must read these stories) --&gt; The story of Lord Vishnu and the serpent Adishesha
+Sound/Mantra (must chant this mantra) --&gt; Om Krim Kalikayai Namah
+Flower (keep these nearby) --&gt; White Lotus
 Prana --&gt; Prana Vayu
 Varna --&gt; Shudra
 Taste --&gt; Salty, Sour, Pungent
-Dosha Element --&gt; Kapha
+Dosha Element (must keep the element in check, learn more from ayurveda) --&gt; Kapha
 </v>
       </c>
       <c r="AW9" s="5" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">Nakshatra --&gt; Pushya
+        <v xml:space="preserve">Nakshatra (Moon Nakshatra) --&gt; Pushya
 </v>
       </c>
       <c r="AX9" s="5" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">Ruling Deity --&gt; Brihaspati
+        <v xml:space="preserve">Ruling Deity (Main deity) --&gt; Brihaspati
 </v>
       </c>
       <c r="AY9" s="5" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">Symbol --&gt; Flower or Circle
+        <v xml:space="preserve">Symbol (can keep symbol/painting of same in bedroom or desktop) --&gt; Flower or Circle
 </v>
       </c>
       <c r="AZ9" s="5" t="str">
@@ -7561,17 +7633,17 @@
       </c>
       <c r="BE9" s="5" t="str">
         <f t="shared" si="11"/>
-        <v xml:space="preserve">Purpose --&gt; Nourishment
+        <v xml:space="preserve">Purpose (one should strive for) --&gt; Nourishment
 </v>
       </c>
       <c r="BF9" s="5" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">Tree --&gt; Shami
+        <v xml:space="preserve">Tree (offer reverance or have it in house if possible) --&gt; Shami
 </v>
       </c>
       <c r="BG9" s="5" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">Gemstone --&gt; Blue Sapphire
+        <v xml:space="preserve">Gemstone (natural gemstone) --&gt; Blue Sapphire
 </v>
       </c>
       <c r="BH9" s="5" t="str">
@@ -7586,17 +7658,17 @@
       </c>
       <c r="BJ9" s="5" t="str">
         <f t="shared" si="16"/>
-        <v xml:space="preserve">Color --&gt; Yellow
+        <v xml:space="preserve">Color (natural effinity) --&gt; Yellow
 </v>
       </c>
       <c r="BK9" s="5" t="str">
         <f t="shared" si="17"/>
-        <v xml:space="preserve">Planet --&gt; Saturn
+        <v xml:space="preserve">Planet (ruling planet) --&gt; Saturn
 </v>
       </c>
       <c r="BL9" s="5" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">Mantra --&gt; Om Brihaspate Namaha
+        <v xml:space="preserve">Mantra (one must chant daily) --&gt; Om Brihaspate Namaha
 </v>
       </c>
       <c r="BM9" s="5" t="str">
@@ -7641,7 +7713,7 @@
       </c>
       <c r="BU9" s="5" t="str">
         <f t="shared" si="27"/>
-        <v xml:space="preserve">Health Issues --&gt; Stomach ailments, skin issues
+        <v xml:space="preserve">Health Issues (should take care) --&gt; Stomach ailments, skin issues
 </v>
       </c>
       <c r="BV9" s="5" t="str">
@@ -7651,22 +7723,22 @@
       </c>
       <c r="BW9" s="5" t="str">
         <f t="shared" si="29"/>
-        <v xml:space="preserve">Historical/Mythological Significance --&gt; Birthplace of Lord Brihaspati
+        <v xml:space="preserve">Historical/Mythological Significance (must read these stories) --&gt; Birthplace of Lord Brihaspati
 </v>
       </c>
       <c r="BX9" s="5" t="str">
         <f t="shared" si="30"/>
-        <v xml:space="preserve">Mudra --&gt; Kubera Mudra
+        <v xml:space="preserve">Mudra (learn and often sit in this mudra) --&gt; Kubera Mudra
 </v>
       </c>
       <c r="BY9" s="5" t="str">
         <f t="shared" si="31"/>
-        <v xml:space="preserve">Food/Dietary Recommendation --&gt; Warm and nourishing foods, root vegetables and grains
+        <v xml:space="preserve">Food/Dietary Recommendation (should intake) --&gt; Warm and nourishing foods, root vegetables and grains
 </v>
       </c>
       <c r="BZ9" s="5" t="str">
         <f t="shared" si="32"/>
-        <v xml:space="preserve">Yoga Posture/Asana --&gt; Bhujangasana, Sarpasana, Garudasana
+        <v xml:space="preserve">Yoga Posture/Asana (should do these yogas) --&gt; Bhujangasana, Sarpasana, Garudasana
 </v>
       </c>
       <c r="CA9" s="5" t="str">
@@ -7676,32 +7748,32 @@
       </c>
       <c r="CB9" s="5" t="str">
         <f t="shared" si="34"/>
-        <v xml:space="preserve">Hindu Festivals/Holidays --&gt; Nag Panchami
+        <v xml:space="preserve">Hindu Festivals/Holidays (do sadhna on these festivals) --&gt; Nag Panchami
 </v>
       </c>
       <c r="CC9" s="5" t="str">
         <f t="shared" si="35"/>
-        <v xml:space="preserve">Chakra/Energy Center --&gt; Manipura
+        <v xml:space="preserve">Chakra/Energy Center (do puja, meditation for this chakra) --&gt; Manipura
 </v>
       </c>
       <c r="CD9" s="5" t="str">
         <f t="shared" si="36"/>
-        <v xml:space="preserve">Yantra/Sacred Geometry --&gt; Swastik Yantra
+        <v xml:space="preserve">Yantra/Sacred Geometry (can keep this yantra in puja sthal) --&gt; Swastik Yantra
 </v>
       </c>
       <c r="CE9" s="5" t="str">
         <f t="shared" si="37"/>
-        <v xml:space="preserve">Spiritual Practice/Sadhana --&gt; Purification through introspection and self-awareness
+        <v xml:space="preserve">Spiritual Practice/Sadhana (must observe daily) --&gt; Purification through introspection and self-awareness
 </v>
       </c>
       <c r="CF9" s="5" t="str">
         <f t="shared" si="38"/>
-        <v xml:space="preserve">Metal/Mineral --&gt; Lead
+        <v xml:space="preserve">Metal/Mineral (natural affliliation) --&gt; Lead
 </v>
       </c>
       <c r="CG9" s="5" t="str">
         <f t="shared" si="39"/>
-        <v xml:space="preserve">Aromatherapy/Essential Oils --&gt; Cedarwood, Sandalwood, Rose
+        <v xml:space="preserve">Aromatherapy/Essential Oils (should apply these) --&gt; Cedarwood, Sandalwood, Rose
 </v>
       </c>
       <c r="CH9" s="5" t="str">
@@ -7711,17 +7783,17 @@
       </c>
       <c r="CI9" s="5" t="str">
         <f t="shared" si="41"/>
-        <v xml:space="preserve">Mythological Story/Legend --&gt; The story of Lord Vishnu and the serpent Adishesha
+        <v xml:space="preserve">Mythological Story/Legend (must read these stories) --&gt; The story of Lord Vishnu and the serpent Adishesha
 </v>
       </c>
       <c r="CJ9" s="5" t="str">
         <f t="shared" si="42"/>
-        <v xml:space="preserve">Sound/Mantra --&gt; Om Krim Kalikayai Namah
+        <v xml:space="preserve">Sound/Mantra (must chant this mantra) --&gt; Om Krim Kalikayai Namah
 </v>
       </c>
       <c r="CK9" s="5" t="str">
         <f t="shared" si="43"/>
-        <v xml:space="preserve">Flower --&gt; White Lotus
+        <v xml:space="preserve">Flower (keep these nearby) --&gt; White Lotus
 </v>
       </c>
       <c r="CL9" s="5" t="str">
@@ -7741,7 +7813,7 @@
       </c>
       <c r="CO9" s="5" t="str">
         <f t="shared" si="47"/>
-        <v xml:space="preserve">Dosha Element --&gt; Kapha
+        <v xml:space="preserve">Dosha Element (must keep the element in check, learn more from ayurveda) --&gt; Kapha
 </v>
       </c>
     </row>
@@ -7886,22 +7958,22 @@
       </c>
       <c r="AU10" s="5" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">Nakshatra --&gt; Ashlesha
-Ruling Deity --&gt; Sarpa
-Symbol --&gt; Coiled Snake
+        <v xml:space="preserve">Nakshatra (Moon Nakshatra) --&gt; Ashlesha
+Ruling Deity (Main deity) --&gt; Sarpa
+Symbol (can keep symbol/painting of same in bedroom or desktop) --&gt; Coiled Snake
 Animal --&gt; Male Cat
 Nature --&gt; Tamas
 Gender --&gt; Female
 Dosha --&gt; Pitta
 Guna --&gt; Tamas
-Purpose --&gt; Transformation
-Tree --&gt; Vilva
-Gemstone --&gt; Cat's Eye
+Purpose (one should strive for) --&gt; Transformation
+Tree (offer reverance or have it in house if possible) --&gt; Vilva
+Gemstone (natural gemstone) --&gt; Cat's Eye
 Yoga --&gt; Saubhagya
 Plant/Flower --&gt; Vilva
-Color --&gt; Golden
-Planet --&gt; Mercury
-Mantra --&gt; Om Sarpaya Namaha
+Color (natural effinity) --&gt; Golden
+Planet (ruling planet) --&gt; Mercury
+Mantra (one must chant daily) --&gt; Om Sarpaya Namaha
 Body Temperament --&gt; Watery
 Career/Profession --&gt; Researchers, Analysts, Detectives
 Compatibility --&gt; Ardra, Punarvasu, Pushya, Magha, Purva Phalguni
@@ -7910,47 +7982,47 @@
 Lucky Directions --&gt; South
 Auspicious Activities --&gt; Spiritual practices, seeking knowledge, starting new ventures
 Inauspicious Activities --&gt; Quarrels, conflicts, deceit
-Health Issues --&gt; Respiratory issues, joint pain
+Health Issues (should take care) --&gt; Respiratory issues, joint pain
 Prayers or Rituals --&gt; Worship Lord Naga
-Historical/Mythological Significance --&gt; Birthplace of serpent deity Vasuki
-Mudra --&gt; Abhaya Mudra
-Food/Dietary Recommendation --&gt; Nutritious and well-balanced meals, whole grains and proteins
-Yoga Posture/Asana --&gt; Vajrasana, Ardha Matsyendrasana, Shavasana
+Historical/Mythological Significance (must read these stories) --&gt; Birthplace of serpent deity Vasuki
+Mudra (learn and often sit in this mudra) --&gt; Abhaya Mudra
+Food/Dietary Recommendation (should intake) --&gt; Nutritious and well-balanced meals, whole grains and proteins
+Yoga Posture/Asana (should do these yogas) --&gt; Vajrasana, Ardha Matsyendrasana, Shavasana
 Tarot Card/Divination Symbol --&gt; The Emperor
-Hindu Festivals/Holidays --&gt; Navratri
-Chakra/Energy Center --&gt; Manipura
-Yantra/Sacred Geometry --&gt; Surya Yantra
-Spiritual Practice/Sadhana --&gt; Honoring ancestors and connecting with lineage
-Metal/Mineral --&gt; Copper
-Aromatherapy/Essential Oils --&gt; Frankincense, Myrrh, Neroli
+Hindu Festivals/Holidays (do sadhna on these festivals) --&gt; Navratri
+Chakra/Energy Center (do puja, meditation for this chakra) --&gt; Manipura
+Yantra/Sacred Geometry (can keep this yantra in puja sthal) --&gt; Surya Yantra
+Spiritual Practice/Sadhana (must observe daily) --&gt; Honoring ancestors and connecting with lineage
+Metal/Mineral (natural affliliation) --&gt; Copper
+Aromatherapy/Essential Oils (should apply these) --&gt; Frankincense, Myrrh, Neroli
 Personality Traits/Characteristics --&gt; Proud, regal, authoritative
-Mythological Story/Legend --&gt; The story of King Bali and Lord Vishnu
-Sound/Mantra --&gt; Om Hrim Pitambaraya Namah
-Flower --&gt; Red Lotus
+Mythological Story/Legend (must read these stories) --&gt; The story of King Bali and Lord Vishnu
+Sound/Mantra (must chant this mantra) --&gt; Om Hrim Pitambaraya Namah
+Flower (keep these nearby) --&gt; Red Lotus
 Prana --&gt; Prana Vayu
 Varna --&gt; Kshatriya
 Taste --&gt; Bitter, Astringent, Pungent
-Dosha Element --&gt; Vata
+Dosha Element (must keep the element in check, learn more from ayurveda) --&gt; Vata
 </v>
       </c>
       <c r="AV10" s="5" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">Nakshatra --&gt; Ashlesha
-Ruling Deity --&gt; Sarpa
-Symbol --&gt; Coiled Snake
+        <v xml:space="preserve">Nakshatra (Moon Nakshatra) --&gt; Ashlesha
+Ruling Deity (Main deity) --&gt; Sarpa
+Symbol (can keep symbol/painting of same in bedroom or desktop) --&gt; Coiled Snake
 Animal --&gt; Male Cat
 Nature --&gt; Tamas
 Gender --&gt; Female
 Dosha --&gt; Pitta
 Guna --&gt; Tamas
-Purpose --&gt; Transformation
-Tree --&gt; Vilva
-Gemstone --&gt; Cat's Eye
+Purpose (one should strive for) --&gt; Transformation
+Tree (offer reverance or have it in house if possible) --&gt; Vilva
+Gemstone (natural gemstone) --&gt; Cat's Eye
 Yoga --&gt; Saubhagya
 Plant/Flower --&gt; Vilva
-Color --&gt; Golden
-Planet --&gt; Mercury
-Mantra --&gt; Om Sarpaya Namaha
+Color (natural effinity) --&gt; Golden
+Planet (ruling planet) --&gt; Mercury
+Mantra (one must chant daily) --&gt; Om Sarpaya Namaha
 Body Temperament --&gt; Watery
 Career/Profession --&gt; Researchers, Analysts, Detectives
 Compatibility --&gt; Ardra, Punarvasu, Pushya, Magha, Purva Phalguni
@@ -7959,42 +8031,42 @@
 Lucky Directions --&gt; South
 Auspicious Activities --&gt; Spiritual practices, seeking knowledge, starting new ventures
 Inauspicious Activities --&gt; Quarrels, conflicts, deceit
-Health Issues --&gt; Respiratory issues, joint pain
+Health Issues (should take care) --&gt; Respiratory issues, joint pain
 Prayers or Rituals --&gt; Worship Lord Naga
-Historical/Mythological Significance --&gt; Birthplace of serpent deity Vasuki
-Mudra --&gt; Abhaya Mudra
-Food/Dietary Recommendation --&gt; Nutritious and well-balanced meals, whole grains and proteins
-Yoga Posture/Asana --&gt; Vajrasana, Ardha Matsyendrasana, Shavasana
+Historical/Mythological Significance (must read these stories) --&gt; Birthplace of serpent deity Vasuki
+Mudra (learn and often sit in this mudra) --&gt; Abhaya Mudra
+Food/Dietary Recommendation (should intake) --&gt; Nutritious and well-balanced meals, whole grains and proteins
+Yoga Posture/Asana (should do these yogas) --&gt; Vajrasana, Ardha Matsyendrasana, Shavasana
 Tarot Card/Divination Symbol --&gt; The Emperor
-Hindu Festivals/Holidays --&gt; Navratri
-Chakra/Energy Center --&gt; Manipura
-Yantra/Sacred Geometry --&gt; Surya Yantra
-Spiritual Practice/Sadhana --&gt; Honoring ancestors and connecting with lineage
-Metal/Mineral --&gt; Copper
-Aromatherapy/Essential Oils --&gt; Frankincense, Myrrh, Neroli
+Hindu Festivals/Holidays (do sadhna on these festivals) --&gt; Navratri
+Chakra/Energy Center (do puja, meditation for this chakra) --&gt; Manipura
+Yantra/Sacred Geometry (can keep this yantra in puja sthal) --&gt; Surya Yantra
+Spiritual Practice/Sadhana (must observe daily) --&gt; Honoring ancestors and connecting with lineage
+Metal/Mineral (natural affliliation) --&gt; Copper
+Aromatherapy/Essential Oils (should apply these) --&gt; Frankincense, Myrrh, Neroli
 Personality Traits/Characteristics --&gt; Proud, regal, authoritative
-Mythological Story/Legend --&gt; The story of King Bali and Lord Vishnu
-Sound/Mantra --&gt; Om Hrim Pitambaraya Namah
-Flower --&gt; Red Lotus
+Mythological Story/Legend (must read these stories) --&gt; The story of King Bali and Lord Vishnu
+Sound/Mantra (must chant this mantra) --&gt; Om Hrim Pitambaraya Namah
+Flower (keep these nearby) --&gt; Red Lotus
 Prana --&gt; Prana Vayu
 Varna --&gt; Kshatriya
 Taste --&gt; Bitter, Astringent, Pungent
-Dosha Element --&gt; Vata
+Dosha Element (must keep the element in check, learn more from ayurveda) --&gt; Vata
 </v>
       </c>
       <c r="AW10" s="5" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">Nakshatra --&gt; Ashlesha
+        <v xml:space="preserve">Nakshatra (Moon Nakshatra) --&gt; Ashlesha
 </v>
       </c>
       <c r="AX10" s="5" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">Ruling Deity --&gt; Sarpa
+        <v xml:space="preserve">Ruling Deity (Main deity) --&gt; Sarpa
 </v>
       </c>
       <c r="AY10" s="5" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">Symbol --&gt; Coiled Snake
+        <v xml:space="preserve">Symbol (can keep symbol/painting of same in bedroom or desktop) --&gt; Coiled Snake
 </v>
       </c>
       <c r="AZ10" s="5" t="str">
@@ -8024,17 +8096,17 @@
       </c>
       <c r="BE10" s="5" t="str">
         <f t="shared" si="11"/>
-        <v xml:space="preserve">Purpose --&gt; Transformation
+        <v xml:space="preserve">Purpose (one should strive for) --&gt; Transformation
 </v>
       </c>
       <c r="BF10" s="5" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">Tree --&gt; Vilva
+        <v xml:space="preserve">Tree (offer reverance or have it in house if possible) --&gt; Vilva
 </v>
       </c>
       <c r="BG10" s="5" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">Gemstone --&gt; Cat's Eye
+        <v xml:space="preserve">Gemstone (natural gemstone) --&gt; Cat's Eye
 </v>
       </c>
       <c r="BH10" s="5" t="str">
@@ -8049,17 +8121,17 @@
       </c>
       <c r="BJ10" s="5" t="str">
         <f t="shared" si="16"/>
-        <v xml:space="preserve">Color --&gt; Golden
+        <v xml:space="preserve">Color (natural effinity) --&gt; Golden
 </v>
       </c>
       <c r="BK10" s="5" t="str">
         <f t="shared" si="17"/>
-        <v xml:space="preserve">Planet --&gt; Mercury
+        <v xml:space="preserve">Planet (ruling planet) --&gt; Mercury
 </v>
       </c>
       <c r="BL10" s="5" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">Mantra --&gt; Om Sarpaya Namaha
+        <v xml:space="preserve">Mantra (one must chant daily) --&gt; Om Sarpaya Namaha
 </v>
       </c>
       <c r="BM10" s="5" t="str">
@@ -8104,7 +8176,7 @@
       </c>
       <c r="BU10" s="5" t="str">
         <f t="shared" si="27"/>
-        <v xml:space="preserve">Health Issues --&gt; Respiratory issues, joint pain
+        <v xml:space="preserve">Health Issues (should take care) --&gt; Respiratory issues, joint pain
 </v>
       </c>
       <c r="BV10" s="5" t="str">
@@ -8114,22 +8186,22 @@
       </c>
       <c r="BW10" s="5" t="str">
         <f t="shared" si="29"/>
-        <v xml:space="preserve">Historical/Mythological Significance --&gt; Birthplace of serpent deity Vasuki
+        <v xml:space="preserve">Historical/Mythological Significance (must read these stories) --&gt; Birthplace of serpent deity Vasuki
 </v>
       </c>
       <c r="BX10" s="5" t="str">
         <f t="shared" si="30"/>
-        <v xml:space="preserve">Mudra --&gt; Abhaya Mudra
+        <v xml:space="preserve">Mudra (learn and often sit in this mudra) --&gt; Abhaya Mudra
 </v>
       </c>
       <c r="BY10" s="5" t="str">
         <f t="shared" si="31"/>
-        <v xml:space="preserve">Food/Dietary Recommendation --&gt; Nutritious and well-balanced meals, whole grains and proteins
+        <v xml:space="preserve">Food/Dietary Recommendation (should intake) --&gt; Nutritious and well-balanced meals, whole grains and proteins
 </v>
       </c>
       <c r="BZ10" s="5" t="str">
         <f t="shared" si="32"/>
-        <v xml:space="preserve">Yoga Posture/Asana --&gt; Vajrasana, Ardha Matsyendrasana, Shavasana
+        <v xml:space="preserve">Yoga Posture/Asana (should do these yogas) --&gt; Vajrasana, Ardha Matsyendrasana, Shavasana
 </v>
       </c>
       <c r="CA10" s="5" t="str">
@@ -8139,32 +8211,32 @@
       </c>
       <c r="CB10" s="5" t="str">
         <f t="shared" si="34"/>
-        <v xml:space="preserve">Hindu Festivals/Holidays --&gt; Navratri
+        <v xml:space="preserve">Hindu Festivals/Holidays (do sadhna on these festivals) --&gt; Navratri
 </v>
       </c>
       <c r="CC10" s="5" t="str">
         <f t="shared" si="35"/>
-        <v xml:space="preserve">Chakra/Energy Center --&gt; Manipura
+        <v xml:space="preserve">Chakra/Energy Center (do puja, meditation for this chakra) --&gt; Manipura
 </v>
       </c>
       <c r="CD10" s="5" t="str">
         <f t="shared" si="36"/>
-        <v xml:space="preserve">Yantra/Sacred Geometry --&gt; Surya Yantra
+        <v xml:space="preserve">Yantra/Sacred Geometry (can keep this yantra in puja sthal) --&gt; Surya Yantra
 </v>
       </c>
       <c r="CE10" s="5" t="str">
         <f t="shared" si="37"/>
-        <v xml:space="preserve">Spiritual Practice/Sadhana --&gt; Honoring ancestors and connecting with lineage
+        <v xml:space="preserve">Spiritual Practice/Sadhana (must observe daily) --&gt; Honoring ancestors and connecting with lineage
 </v>
       </c>
       <c r="CF10" s="5" t="str">
         <f t="shared" si="38"/>
-        <v xml:space="preserve">Metal/Mineral --&gt; Copper
+        <v xml:space="preserve">Metal/Mineral (natural affliliation) --&gt; Copper
 </v>
       </c>
       <c r="CG10" s="5" t="str">
         <f t="shared" si="39"/>
-        <v xml:space="preserve">Aromatherapy/Essential Oils --&gt; Frankincense, Myrrh, Neroli
+        <v xml:space="preserve">Aromatherapy/Essential Oils (should apply these) --&gt; Frankincense, Myrrh, Neroli
 </v>
       </c>
       <c r="CH10" s="5" t="str">
@@ -8174,17 +8246,17 @@
       </c>
       <c r="CI10" s="5" t="str">
         <f t="shared" si="41"/>
-        <v xml:space="preserve">Mythological Story/Legend --&gt; The story of King Bali and Lord Vishnu
+        <v xml:space="preserve">Mythological Story/Legend (must read these stories) --&gt; The story of King Bali and Lord Vishnu
 </v>
       </c>
       <c r="CJ10" s="5" t="str">
         <f t="shared" si="42"/>
-        <v xml:space="preserve">Sound/Mantra --&gt; Om Hrim Pitambaraya Namah
+        <v xml:space="preserve">Sound/Mantra (must chant this mantra) --&gt; Om Hrim Pitambaraya Namah
 </v>
       </c>
       <c r="CK10" s="5" t="str">
         <f t="shared" si="43"/>
-        <v xml:space="preserve">Flower --&gt; Red Lotus
+        <v xml:space="preserve">Flower (keep these nearby) --&gt; Red Lotus
 </v>
       </c>
       <c r="CL10" s="5" t="str">
@@ -8204,7 +8276,7 @@
       </c>
       <c r="CO10" s="5" t="str">
         <f t="shared" si="47"/>
-        <v xml:space="preserve">Dosha Element --&gt; Vata
+        <v xml:space="preserve">Dosha Element (must keep the element in check, learn more from ayurveda) --&gt; Vata
 </v>
       </c>
     </row>
@@ -8349,22 +8421,22 @@
       </c>
       <c r="AU11" s="5" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">Nakshatra --&gt; Magha
-Ruling Deity --&gt; Pitris
-Symbol --&gt; Throne or Palanquin
+        <v xml:space="preserve">Nakshatra (Moon Nakshatra) --&gt; Magha
+Ruling Deity (Main deity) --&gt; Pitris
+Symbol (can keep symbol/painting of same in bedroom or desktop) --&gt; Throne or Palanquin
 Animal --&gt; Male Rat
 Nature --&gt; Rajas
 Gender --&gt; Female
 Dosha --&gt; Pitta
 Guna --&gt; Rajas
-Purpose --&gt; Ancestral Blessings
-Tree --&gt; Banyan
-Gemstone --&gt; Ruby
+Purpose (one should strive for) --&gt; Ancestral Blessings
+Tree (offer reverance or have it in house if possible) --&gt; Banyan
+Gemstone (natural gemstone) --&gt; Ruby
 Yoga --&gt; Vajra
 Plant/Flower --&gt; Banyan
-Color --&gt; Red
-Planet --&gt; Ketu
-Mantra --&gt; Om Pitrya Namaha
+Color (natural effinity) --&gt; Red
+Planet (ruling planet) --&gt; Ketu
+Mantra (one must chant daily) --&gt; Om Pitrya Namaha
 Body Temperament --&gt; Fiery
 Career/Profession --&gt; Politicians, Actors, CEOs
 Compatibility --&gt; Ashlesha, Magha, Purva Phalguni, Uttara Phalguni, Hasta
@@ -8373,47 +8445,47 @@
 Lucky Directions --&gt; North
 Auspicious Activities --&gt; Starting new ventures, spiritual practices, seeking blessings
 Inauspicious Activities --&gt; Quarrels, conflicts, legal issues
-Health Issues --&gt; Heart ailments, fever
+Health Issues (should take care) --&gt; Heart ailments, fever
 Prayers or Rituals --&gt; Worship Lord Pitru
-Historical/Mythological Significance --&gt; Birthplace of the royal dynasty
-Mudra --&gt; Padma Mudra
-Food/Dietary Recommendation --&gt; Fresh and organic foods, fruits and vegetables
-Yoga Posture/Asana --&gt; Trikonasana, Bhujangasana, Dhanurasana
+Historical/Mythological Significance (must read these stories) --&gt; Birthplace of the royal dynasty
+Mudra (learn and often sit in this mudra) --&gt; Padma Mudra
+Food/Dietary Recommendation (should intake) --&gt; Fresh and organic foods, fruits and vegetables
+Yoga Posture/Asana (should do these yogas) --&gt; Trikonasana, Bhujangasana, Dhanurasana
 Tarot Card/Divination Symbol --&gt; The Sun
-Hindu Festivals/Holidays --&gt; Holi
-Chakra/Energy Center --&gt; Manipura
-Yantra/Sacred Geometry --&gt; Sri Chakra
-Spiritual Practice/Sadhana --&gt; Cultivating creativity and self-expression
-Metal/Mineral --&gt; Ruby
-Aromatherapy/Essential Oils --&gt; Ylang Ylang, Rose, Bergamot
+Hindu Festivals/Holidays (do sadhna on these festivals) --&gt; Holi
+Chakra/Energy Center (do puja, meditation for this chakra) --&gt; Manipura
+Yantra/Sacred Geometry (can keep this yantra in puja sthal) --&gt; Sri Chakra
+Spiritual Practice/Sadhana (must observe daily) --&gt; Cultivating creativity and self-expression
+Metal/Mineral (natural affliliation) --&gt; Ruby
+Aromatherapy/Essential Oils (should apply these) --&gt; Ylang Ylang, Rose, Bergamot
 Personality Traits/Characteristics --&gt; Charismatic, passionate, generous
-Mythological Story/Legend --&gt; The story of Lord Shiva and Goddess Parvati's marriage
-Sound/Mantra --&gt; Om Klim Purvaphalgunyai Namah
-Flower --&gt; Red Lotus
+Mythological Story/Legend (must read these stories) --&gt; The story of Lord Shiva and Goddess Parvati's marriage
+Sound/Mantra (must chant this mantra) --&gt; Om Klim Purvaphalgunyai Namah
+Flower (keep these nearby) --&gt; Red Lotus
 Prana --&gt; Prana Vayu
 Varna --&gt; Kshatriya
 Taste --&gt; Sweet, Astringent
-Dosha Element --&gt; Pitta
+Dosha Element (must keep the element in check, learn more from ayurveda) --&gt; Pitta
 </v>
       </c>
       <c r="AV11" s="5" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">Nakshatra --&gt; Magha
-Ruling Deity --&gt; Pitris
-Symbol --&gt; Throne or Palanquin
+        <v xml:space="preserve">Nakshatra (Moon Nakshatra) --&gt; Magha
+Ruling Deity (Main deity) --&gt; Pitris
+Symbol (can keep symbol/painting of same in bedroom or desktop) --&gt; Throne or Palanquin
 Animal --&gt; Male Rat
 Nature --&gt; Rajas
 Gender --&gt; Female
 Dosha --&gt; Pitta
 Guna --&gt; Rajas
-Purpose --&gt; Ancestral Blessings
-Tree --&gt; Banyan
-Gemstone --&gt; Ruby
+Purpose (one should strive for) --&gt; Ancestral Blessings
+Tree (offer reverance or have it in house if possible) --&gt; Banyan
+Gemstone (natural gemstone) --&gt; Ruby
 Yoga --&gt; Vajra
 Plant/Flower --&gt; Banyan
-Color --&gt; Red
-Planet --&gt; Ketu
-Mantra --&gt; Om Pitrya Namaha
+Color (natural effinity) --&gt; Red
+Planet (ruling planet) --&gt; Ketu
+Mantra (one must chant daily) --&gt; Om Pitrya Namaha
 Body Temperament --&gt; Fiery
 Career/Profession --&gt; Politicians, Actors, CEOs
 Compatibility --&gt; Ashlesha, Magha, Purva Phalguni, Uttara Phalguni, Hasta
@@ -8422,42 +8494,42 @@
 Lucky Directions --&gt; North
 Auspicious Activities --&gt; Starting new ventures, spiritual practices, seeking blessings
 Inauspicious Activities --&gt; Quarrels, conflicts, legal issues
-Health Issues --&gt; Heart ailments, fever
+Health Issues (should take care) --&gt; Heart ailments, fever
 Prayers or Rituals --&gt; Worship Lord Pitru
-Historical/Mythological Significance --&gt; Birthplace of the royal dynasty
-Mudra --&gt; Padma Mudra
-Food/Dietary Recommendation --&gt; Fresh and organic foods, fruits and vegetables
-Yoga Posture/Asana --&gt; Trikonasana, Bhujangasana, Dhanurasana
+Historical/Mythological Significance (must read these stories) --&gt; Birthplace of the royal dynasty
+Mudra (learn and often sit in this mudra) --&gt; Padma Mudra
+Food/Dietary Recommendation (should intake) --&gt; Fresh and organic foods, fruits and vegetables
+Yoga Posture/Asana (should do these yogas) --&gt; Trikonasana, Bhujangasana, Dhanurasana
 Tarot Card/Divination Symbol --&gt; The Sun
-Hindu Festivals/Holidays --&gt; Holi
-Chakra/Energy Center --&gt; Manipura
-Yantra/Sacred Geometry --&gt; Sri Chakra
-Spiritual Practice/Sadhana --&gt; Cultivating creativity and self-expression
-Metal/Mineral --&gt; Ruby
-Aromatherapy/Essential Oils --&gt; Ylang Ylang, Rose, Bergamot
+Hindu Festivals/Holidays (do sadhna on these festivals) --&gt; Holi
+Chakra/Energy Center (do puja, meditation for this chakra) --&gt; Manipura
+Yantra/Sacred Geometry (can keep this yantra in puja sthal) --&gt; Sri Chakra
+Spiritual Practice/Sadhana (must observe daily) --&gt; Cultivating creativity and self-expression
+Metal/Mineral (natural affliliation) --&gt; Ruby
+Aromatherapy/Essential Oils (should apply these) --&gt; Ylang Ylang, Rose, Bergamot
 Personality Traits/Characteristics --&gt; Charismatic, passionate, generous
-Mythological Story/Legend --&gt; The story of Lord Shiva and Goddess Parvati's marriage
-Sound/Mantra --&gt; Om Klim Purvaphalgunyai Namah
-Flower --&gt; Red Lotus
+Mythological Story/Legend (must read these stories) --&gt; The story of Lord Shiva and Goddess Parvati's marriage
+Sound/Mantra (must chant this mantra) --&gt; Om Klim Purvaphalgunyai Namah
+Flower (keep these nearby) --&gt; Red Lotus
 Prana --&gt; Prana Vayu
 Varna --&gt; Kshatriya
 Taste --&gt; Sweet, Astringent
-Dosha Element --&gt; Pitta
+Dosha Element (must keep the element in check, learn more from ayurveda) --&gt; Pitta
 </v>
       </c>
       <c r="AW11" s="5" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">Nakshatra --&gt; Magha
+        <v xml:space="preserve">Nakshatra (Moon Nakshatra) --&gt; Magha
 </v>
       </c>
       <c r="AX11" s="5" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">Ruling Deity --&gt; Pitris
+        <v xml:space="preserve">Ruling Deity (Main deity) --&gt; Pitris
 </v>
       </c>
       <c r="AY11" s="5" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">Symbol --&gt; Throne or Palanquin
+        <v xml:space="preserve">Symbol (can keep symbol/painting of same in bedroom or desktop) --&gt; Throne or Palanquin
 </v>
       </c>
       <c r="AZ11" s="5" t="str">
@@ -8487,17 +8559,17 @@
       </c>
       <c r="BE11" s="5" t="str">
         <f t="shared" si="11"/>
-        <v xml:space="preserve">Purpose --&gt; Ancestral Blessings
+        <v xml:space="preserve">Purpose (one should strive for) --&gt; Ancestral Blessings
 </v>
       </c>
       <c r="BF11" s="5" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">Tree --&gt; Banyan
+        <v xml:space="preserve">Tree (offer reverance or have it in house if possible) --&gt; Banyan
 </v>
       </c>
       <c r="BG11" s="5" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">Gemstone --&gt; Ruby
+        <v xml:space="preserve">Gemstone (natural gemstone) --&gt; Ruby
 </v>
       </c>
       <c r="BH11" s="5" t="str">
@@ -8512,17 +8584,17 @@
       </c>
       <c r="BJ11" s="5" t="str">
         <f t="shared" si="16"/>
-        <v xml:space="preserve">Color --&gt; Red
+        <v xml:space="preserve">Color (natural effinity) --&gt; Red
 </v>
       </c>
       <c r="BK11" s="5" t="str">
         <f t="shared" si="17"/>
-        <v xml:space="preserve">Planet --&gt; Ketu
+        <v xml:space="preserve">Planet (ruling planet) --&gt; Ketu
 </v>
       </c>
       <c r="BL11" s="5" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">Mantra --&gt; Om Pitrya Namaha
+        <v xml:space="preserve">Mantra (one must chant daily) --&gt; Om Pitrya Namaha
 </v>
       </c>
       <c r="BM11" s="5" t="str">
@@ -8567,7 +8639,7 @@
       </c>
       <c r="BU11" s="5" t="str">
         <f t="shared" si="27"/>
-        <v xml:space="preserve">Health Issues --&gt; Heart ailments, fever
+        <v xml:space="preserve">Health Issues (should take care) --&gt; Heart ailments, fever
 </v>
       </c>
       <c r="BV11" s="5" t="str">
@@ -8577,22 +8649,22 @@
       </c>
       <c r="BW11" s="5" t="str">
         <f t="shared" si="29"/>
-        <v xml:space="preserve">Historical/Mythological Significance --&gt; Birthplace of the royal dynasty
+        <v xml:space="preserve">Historical/Mythological Significance (must read these stories) --&gt; Birthplace of the royal dynasty
 </v>
       </c>
       <c r="BX11" s="5" t="str">
         <f t="shared" si="30"/>
-        <v xml:space="preserve">Mudra --&gt; Padma Mudra
+        <v xml:space="preserve">Mudra (learn and often sit in this mudra) --&gt; Padma Mudra
 </v>
       </c>
       <c r="BY11" s="5" t="str">
         <f t="shared" si="31"/>
-        <v xml:space="preserve">Food/Dietary Recommendation --&gt; Fresh and organic foods, fruits and vegetables
+        <v xml:space="preserve">Food/Dietary Recommendation (should intake) --&gt; Fresh and organic foods, fruits and vegetables
 </v>
       </c>
       <c r="BZ11" s="5" t="str">
         <f t="shared" si="32"/>
-        <v xml:space="preserve">Yoga Posture/Asana --&gt; Trikonasana, Bhujangasana, Dhanurasana
+        <v xml:space="preserve">Yoga Posture/Asana (should do these yogas) --&gt; Trikonasana, Bhujangasana, Dhanurasana
 </v>
       </c>
       <c r="CA11" s="5" t="str">
@@ -8602,32 +8674,32 @@
       </c>
       <c r="CB11" s="5" t="str">
         <f t="shared" si="34"/>
-        <v xml:space="preserve">Hindu Festivals/Holidays --&gt; Holi
+        <v xml:space="preserve">Hindu Festivals/Holidays (do sadhna on these festivals) --&gt; Holi
 </v>
       </c>
       <c r="CC11" s="5" t="str">
         <f t="shared" si="35"/>
-        <v xml:space="preserve">Chakra/Energy Center --&gt; Manipura
+        <v xml:space="preserve">Chakra/Energy Center (do puja, meditation for this chakra) --&gt; Manipura
 </v>
       </c>
       <c r="CD11" s="5" t="str">
         <f t="shared" si="36"/>
-        <v xml:space="preserve">Yantra/Sacred Geometry --&gt; Sri Chakra
+        <v xml:space="preserve">Yantra/Sacred Geometry (can keep this yantra in puja sthal) --&gt; Sri Chakra
 </v>
       </c>
       <c r="CE11" s="5" t="str">
         <f t="shared" si="37"/>
-        <v xml:space="preserve">Spiritual Practice/Sadhana --&gt; Cultivating creativity and self-expression
+        <v xml:space="preserve">Spiritual Practice/Sadhana (must observe daily) --&gt; Cultivating creativity and self-expression
 </v>
       </c>
       <c r="CF11" s="5" t="str">
         <f t="shared" si="38"/>
-        <v xml:space="preserve">Metal/Mineral --&gt; Ruby
+        <v xml:space="preserve">Metal/Mineral (natural affliliation) --&gt; Ruby
 </v>
       </c>
       <c r="CG11" s="5" t="str">
         <f t="shared" si="39"/>
-        <v xml:space="preserve">Aromatherapy/Essential Oils --&gt; Ylang Ylang, Rose, Bergamot
+        <v xml:space="preserve">Aromatherapy/Essential Oils (should apply these) --&gt; Ylang Ylang, Rose, Bergamot
 </v>
       </c>
       <c r="CH11" s="5" t="str">
@@ -8637,17 +8709,17 @@
       </c>
       <c r="CI11" s="5" t="str">
         <f t="shared" si="41"/>
-        <v xml:space="preserve">Mythological Story/Legend --&gt; The story of Lord Shiva and Goddess Parvati's marriage
+        <v xml:space="preserve">Mythological Story/Legend (must read these stories) --&gt; The story of Lord Shiva and Goddess Parvati's marriage
 </v>
       </c>
       <c r="CJ11" s="5" t="str">
         <f t="shared" si="42"/>
-        <v xml:space="preserve">Sound/Mantra --&gt; Om Klim Purvaphalgunyai Namah
+        <v xml:space="preserve">Sound/Mantra (must chant this mantra) --&gt; Om Klim Purvaphalgunyai Namah
 </v>
       </c>
       <c r="CK11" s="5" t="str">
         <f t="shared" si="43"/>
-        <v xml:space="preserve">Flower --&gt; Red Lotus
+        <v xml:space="preserve">Flower (keep these nearby) --&gt; Red Lotus
 </v>
       </c>
       <c r="CL11" s="5" t="str">
@@ -8667,7 +8739,7 @@
       </c>
       <c r="CO11" s="5" t="str">
         <f t="shared" si="47"/>
-        <v xml:space="preserve">Dosha Element --&gt; Pitta
+        <v xml:space="preserve">Dosha Element (must keep the element in check, learn more from ayurveda) --&gt; Pitta
 </v>
       </c>
     </row>
@@ -8812,22 +8884,22 @@
       </c>
       <c r="AU12" s="5" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">Nakshatra --&gt; Purva Phalguni
-Ruling Deity --&gt; Bhaga
-Symbol --&gt; Bed or Hammock
+        <v xml:space="preserve">Nakshatra (Moon Nakshatra) --&gt; Purva Phalguni
+Ruling Deity (Main deity) --&gt; Bhaga
+Symbol (can keep symbol/painting of same in bedroom or desktop) --&gt; Bed or Hammock
 Animal --&gt; Male Rat
 Nature --&gt; Rajas
 Gender --&gt; Female
 Dosha --&gt; Pitta
 Guna --&gt; Tamas
-Purpose --&gt; Prosperity and Pleasure
-Tree --&gt; Palash
-Gemstone --&gt; Diamond
+Purpose (one should strive for) --&gt; Prosperity and Pleasure
+Tree (offer reverance or have it in house if possible) --&gt; Palash
+Gemstone (natural gemstone) --&gt; Diamond
 Yoga --&gt; Siddhi
 Plant/Flower --&gt; Palash
-Color --&gt; Red
-Planet --&gt; Venus
-Mantra --&gt; Om Bhagaya Namaha
+Color (natural effinity) --&gt; Red
+Planet (ruling planet) --&gt; Venus
+Mantra (one must chant daily) --&gt; Om Bhagaya Namaha
 Body Temperament --&gt; Fiery
 Career/Profession --&gt; Artists, Performers, Fashion Designers
 Compatibility --&gt; Magha, Uttara Phalguni, Hasta, Chitra, Swati
@@ -8836,47 +8908,47 @@
 Lucky Directions --&gt; East
 Auspicious Activities --&gt; Marriage, starting new ventures, artistic pursuits
 Inauspicious Activities --&gt; Conflicts, legal issues, financial loss
-Health Issues --&gt; Eye problems, skin issues
+Health Issues (should take care) --&gt; Eye problems, skin issues
 Prayers or Rituals --&gt; Worship Lord Shukra
-Historical/Mythological Significance --&gt; Birthplace of Lord Bhaga
-Mudra --&gt; Surya Mudra
-Food/Dietary Recommendation --&gt; Spicy, pungent foods, grains, lentils, and nuts
-Yoga Posture/Asana --&gt; Bhujangasana, Ardha Chandrasana, Ustrasana
+Historical/Mythological Significance (must read these stories) --&gt; Birthplace of Lord Bhaga
+Mudra (learn and often sit in this mudra) --&gt; Surya Mudra
+Food/Dietary Recommendation (should intake) --&gt; Spicy, pungent foods, grains, lentils, and nuts
+Yoga Posture/Asana (should do these yogas) --&gt; Bhujangasana, Ardha Chandrasana, Ustrasana
 Tarot Card/Divination Symbol --&gt; The Sun
-Hindu Festivals/Holidays --&gt; Raksha Bandhan, Krishna Janmashtami, Navratri
-Chakra/Energy Center --&gt; Manipura
-Yantra/Sacred Geometry --&gt; Sri Yantra
-Spiritual Practice/Sadhana --&gt; Self-reflection and introspection
-Metal/Mineral --&gt; Gold
-Aromatherapy/Essential Oils --&gt; Rosemary, Ginger, Cinnamon
+Hindu Festivals/Holidays (do sadhna on these festivals) --&gt; Raksha Bandhan, Krishna Janmashtami, Navratri
+Chakra/Energy Center (do puja, meditation for this chakra) --&gt; Manipura
+Yantra/Sacred Geometry (can keep this yantra in puja sthal) --&gt; Sri Yantra
+Spiritual Practice/Sadhana (must observe daily) --&gt; Self-reflection and introspection
+Metal/Mineral (natural affliliation) --&gt; Gold
+Aromatherapy/Essential Oils (should apply these) --&gt; Rosemary, Ginger, Cinnamon
 Personality Traits/Characteristics --&gt; Charismatic, self-confident, ambitious
-Mythological Story/Legend --&gt; The story of King Vikramaditya and his court poet Kalidasa
-Sound/Mantra --&gt; Om Hraam
-Flower --&gt; Sunflower
+Mythological Story/Legend (must read these stories) --&gt; The story of King Vikramaditya and his court poet Kalidasa
+Sound/Mantra (must chant this mantra) --&gt; Om Hraam
+Flower (keep these nearby) --&gt; Sunflower
 Prana --&gt; Samana Vayu
 Varna --&gt; Kshatriya
 Taste --&gt; Bitter
-Dosha Element --&gt; Pitta
+Dosha Element (must keep the element in check, learn more from ayurveda) --&gt; Pitta
 </v>
       </c>
       <c r="AV12" s="5" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">Nakshatra --&gt; Purva Phalguni
-Ruling Deity --&gt; Bhaga
-Symbol --&gt; Bed or Hammock
+        <v xml:space="preserve">Nakshatra (Moon Nakshatra) --&gt; Purva Phalguni
+Ruling Deity (Main deity) --&gt; Bhaga
+Symbol (can keep symbol/painting of same in bedroom or desktop) --&gt; Bed or Hammock
 Animal --&gt; Male Rat
 Nature --&gt; Rajas
 Gender --&gt; Female
 Dosha --&gt; Pitta
 Guna --&gt; Tamas
-Purpose --&gt; Prosperity and Pleasure
-Tree --&gt; Palash
-Gemstone --&gt; Diamond
+Purpose (one should strive for) --&gt; Prosperity and Pleasure
+Tree (offer reverance or have it in house if possible) --&gt; Palash
+Gemstone (natural gemstone) --&gt; Diamond
 Yoga --&gt; Siddhi
 Plant/Flower --&gt; Palash
-Color --&gt; Red
-Planet --&gt; Venus
-Mantra --&gt; Om Bhagaya Namaha
+Color (natural effinity) --&gt; Red
+Planet (ruling planet) --&gt; Venus
+Mantra (one must chant daily) --&gt; Om Bhagaya Namaha
 Body Temperament --&gt; Fiery
 Career/Profession --&gt; Artists, Performers, Fashion Designers
 Compatibility --&gt; Magha, Uttara Phalguni, Hasta, Chitra, Swati
@@ -8885,42 +8957,42 @@
 Lucky Directions --&gt; East
 Auspicious Activities --&gt; Marriage, starting new ventures, artistic pursuits
 Inauspicious Activities --&gt; Conflicts, legal issues, financial loss
-Health Issues --&gt; Eye problems, skin issues
+Health Issues (should take care) --&gt; Eye problems, skin issues
 Prayers or Rituals --&gt; Worship Lord Shukra
-Historical/Mythological Significance --&gt; Birthplace of Lord Bhaga
-Mudra --&gt; Surya Mudra
-Food/Dietary Recommendation --&gt; Spicy, pungent foods, grains, lentils, and nuts
-Yoga Posture/Asana --&gt; Bhujangasana, Ardha Chandrasana, Ustrasana
+Historical/Mythological Significance (must read these stories) --&gt; Birthplace of Lord Bhaga
+Mudra (learn and often sit in this mudra) --&gt; Surya Mudra
+Food/Dietary Recommendation (should intake) --&gt; Spicy, pungent foods, grains, lentils, and nuts
+Yoga Posture/Asana (should do these yogas) --&gt; Bhujangasana, Ardha Chandrasana, Ustrasana
 Tarot Card/Divination Symbol --&gt; The Sun
-Hindu Festivals/Holidays --&gt; Raksha Bandhan, Krishna Janmashtami, Navratri
-Chakra/Energy Center --&gt; Manipura
-Yantra/Sacred Geometry --&gt; Sri Yantra
-Spiritual Practice/Sadhana --&gt; Self-reflection and introspection
-Metal/Mineral --&gt; Gold
-Aromatherapy/Essential Oils --&gt; Rosemary, Ginger, Cinnamon
+Hindu Festivals/Holidays (do sadhna on these festivals) --&gt; Raksha Bandhan, Krishna Janmashtami, Navratri
+Chakra/Energy Center (do puja, meditation for this chakra) --&gt; Manipura
+Yantra/Sacred Geometry (can keep this yantra in puja sthal) --&gt; Sri Yantra
+Spiritual Practice/Sadhana (must observe daily) --&gt; Self-reflection and introspection
+Metal/Mineral (natural affliliation) --&gt; Gold
+Aromatherapy/Essential Oils (should apply these) --&gt; Rosemary, Ginger, Cinnamon
 Personality Traits/Characteristics --&gt; Charismatic, self-confident, ambitious
-Mythological Story/Legend --&gt; The story of King Vikramaditya and his court poet Kalidasa
-Sound/Mantra --&gt; Om Hraam
-Flower --&gt; Sunflower
+Mythological Story/Legend (must read these stories) --&gt; The story of King Vikramaditya and his court poet Kalidasa
+Sound/Mantra (must chant this mantra) --&gt; Om Hraam
+Flower (keep these nearby) --&gt; Sunflower
 Prana --&gt; Samana Vayu
 Varna --&gt; Kshatriya
 Taste --&gt; Bitter
-Dosha Element --&gt; Pitta
+Dosha Element (must keep the element in check, learn more from ayurveda) --&gt; Pitta
 </v>
       </c>
       <c r="AW12" s="5" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">Nakshatra --&gt; Purva Phalguni
+        <v xml:space="preserve">Nakshatra (Moon Nakshatra) --&gt; Purva Phalguni
 </v>
       </c>
       <c r="AX12" s="5" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">Ruling Deity --&gt; Bhaga
+        <v xml:space="preserve">Ruling Deity (Main deity) --&gt; Bhaga
 </v>
       </c>
       <c r="AY12" s="5" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">Symbol --&gt; Bed or Hammock
+        <v xml:space="preserve">Symbol (can keep symbol/painting of same in bedroom or desktop) --&gt; Bed or Hammock
 </v>
       </c>
       <c r="AZ12" s="5" t="str">
@@ -8950,17 +9022,17 @@
       </c>
       <c r="BE12" s="5" t="str">
         <f t="shared" si="11"/>
-        <v xml:space="preserve">Purpose --&gt; Prosperity and Pleasure
+        <v xml:space="preserve">Purpose (one should strive for) --&gt; Prosperity and Pleasure
 </v>
       </c>
       <c r="BF12" s="5" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">Tree --&gt; Palash
+        <v xml:space="preserve">Tree (offer reverance or have it in house if possible) --&gt; Palash
 </v>
       </c>
       <c r="BG12" s="5" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">Gemstone --&gt; Diamond
+        <v xml:space="preserve">Gemstone (natural gemstone) --&gt; Diamond
 </v>
       </c>
       <c r="BH12" s="5" t="str">
@@ -8975,17 +9047,17 @@
       </c>
       <c r="BJ12" s="5" t="str">
         <f t="shared" si="16"/>
-        <v xml:space="preserve">Color --&gt; Red
+        <v xml:space="preserve">Color (natural effinity) --&gt; Red
 </v>
       </c>
       <c r="BK12" s="5" t="str">
         <f t="shared" si="17"/>
-        <v xml:space="preserve">Planet --&gt; Venus
+        <v xml:space="preserve">Planet (ruling planet) --&gt; Venus
 </v>
       </c>
       <c r="BL12" s="5" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">Mantra --&gt; Om Bhagaya Namaha
+        <v xml:space="preserve">Mantra (one must chant daily) --&gt; Om Bhagaya Namaha
 </v>
       </c>
       <c r="BM12" s="5" t="str">
@@ -9030,7 +9102,7 @@
       </c>
       <c r="BU12" s="5" t="str">
         <f t="shared" si="27"/>
-        <v xml:space="preserve">Health Issues --&gt; Eye problems, skin issues
+        <v xml:space="preserve">Health Issues (should take care) --&gt; Eye problems, skin issues
 </v>
       </c>
       <c r="BV12" s="5" t="str">
@@ -9040,22 +9112,22 @@
       </c>
       <c r="BW12" s="5" t="str">
         <f t="shared" si="29"/>
-        <v xml:space="preserve">Historical/Mythological Significance --&gt; Birthplace of Lord Bhaga
+        <v xml:space="preserve">Historical/Mythological Significance (must read these stories) --&gt; Birthplace of Lord Bhaga
 </v>
       </c>
       <c r="BX12" s="5" t="str">
         <f t="shared" si="30"/>
-        <v xml:space="preserve">Mudra --&gt; Surya Mudra
+        <v xml:space="preserve">Mudra (learn and often sit in this mudra) --&gt; Surya Mudra
 </v>
       </c>
       <c r="BY12" s="5" t="str">
         <f t="shared" si="31"/>
-        <v xml:space="preserve">Food/Dietary Recommendation --&gt; Spicy, pungent foods, grains, lentils, and nuts
+        <v xml:space="preserve">Food/Dietary Recommendation (should intake) --&gt; Spicy, pungent foods, grains, lentils, and nuts
 </v>
       </c>
       <c r="BZ12" s="5" t="str">
         <f t="shared" si="32"/>
-        <v xml:space="preserve">Yoga Posture/Asana --&gt; Bhujangasana, Ardha Chandrasana, Ustrasana
+        <v xml:space="preserve">Yoga Posture/Asana (should do these yogas) --&gt; Bhujangasana, Ardha Chandrasana, Ustrasana
 </v>
       </c>
       <c r="CA12" s="5" t="str">
@@ -9065,32 +9137,32 @@
       </c>
       <c r="CB12" s="5" t="str">
         <f t="shared" si="34"/>
-        <v xml:space="preserve">Hindu Festivals/Holidays --&gt; Raksha Bandhan, Krishna Janmashtami, Navratri
+        <v xml:space="preserve">Hindu Festivals/Holidays (do sadhna on these festivals) --&gt; Raksha Bandhan, Krishna Janmashtami, Navratri
 </v>
       </c>
       <c r="CC12" s="5" t="str">
         <f t="shared" si="35"/>
-        <v xml:space="preserve">Chakra/Energy Center --&gt; Manipura
+        <v xml:space="preserve">Chakra/Energy Center (do puja, meditation for this chakra) --&gt; Manipura
 </v>
       </c>
       <c r="CD12" s="5" t="str">
         <f t="shared" si="36"/>
-        <v xml:space="preserve">Yantra/Sacred Geometry --&gt; Sri Yantra
+        <v xml:space="preserve">Yantra/Sacred Geometry (can keep this yantra in puja sthal) --&gt; Sri Yantra
 </v>
       </c>
       <c r="CE12" s="5" t="str">
         <f t="shared" si="37"/>
-        <v xml:space="preserve">Spiritual Practice/Sadhana --&gt; Self-reflection and introspection
+        <v xml:space="preserve">Spiritual Practice/Sadhana (must observe daily) --&gt; Self-reflection and introspection
 </v>
       </c>
       <c r="CF12" s="5" t="str">
         <f t="shared" si="38"/>
-        <v xml:space="preserve">Metal/Mineral --&gt; Gold
+        <v xml:space="preserve">Metal/Mineral (natural affliliation) --&gt; Gold
 </v>
       </c>
       <c r="CG12" s="5" t="str">
         <f t="shared" si="39"/>
-        <v xml:space="preserve">Aromatherapy/Essential Oils --&gt; Rosemary, Ginger, Cinnamon
+        <v xml:space="preserve">Aromatherapy/Essential Oils (should apply these) --&gt; Rosemary, Ginger, Cinnamon
 </v>
       </c>
       <c r="CH12" s="5" t="str">
@@ -9100,17 +9172,17 @@
       </c>
       <c r="CI12" s="5" t="str">
         <f t="shared" si="41"/>
-        <v xml:space="preserve">Mythological Story/Legend --&gt; The story of King Vikramaditya and his court poet Kalidasa
+        <v xml:space="preserve">Mythological Story/Legend (must read these stories) --&gt; The story of King Vikramaditya and his court poet Kalidasa
 </v>
       </c>
       <c r="CJ12" s="5" t="str">
         <f t="shared" si="42"/>
-        <v xml:space="preserve">Sound/Mantra --&gt; Om Hraam
+        <v xml:space="preserve">Sound/Mantra (must chant this mantra) --&gt; Om Hraam
 </v>
       </c>
       <c r="CK12" s="5" t="str">
         <f t="shared" si="43"/>
-        <v xml:space="preserve">Flower --&gt; Sunflower
+        <v xml:space="preserve">Flower (keep these nearby) --&gt; Sunflower
 </v>
       </c>
       <c r="CL12" s="5" t="str">
@@ -9130,7 +9202,7 @@
       </c>
       <c r="CO12" s="5" t="str">
         <f t="shared" si="47"/>
-        <v xml:space="preserve">Dosha Element --&gt; Pitta
+        <v xml:space="preserve">Dosha Element (must keep the element in check, learn more from ayurveda) --&gt; Pitta
 </v>
       </c>
     </row>
@@ -9275,22 +9347,22 @@
       </c>
       <c r="AU13" s="5" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">Nakshatra --&gt; Uttara Phalguni
-Ruling Deity --&gt; Aryaman
-Symbol --&gt; Bed or Hammock
+        <v xml:space="preserve">Nakshatra (Moon Nakshatra) --&gt; Uttara Phalguni
+Ruling Deity (Main deity) --&gt; Aryaman
+Symbol (can keep symbol/painting of same in bedroom or desktop) --&gt; Bed or Hammock
 Animal --&gt; Female Cow
 Nature --&gt; Sattva
 Gender --&gt; Male
 Dosha --&gt; Kapha
 Guna --&gt; Sattva
-Purpose --&gt; Auspicious Activities
-Tree --&gt; Ashoka
-Gemstone --&gt; Ruby
+Purpose (one should strive for) --&gt; Auspicious Activities
+Tree (offer reverance or have it in house if possible) --&gt; Ashoka
+Gemstone (natural gemstone) --&gt; Ruby
 Yoga --&gt; Vaidhriti
 Plant/Flower --&gt; Ashoka
-Color --&gt; Cream
-Planet --&gt; Sun
-Mantra --&gt; Om Aryamaaya Namaha
+Color (natural effinity) --&gt; Cream
+Planet (ruling planet) --&gt; Sun
+Mantra (one must chant daily) --&gt; Om Aryamaaya Namaha
 Body Temperament --&gt; Earthy
 Career/Profession --&gt; Doctors, Lawyers, Bankers
 Compatibility --&gt; Magha, Purva Phalguni, Hasta, Chitra, Swati
@@ -9299,47 +9371,47 @@
 Lucky Directions --&gt; North
 Auspicious Activities --&gt; Marriage, starting new ventures, spiritual practices
 Inauspicious Activities --&gt; Quarrels, conflicts, legal issues
-Health Issues --&gt; Heart ailments, fever
+Health Issues (should take care) --&gt; Heart ailments, fever
 Prayers or Rituals --&gt; Worship Lord Aryaman
-Historical/Mythological Significance --&gt; Birthplace of the Sun god
-Mudra --&gt; Ganesha Mudra
-Food/Dietary Recommendation --&gt; Light and easy to digest foods, fruits and vegetables
-Yoga Posture/Asana --&gt; Padmasana, Matsyasana, Gomukhasana
+Historical/Mythological Significance (must read these stories) --&gt; Birthplace of the Sun god
+Mudra (learn and often sit in this mudra) --&gt; Ganesha Mudra
+Food/Dietary Recommendation (should intake) --&gt; Light and easy to digest foods, fruits and vegetables
+Yoga Posture/Asana (should do these yogas) --&gt; Padmasana, Matsyasana, Gomukhasana
 Tarot Card/Divination Symbol --&gt; The Magician
-Hindu Festivals/Holidays --&gt; Ganesh Chaturthi, Navratri
-Chakra/Energy Center --&gt; Manipura
-Yantra/Sacred Geometry --&gt; Sri Yantra
-Spiritual Practice/Sadhana --&gt; Developing creativity and artistic skills
-Metal/Mineral --&gt; Silver
-Aromatherapy/Essential Oils --&gt; Lavender, Jasmine, Vetiver
+Hindu Festivals/Holidays (do sadhna on these festivals) --&gt; Ganesh Chaturthi, Navratri
+Chakra/Energy Center (do puja, meditation for this chakra) --&gt; Manipura
+Yantra/Sacred Geometry (can keep this yantra in puja sthal) --&gt; Sri Yantra
+Spiritual Practice/Sadhana (must observe daily) --&gt; Developing creativity and artistic skills
+Metal/Mineral (natural affliliation) --&gt; Silver
+Aromatherapy/Essential Oils (should apply these) --&gt; Lavender, Jasmine, Vetiver
 Personality Traits/Characteristics --&gt; Dexterous, skilled, adaptive
-Mythological Story/Legend --&gt; The story of the god Indra and his handmaiden
-Sound/Mantra --&gt; Om Shri Ganeshaya Namah
-Flower --&gt; Jasmine
+Mythological Story/Legend (must read these stories) --&gt; The story of the god Indra and his handmaiden
+Sound/Mantra (must chant this mantra) --&gt; Om Shri Ganeshaya Namah
+Flower (keep these nearby) --&gt; Jasmine
 Prana --&gt; Prana Vayu
 Varna --&gt; Vaishya
 Taste --&gt; Sweet
-Dosha Element --&gt; Pitta
+Dosha Element (must keep the element in check, learn more from ayurveda) --&gt; Pitta
 </v>
       </c>
       <c r="AV13" s="5" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">Nakshatra --&gt; Uttara Phalguni
-Ruling Deity --&gt; Aryaman
-Symbol --&gt; Bed or Hammock
+        <v xml:space="preserve">Nakshatra (Moon Nakshatra) --&gt; Uttara Phalguni
+Ruling Deity (Main deity) --&gt; Aryaman
+Symbol (can keep symbol/painting of same in bedroom or desktop) --&gt; Bed or Hammock
 Animal --&gt; Female Cow
 Nature --&gt; Sattva
 Gender --&gt; Male
 Dosha --&gt; Kapha
 Guna --&gt; Sattva
-Purpose --&gt; Auspicious Activities
-Tree --&gt; Ashoka
-Gemstone --&gt; Ruby
+Purpose (one should strive for) --&gt; Auspicious Activities
+Tree (offer reverance or have it in house if possible) --&gt; Ashoka
+Gemstone (natural gemstone) --&gt; Ruby
 Yoga --&gt; Vaidhriti
 Plant/Flower --&gt; Ashoka
-Color --&gt; Cream
-Planet --&gt; Sun
-Mantra --&gt; Om Aryamaaya Namaha
+Color (natural effinity) --&gt; Cream
+Planet (ruling planet) --&gt; Sun
+Mantra (one must chant daily) --&gt; Om Aryamaaya Namaha
 Body Temperament --&gt; Earthy
 Career/Profession --&gt; Doctors, Lawyers, Bankers
 Compatibility --&gt; Magha, Purva Phalguni, Hasta, Chitra, Swati
@@ -9348,42 +9420,42 @@
 Lucky Directions --&gt; North
 Auspicious Activities --&gt; Marriage, starting new ventures, spiritual practices
 Inauspicious Activities --&gt; Quarrels, conflicts, legal issues
-Health Issues --&gt; Heart ailments, fever
+Health Issues (should take care) --&gt; Heart ailments, fever
 Prayers or Rituals --&gt; Worship Lord Aryaman
-Historical/Mythological Significance --&gt; Birthplace of the Sun god
-Mudra --&gt; Ganesha Mudra
-Food/Dietary Recommendation --&gt; Light and easy to digest foods, fruits and vegetables
-Yoga Posture/Asana --&gt; Padmasana, Matsyasana, Gomukhasana
+Historical/Mythological Significance (must read these stories) --&gt; Birthplace of the Sun god
+Mudra (learn and often sit in this mudra) --&gt; Ganesha Mudra
+Food/Dietary Recommendation (should intake) --&gt; Light and easy to digest foods, fruits and vegetables
+Yoga Posture/Asana (should do these yogas) --&gt; Padmasana, Matsyasana, Gomukhasana
 Tarot Card/Divination Symbol --&gt; The Magician
-Hindu Festivals/Holidays --&gt; Ganesh Chaturthi, Navratri
-Chakra/Energy Center --&gt; Manipura
-Yantra/Sacred Geometry --&gt; Sri Yantra
-Spiritual Practice/Sadhana --&gt; Developing creativity and artistic skills
-Metal/Mineral --&gt; Silver
-Aromatherapy/Essential Oils --&gt; Lavender, Jasmine, Vetiver
+Hindu Festivals/Holidays (do sadhna on these festivals) --&gt; Ganesh Chaturthi, Navratri
+Chakra/Energy Center (do puja, meditation for this chakra) --&gt; Manipura
+Yantra/Sacred Geometry (can keep this yantra in puja sthal) --&gt; Sri Yantra
+Spiritual Practice/Sadhana (must observe daily) --&gt; Developing creativity and artistic skills
+Metal/Mineral (natural affliliation) --&gt; Silver
+Aromatherapy/Essential Oils (should apply these) --&gt; Lavender, Jasmine, Vetiver
 Personality Traits/Characteristics --&gt; Dexterous, skilled, adaptive
-Mythological Story/Legend --&gt; The story of the god Indra and his handmaiden
-Sound/Mantra --&gt; Om Shri Ganeshaya Namah
-Flower --&gt; Jasmine
+Mythological Story/Legend (must read these stories) --&gt; The story of the god Indra and his handmaiden
+Sound/Mantra (must chant this mantra) --&gt; Om Shri Ganeshaya Namah
+Flower (keep these nearby) --&gt; Jasmine
 Prana --&gt; Prana Vayu
 Varna --&gt; Vaishya
 Taste --&gt; Sweet
-Dosha Element --&gt; Pitta
+Dosha Element (must keep the element in check, learn more from ayurveda) --&gt; Pitta
 </v>
       </c>
       <c r="AW13" s="5" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">Nakshatra --&gt; Uttara Phalguni
+        <v xml:space="preserve">Nakshatra (Moon Nakshatra) --&gt; Uttara Phalguni
 </v>
       </c>
       <c r="AX13" s="5" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">Ruling Deity --&gt; Aryaman
+        <v xml:space="preserve">Ruling Deity (Main deity) --&gt; Aryaman
 </v>
       </c>
       <c r="AY13" s="5" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">Symbol --&gt; Bed or Hammock
+        <v xml:space="preserve">Symbol (can keep symbol/painting of same in bedroom or desktop) --&gt; Bed or Hammock
 </v>
       </c>
       <c r="AZ13" s="5" t="str">
@@ -9413,17 +9485,17 @@
       </c>
       <c r="BE13" s="5" t="str">
         <f t="shared" si="11"/>
-        <v xml:space="preserve">Purpose --&gt; Auspicious Activities
+        <v xml:space="preserve">Purpose (one should strive for) --&gt; Auspicious Activities
 </v>
       </c>
       <c r="BF13" s="5" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">Tree --&gt; Ashoka
+        <v xml:space="preserve">Tree (offer reverance or have it in house if possible) --&gt; Ashoka
 </v>
       </c>
       <c r="BG13" s="5" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">Gemstone --&gt; Ruby
+        <v xml:space="preserve">Gemstone (natural gemstone) --&gt; Ruby
 </v>
       </c>
       <c r="BH13" s="5" t="str">
@@ -9438,17 +9510,17 @@
       </c>
       <c r="BJ13" s="5" t="str">
         <f t="shared" si="16"/>
-        <v xml:space="preserve">Color --&gt; Cream
+        <v xml:space="preserve">Color (natural effinity) --&gt; Cream
 </v>
       </c>
       <c r="BK13" s="5" t="str">
         <f t="shared" si="17"/>
-        <v xml:space="preserve">Planet --&gt; Sun
+        <v xml:space="preserve">Planet (ruling planet) --&gt; Sun
 </v>
       </c>
       <c r="BL13" s="5" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">Mantra --&gt; Om Aryamaaya Namaha
+        <v xml:space="preserve">Mantra (one must chant daily) --&gt; Om Aryamaaya Namaha
 </v>
       </c>
       <c r="BM13" s="5" t="str">
@@ -9493,7 +9565,7 @@
       </c>
       <c r="BU13" s="5" t="str">
         <f t="shared" si="27"/>
-        <v xml:space="preserve">Health Issues --&gt; Heart ailments, fever
+        <v xml:space="preserve">Health Issues (should take care) --&gt; Heart ailments, fever
 </v>
       </c>
       <c r="BV13" s="5" t="str">
@@ -9503,22 +9575,22 @@
       </c>
       <c r="BW13" s="5" t="str">
         <f t="shared" si="29"/>
-        <v xml:space="preserve">Historical/Mythological Significance --&gt; Birthplace of the Sun god
+        <v xml:space="preserve">Historical/Mythological Significance (must read these stories) --&gt; Birthplace of the Sun god
 </v>
       </c>
       <c r="BX13" s="5" t="str">
         <f t="shared" si="30"/>
-        <v xml:space="preserve">Mudra --&gt; Ganesha Mudra
+        <v xml:space="preserve">Mudra (learn and often sit in this mudra) --&gt; Ganesha Mudra
 </v>
       </c>
       <c r="BY13" s="5" t="str">
         <f t="shared" si="31"/>
-        <v xml:space="preserve">Food/Dietary Recommendation --&gt; Light and easy to digest foods, fruits and vegetables
+        <v xml:space="preserve">Food/Dietary Recommendation (should intake) --&gt; Light and easy to digest foods, fruits and vegetables
 </v>
       </c>
       <c r="BZ13" s="5" t="str">
         <f t="shared" si="32"/>
-        <v xml:space="preserve">Yoga Posture/Asana --&gt; Padmasana, Matsyasana, Gomukhasana
+        <v xml:space="preserve">Yoga Posture/Asana (should do these yogas) --&gt; Padmasana, Matsyasana, Gomukhasana
 </v>
       </c>
       <c r="CA13" s="5" t="str">
@@ -9528,32 +9600,32 @@
       </c>
       <c r="CB13" s="5" t="str">
         <f t="shared" si="34"/>
-        <v xml:space="preserve">Hindu Festivals/Holidays --&gt; Ganesh Chaturthi, Navratri
+        <v xml:space="preserve">Hindu Festivals/Holidays (do sadhna on these festivals) --&gt; Ganesh Chaturthi, Navratri
 </v>
       </c>
       <c r="CC13" s="5" t="str">
         <f t="shared" si="35"/>
-        <v xml:space="preserve">Chakra/Energy Center --&gt; Manipura
+        <v xml:space="preserve">Chakra/Energy Center (do puja, meditation for this chakra) --&gt; Manipura
 </v>
       </c>
       <c r="CD13" s="5" t="str">
         <f t="shared" si="36"/>
-        <v xml:space="preserve">Yantra/Sacred Geometry --&gt; Sri Yantra
+        <v xml:space="preserve">Yantra/Sacred Geometry (can keep this yantra in puja sthal) --&gt; Sri Yantra
 </v>
       </c>
       <c r="CE13" s="5" t="str">
         <f t="shared" si="37"/>
-        <v xml:space="preserve">Spiritual Practice/Sadhana --&gt; Developing creativity and artistic skills
+        <v xml:space="preserve">Spiritual Practice/Sadhana (must observe daily) --&gt; Developing creativity and artistic skills
 </v>
       </c>
       <c r="CF13" s="5" t="str">
         <f t="shared" si="38"/>
-        <v xml:space="preserve">Metal/Mineral --&gt; Silver
+        <v xml:space="preserve">Metal/Mineral (natural affliliation) --&gt; Silver
 </v>
       </c>
       <c r="CG13" s="5" t="str">
         <f t="shared" si="39"/>
-        <v xml:space="preserve">Aromatherapy/Essential Oils --&gt; Lavender, Jasmine, Vetiver
+        <v xml:space="preserve">Aromatherapy/Essential Oils (should apply these) --&gt; Lavender, Jasmine, Vetiver
 </v>
       </c>
       <c r="CH13" s="5" t="str">
@@ -9563,17 +9635,17 @@
       </c>
       <c r="CI13" s="5" t="str">
         <f t="shared" si="41"/>
-        <v xml:space="preserve">Mythological Story/Legend --&gt; The story of the god Indra and his handmaiden
+        <v xml:space="preserve">Mythological Story/Legend (must read these stories) --&gt; The story of the god Indra and his handmaiden
 </v>
       </c>
       <c r="CJ13" s="5" t="str">
         <f t="shared" si="42"/>
-        <v xml:space="preserve">Sound/Mantra --&gt; Om Shri Ganeshaya Namah
+        <v xml:space="preserve">Sound/Mantra (must chant this mantra) --&gt; Om Shri Ganeshaya Namah
 </v>
       </c>
       <c r="CK13" s="5" t="str">
         <f t="shared" si="43"/>
-        <v xml:space="preserve">Flower --&gt; Jasmine
+        <v xml:space="preserve">Flower (keep these nearby) --&gt; Jasmine
 </v>
       </c>
       <c r="CL13" s="5" t="str">
@@ -9593,7 +9665,7 @@
       </c>
       <c r="CO13" s="5" t="str">
         <f t="shared" si="47"/>
-        <v xml:space="preserve">Dosha Element --&gt; Pitta
+        <v xml:space="preserve">Dosha Element (must keep the element in check, learn more from ayurveda) --&gt; Pitta
 </v>
       </c>
     </row>
@@ -9738,22 +9810,22 @@
       </c>
       <c r="AU14" s="5" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">Nakshatra --&gt; Hasta
-Ruling Deity --&gt; Savitar
-Symbol --&gt; Hand or Fist
+        <v xml:space="preserve">Nakshatra (Moon Nakshatra) --&gt; Hasta
+Ruling Deity (Main deity) --&gt; Savitar
+Symbol (can keep symbol/painting of same in bedroom or desktop) --&gt; Hand or Fist
 Animal --&gt; Female Buffalo
 Nature --&gt; Rajas
 Gender --&gt; Female
 Dosha --&gt; Vata
 Guna --&gt; Rajas
-Purpose --&gt; Skill Development
-Tree --&gt; Audumbara
-Gemstone --&gt; Topaz
+Purpose (one should strive for) --&gt; Skill Development
+Tree (offer reverance or have it in house if possible) --&gt; Audumbara
+Gemstone (natural gemstone) --&gt; Topaz
 Yoga --&gt; Siddha
 Plant/Flower --&gt; Audumbara
-Color --&gt; Green
-Planet --&gt; Moon
-Mantra --&gt; Om Savitre Namaha
+Color (natural effinity) --&gt; Green
+Planet (ruling planet) --&gt; Moon
+Mantra (one must chant daily) --&gt; Om Savitre Namaha
 Body Temperament --&gt; Airy
 Career/Profession --&gt; Engineers, Architects, Designers
 Compatibility --&gt; Uttara Phalguni, Chitra, Swati, Vishakha, Anuradha
@@ -9762,47 +9834,47 @@
 Lucky Directions --&gt; North
 Auspicious Activities --&gt; Starting new ventures, artistic pursuits, spiritual practices
 Inauspicious Activities --&gt; Quarrels, conflicts, theft
-Health Issues --&gt; Hand and feet related issues, skin problems
+Health Issues (should take care) --&gt; Hand and feet related issues, skin problems
 Prayers or Rituals --&gt; Worship Lord Savitar
-Historical/Mythological Significance --&gt; Birthplace of Lord Surya
-Mudra --&gt; Prithvi Mudra
-Food/Dietary Recommendation --&gt; Fresh and organic foods, herbs and spices
-Yoga Posture/Asana --&gt; Vrksasana, Tadasana, Virabhadrasana
+Historical/Mythological Significance (must read these stories) --&gt; Birthplace of Lord Surya
+Mudra (learn and often sit in this mudra) --&gt; Prithvi Mudra
+Food/Dietary Recommendation (should intake) --&gt; Fresh and organic foods, herbs and spices
+Yoga Posture/Asana (should do these yogas) --&gt; Vrksasana, Tadasana, Virabhadrasana
 Tarot Card/Divination Symbol --&gt; The Empress
-Hindu Festivals/Holidays --&gt; Navratri
-Chakra/Energy Center --&gt; Muladhara
-Yantra/Sacred Geometry --&gt; Shri Yantra
-Spiritual Practice/Sadhana --&gt; Cultivating inner beauty and harmony
-Metal/Mineral --&gt; Diamond
-Aromatherapy/Essential Oils --&gt; Sandalwood, Patchouli, Frankincense
+Hindu Festivals/Holidays (do sadhna on these festivals) --&gt; Navratri
+Chakra/Energy Center (do puja, meditation for this chakra) --&gt; Muladhara
+Yantra/Sacred Geometry (can keep this yantra in puja sthal) --&gt; Shri Yantra
+Spiritual Practice/Sadhana (must observe daily) --&gt; Cultivating inner beauty and harmony
+Metal/Mineral (natural affliliation) --&gt; Diamond
+Aromatherapy/Essential Oils (should apply these) --&gt; Sandalwood, Patchouli, Frankincense
 Personality Traits/Characteristics --&gt; Creative, artistic, sensuous
-Mythological Story/Legend --&gt; The story of the celestial architect Vishwakarma
-Sound/Mantra --&gt; Om Shrim
-Flower --&gt; Cosmos
+Mythological Story/Legend (must read these stories) --&gt; The story of the celestial architect Vishwakarma
+Sound/Mantra (must chant this mantra) --&gt; Om Shrim
+Flower (keep these nearby) --&gt; Cosmos
 Prana --&gt; Vyana Vayu
 Varna --&gt; Kshatriya
 Taste --&gt; Astringent
-Dosha Element --&gt; Vata
+Dosha Element (must keep the element in check, learn more from ayurveda) --&gt; Vata
 </v>
       </c>
       <c r="AV14" s="5" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">Nakshatra --&gt; Hasta
-Ruling Deity --&gt; Savitar
-Symbol --&gt; Hand or Fist
+        <v xml:space="preserve">Nakshatra (Moon Nakshatra) --&gt; Hasta
+Ruling Deity (Main deity) --&gt; Savitar
+Symbol (can keep symbol/painting of same in bedroom or desktop) --&gt; Hand or Fist
 Animal --&gt; Female Buffalo
 Nature --&gt; Rajas
 Gender --&gt; Female
 Dosha --&gt; Vata
 Guna --&gt; Rajas
-Purpose --&gt; Skill Development
-Tree --&gt; Audumbara
-Gemstone --&gt; Topaz
+Purpose (one should strive for) --&gt; Skill Development
+Tree (offer reverance or have it in house if possible) --&gt; Audumbara
+Gemstone (natural gemstone) --&gt; Topaz
 Yoga --&gt; Siddha
 Plant/Flower --&gt; Audumbara
-Color --&gt; Green
-Planet --&gt; Moon
-Mantra --&gt; Om Savitre Namaha
+Color (natural effinity) --&gt; Green
+Planet (ruling planet) --&gt; Moon
+Mantra (one must chant daily) --&gt; Om Savitre Namaha
 Body Temperament --&gt; Airy
 Career/Profession --&gt; Engineers, Architects, Designers
 Compatibility --&gt; Uttara Phalguni, Chitra, Swati, Vishakha, Anuradha
@@ -9811,42 +9883,42 @@
 Lucky Directions --&gt; North
 Auspicious Activities --&gt; Starting new ventures, artistic pursuits, spiritual practices
 Inauspicious Activities --&gt; Quarrels, conflicts, theft
-Health Issues --&gt; Hand and feet related issues, skin problems
+Health Issues (should take care) --&gt; Hand and feet related issues, skin problems
 Prayers or Rituals --&gt; Worship Lord Savitar
-Historical/Mythological Significance --&gt; Birthplace of Lord Surya
-Mudra --&gt; Prithvi Mudra
-Food/Dietary Recommendation --&gt; Fresh and organic foods, herbs and spices
-Yoga Posture/Asana --&gt; Vrksasana, Tadasana, Virabhadrasana
+Historical/Mythological Significance (must read these stories) --&gt; Birthplace of Lord Surya
+Mudra (learn and often sit in this mudra) --&gt; Prithvi Mudra
+Food/Dietary Recommendation (should intake) --&gt; Fresh and organic foods, herbs and spices
+Yoga Posture/Asana (should do these yogas) --&gt; Vrksasana, Tadasana, Virabhadrasana
 Tarot Card/Divination Symbol --&gt; The Empress
-Hindu Festivals/Holidays --&gt; Navratri
-Chakra/Energy Center --&gt; Muladhara
-Yantra/Sacred Geometry --&gt; Shri Yantra
-Spiritual Practice/Sadhana --&gt; Cultivating inner beauty and harmony
-Metal/Mineral --&gt; Diamond
-Aromatherapy/Essential Oils --&gt; Sandalwood, Patchouli, Frankincense
+Hindu Festivals/Holidays (do sadhna on these festivals) --&gt; Navratri
+Chakra/Energy Center (do puja, meditation for this chakra) --&gt; Muladhara
+Yantra/Sacred Geometry (can keep this yantra in puja sthal) --&gt; Shri Yantra
+Spiritual Practice/Sadhana (must observe daily) --&gt; Cultivating inner beauty and harmony
+Metal/Mineral (natural affliliation) --&gt; Diamond
+Aromatherapy/Essential Oils (should apply these) --&gt; Sandalwood, Patchouli, Frankincense
 Personality Traits/Characteristics --&gt; Creative, artistic, sensuous
-Mythological Story/Legend --&gt; The story of the celestial architect Vishwakarma
-Sound/Mantra --&gt; Om Shrim
-Flower --&gt; Cosmos
+Mythological Story/Legend (must read these stories) --&gt; The story of the celestial architect Vishwakarma
+Sound/Mantra (must chant this mantra) --&gt; Om Shrim
+Flower (keep these nearby) --&gt; Cosmos
 Prana --&gt; Vyana Vayu
 Varna --&gt; Kshatriya
 Taste --&gt; Astringent
-Dosha Element --&gt; Vata
+Dosha Element (must keep the element in check, learn more from ayurveda) --&gt; Vata
 </v>
       </c>
       <c r="AW14" s="5" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">Nakshatra --&gt; Hasta
+        <v xml:space="preserve">Nakshatra (Moon Nakshatra) --&gt; Hasta
 </v>
       </c>
       <c r="AX14" s="5" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">Ruling Deity --&gt; Savitar
+        <v xml:space="preserve">Ruling Deity (Main deity) --&gt; Savitar
 </v>
       </c>
       <c r="AY14" s="5" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">Symbol --&gt; Hand or Fist
+        <v xml:space="preserve">Symbol (can keep symbol/painting of same in bedroom or desktop) --&gt; Hand or Fist
 </v>
       </c>
       <c r="AZ14" s="5" t="str">
@@ -9876,17 +9948,17 @@
       </c>
       <c r="BE14" s="5" t="str">
         <f t="shared" si="11"/>
-        <v xml:space="preserve">Purpose --&gt; Skill Development
+        <v xml:space="preserve">Purpose (one should strive for) --&gt; Skill Development
 </v>
       </c>
       <c r="BF14" s="5" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">Tree --&gt; Audumbara
+        <v xml:space="preserve">Tree (offer reverance or have it in house if possible) --&gt; Audumbara
 </v>
       </c>
       <c r="BG14" s="5" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">Gemstone --&gt; Topaz
+        <v xml:space="preserve">Gemstone (natural gemstone) --&gt; Topaz
 </v>
       </c>
       <c r="BH14" s="5" t="str">
@@ -9901,17 +9973,17 @@
       </c>
       <c r="BJ14" s="5" t="str">
         <f t="shared" si="16"/>
-        <v xml:space="preserve">Color --&gt; Green
+        <v xml:space="preserve">Color (natural effinity) --&gt; Green
 </v>
       </c>
       <c r="BK14" s="5" t="str">
         <f t="shared" si="17"/>
-        <v xml:space="preserve">Planet --&gt; Moon
+        <v xml:space="preserve">Planet (ruling planet) --&gt; Moon
 </v>
       </c>
       <c r="BL14" s="5" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">Mantra --&gt; Om Savitre Namaha
+        <v xml:space="preserve">Mantra (one must chant daily) --&gt; Om Savitre Namaha
 </v>
       </c>
       <c r="BM14" s="5" t="str">
@@ -9956,7 +10028,7 @@
       </c>
       <c r="BU14" s="5" t="str">
         <f t="shared" si="27"/>
-        <v xml:space="preserve">Health Issues --&gt; Hand and feet related issues, skin problems
+        <v xml:space="preserve">Health Issues (should take care) --&gt; Hand and feet related issues, skin problems
 </v>
       </c>
       <c r="BV14" s="5" t="str">
@@ -9966,22 +10038,22 @@
       </c>
       <c r="BW14" s="5" t="str">
         <f t="shared" si="29"/>
-        <v xml:space="preserve">Historical/Mythological Significance --&gt; Birthplace of Lord Surya
+        <v xml:space="preserve">Historical/Mythological Significance (must read these stories) --&gt; Birthplace of Lord Surya
 </v>
       </c>
       <c r="BX14" s="5" t="str">
         <f t="shared" si="30"/>
-        <v xml:space="preserve">Mudra --&gt; Prithvi Mudra
+        <v xml:space="preserve">Mudra (learn and often sit in this mudra) --&gt; Prithvi Mudra
 </v>
       </c>
       <c r="BY14" s="5" t="str">
         <f t="shared" si="31"/>
-        <v xml:space="preserve">Food/Dietary Recommendation --&gt; Fresh and organic foods, herbs and spices
+        <v xml:space="preserve">Food/Dietary Recommendation (should intake) --&gt; Fresh and organic foods, herbs and spices
 </v>
       </c>
       <c r="BZ14" s="5" t="str">
         <f t="shared" si="32"/>
-        <v xml:space="preserve">Yoga Posture/Asana --&gt; Vrksasana, Tadasana, Virabhadrasana
+        <v xml:space="preserve">Yoga Posture/Asana (should do these yogas) --&gt; Vrksasana, Tadasana, Virabhadrasana
 </v>
       </c>
       <c r="CA14" s="5" t="str">
@@ -9991,32 +10063,32 @@
       </c>
       <c r="CB14" s="5" t="str">
         <f t="shared" si="34"/>
-        <v xml:space="preserve">Hindu Festivals/Holidays --&gt; Navratri
+        <v xml:space="preserve">Hindu Festivals/Holidays (do sadhna on these festivals) --&gt; Navratri
 </v>
       </c>
       <c r="CC14" s="5" t="str">
         <f t="shared" si="35"/>
-        <v xml:space="preserve">Chakra/Energy Center --&gt; Muladhara
+        <v xml:space="preserve">Chakra/Energy Center (do puja, meditation for this chakra) --&gt; Muladhara
 </v>
       </c>
       <c r="CD14" s="5" t="str">
         <f t="shared" si="36"/>
-        <v xml:space="preserve">Yantra/Sacred Geometry --&gt; Shri Yantra
+        <v xml:space="preserve">Yantra/Sacred Geometry (can keep this yantra in puja sthal) --&gt; Shri Yantra
 </v>
       </c>
       <c r="CE14" s="5" t="str">
         <f t="shared" si="37"/>
-        <v xml:space="preserve">Spiritual Practice/Sadhana --&gt; Cultivating inner beauty and harmony
+        <v xml:space="preserve">Spiritual Practice/Sadhana (must observe daily) --&gt; Cultivating inner beauty and harmony
 </v>
       </c>
       <c r="CF14" s="5" t="str">
         <f t="shared" si="38"/>
-        <v xml:space="preserve">Metal/Mineral --&gt; Diamond
+        <v xml:space="preserve">Metal/Mineral (natural affliliation) --&gt; Diamond
 </v>
       </c>
       <c r="CG14" s="5" t="str">
         <f t="shared" si="39"/>
-        <v xml:space="preserve">Aromatherapy/Essential Oils --&gt; Sandalwood, Patchouli, Frankincense
+        <v xml:space="preserve">Aromatherapy/Essential Oils (should apply these) --&gt; Sandalwood, Patchouli, Frankincense
 </v>
       </c>
       <c r="CH14" s="5" t="str">
@@ -10026,17 +10098,17 @@
       </c>
       <c r="CI14" s="5" t="str">
         <f t="shared" si="41"/>
-        <v xml:space="preserve">Mythological Story/Legend --&gt; The story of the celestial architect Vishwakarma
+        <v xml:space="preserve">Mythological Story/Legend (must read these stories) --&gt; The story of the celestial architect Vishwakarma
 </v>
       </c>
       <c r="CJ14" s="5" t="str">
         <f t="shared" si="42"/>
-        <v xml:space="preserve">Sound/Mantra --&gt; Om Shrim
+        <v xml:space="preserve">Sound/Mantra (must chant this mantra) --&gt; Om Shrim
 </v>
       </c>
       <c r="CK14" s="5" t="str">
         <f t="shared" si="43"/>
-        <v xml:space="preserve">Flower --&gt; Cosmos
+        <v xml:space="preserve">Flower (keep these nearby) --&gt; Cosmos
 </v>
       </c>
       <c r="CL14" s="5" t="str">
@@ -10056,7 +10128,7 @@
       </c>
       <c r="CO14" s="5" t="str">
         <f t="shared" si="47"/>
-        <v xml:space="preserve">Dosha Element --&gt; Vata
+        <v xml:space="preserve">Dosha Element (must keep the element in check, learn more from ayurveda) --&gt; Vata
 </v>
       </c>
     </row>
@@ -10201,22 +10273,22 @@
       </c>
       <c r="AU15" s="5" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">Nakshatra --&gt; Chitra
-Ruling Deity --&gt; Vishvakarma
-Symbol --&gt; Bright Jewel or Pearl
+        <v xml:space="preserve">Nakshatra (Moon Nakshatra) --&gt; Chitra
+Ruling Deity (Main deity) --&gt; Vishvakarma
+Symbol (can keep symbol/painting of same in bedroom or desktop) --&gt; Bright Jewel or Pearl
 Animal --&gt; Male Tiger
 Nature --&gt; Tamas
 Gender --&gt; Male
 Dosha --&gt; Pitta
 Guna --&gt; Tamas
-Purpose --&gt; Creative Expression
-Tree --&gt; Naga
-Gemstone --&gt; Gomedh
+Purpose (one should strive for) --&gt; Creative Expression
+Tree (offer reverance or have it in house if possible) --&gt; Naga
+Gemstone (natural gemstone) --&gt; Gomedh
 Yoga --&gt; Vyatipata
 Plant/Flower --&gt; Naga
-Color --&gt; Red
-Planet --&gt; Mars
-Mantra --&gt; Om Vishvakarmane Namaha
+Color (natural effinity) --&gt; Red
+Planet (ruling planet) --&gt; Mars
+Mantra (one must chant daily) --&gt; Om Vishvakarmane Namaha
 Body Temperament --&gt; Airy
 Career/Profession --&gt; Artists, Designers, Architects
 Compatibility --&gt; Hasta, Swati, Vishakha, Anuradha, Jyeshtha
@@ -10225,47 +10297,47 @@
 Lucky Directions --&gt; South
 Auspicious Activities --&gt; Starting new ventures, artistic pursuits, seeking knowledge
 Inauspicious Activities --&gt; Conflicts, legal issues, theft
-Health Issues --&gt; Eye problems, skin issues
+Health Issues (should take care) --&gt; Eye problems, skin issues
 Prayers or Rituals --&gt; Worship Lord Vishwakarma
-Historical/Mythological Significance --&gt; Birthplace of Lord Twashta
-Mudra --&gt; Vayu Mudra
-Food/Dietary Recommendation --&gt; Light and easily digestible foods, fruits and vegetables
-Yoga Posture/Asana --&gt; Vrikshasana, Trikonasana, Ardha Matsyendrasana
+Historical/Mythological Significance (must read these stories) --&gt; Birthplace of Lord Twashta
+Mudra (learn and often sit in this mudra) --&gt; Vayu Mudra
+Food/Dietary Recommendation (should intake) --&gt; Light and easily digestible foods, fruits and vegetables
+Yoga Posture/Asana (should do these yogas) --&gt; Vrikshasana, Trikonasana, Ardha Matsyendrasana
 Tarot Card/Divination Symbol --&gt; The Wheel of Fortune
-Hindu Festivals/Holidays --&gt; Navratri
-Chakra/Energy Center --&gt; Vishuddha
-Yantra/Sacred Geometry --&gt; Meru Yantra
-Spiritual Practice/Sadhana --&gt; Finding balance and harmony in life
-Metal/Mineral --&gt; Blue Sapphire
-Aromatherapy/Essential Oils --&gt; Peppermint, Eucalyptus, Lavender
+Hindu Festivals/Holidays (do sadhna on these festivals) --&gt; Navratri
+Chakra/Energy Center (do puja, meditation for this chakra) --&gt; Vishuddha
+Yantra/Sacred Geometry (can keep this yantra in puja sthal) --&gt; Meru Yantra
+Spiritual Practice/Sadhana (must observe daily) --&gt; Finding balance and harmony in life
+Metal/Mineral (natural affliliation) --&gt; Blue Sapphire
+Aromatherapy/Essential Oils (should apply these) --&gt; Peppermint, Eucalyptus, Lavender
 Personality Traits/Characteristics --&gt; Independent, freedom-loving, adventurous
-Mythological Story/Legend --&gt; The story of Lord Vayu and the divine physician Dhanvantari
-Sound/Mantra --&gt; Om Hraam
-Flower --&gt; White Jasmine
+Mythological Story/Legend (must read these stories) --&gt; The story of Lord Vayu and the divine physician Dhanvantari
+Sound/Mantra (must chant this mantra) --&gt; Om Hraam
+Flower (keep these nearby) --&gt; White Jasmine
 Prana --&gt; Udana Vayu
 Varna --&gt; Sudra
 Taste --&gt; Astringent
-Dosha Element --&gt; Pitta
+Dosha Element (must keep the element in check, learn more from ayurveda) --&gt; Pitta
 </v>
       </c>
       <c r="AV15" s="5" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">Nakshatra --&gt; Chitra
-Ruling Deity --&gt; Vishvakarma
-Symbol --&gt; Bright Jewel or Pearl
+        <v xml:space="preserve">Nakshatra (Moon Nakshatra) --&gt; Chitra
+Ruling Deity (Main deity) --&gt; Vishvakarma
+Symbol (can keep symbol/painting of same in bedroom or desktop) --&gt; Bright Jewel or Pearl
 Animal --&gt; Male Tiger
 Nature --&gt; Tamas
 Gender --&gt; Male
 Dosha --&gt; Pitta
 Guna --&gt; Tamas
-Purpose --&gt; Creative Expression
-Tree --&gt; Naga
-Gemstone --&gt; Gomedh
+Purpose (one should strive for) --&gt; Creative Expression
+Tree (offer reverance or have it in house if possible) --&gt; Naga
+Gemstone (natural gemstone) --&gt; Gomedh
 Yoga --&gt; Vyatipata
 Plant/Flower --&gt; Naga
-Color --&gt; Red
-Planet --&gt; Mars
-Mantra --&gt; Om Vishvakarmane Namaha
+Color (natural effinity) --&gt; Red
+Planet (ruling planet) --&gt; Mars
+Mantra (one must chant daily) --&gt; Om Vishvakarmane Namaha
 Body Temperament --&gt; Airy
 Career/Profession --&gt; Artists, Designers, Architects
 Compatibility --&gt; Hasta, Swati, Vishakha, Anuradha, Jyeshtha
@@ -10274,42 +10346,42 @@
 Lucky Directions --&gt; South
 Auspicious Activities --&gt; Starting new ventures, artistic pursuits, seeking knowledge
 Inauspicious Activities --&gt; Conflicts, legal issues, theft
-Health Issues --&gt; Eye problems, skin issues
+Health Issues (should take care) --&gt; Eye problems, skin issues
 Prayers or Rituals --&gt; Worship Lord Vishwakarma
-Historical/Mythological Significance --&gt; Birthplace of Lord Twashta
-Mudra --&gt; Vayu Mudra
-Food/Dietary Recommendation --&gt; Light and easily digestible foods, fruits and vegetables
-Yoga Posture/Asana --&gt; Vrikshasana, Trikonasana, Ardha Matsyendrasana
+Historical/Mythological Significance (must read these stories) --&gt; Birthplace of Lord Twashta
+Mudra (learn and often sit in this mudra) --&gt; Vayu Mudra
+Food/Dietary Recommendation (should intake) --&gt; Light and easily digestible foods, fruits and vegetables
+Yoga Posture/Asana (should do these yogas) --&gt; Vrikshasana, Trikonasana, Ardha Matsyendrasana
 Tarot Card/Divination Symbol --&gt; The Wheel of Fortune
-Hindu Festivals/Holidays --&gt; Navratri
-Chakra/Energy Center --&gt; Vishuddha
-Yantra/Sacred Geometry --&gt; Meru Yantra
-Spiritual Practice/Sadhana --&gt; Finding balance and harmony in life
-Metal/Mineral --&gt; Blue Sapphire
-Aromatherapy/Essential Oils --&gt; Peppermint, Eucalyptus, Lavender
+Hindu Festivals/Holidays (do sadhna on these festivals) --&gt; Navratri
+Chakra/Energy Center (do puja, meditation for this chakra) --&gt; Vishuddha
+Yantra/Sacred Geometry (can keep this yantra in puja sthal) --&gt; Meru Yantra
+Spiritual Practice/Sadhana (must observe daily) --&gt; Finding balance and harmony in life
+Metal/Mineral (natural affliliation) --&gt; Blue Sapphire
+Aromatherapy/Essential Oils (should apply these) --&gt; Peppermint, Eucalyptus, Lavender
 Personality Traits/Characteristics --&gt; Independent, freedom-loving, adventurous
-Mythological Story/Legend --&gt; The story of Lord Vayu and the divine physician Dhanvantari
-Sound/Mantra --&gt; Om Hraam
-Flower --&gt; White Jasmine
+Mythological Story/Legend (must read these stories) --&gt; The story of Lord Vayu and the divine physician Dhanvantari
+Sound/Mantra (must chant this mantra) --&gt; Om Hraam
+Flower (keep these nearby) --&gt; White Jasmine
 Prana --&gt; Udana Vayu
 Varna --&gt; Sudra
 Taste --&gt; Astringent
-Dosha Element --&gt; Pitta
+Dosha Element (must keep the element in check, learn more from ayurveda) --&gt; Pitta
 </v>
       </c>
       <c r="AW15" s="5" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">Nakshatra --&gt; Chitra
+        <v xml:space="preserve">Nakshatra (Moon Nakshatra) --&gt; Chitra
 </v>
       </c>
       <c r="AX15" s="5" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">Ruling Deity --&gt; Vishvakarma
+        <v xml:space="preserve">Ruling Deity (Main deity) --&gt; Vishvakarma
 </v>
       </c>
       <c r="AY15" s="5" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">Symbol --&gt; Bright Jewel or Pearl
+        <v xml:space="preserve">Symbol (can keep symbol/painting of same in bedroom or desktop) --&gt; Bright Jewel or Pearl
 </v>
       </c>
       <c r="AZ15" s="5" t="str">
@@ -10339,17 +10411,17 @@
       </c>
       <c r="BE15" s="5" t="str">
         <f t="shared" si="11"/>
-        <v xml:space="preserve">Purpose --&gt; Creative Expression
+        <v xml:space="preserve">Purpose (one should strive for) --&gt; Creative Expression
 </v>
       </c>
       <c r="BF15" s="5" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">Tree --&gt; Naga
+        <v xml:space="preserve">Tree (offer reverance or have it in house if possible) --&gt; Naga
 </v>
       </c>
       <c r="BG15" s="5" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">Gemstone --&gt; Gomedh
+        <v xml:space="preserve">Gemstone (natural gemstone) --&gt; Gomedh
 </v>
       </c>
       <c r="BH15" s="5" t="str">
@@ -10364,17 +10436,17 @@
       </c>
       <c r="BJ15" s="5" t="str">
         <f t="shared" si="16"/>
-        <v xml:space="preserve">Color --&gt; Red
+        <v xml:space="preserve">Color (natural effinity) --&gt; Red
 </v>
       </c>
       <c r="BK15" s="5" t="str">
         <f t="shared" si="17"/>
-        <v xml:space="preserve">Planet --&gt; Mars
+        <v xml:space="preserve">Planet (ruling planet) --&gt; Mars
 </v>
       </c>
       <c r="BL15" s="5" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">Mantra --&gt; Om Vishvakarmane Namaha
+        <v xml:space="preserve">Mantra (one must chant daily) --&gt; Om Vishvakarmane Namaha
 </v>
       </c>
       <c r="BM15" s="5" t="str">
@@ -10419,7 +10491,7 @@
       </c>
       <c r="BU15" s="5" t="str">
         <f t="shared" si="27"/>
-        <v xml:space="preserve">Health Issues --&gt; Eye problems, skin issues
+        <v xml:space="preserve">Health Issues (should take care) --&gt; Eye problems, skin issues
 </v>
       </c>
       <c r="BV15" s="5" t="str">
@@ -10429,22 +10501,22 @@
       </c>
       <c r="BW15" s="5" t="str">
         <f t="shared" si="29"/>
-        <v xml:space="preserve">Historical/Mythological Significance --&gt; Birthplace of Lord Twashta
+        <v xml:space="preserve">Historical/Mythological Significance (must read these stories) --&gt; Birthplace of Lord Twashta
 </v>
       </c>
       <c r="BX15" s="5" t="str">
         <f t="shared" si="30"/>
-        <v xml:space="preserve">Mudra --&gt; Vayu Mudra
+        <v xml:space="preserve">Mudra (learn and often sit in this mudra) --&gt; Vayu Mudra
 </v>
       </c>
       <c r="BY15" s="5" t="str">
         <f t="shared" si="31"/>
-        <v xml:space="preserve">Food/Dietary Recommendation --&gt; Light and easily digestible foods, fruits and vegetables
+        <v xml:space="preserve">Food/Dietary Recommendation (should intake) --&gt; Light and easily digestible foods, fruits and vegetables
 </v>
       </c>
       <c r="BZ15" s="5" t="str">
         <f t="shared" si="32"/>
-        <v xml:space="preserve">Yoga Posture/Asana --&gt; Vrikshasana, Trikonasana, Ardha Matsyendrasana
+        <v xml:space="preserve">Yoga Posture/Asana (should do these yogas) --&gt; Vrikshasana, Trikonasana, Ardha Matsyendrasana
 </v>
       </c>
       <c r="CA15" s="5" t="str">
@@ -10454,32 +10526,32 @@
       </c>
       <c r="CB15" s="5" t="str">
         <f t="shared" si="34"/>
-        <v xml:space="preserve">Hindu Festivals/Holidays --&gt; Navratri
+        <v xml:space="preserve">Hindu Festivals/Holidays (do sadhna on these festivals) --&gt; Navratri
 </v>
       </c>
       <c r="CC15" s="5" t="str">
         <f t="shared" si="35"/>
-        <v xml:space="preserve">Chakra/Energy Center --&gt; Vishuddha
+        <v xml:space="preserve">Chakra/Energy Center (do puja, meditation for this chakra) --&gt; Vishuddha
 </v>
       </c>
       <c r="CD15" s="5" t="str">
         <f t="shared" si="36"/>
-        <v xml:space="preserve">Yantra/Sacred Geometry --&gt; Meru Yantra
+        <v xml:space="preserve">Yantra/Sacred Geometry (can keep this yantra in puja sthal) --&gt; Meru Yantra
 </v>
       </c>
       <c r="CE15" s="5" t="str">
         <f t="shared" si="37"/>
-        <v xml:space="preserve">Spiritual Practice/Sadhana --&gt; Finding balance and harmony in life
+        <v xml:space="preserve">Spiritual Practice/Sadhana (must observe daily) --&gt; Finding balance and harmony in life
 </v>
       </c>
       <c r="CF15" s="5" t="str">
         <f t="shared" si="38"/>
-        <v xml:space="preserve">Metal/Mineral --&gt; Blue Sapphire
+        <v xml:space="preserve">Metal/Mineral (natural affliliation) --&gt; Blue Sapphire
 </v>
       </c>
       <c r="CG15" s="5" t="str">
         <f t="shared" si="39"/>
-        <v xml:space="preserve">Aromatherapy/Essential Oils --&gt; Peppermint, Eucalyptus, Lavender
+        <v xml:space="preserve">Aromatherapy/Essential Oils (should apply these) --&gt; Peppermint, Eucalyptus, Lavender
 </v>
       </c>
       <c r="CH15" s="5" t="str">
@@ -10489,17 +10561,17 @@
       </c>
       <c r="CI15" s="5" t="str">
         <f t="shared" si="41"/>
-        <v xml:space="preserve">Mythological Story/Legend --&gt; The story of Lord Vayu and the divine physician Dhanvantari
+        <v xml:space="preserve">Mythological Story/Legend (must read these stories) --&gt; The story of Lord Vayu and the divine physician Dhanvantari
 </v>
       </c>
       <c r="CJ15" s="5" t="str">
         <f t="shared" si="42"/>
-        <v xml:space="preserve">Sound/Mantra --&gt; Om Hraam
+        <v xml:space="preserve">Sound/Mantra (must chant this mantra) --&gt; Om Hraam
 </v>
       </c>
       <c r="CK15" s="5" t="str">
         <f t="shared" si="43"/>
-        <v xml:space="preserve">Flower --&gt; White Jasmine
+        <v xml:space="preserve">Flower (keep these nearby) --&gt; White Jasmine
 </v>
       </c>
       <c r="CL15" s="5" t="str">
@@ -10519,7 +10591,7 @@
       </c>
       <c r="CO15" s="5" t="str">
         <f t="shared" si="47"/>
-        <v xml:space="preserve">Dosha Element --&gt; Pitta
+        <v xml:space="preserve">Dosha Element (must keep the element in check, learn more from ayurveda) --&gt; Pitta
 </v>
       </c>
     </row>
@@ -10664,22 +10736,22 @@
       </c>
       <c r="AU16" s="5" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">Nakshatra --&gt; Swati
-Ruling Deity --&gt; Vayu
-Symbol --&gt; New Sprout or Shoot
+        <v xml:space="preserve">Nakshatra (Moon Nakshatra) --&gt; Swati
+Ruling Deity (Main deity) --&gt; Vayu
+Symbol (can keep symbol/painting of same in bedroom or desktop) --&gt; New Sprout or Shoot
 Animal --&gt; Male Buffalo
 Nature --&gt; Sattva
 Gender --&gt; Female
 Dosha --&gt; Vata
 Guna --&gt; Sattva
-Purpose --&gt; Self-Realization
-Tree --&gt; Arka
-Gemstone --&gt; Gomedh
+Purpose (one should strive for) --&gt; Self-Realization
+Tree (offer reverance or have it in house if possible) --&gt; Arka
+Gemstone (natural gemstone) --&gt; Gomedh
 Yoga --&gt; Variyan
 Plant/Flower --&gt; Arka
-Color --&gt; Black
-Planet --&gt; Rahu
-Mantra --&gt; Om Vayave Namaha
+Color (natural effinity) --&gt; Black
+Planet (ruling planet) --&gt; Rahu
+Mantra (one must chant daily) --&gt; Om Vayave Namaha
 Body Temperament --&gt; Airy
 Career/Profession --&gt; Diplomats, Negotiators, Consultants
 Compatibility --&gt; Chitra, Hasta, Vishakha, Anuradha, Jyeshtha
@@ -10688,47 +10760,47 @@
 Lucky Directions --&gt; West
 Auspicious Activities --&gt; Starting new ventures, seeking knowledge, travel
 Inauspicious Activities --&gt; Conflicts, legal issues, theft
-Health Issues --&gt; Digestive issues, respiratory problems
+Health Issues (should take care) --&gt; Digestive issues, respiratory problems
 Prayers or Rituals --&gt; Worship Lord Vayu
-Historical/Mythological Significance --&gt; Birthplace of the wind deity
-Mudra --&gt; Vayu Mudra
-Food/Dietary Recommendation --&gt; Light, easily digestible foods
-Yoga Posture/Asana --&gt; Trikonasana, Virabhadrasana II, Gomukhasana
+Historical/Mythological Significance (must read these stories) --&gt; Birthplace of the wind deity
+Mudra (learn and often sit in this mudra) --&gt; Vayu Mudra
+Food/Dietary Recommendation (should intake) --&gt; Light, easily digestible foods
+Yoga Posture/Asana (should do these yogas) --&gt; Trikonasana, Virabhadrasana II, Gomukhasana
 Tarot Card/Divination Symbol --&gt; Justice
-Hindu Festivals/Holidays --&gt; Navratri
-Chakra/Energy Center --&gt; Anahata
-Yantra/Sacred Geometry --&gt; Sudarshana Yantra
-Spiritual Practice/Sadhana --&gt; Pranayama and breathwork
-Metal/Mineral --&gt; Platinum
-Aromatherapy/Essential Oils --&gt; Bergamot, Lavender, Jasmine
+Hindu Festivals/Holidays (do sadhna on these festivals) --&gt; Navratri
+Chakra/Energy Center (do puja, meditation for this chakra) --&gt; Anahata
+Yantra/Sacred Geometry (can keep this yantra in puja sthal) --&gt; Sudarshana Yantra
+Spiritual Practice/Sadhana (must observe daily) --&gt; Pranayama and breathwork
+Metal/Mineral (natural affliliation) --&gt; Platinum
+Aromatherapy/Essential Oils (should apply these) --&gt; Bergamot, Lavender, Jasmine
 Personality Traits/Characteristics --&gt; Independent, charming, adventurous
-Mythological Story/Legend --&gt; Vayu, the wind god
-Sound/Mantra --&gt; Om Vayu Devaya Namaha
-Flower --&gt; White Jasmine
+Mythological Story/Legend (must read these stories) --&gt; Vayu, the wind god
+Sound/Mantra (must chant this mantra) --&gt; Om Vayu Devaya Namaha
+Flower (keep these nearby) --&gt; White Jasmine
 Prana --&gt; Prana Vayu
 Varna --&gt; Vaishya
 Taste --&gt; Sweet
-Dosha Element --&gt; Vata
+Dosha Element (must keep the element in check, learn more from ayurveda) --&gt; Vata
 </v>
       </c>
       <c r="AV16" s="5" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">Nakshatra --&gt; Swati
-Ruling Deity --&gt; Vayu
-Symbol --&gt; New Sprout or Shoot
+        <v xml:space="preserve">Nakshatra (Moon Nakshatra) --&gt; Swati
+Ruling Deity (Main deity) --&gt; Vayu
+Symbol (can keep symbol/painting of same in bedroom or desktop) --&gt; New Sprout or Shoot
 Animal --&gt; Male Buffalo
 Nature --&gt; Sattva
 Gender --&gt; Female
 Dosha --&gt; Vata
 Guna --&gt; Sattva
-Purpose --&gt; Self-Realization
-Tree --&gt; Arka
-Gemstone --&gt; Gomedh
+Purpose (one should strive for) --&gt; Self-Realization
+Tree (offer reverance or have it in house if possible) --&gt; Arka
+Gemstone (natural gemstone) --&gt; Gomedh
 Yoga --&gt; Variyan
 Plant/Flower --&gt; Arka
-Color --&gt; Black
-Planet --&gt; Rahu
-Mantra --&gt; Om Vayave Namaha
+Color (natural effinity) --&gt; Black
+Planet (ruling planet) --&gt; Rahu
+Mantra (one must chant daily) --&gt; Om Vayave Namaha
 Body Temperament --&gt; Airy
 Career/Profession --&gt; Diplomats, Negotiators, Consultants
 Compatibility --&gt; Chitra, Hasta, Vishakha, Anuradha, Jyeshtha
@@ -10737,42 +10809,42 @@
 Lucky Directions --&gt; West
 Auspicious Activities --&gt; Starting new ventures, seeking knowledge, travel
 Inauspicious Activities --&gt; Conflicts, legal issues, theft
-Health Issues --&gt; Digestive issues, respiratory problems
+Health Issues (should take care) --&gt; Digestive issues, respiratory problems
 Prayers or Rituals --&gt; Worship Lord Vayu
-Historical/Mythological Significance --&gt; Birthplace of the wind deity
-Mudra --&gt; Vayu Mudra
-Food/Dietary Recommendation --&gt; Light, easily digestible foods
-Yoga Posture/Asana --&gt; Trikonasana, Virabhadrasana II, Gomukhasana
+Historical/Mythological Significance (must read these stories) --&gt; Birthplace of the wind deity
+Mudra (learn and often sit in this mudra) --&gt; Vayu Mudra
+Food/Dietary Recommendation (should intake) --&gt; Light, easily digestible foods
+Yoga Posture/Asana (should do these yogas) --&gt; Trikonasana, Virabhadrasana II, Gomukhasana
 Tarot Card/Divination Symbol --&gt; Justice
-Hindu Festivals/Holidays --&gt; Navratri
-Chakra/Energy Center --&gt; Anahata
-Yantra/Sacred Geometry --&gt; Sudarshana Yantra
-Spiritual Practice/Sadhana --&gt; Pranayama and breathwork
-Metal/Mineral --&gt; Platinum
-Aromatherapy/Essential Oils --&gt; Bergamot, Lavender, Jasmine
+Hindu Festivals/Holidays (do sadhna on these festivals) --&gt; Navratri
+Chakra/Energy Center (do puja, meditation for this chakra) --&gt; Anahata
+Yantra/Sacred Geometry (can keep this yantra in puja sthal) --&gt; Sudarshana Yantra
+Spiritual Practice/Sadhana (must observe daily) --&gt; Pranayama and breathwork
+Metal/Mineral (natural affliliation) --&gt; Platinum
+Aromatherapy/Essential Oils (should apply these) --&gt; Bergamot, Lavender, Jasmine
 Personality Traits/Characteristics --&gt; Independent, charming, adventurous
-Mythological Story/Legend --&gt; Vayu, the wind god
-Sound/Mantra --&gt; Om Vayu Devaya Namaha
-Flower --&gt; White Jasmine
+Mythological Story/Legend (must read these stories) --&gt; Vayu, the wind god
+Sound/Mantra (must chant this mantra) --&gt; Om Vayu Devaya Namaha
+Flower (keep these nearby) --&gt; White Jasmine
 Prana --&gt; Prana Vayu
 Varna --&gt; Vaishya
 Taste --&gt; Sweet
-Dosha Element --&gt; Vata
+Dosha Element (must keep the element in check, learn more from ayurveda) --&gt; Vata
 </v>
       </c>
       <c r="AW16" s="5" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">Nakshatra --&gt; Swati
+        <v xml:space="preserve">Nakshatra (Moon Nakshatra) --&gt; Swati
 </v>
       </c>
       <c r="AX16" s="5" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">Ruling Deity --&gt; Vayu
+        <v xml:space="preserve">Ruling Deity (Main deity) --&gt; Vayu
 </v>
       </c>
       <c r="AY16" s="5" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">Symbol --&gt; New Sprout or Shoot
+        <v xml:space="preserve">Symbol (can keep symbol/painting of same in bedroom or desktop) --&gt; New Sprout or Shoot
 </v>
       </c>
       <c r="AZ16" s="5" t="str">
@@ -10802,17 +10874,17 @@
       </c>
       <c r="BE16" s="5" t="str">
         <f t="shared" si="11"/>
-        <v xml:space="preserve">Purpose --&gt; Self-Realization
+        <v xml:space="preserve">Purpose (one should strive for) --&gt; Self-Realization
 </v>
       </c>
       <c r="BF16" s="5" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">Tree --&gt; Arka
+        <v xml:space="preserve">Tree (offer reverance or have it in house if possible) --&gt; Arka
 </v>
       </c>
       <c r="BG16" s="5" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">Gemstone --&gt; Gomedh
+        <v xml:space="preserve">Gemstone (natural gemstone) --&gt; Gomedh
 </v>
       </c>
       <c r="BH16" s="5" t="str">
@@ -10827,17 +10899,17 @@
       </c>
       <c r="BJ16" s="5" t="str">
         <f t="shared" si="16"/>
-        <v xml:space="preserve">Color --&gt; Black
+        <v xml:space="preserve">Color (natural effinity) --&gt; Black
 </v>
       </c>
       <c r="BK16" s="5" t="str">
         <f t="shared" si="17"/>
-        <v xml:space="preserve">Planet --&gt; Rahu
+        <v xml:space="preserve">Planet (ruling planet) --&gt; Rahu
 </v>
       </c>
       <c r="BL16" s="5" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">Mantra --&gt; Om Vayave Namaha
+        <v xml:space="preserve">Mantra (one must chant daily) --&gt; Om Vayave Namaha
 </v>
       </c>
       <c r="BM16" s="5" t="str">
@@ -10882,7 +10954,7 @@
       </c>
       <c r="BU16" s="5" t="str">
         <f t="shared" si="27"/>
-        <v xml:space="preserve">Health Issues --&gt; Digestive issues, respiratory problems
+        <v xml:space="preserve">Health Issues (should take care) --&gt; Digestive issues, respiratory problems
 </v>
       </c>
       <c r="BV16" s="5" t="str">
@@ -10892,22 +10964,22 @@
       </c>
       <c r="BW16" s="5" t="str">
         <f t="shared" si="29"/>
-        <v xml:space="preserve">Historical/Mythological Significance --&gt; Birthplace of the wind deity
+        <v xml:space="preserve">Historical/Mythological Significance (must read these stories) --&gt; Birthplace of the wind deity
 </v>
       </c>
       <c r="BX16" s="5" t="str">
         <f t="shared" si="30"/>
-        <v xml:space="preserve">Mudra --&gt; Vayu Mudra
+        <v xml:space="preserve">Mudra (learn and often sit in this mudra) --&gt; Vayu Mudra
 </v>
       </c>
       <c r="BY16" s="5" t="str">
         <f t="shared" si="31"/>
-        <v xml:space="preserve">Food/Dietary Recommendation --&gt; Light, easily digestible foods
+        <v xml:space="preserve">Food/Dietary Recommendation (should intake) --&gt; Light, easily digestible foods
 </v>
       </c>
       <c r="BZ16" s="5" t="str">
         <f t="shared" si="32"/>
-        <v xml:space="preserve">Yoga Posture/Asana --&gt; Trikonasana, Virabhadrasana II, Gomukhasana
+        <v xml:space="preserve">Yoga Posture/Asana (should do these yogas) --&gt; Trikonasana, Virabhadrasana II, Gomukhasana
 </v>
       </c>
       <c r="CA16" s="5" t="str">
@@ -10917,32 +10989,32 @@
       </c>
       <c r="CB16" s="5" t="str">
         <f t="shared" si="34"/>
-        <v xml:space="preserve">Hindu Festivals/Holidays --&gt; Navratri
+        <v xml:space="preserve">Hindu Festivals/Holidays (do sadhna on these festivals) --&gt; Navratri
 </v>
       </c>
       <c r="CC16" s="5" t="str">
         <f t="shared" si="35"/>
-        <v xml:space="preserve">Chakra/Energy Center --&gt; Anahata
+        <v xml:space="preserve">Chakra/Energy Center (do puja, meditation for this chakra) --&gt; Anahata
 </v>
       </c>
       <c r="CD16" s="5" t="str">
         <f t="shared" si="36"/>
-        <v xml:space="preserve">Yantra/Sacred Geometry --&gt; Sudarshana Yantra
+        <v xml:space="preserve">Yantra/Sacred Geometry (can keep this yantra in puja sthal) --&gt; Sudarshana Yantra
 </v>
       </c>
       <c r="CE16" s="5" t="str">
         <f t="shared" si="37"/>
-        <v xml:space="preserve">Spiritual Practice/Sadhana --&gt; Pranayama and breathwork
+        <v xml:space="preserve">Spiritual Practice/Sadhana (must observe daily) --&gt; Pranayama and breathwork
 </v>
       </c>
       <c r="CF16" s="5" t="str">
         <f t="shared" si="38"/>
-        <v xml:space="preserve">Metal/Mineral --&gt; Platinum
+        <v xml:space="preserve">Metal/Mineral (natural affliliation) --&gt; Platinum
 </v>
       </c>
       <c r="CG16" s="5" t="str">
         <f t="shared" si="39"/>
-        <v xml:space="preserve">Aromatherapy/Essential Oils --&gt; Bergamot, Lavender, Jasmine
+        <v xml:space="preserve">Aromatherapy/Essential Oils (should apply these) --&gt; Bergamot, Lavender, Jasmine
 </v>
       </c>
       <c r="CH16" s="5" t="str">
@@ -10952,17 +11024,17 @@
       </c>
       <c r="CI16" s="5" t="str">
         <f t="shared" si="41"/>
-        <v xml:space="preserve">Mythological Story/Legend --&gt; Vayu, the wind god
+        <v xml:space="preserve">Mythological Story/Legend (must read these stories) --&gt; Vayu, the wind god
 </v>
       </c>
       <c r="CJ16" s="5" t="str">
         <f t="shared" si="42"/>
-        <v xml:space="preserve">Sound/Mantra --&gt; Om Vayu Devaya Namaha
+        <v xml:space="preserve">Sound/Mantra (must chant this mantra) --&gt; Om Vayu Devaya Namaha
 </v>
       </c>
       <c r="CK16" s="5" t="str">
         <f t="shared" si="43"/>
-        <v xml:space="preserve">Flower --&gt; White Jasmine
+        <v xml:space="preserve">Flower (keep these nearby) --&gt; White Jasmine
 </v>
       </c>
       <c r="CL16" s="5" t="str">
@@ -10982,7 +11054,7 @@
       </c>
       <c r="CO16" s="5" t="str">
         <f t="shared" si="47"/>
-        <v xml:space="preserve">Dosha Element --&gt; Vata
+        <v xml:space="preserve">Dosha Element (must keep the element in check, learn more from ayurveda) --&gt; Vata
 </v>
       </c>
     </row>
@@ -11127,22 +11199,22 @@
       </c>
       <c r="AU17" s="5" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">Nakshatra --&gt; Vishakha
-Ruling Deity --&gt; Indra
-Symbol --&gt; Triumphal Arch
+        <v xml:space="preserve">Nakshatra (Moon Nakshatra) --&gt; Vishakha
+Ruling Deity (Main deity) --&gt; Indra
+Symbol (can keep symbol/painting of same in bedroom or desktop) --&gt; Triumphal Arch
 Animal --&gt; Male Tiger
 Nature --&gt; Rajas
 Gender --&gt; Male
 Dosha --&gt; Kapha
 Guna --&gt; Rajas
-Purpose --&gt; Achievements
-Tree --&gt; Bakula
-Gemstone --&gt; Diamond
+Purpose (one should strive for) --&gt; Achievements
+Tree (offer reverance or have it in house if possible) --&gt; Bakula
+Gemstone (natural gemstone) --&gt; Diamond
 Yoga --&gt; Parigha
 Plant/Flower --&gt; Bakula
-Color --&gt; Gold
-Planet --&gt; Jupiter
-Mantra --&gt; Om Indraya Namaha
+Color (natural effinity) --&gt; Gold
+Planet (ruling planet) --&gt; Jupiter
+Mantra (one must chant daily) --&gt; Om Indraya Namaha
 Body Temperament --&gt; Airy
 Career/Profession --&gt; Lawyers, Politicians, Diplomats
 Compatibility --&gt; Swati, Anuradha, Jyeshtha, Mula, Purvashadha
@@ -11151,47 +11223,47 @@
 Lucky Directions --&gt; North
 Auspicious Activities --&gt; Starting new ventures, seeking blessings, spiritual practices
 Inauspicious Activities --&gt; Conflicts, legal issues, theft
-Health Issues --&gt; Digestive issues, skin problems
+Health Issues (should take care) --&gt; Digestive issues, skin problems
 Prayers or Rituals --&gt; Worship Lord Indra and Lord Agni
-Historical/Mythological Significance --&gt; Birthplace of Indra, king of the gods
-Mudra --&gt; Ganesha Mudra
-Food/Dietary Recommendation --&gt; High protein, low fat diet
-Yoga Posture/Asana --&gt; Boat Pose, Plank, Chaturanga Dandasana
+Historical/Mythological Significance (must read these stories) --&gt; Birthplace of Indra, king of the gods
+Mudra (learn and often sit in this mudra) --&gt; Ganesha Mudra
+Food/Dietary Recommendation (should intake) --&gt; High protein, low fat diet
+Yoga Posture/Asana (should do these yogas) --&gt; Boat Pose, Plank, Chaturanga Dandasana
 Tarot Card/Divination Symbol --&gt; The Lovers
-Hindu Festivals/Holidays --&gt; Diwali
-Chakra/Energy Center --&gt; Vishuddha
-Yantra/Sacred Geometry --&gt; Sri Yantra
-Spiritual Practice/Sadhana --&gt; Connecting with inner wisdom
-Metal/Mineral --&gt; Gold
-Aromatherapy/Essential Oils --&gt; Cedarwood, Sandalwood, Rose
+Hindu Festivals/Holidays (do sadhna on these festivals) --&gt; Diwali
+Chakra/Energy Center (do puja, meditation for this chakra) --&gt; Vishuddha
+Yantra/Sacred Geometry (can keep this yantra in puja sthal) --&gt; Sri Yantra
+Spiritual Practice/Sadhana (must observe daily) --&gt; Connecting with inner wisdom
+Metal/Mineral (natural affliliation) --&gt; Gold
+Aromatherapy/Essential Oils (should apply these) --&gt; Cedarwood, Sandalwood, Rose
 Personality Traits/Characteristics --&gt; Charismatic, driven, sociable
-Mythological Story/Legend --&gt; Indra, king of the gods
-Sound/Mantra --&gt; Om Indraya Namaha
-Flower --&gt; Golden Shower Tree
+Mythological Story/Legend (must read these stories) --&gt; Indra, king of the gods
+Sound/Mantra (must chant this mantra) --&gt; Om Indraya Namaha
+Flower (keep these nearby) --&gt; Golden Shower Tree
 Prana --&gt; Samana Vayu
 Varna --&gt; Kshatriya
 Taste --&gt; Bitter
-Dosha Element --&gt; Kapha
+Dosha Element (must keep the element in check, learn more from ayurveda) --&gt; Kapha
 </v>
       </c>
       <c r="AV17" s="5" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">Nakshatra --&gt; Vishakha
-Ruling Deity --&gt; Indra
-Symbol --&gt; Triumphal Arch
+        <v xml:space="preserve">Nakshatra (Moon Nakshatra) --&gt; Vishakha
+Ruling Deity (Main deity) --&gt; Indra
+Symbol (can keep symbol/painting of same in bedroom or desktop) --&gt; Triumphal Arch
 Animal --&gt; Male Tiger
 Nature --&gt; Rajas
 Gender --&gt; Male
 Dosha --&gt; Kapha
 Guna --&gt; Rajas
-Purpose --&gt; Achievements
-Tree --&gt; Bakula
-Gemstone --&gt; Diamond
+Purpose (one should strive for) --&gt; Achievements
+Tree (offer reverance or have it in house if possible) --&gt; Bakula
+Gemstone (natural gemstone) --&gt; Diamond
 Yoga --&gt; Parigha
 Plant/Flower --&gt; Bakula
-Color --&gt; Gold
-Planet --&gt; Jupiter
-Mantra --&gt; Om Indraya Namaha
+Color (natural effinity) --&gt; Gold
+Planet (ruling planet) --&gt; Jupiter
+Mantra (one must chant daily) --&gt; Om Indraya Namaha
 Body Temperament --&gt; Airy
 Career/Profession --&gt; Lawyers, Politicians, Diplomats
 Compatibility --&gt; Swati, Anuradha, Jyeshtha, Mula, Purvashadha
@@ -11200,42 +11272,42 @@
 Lucky Directions --&gt; North
 Auspicious Activities --&gt; Starting new ventures, seeking blessings, spiritual practices
 Inauspicious Activities --&gt; Conflicts, legal issues, theft
-Health Issues --&gt; Digestive issues, skin problems
+Health Issues (should take care) --&gt; Digestive issues, skin problems
 Prayers or Rituals --&gt; Worship Lord Indra and Lord Agni
-Historical/Mythological Significance --&gt; Birthplace of Indra, king of the gods
-Mudra --&gt; Ganesha Mudra
-Food/Dietary Recommendation --&gt; High protein, low fat diet
-Yoga Posture/Asana --&gt; Boat Pose, Plank, Chaturanga Dandasana
+Historical/Mythological Significance (must read these stories) --&gt; Birthplace of Indra, king of the gods
+Mudra (learn and often sit in this mudra) --&gt; Ganesha Mudra
+Food/Dietary Recommendation (should intake) --&gt; High protein, low fat diet
+Yoga Posture/Asana (should do these yogas) --&gt; Boat Pose, Plank, Chaturanga Dandasana
 Tarot Card/Divination Symbol --&gt; The Lovers
-Hindu Festivals/Holidays --&gt; Diwali
-Chakra/Energy Center --&gt; Vishuddha
-Yantra/Sacred Geometry --&gt; Sri Yantra
-Spiritual Practice/Sadhana --&gt; Connecting with inner wisdom
-Metal/Mineral --&gt; Gold
-Aromatherapy/Essential Oils --&gt; Cedarwood, Sandalwood, Rose
+Hindu Festivals/Holidays (do sadhna on these festivals) --&gt; Diwali
+Chakra/Energy Center (do puja, meditation for this chakra) --&gt; Vishuddha
+Yantra/Sacred Geometry (can keep this yantra in puja sthal) --&gt; Sri Yantra
+Spiritual Practice/Sadhana (must observe daily) --&gt; Connecting with inner wisdom
+Metal/Mineral (natural affliliation) --&gt; Gold
+Aromatherapy/Essential Oils (should apply these) --&gt; Cedarwood, Sandalwood, Rose
 Personality Traits/Characteristics --&gt; Charismatic, driven, sociable
-Mythological Story/Legend --&gt; Indra, king of the gods
-Sound/Mantra --&gt; Om Indraya Namaha
-Flower --&gt; Golden Shower Tree
+Mythological Story/Legend (must read these stories) --&gt; Indra, king of the gods
+Sound/Mantra (must chant this mantra) --&gt; Om Indraya Namaha
+Flower (keep these nearby) --&gt; Golden Shower Tree
 Prana --&gt; Samana Vayu
 Varna --&gt; Kshatriya
 Taste --&gt; Bitter
-Dosha Element --&gt; Kapha
+Dosha Element (must keep the element in check, learn more from ayurveda) --&gt; Kapha
 </v>
       </c>
       <c r="AW17" s="5" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">Nakshatra --&gt; Vishakha
+        <v xml:space="preserve">Nakshatra (Moon Nakshatra) --&gt; Vishakha
 </v>
       </c>
       <c r="AX17" s="5" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">Ruling Deity --&gt; Indra
+        <v xml:space="preserve">Ruling Deity (Main deity) --&gt; Indra
 </v>
       </c>
       <c r="AY17" s="5" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">Symbol --&gt; Triumphal Arch
+        <v xml:space="preserve">Symbol (can keep symbol/painting of same in bedroom or desktop) --&gt; Triumphal Arch
 </v>
       </c>
       <c r="AZ17" s="5" t="str">
@@ -11265,17 +11337,17 @@
       </c>
       <c r="BE17" s="5" t="str">
         <f t="shared" si="11"/>
-        <v xml:space="preserve">Purpose --&gt; Achievements
+        <v xml:space="preserve">Purpose (one should strive for) --&gt; Achievements
 </v>
       </c>
       <c r="BF17" s="5" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">Tree --&gt; Bakula
+        <v xml:space="preserve">Tree (offer reverance or have it in house if possible) --&gt; Bakula
 </v>
       </c>
       <c r="BG17" s="5" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">Gemstone --&gt; Diamond
+        <v xml:space="preserve">Gemstone (natural gemstone) --&gt; Diamond
 </v>
       </c>
       <c r="BH17" s="5" t="str">
@@ -11290,17 +11362,17 @@
       </c>
       <c r="BJ17" s="5" t="str">
         <f t="shared" si="16"/>
-        <v xml:space="preserve">Color --&gt; Gold
+        <v xml:space="preserve">Color (natural effinity) --&gt; Gold
 </v>
       </c>
       <c r="BK17" s="5" t="str">
         <f t="shared" si="17"/>
-        <v xml:space="preserve">Planet --&gt; Jupiter
+        <v xml:space="preserve">Planet (ruling planet) --&gt; Jupiter
 </v>
       </c>
       <c r="BL17" s="5" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">Mantra --&gt; Om Indraya Namaha
+        <v xml:space="preserve">Mantra (one must chant daily) --&gt; Om Indraya Namaha
 </v>
       </c>
       <c r="BM17" s="5" t="str">
@@ -11345,7 +11417,7 @@
       </c>
       <c r="BU17" s="5" t="str">
         <f t="shared" si="27"/>
-        <v xml:space="preserve">Health Issues --&gt; Digestive issues, skin problems
+        <v xml:space="preserve">Health Issues (should take care) --&gt; Digestive issues, skin problems
 </v>
       </c>
       <c r="BV17" s="5" t="str">
@@ -11355,22 +11427,22 @@
       </c>
       <c r="BW17" s="5" t="str">
         <f t="shared" si="29"/>
-        <v xml:space="preserve">Historical/Mythological Significance --&gt; Birthplace of Indra, king of the gods
+        <v xml:space="preserve">Historical/Mythological Significance (must read these stories) --&gt; Birthplace of Indra, king of the gods
 </v>
       </c>
       <c r="BX17" s="5" t="str">
         <f t="shared" si="30"/>
-        <v xml:space="preserve">Mudra --&gt; Ganesha Mudra
+        <v xml:space="preserve">Mudra (learn and often sit in this mudra) --&gt; Ganesha Mudra
 </v>
       </c>
       <c r="BY17" s="5" t="str">
         <f t="shared" si="31"/>
-        <v xml:space="preserve">Food/Dietary Recommendation --&gt; High protein, low fat diet
+        <v xml:space="preserve">Food/Dietary Recommendation (should intake) --&gt; High protein, low fat diet
 </v>
       </c>
       <c r="BZ17" s="5" t="str">
         <f t="shared" si="32"/>
-        <v xml:space="preserve">Yoga Posture/Asana --&gt; Boat Pose, Plank, Chaturanga Dandasana
+        <v xml:space="preserve">Yoga Posture/Asana (should do these yogas) --&gt; Boat Pose, Plank, Chaturanga Dandasana
 </v>
       </c>
       <c r="CA17" s="5" t="str">
@@ -11380,32 +11452,32 @@
       </c>
       <c r="CB17" s="5" t="str">
         <f t="shared" si="34"/>
-        <v xml:space="preserve">Hindu Festivals/Holidays --&gt; Diwali
+        <v xml:space="preserve">Hindu Festivals/Holidays (do sadhna on these festivals) --&gt; Diwali
 </v>
       </c>
       <c r="CC17" s="5" t="str">
         <f t="shared" si="35"/>
-        <v xml:space="preserve">Chakra/Energy Center --&gt; Vishuddha
+        <v xml:space="preserve">Chakra/Energy Center (do puja, meditation for this chakra) --&gt; Vishuddha
 </v>
       </c>
       <c r="CD17" s="5" t="str">
         <f t="shared" si="36"/>
-        <v xml:space="preserve">Yantra/Sacred Geometry --&gt; Sri Yantra
+        <v xml:space="preserve">Yantra/Sacred Geometry (can keep this yantra in puja sthal) --&gt; Sri Yantra
 </v>
       </c>
       <c r="CE17" s="5" t="str">
         <f t="shared" si="37"/>
-        <v xml:space="preserve">Spiritual Practice/Sadhana --&gt; Connecting with inner wisdom
+        <v xml:space="preserve">Spiritual Practice/Sadhana (must observe daily) --&gt; Connecting with inner wisdom
 </v>
       </c>
       <c r="CF17" s="5" t="str">
         <f t="shared" si="38"/>
-        <v xml:space="preserve">Metal/Mineral --&gt; Gold
+        <v xml:space="preserve">Metal/Mineral (natural affliliation) --&gt; Gold
 </v>
       </c>
       <c r="CG17" s="5" t="str">
         <f t="shared" si="39"/>
-        <v xml:space="preserve">Aromatherapy/Essential Oils --&gt; Cedarwood, Sandalwood, Rose
+        <v xml:space="preserve">Aromatherapy/Essential Oils (should apply these) --&gt; Cedarwood, Sandalwood, Rose
 </v>
       </c>
       <c r="CH17" s="5" t="str">
@@ -11415,17 +11487,17 @@
       </c>
       <c r="CI17" s="5" t="str">
         <f t="shared" si="41"/>
-        <v xml:space="preserve">Mythological Story/Legend --&gt; Indra, king of the gods
+        <v xml:space="preserve">Mythological Story/Legend (must read these stories) --&gt; Indra, king of the gods
 </v>
       </c>
       <c r="CJ17" s="5" t="str">
         <f t="shared" si="42"/>
-        <v xml:space="preserve">Sound/Mantra --&gt; Om Indraya Namaha
+        <v xml:space="preserve">Sound/Mantra (must chant this mantra) --&gt; Om Indraya Namaha
 </v>
       </c>
       <c r="CK17" s="5" t="str">
         <f t="shared" si="43"/>
-        <v xml:space="preserve">Flower --&gt; Golden Shower Tree
+        <v xml:space="preserve">Flower (keep these nearby) --&gt; Golden Shower Tree
 </v>
       </c>
       <c r="CL17" s="5" t="str">
@@ -11445,7 +11517,7 @@
       </c>
       <c r="CO17" s="5" t="str">
         <f t="shared" si="47"/>
-        <v xml:space="preserve">Dosha Element --&gt; Kapha
+        <v xml:space="preserve">Dosha Element (must keep the element in check, learn more from ayurveda) --&gt; Kapha
 </v>
       </c>
     </row>
@@ -11590,22 +11662,22 @@
       </c>
       <c r="AU18" s="5" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">Nakshatra --&gt; Anuradha
-Ruling Deity --&gt; Mitra
-Symbol --&gt; Lotus, Triumphal Arch
+        <v xml:space="preserve">Nakshatra (Moon Nakshatra) --&gt; Anuradha
+Ruling Deity (Main deity) --&gt; Mitra
+Symbol (can keep symbol/painting of same in bedroom or desktop) --&gt; Lotus, Triumphal Arch
 Animal --&gt; Female Deer
 Nature --&gt; Tamas
 Gender --&gt; Female
 Dosha --&gt; Pitta
 Guna --&gt; Tamas
-Purpose --&gt; Harmony and Friendship
-Tree --&gt; Dhatura
-Gemstone --&gt; Sapphire
+Purpose (one should strive for) --&gt; Harmony and Friendship
+Tree (offer reverance or have it in house if possible) --&gt; Dhatura
+Gemstone (natural gemstone) --&gt; Sapphire
 Yoga --&gt; Mitra
 Plant/Flower --&gt; Dhatura
-Color --&gt; Red
-Planet --&gt; Saturn
-Mantra --&gt; Om Mitraya Namaha
+Color (natural effinity) --&gt; Red
+Planet (ruling planet) --&gt; Saturn
+Mantra (one must chant daily) --&gt; Om Mitraya Namaha
 Body Temperament --&gt; Watery
 Career/Profession --&gt; Researchers, Scientists, Healers
 Compatibility --&gt; Swati, Vishakha, Jyeshtha, Mula, Purvashadha
@@ -11614,47 +11686,47 @@
 Lucky Directions --&gt; West
 Auspicious Activities --&gt; Starting new ventures, seeking blessings, spiritual practices
 Inauspicious Activities --&gt; Conflicts, legal issues, theft
-Health Issues --&gt; Digestive issues, fever
+Health Issues (should take care) --&gt; Digestive issues, fever
 Prayers or Rituals --&gt; Worship Lord Mitra
-Historical/Mythological Significance --&gt; Birthplace of Anu, a great king in Hindu mythology
-Mudra --&gt; Prithvi Mudra
-Food/Dietary Recommendation --&gt; Nourishing, grounding foods
-Yoga Posture/Asana --&gt; Padmasana, Janu Sirsasana, Baddha Konasana
+Historical/Mythological Significance (must read these stories) --&gt; Birthplace of Anu, a great king in Hindu mythology
+Mudra (learn and often sit in this mudra) --&gt; Prithvi Mudra
+Food/Dietary Recommendation (should intake) --&gt; Nourishing, grounding foods
+Yoga Posture/Asana (should do these yogas) --&gt; Padmasana, Janu Sirsasana, Baddha Konasana
 Tarot Card/Divination Symbol --&gt; Death
-Hindu Festivals/Holidays --&gt; Diwali
-Chakra/Energy Center --&gt; Muladhara
-Yantra/Sacred Geometry --&gt; Maha Mrityunjaya Yantra
-Spiritual Practice/Sadhana --&gt; Self-reflection and introspection
-Metal/Mineral --&gt; Silver
-Aromatherapy/Essential Oils --&gt; Patchouli, Vetiver, Myrrh
+Hindu Festivals/Holidays (do sadhna on these festivals) --&gt; Diwali
+Chakra/Energy Center (do puja, meditation for this chakra) --&gt; Muladhara
+Yantra/Sacred Geometry (can keep this yantra in puja sthal) --&gt; Maha Mrityunjaya Yantra
+Spiritual Practice/Sadhana (must observe daily) --&gt; Self-reflection and introspection
+Metal/Mineral (natural affliliation) --&gt; Silver
+Aromatherapy/Essential Oils (should apply these) --&gt; Patchouli, Vetiver, Myrrh
 Personality Traits/Characteristics --&gt; Intuitive, loyal, intense
-Mythological Story/Legend --&gt; Mitra, god of friendship
-Sound/Mantra --&gt; Om Mitraya Namaha
-Flower --&gt; Red Lotus
+Mythological Story/Legend (must read these stories) --&gt; Mitra, god of friendship
+Sound/Mantra (must chant this mantra) --&gt; Om Mitraya Namaha
+Flower (keep these nearby) --&gt; Red Lotus
 Prana --&gt; Apana Vayu
 Varna --&gt; Brahmin
 Taste --&gt; Astringent
-Dosha Element --&gt; Kapha
+Dosha Element (must keep the element in check, learn more from ayurveda) --&gt; Kapha
 </v>
       </c>
       <c r="AV18" s="5" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">Nakshatra --&gt; Anuradha
-Ruling Deity --&gt; Mitra
-Symbol --&gt; Lotus, Triumphal Arch
+        <v xml:space="preserve">Nakshatra (Moon Nakshatra) --&gt; Anuradha
+Ruling Deity (Main deity) --&gt; Mitra
+Symbol (can keep symbol/painting of same in bedroom or desktop) --&gt; Lotus, Triumphal Arch
 Animal --&gt; Female Deer
 Nature --&gt; Tamas
 Gender --&gt; Female
 Dosha --&gt; Pitta
 Guna --&gt; Tamas
-Purpose --&gt; Harmony and Friendship
-Tree --&gt; Dhatura
-Gemstone --&gt; Sapphire
+Purpose (one should strive for) --&gt; Harmony and Friendship
+Tree (offer reverance or have it in house if possible) --&gt; Dhatura
+Gemstone (natural gemstone) --&gt; Sapphire
 Yoga --&gt; Mitra
 Plant/Flower --&gt; Dhatura
-Color --&gt; Red
-Planet --&gt; Saturn
-Mantra --&gt; Om Mitraya Namaha
+Color (natural effinity) --&gt; Red
+Planet (ruling planet) --&gt; Saturn
+Mantra (one must chant daily) --&gt; Om Mitraya Namaha
 Body Temperament --&gt; Watery
 Career/Profession --&gt; Researchers, Scientists, Healers
 Compatibility --&gt; Swati, Vishakha, Jyeshtha, Mula, Purvashadha
@@ -11663,42 +11735,42 @@
 Lucky Directions --&gt; West
 Auspicious Activities --&gt; Starting new ventures, seeking blessings, spiritual practices
 Inauspicious Activities --&gt; Conflicts, legal issues, theft
-Health Issues --&gt; Digestive issues, fever
+Health Issues (should take care) --&gt; Digestive issues, fever
 Prayers or Rituals --&gt; Worship Lord Mitra
-Historical/Mythological Significance --&gt; Birthplace of Anu, a great king in Hindu mythology
-Mudra --&gt; Prithvi Mudra
-Food/Dietary Recommendation --&gt; Nourishing, grounding foods
-Yoga Posture/Asana --&gt; Padmasana, Janu Sirsasana, Baddha Konasana
+Historical/Mythological Significance (must read these stories) --&gt; Birthplace of Anu, a great king in Hindu mythology
+Mudra (learn and often sit in this mudra) --&gt; Prithvi Mudra
+Food/Dietary Recommendation (should intake) --&gt; Nourishing, grounding foods
+Yoga Posture/Asana (should do these yogas) --&gt; Padmasana, Janu Sirsasana, Baddha Konasana
 Tarot Card/Divination Symbol --&gt; Death
-Hindu Festivals/Holidays --&gt; Diwali
-Chakra/Energy Center --&gt; Muladhara
-Yantra/Sacred Geometry --&gt; Maha Mrityunjaya Yantra
-Spiritual Practice/Sadhana --&gt; Self-reflection and introspection
-Metal/Mineral --&gt; Silver
-Aromatherapy/Essential Oils --&gt; Patchouli, Vetiver, Myrrh
+Hindu Festivals/Holidays (do sadhna on these festivals) --&gt; Diwali
+Chakra/Energy Center (do puja, meditation for this chakra) --&gt; Muladhara
+Yantra/Sacred Geometry (can keep this yantra in puja sthal) --&gt; Maha Mrityunjaya Yantra
+Spiritual Practice/Sadhana (must observe daily) --&gt; Self-reflection and introspection
+Metal/Mineral (natural affliliation) --&gt; Silver
+Aromatherapy/Essential Oils (should apply these) --&gt; Patchouli, Vetiver, Myrrh
 Personality Traits/Characteristics --&gt; Intuitive, loyal, intense
-Mythological Story/Legend --&gt; Mitra, god of friendship
-Sound/Mantra --&gt; Om Mitraya Namaha
-Flower --&gt; Red Lotus
+Mythological Story/Legend (must read these stories) --&gt; Mitra, god of friendship
+Sound/Mantra (must chant this mantra) --&gt; Om Mitraya Namaha
+Flower (keep these nearby) --&gt; Red Lotus
 Prana --&gt; Apana Vayu
 Varna --&gt; Brahmin
 Taste --&gt; Astringent
-Dosha Element --&gt; Kapha
+Dosha Element (must keep the element in check, learn more from ayurveda) --&gt; Kapha
 </v>
       </c>
       <c r="AW18" s="5" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">Nakshatra --&gt; Anuradha
+        <v xml:space="preserve">Nakshatra (Moon Nakshatra) --&gt; Anuradha
 </v>
       </c>
       <c r="AX18" s="5" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">Ruling Deity --&gt; Mitra
+        <v xml:space="preserve">Ruling Deity (Main deity) --&gt; Mitra
 </v>
       </c>
       <c r="AY18" s="5" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">Symbol --&gt; Lotus, Triumphal Arch
+        <v xml:space="preserve">Symbol (can keep symbol/painting of same in bedroom or desktop) --&gt; Lotus, Triumphal Arch
 </v>
       </c>
       <c r="AZ18" s="5" t="str">
@@ -11728,17 +11800,17 @@
       </c>
       <c r="BE18" s="5" t="str">
         <f t="shared" si="11"/>
-        <v xml:space="preserve">Purpose --&gt; Harmony and Friendship
+        <v xml:space="preserve">Purpose (one should strive for) --&gt; Harmony and Friendship
 </v>
       </c>
       <c r="BF18" s="5" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">Tree --&gt; Dhatura
+        <v xml:space="preserve">Tree (offer reverance or have it in house if possible) --&gt; Dhatura
 </v>
       </c>
       <c r="BG18" s="5" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">Gemstone --&gt; Sapphire
+        <v xml:space="preserve">Gemstone (natural gemstone) --&gt; Sapphire
 </v>
       </c>
       <c r="BH18" s="5" t="str">
@@ -11753,17 +11825,17 @@
       </c>
       <c r="BJ18" s="5" t="str">
         <f t="shared" si="16"/>
-        <v xml:space="preserve">Color --&gt; Red
+        <v xml:space="preserve">Color (natural effinity) --&gt; Red
 </v>
       </c>
       <c r="BK18" s="5" t="str">
         <f t="shared" si="17"/>
-        <v xml:space="preserve">Planet --&gt; Saturn
+        <v xml:space="preserve">Planet (ruling planet) --&gt; Saturn
 </v>
       </c>
       <c r="BL18" s="5" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">Mantra --&gt; Om Mitraya Namaha
+        <v xml:space="preserve">Mantra (one must chant daily) --&gt; Om Mitraya Namaha
 </v>
       </c>
       <c r="BM18" s="5" t="str">
@@ -11808,7 +11880,7 @@
       </c>
       <c r="BU18" s="5" t="str">
         <f t="shared" si="27"/>
-        <v xml:space="preserve">Health Issues --&gt; Digestive issues, fever
+        <v xml:space="preserve">Health Issues (should take care) --&gt; Digestive issues, fever
 </v>
       </c>
       <c r="BV18" s="5" t="str">
@@ -11818,22 +11890,22 @@
       </c>
       <c r="BW18" s="5" t="str">
         <f t="shared" si="29"/>
-        <v xml:space="preserve">Historical/Mythological Significance --&gt; Birthplace of Anu, a great king in Hindu mythology
+        <v xml:space="preserve">Historical/Mythological Significance (must read these stories) --&gt; Birthplace of Anu, a great king in Hindu mythology
 </v>
       </c>
       <c r="BX18" s="5" t="str">
         <f t="shared" si="30"/>
-        <v xml:space="preserve">Mudra --&gt; Prithvi Mudra
+        <v xml:space="preserve">Mudra (learn and often sit in this mudra) --&gt; Prithvi Mudra
 </v>
       </c>
       <c r="BY18" s="5" t="str">
         <f t="shared" si="31"/>
-        <v xml:space="preserve">Food/Dietary Recommendation --&gt; Nourishing, grounding foods
+        <v xml:space="preserve">Food/Dietary Recommendation (should intake) --&gt; Nourishing, grounding foods
 </v>
       </c>
       <c r="BZ18" s="5" t="str">
         <f t="shared" si="32"/>
-        <v xml:space="preserve">Yoga Posture/Asana --&gt; Padmasana, Janu Sirsasana, Baddha Konasana
+        <v xml:space="preserve">Yoga Posture/Asana (should do these yogas) --&gt; Padmasana, Janu Sirsasana, Baddha Konasana
 </v>
       </c>
       <c r="CA18" s="5" t="str">
@@ -11843,32 +11915,32 @@
       </c>
       <c r="CB18" s="5" t="str">
         <f t="shared" si="34"/>
-        <v xml:space="preserve">Hindu Festivals/Holidays --&gt; Diwali
+        <v xml:space="preserve">Hindu Festivals/Holidays (do sadhna on these festivals) --&gt; Diwali
 </v>
       </c>
       <c r="CC18" s="5" t="str">
         <f t="shared" si="35"/>
-        <v xml:space="preserve">Chakra/Energy Center --&gt; Muladhara
+        <v xml:space="preserve">Chakra/Energy Center (do puja, meditation for this chakra) --&gt; Muladhara
 </v>
       </c>
       <c r="CD18" s="5" t="str">
         <f t="shared" si="36"/>
-        <v xml:space="preserve">Yantra/Sacred Geometry --&gt; Maha Mrityunjaya Yantra
+        <v xml:space="preserve">Yantra/Sacred Geometry (can keep this yantra in puja sthal) --&gt; Maha Mrityunjaya Yantra
 </v>
       </c>
       <c r="CE18" s="5" t="str">
         <f t="shared" si="37"/>
-        <v xml:space="preserve">Spiritual Practice/Sadhana --&gt; Self-reflection and introspection
+        <v xml:space="preserve">Spiritual Practice/Sadhana (must observe daily) --&gt; Self-reflection and introspection
 </v>
       </c>
       <c r="CF18" s="5" t="str">
         <f t="shared" si="38"/>
-        <v xml:space="preserve">Metal/Mineral --&gt; Silver
+        <v xml:space="preserve">Metal/Mineral (natural affliliation) --&gt; Silver
 </v>
       </c>
       <c r="CG18" s="5" t="str">
         <f t="shared" si="39"/>
-        <v xml:space="preserve">Aromatherapy/Essential Oils --&gt; Patchouli, Vetiver, Myrrh
+        <v xml:space="preserve">Aromatherapy/Essential Oils (should apply these) --&gt; Patchouli, Vetiver, Myrrh
 </v>
       </c>
       <c r="CH18" s="5" t="str">
@@ -11878,17 +11950,17 @@
       </c>
       <c r="CI18" s="5" t="str">
         <f t="shared" si="41"/>
-        <v xml:space="preserve">Mythological Story/Legend --&gt; Mitra, god of friendship
+        <v xml:space="preserve">Mythological Story/Legend (must read these stories) --&gt; Mitra, god of friendship
 </v>
       </c>
       <c r="CJ18" s="5" t="str">
         <f t="shared" si="42"/>
-        <v xml:space="preserve">Sound/Mantra --&gt; Om Mitraya Namaha
+        <v xml:space="preserve">Sound/Mantra (must chant this mantra) --&gt; Om Mitraya Namaha
 </v>
       </c>
       <c r="CK18" s="5" t="str">
         <f t="shared" si="43"/>
-        <v xml:space="preserve">Flower --&gt; Red Lotus
+        <v xml:space="preserve">Flower (keep these nearby) --&gt; Red Lotus
 </v>
       </c>
       <c r="CL18" s="5" t="str">
@@ -11908,7 +11980,7 @@
       </c>
       <c r="CO18" s="5" t="str">
         <f t="shared" si="47"/>
-        <v xml:space="preserve">Dosha Element --&gt; Kapha
+        <v xml:space="preserve">Dosha Element (must keep the element in check, learn more from ayurveda) --&gt; Kapha
 </v>
       </c>
     </row>
@@ -12053,22 +12125,22 @@
       </c>
       <c r="AU19" s="5" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">Nakshatra --&gt; Jyeshtha
-Ruling Deity --&gt; Indra
-Symbol --&gt; Umbrella or Earring
+        <v xml:space="preserve">Nakshatra (Moon Nakshatra) --&gt; Jyeshtha
+Ruling Deity (Main deity) --&gt; Indra
+Symbol (can keep symbol/painting of same in bedroom or desktop) --&gt; Umbrella or Earring
 Animal --&gt; Male Deer
 Nature --&gt; Rajas
 Gender --&gt; Male
 Dosha --&gt; Vata
 Guna --&gt; Rajas
-Purpose --&gt; Protection and Elimination of Enemies
-Tree --&gt; Palash
-Gemstone --&gt; Garnet
+Purpose (one should strive for) --&gt; Protection and Elimination of Enemies
+Tree (offer reverance or have it in house if possible) --&gt; Palash
+Gemstone (natural gemstone) --&gt; Garnet
 Yoga --&gt; Soolaghna
 Plant/Flower --&gt; Palash
-Color --&gt; Grey
-Planet --&gt; Mercury
-Mantra --&gt; Om Indraya Namaha
+Color (natural effinity) --&gt; Grey
+Planet (ruling planet) --&gt; Mercury
+Mantra (one must chant daily) --&gt; Om Indraya Namaha
 Body Temperament --&gt; Watery
 Career/Profession --&gt; Psychologists, Healers, Spiritual Gurus
 Compatibility --&gt; Anuradha, Vishakha, Mula, Purvashadha, Uttarashadha
@@ -12077,47 +12149,47 @@
 Lucky Directions --&gt; South
 Auspicious Activities --&gt; Seeking blessings, spiritual practices, starting new ventures
 Inauspicious Activities --&gt; Conflicts, legal issues, theft
-Health Issues --&gt; Joint pains, muscle problems
+Health Issues (should take care) --&gt; Joint pains, muscle problems
 Prayers or Rituals --&gt; Worship Lord Indra
-Historical/Mythological Significance --&gt; Birthplace of Indra's queen, Shachi
-Mudra --&gt; Surya Mudra
-Food/Dietary Recommendation --&gt; Foods rich in vitamins and minerals
-Yoga Posture/Asana --&gt; Chakrasana, Surya Namaskar, Ustrasana
+Historical/Mythological Significance (must read these stories) --&gt; Birthplace of Indra's queen, Shachi
+Mudra (learn and often sit in this mudra) --&gt; Surya Mudra
+Food/Dietary Recommendation (should intake) --&gt; Foods rich in vitamins and minerals
+Yoga Posture/Asana (should do these yogas) --&gt; Chakrasana, Surya Namaskar, Ustrasana
 Tarot Card/Divination Symbol --&gt; The Emperor
-Hindu Festivals/Holidays --&gt; Diwali
-Chakra/Energy Center --&gt; Manipura
-Yantra/Sacred Geometry --&gt; Surya Yantra
-Spiritual Practice/Sadhana --&gt; Inner strength and confidence
-Metal/Mineral --&gt; Copper
-Aromatherapy/Essential Oils --&gt; Ginger, Lemongrass, Bergamot
+Hindu Festivals/Holidays (do sadhna on these festivals) --&gt; Diwali
+Chakra/Energy Center (do puja, meditation for this chakra) --&gt; Manipura
+Yantra/Sacred Geometry (can keep this yantra in puja sthal) --&gt; Surya Yantra
+Spiritual Practice/Sadhana (must observe daily) --&gt; Inner strength and confidence
+Metal/Mineral (natural affliliation) --&gt; Copper
+Aromatherapy/Essential Oils (should apply these) --&gt; Ginger, Lemongrass, Bergamot
 Personality Traits/Characteristics --&gt; Courageous, determined, ambitious
-Mythological Story/Legend --&gt; Indra, king of the gods
-Sound/Mantra --&gt; Om Indraya Namaha
-Flower --&gt; Palash
+Mythological Story/Legend (must read these stories) --&gt; Indra, king of the gods
+Sound/Mantra (must chant this mantra) --&gt; Om Indraya Namaha
+Flower (keep these nearby) --&gt; Palash
 Prana --&gt; Udana Vayu
 Varna --&gt; Kshatriya
 Taste --&gt; Pungent
-Dosha Element --&gt; Vata
+Dosha Element (must keep the element in check, learn more from ayurveda) --&gt; Vata
 </v>
       </c>
       <c r="AV19" s="5" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">Nakshatra --&gt; Jyeshtha
-Ruling Deity --&gt; Indra
-Symbol --&gt; Umbrella or Earring
+        <v xml:space="preserve">Nakshatra (Moon Nakshatra) --&gt; Jyeshtha
+Ruling Deity (Main deity) --&gt; Indra
+Symbol (can keep symbol/painting of same in bedroom or desktop) --&gt; Umbrella or Earring
 Animal --&gt; Male Deer
 Nature --&gt; Rajas
 Gender --&gt; Male
 Dosha --&gt; Vata
 Guna --&gt; Rajas
-Purpose --&gt; Protection and Elimination of Enemies
-Tree --&gt; Palash
-Gemstone --&gt; Garnet
+Purpose (one should strive for) --&gt; Protection and Elimination of Enemies
+Tree (offer reverance or have it in house if possible) --&gt; Palash
+Gemstone (natural gemstone) --&gt; Garnet
 Yoga --&gt; Soolaghna
 Plant/Flower --&gt; Palash
-Color --&gt; Grey
-Planet --&gt; Mercury
-Mantra --&gt; Om Indraya Namaha
+Color (natural effinity) --&gt; Grey
+Planet (ruling planet) --&gt; Mercury
+Mantra (one must chant daily) --&gt; Om Indraya Namaha
 Body Temperament --&gt; Watery
 Career/Profession --&gt; Psychologists, Healers, Spiritual Gurus
 Compatibility --&gt; Anuradha, Vishakha, Mula, Purvashadha, Uttarashadha
@@ -12126,42 +12198,42 @@
 Lucky Directions --&gt; South
 Auspicious Activities --&gt; Seeking blessings, spiritual practices, starting new ventures
 Inauspicious Activities --&gt; Conflicts, legal issues, theft
-Health Issues --&gt; Joint pains, muscle problems
+Health Issues (should take care) --&gt; Joint pains, muscle problems
 Prayers or Rituals --&gt; Worship Lord Indra
-Historical/Mythological Significance --&gt; Birthplace of Indra's queen, Shachi
-Mudra --&gt; Surya Mudra
-Food/Dietary Recommendation --&gt; Foods rich in vitamins and minerals
-Yoga Posture/Asana --&gt; Chakrasana, Surya Namaskar, Ustrasana
+Historical/Mythological Significance (must read these stories) --&gt; Birthplace of Indra's queen, Shachi
+Mudra (learn and often sit in this mudra) --&gt; Surya Mudra
+Food/Dietary Recommendation (should intake) --&gt; Foods rich in vitamins and minerals
+Yoga Posture/Asana (should do these yogas) --&gt; Chakrasana, Surya Namaskar, Ustrasana
 Tarot Card/Divination Symbol --&gt; The Emperor
-Hindu Festivals/Holidays --&gt; Diwali
-Chakra/Energy Center --&gt; Manipura
-Yantra/Sacred Geometry --&gt; Surya Yantra
-Spiritual Practice/Sadhana --&gt; Inner strength and confidence
-Metal/Mineral --&gt; Copper
-Aromatherapy/Essential Oils --&gt; Ginger, Lemongrass, Bergamot
+Hindu Festivals/Holidays (do sadhna on these festivals) --&gt; Diwali
+Chakra/Energy Center (do puja, meditation for this chakra) --&gt; Manipura
+Yantra/Sacred Geometry (can keep this yantra in puja sthal) --&gt; Surya Yantra
+Spiritual Practice/Sadhana (must observe daily) --&gt; Inner strength and confidence
+Metal/Mineral (natural affliliation) --&gt; Copper
+Aromatherapy/Essential Oils (should apply these) --&gt; Ginger, Lemongrass, Bergamot
 Personality Traits/Characteristics --&gt; Courageous, determined, ambitious
-Mythological Story/Legend --&gt; Indra, king of the gods
-Sound/Mantra --&gt; Om Indraya Namaha
-Flower --&gt; Palash
+Mythological Story/Legend (must read these stories) --&gt; Indra, king of the gods
+Sound/Mantra (must chant this mantra) --&gt; Om Indraya Namaha
+Flower (keep these nearby) --&gt; Palash
 Prana --&gt; Udana Vayu
 Varna --&gt; Kshatriya
 Taste --&gt; Pungent
-Dosha Element --&gt; Vata
+Dosha Element (must keep the element in check, learn more from ayurveda) --&gt; Vata
 </v>
       </c>
       <c r="AW19" s="5" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">Nakshatra --&gt; Jyeshtha
+        <v xml:space="preserve">Nakshatra (Moon Nakshatra) --&gt; Jyeshtha
 </v>
       </c>
       <c r="AX19" s="5" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">Ruling Deity --&gt; Indra
+        <v xml:space="preserve">Ruling Deity (Main deity) --&gt; Indra
 </v>
       </c>
       <c r="AY19" s="5" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">Symbol --&gt; Umbrella or Earring
+        <v xml:space="preserve">Symbol (can keep symbol/painting of same in bedroom or desktop) --&gt; Umbrella or Earring
 </v>
       </c>
       <c r="AZ19" s="5" t="str">
@@ -12191,17 +12263,17 @@
       </c>
       <c r="BE19" s="5" t="str">
         <f t="shared" si="11"/>
-        <v xml:space="preserve">Purpose --&gt; Protection and Elimination of Enemies
+        <v xml:space="preserve">Purpose (one should strive for) --&gt; Protection and Elimination of Enemies
 </v>
       </c>
       <c r="BF19" s="5" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">Tree --&gt; Palash
+        <v xml:space="preserve">Tree (offer reverance or have it in house if possible) --&gt; Palash
 </v>
       </c>
       <c r="BG19" s="5" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">Gemstone --&gt; Garnet
+        <v xml:space="preserve">Gemstone (natural gemstone) --&gt; Garnet
 </v>
       </c>
       <c r="BH19" s="5" t="str">
@@ -12216,17 +12288,17 @@
       </c>
       <c r="BJ19" s="5" t="str">
         <f t="shared" si="16"/>
-        <v xml:space="preserve">Color --&gt; Grey
+        <v xml:space="preserve">Color (natural effinity) --&gt; Grey
 </v>
       </c>
       <c r="BK19" s="5" t="str">
         <f t="shared" si="17"/>
-        <v xml:space="preserve">Planet --&gt; Mercury
+        <v xml:space="preserve">Planet (ruling planet) --&gt; Mercury
 </v>
       </c>
       <c r="BL19" s="5" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">Mantra --&gt; Om Indraya Namaha
+        <v xml:space="preserve">Mantra (one must chant daily) --&gt; Om Indraya Namaha
 </v>
       </c>
       <c r="BM19" s="5" t="str">
@@ -12271,7 +12343,7 @@
       </c>
       <c r="BU19" s="5" t="str">
         <f t="shared" si="27"/>
-        <v xml:space="preserve">Health Issues --&gt; Joint pains, muscle problems
+        <v xml:space="preserve">Health Issues (should take care) --&gt; Joint pains, muscle problems
 </v>
       </c>
       <c r="BV19" s="5" t="str">
@@ -12281,22 +12353,22 @@
       </c>
       <c r="BW19" s="5" t="str">
         <f t="shared" si="29"/>
-        <v xml:space="preserve">Historical/Mythological Significance --&gt; Birthplace of Indra's queen, Shachi
+        <v xml:space="preserve">Historical/Mythological Significance (must read these stories) --&gt; Birthplace of Indra's queen, Shachi
 </v>
       </c>
       <c r="BX19" s="5" t="str">
         <f t="shared" si="30"/>
-        <v xml:space="preserve">Mudra --&gt; Surya Mudra
+        <v xml:space="preserve">Mudra (learn and often sit in this mudra) --&gt; Surya Mudra
 </v>
       </c>
       <c r="BY19" s="5" t="str">
         <f t="shared" si="31"/>
-        <v xml:space="preserve">Food/Dietary Recommendation --&gt; Foods rich in vitamins and minerals
+        <v xml:space="preserve">Food/Dietary Recommendation (should intake) --&gt; Foods rich in vitamins and minerals
 </v>
       </c>
       <c r="BZ19" s="5" t="str">
         <f t="shared" si="32"/>
-        <v xml:space="preserve">Yoga Posture/Asana --&gt; Chakrasana, Surya Namaskar, Ustrasana
+        <v xml:space="preserve">Yoga Posture/Asana (should do these yogas) --&gt; Chakrasana, Surya Namaskar, Ustrasana
 </v>
       </c>
       <c r="CA19" s="5" t="str">
@@ -12306,32 +12378,32 @@
       </c>
       <c r="CB19" s="5" t="str">
         <f t="shared" si="34"/>
-        <v xml:space="preserve">Hindu Festivals/Holidays --&gt; Diwali
+        <v xml:space="preserve">Hindu Festivals/Holidays (do sadhna on these festivals) --&gt; Diwali
 </v>
       </c>
       <c r="CC19" s="5" t="str">
         <f t="shared" si="35"/>
-        <v xml:space="preserve">Chakra/Energy Center --&gt; Manipura
+        <v xml:space="preserve">Chakra/Energy Center (do puja, meditation for this chakra) --&gt; Manipura
 </v>
       </c>
       <c r="CD19" s="5" t="str">
         <f t="shared" si="36"/>
-        <v xml:space="preserve">Yantra/Sacred Geometry --&gt; Surya Yantra
+        <v xml:space="preserve">Yantra/Sacred Geometry (can keep this yantra in puja sthal) --&gt; Surya Yantra
 </v>
       </c>
       <c r="CE19" s="5" t="str">
         <f t="shared" si="37"/>
-        <v xml:space="preserve">Spiritual Practice/Sadhana --&gt; Inner strength and confidence
+        <v xml:space="preserve">Spiritual Practice/Sadhana (must observe daily) --&gt; Inner strength and confidence
 </v>
       </c>
       <c r="CF19" s="5" t="str">
         <f t="shared" si="38"/>
-        <v xml:space="preserve">Metal/Mineral --&gt; Copper
+        <v xml:space="preserve">Metal/Mineral (natural affliliation) --&gt; Copper
 </v>
       </c>
       <c r="CG19" s="5" t="str">
         <f t="shared" si="39"/>
-        <v xml:space="preserve">Aromatherapy/Essential Oils --&gt; Ginger, Lemongrass, Bergamot
+        <v xml:space="preserve">Aromatherapy/Essential Oils (should apply these) --&gt; Ginger, Lemongrass, Bergamot
 </v>
       </c>
       <c r="CH19" s="5" t="str">
@@ -12341,17 +12413,17 @@
       </c>
       <c r="CI19" s="5" t="str">
         <f t="shared" si="41"/>
-        <v xml:space="preserve">Mythological Story/Legend --&gt; Indra, king of the gods
+        <v xml:space="preserve">Mythological Story/Legend (must read these stories) --&gt; Indra, king of the gods
 </v>
       </c>
       <c r="CJ19" s="5" t="str">
         <f t="shared" si="42"/>
-        <v xml:space="preserve">Sound/Mantra --&gt; Om Indraya Namaha
+        <v xml:space="preserve">Sound/Mantra (must chant this mantra) --&gt; Om Indraya Namaha
 </v>
       </c>
       <c r="CK19" s="5" t="str">
         <f t="shared" si="43"/>
-        <v xml:space="preserve">Flower --&gt; Palash
+        <v xml:space="preserve">Flower (keep these nearby) --&gt; Palash
 </v>
       </c>
       <c r="CL19" s="5" t="str">
@@ -12371,7 +12443,7 @@
       </c>
       <c r="CO19" s="5" t="str">
         <f t="shared" si="47"/>
-        <v xml:space="preserve">Dosha Element --&gt; Vata
+        <v xml:space="preserve">Dosha Element (must keep the element in check, learn more from ayurveda) --&gt; Vata
 </v>
       </c>
     </row>
@@ -12516,22 +12588,22 @@
       </c>
       <c r="AU20" s="5" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">Nakshatra --&gt; Mula
-Ruling Deity --&gt; Nirriti
-Symbol --&gt; Roots or Tail of Lion
+        <v xml:space="preserve">Nakshatra (Moon Nakshatra) --&gt; Mula
+Ruling Deity (Main deity) --&gt; Nirriti
+Symbol (can keep symbol/painting of same in bedroom or desktop) --&gt; Roots or Tail of Lion
 Animal --&gt; Male Dog
 Nature --&gt; Tamas
 Gender --&gt; Female
 Dosha --&gt; Kapha
 Guna --&gt; Tamas
-Purpose --&gt; Liberation
-Tree --&gt; Dhatura
-Gemstone --&gt; Cat's Eye
+Purpose (one should strive for) --&gt; Liberation
+Tree (offer reverance or have it in house if possible) --&gt; Dhatura
+Gemstone (natural gemstone) --&gt; Cat's Eye
 Yoga --&gt; Vaidhriti
 Plant/Flower --&gt; Dhatura
-Color --&gt; Red
-Planet --&gt; Ketu
-Mantra --&gt; Om Mule Namaha
+Color (natural effinity) --&gt; Red
+Planet (ruling planet) --&gt; Ketu
+Mantra (one must chant daily) --&gt; Om Mule Namaha
 Body Temperament --&gt; Fiery
 Career/Profession --&gt; Astrologers, Researchers, Healers
 Compatibility --&gt; Jyeshtha, Purvashadha, Uttarashadha, Shravana, Dhanishta
@@ -12540,47 +12612,47 @@
 Lucky Directions --&gt; North
 Auspicious Activities --&gt; Starting new ventures, seeking knowledge, spiritual practices
 Inauspicious Activities --&gt; Quarrels, conflicts, theft
-Health Issues --&gt; Joint pains, muscle problems
+Health Issues (should take care) --&gt; Joint pains, muscle problems
 Prayers or Rituals --&gt; Worship Lord Nritti
-Historical/Mythological Significance --&gt; Birthplace of the goddess of destruction, Kali
-Mudra --&gt; Varuna Mudra
-Food/Dietary Recommendation --&gt; Light, easily digestible foods
-Yoga Posture/Asana --&gt; Ardha Matsyendrasana, Dhanurasana, Setu Bandhasana
+Historical/Mythological Significance (must read these stories) --&gt; Birthplace of the goddess of destruction, Kali
+Mudra (learn and often sit in this mudra) --&gt; Varuna Mudra
+Food/Dietary Recommendation (should intake) --&gt; Light, easily digestible foods
+Yoga Posture/Asana (should do these yogas) --&gt; Ardha Matsyendrasana, Dhanurasana, Setu Bandhasana
 Tarot Card/Divination Symbol --&gt; Death
-Hindu Festivals/Holidays --&gt; Navratri
-Chakra/Energy Center --&gt; Muladhara
-Yantra/Sacred Geometry --&gt; Kali Yantra
-Spiritual Practice/Sadhana --&gt; Surrender and letting go
-Metal/Mineral --&gt; Lead
-Aromatherapy/Essential Oils --&gt; Eucalyptus, Frankincense, Myrrh
+Hindu Festivals/Holidays (do sadhna on these festivals) --&gt; Navratri
+Chakra/Energy Center (do puja, meditation for this chakra) --&gt; Muladhara
+Yantra/Sacred Geometry (can keep this yantra in puja sthal) --&gt; Kali Yantra
+Spiritual Practice/Sadhana (must observe daily) --&gt; Surrender and letting go
+Metal/Mineral (natural affliliation) --&gt; Lead
+Aromatherapy/Essential Oils (should apply these) --&gt; Eucalyptus, Frankincense, Myrrh
 Personality Traits/Characteristics --&gt; Transformational, intense, secretive
-Mythological Story/Legend --&gt; Nritti, goddess of destruction
-Sound/Mantra --&gt; Om Nrittaye Namaha
-Flower --&gt; Yellow Marigold
+Mythological Story/Legend (must read these stories) --&gt; Nritti, goddess of destruction
+Sound/Mantra (must chant this mantra) --&gt; Om Nrittaye Namaha
+Flower (keep these nearby) --&gt; Yellow Marigold
 Prana --&gt; Apana Vayu
 Varna --&gt; Sudra
 Taste --&gt; Bitter
-Dosha Element --&gt; Vata
+Dosha Element (must keep the element in check, learn more from ayurveda) --&gt; Vata
 </v>
       </c>
       <c r="AV20" s="5" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">Nakshatra --&gt; Mula
-Ruling Deity --&gt; Nirriti
-Symbol --&gt; Roots or Tail of Lion
+        <v xml:space="preserve">Nakshatra (Moon Nakshatra) --&gt; Mula
+Ruling Deity (Main deity) --&gt; Nirriti
+Symbol (can keep symbol/painting of same in bedroom or desktop) --&gt; Roots or Tail of Lion
 Animal --&gt; Male Dog
 Nature --&gt; Tamas
 Gender --&gt; Female
 Dosha --&gt; Kapha
 Guna --&gt; Tamas
-Purpose --&gt; Liberation
-Tree --&gt; Dhatura
-Gemstone --&gt; Cat's Eye
+Purpose (one should strive for) --&gt; Liberation
+Tree (offer reverance or have it in house if possible) --&gt; Dhatura
+Gemstone (natural gemstone) --&gt; Cat's Eye
 Yoga --&gt; Vaidhriti
 Plant/Flower --&gt; Dhatura
-Color --&gt; Red
-Planet --&gt; Ketu
-Mantra --&gt; Om Mule Namaha
+Color (natural effinity) --&gt; Red
+Planet (ruling planet) --&gt; Ketu
+Mantra (one must chant daily) --&gt; Om Mule Namaha
 Body Temperament --&gt; Fiery
 Career/Profession --&gt; Astrologers, Researchers, Healers
 Compatibility --&gt; Jyeshtha, Purvashadha, Uttarashadha, Shravana, Dhanishta
@@ -12589,42 +12661,42 @@
 Lucky Directions --&gt; North
 Auspicious Activities --&gt; Starting new ventures, seeking knowledge, spiritual practices
 Inauspicious Activities --&gt; Quarrels, conflicts, theft
-Health Issues --&gt; Joint pains, muscle problems
+Health Issues (should take care) --&gt; Joint pains, muscle problems
 Prayers or Rituals --&gt; Worship Lord Nritti
-Historical/Mythological Significance --&gt; Birthplace of the goddess of destruction, Kali
-Mudra --&gt; Varuna Mudra
-Food/Dietary Recommendation --&gt; Light, easily digestible foods
-Yoga Posture/Asana --&gt; Ardha Matsyendrasana, Dhanurasana, Setu Bandhasana
+Historical/Mythological Significance (must read these stories) --&gt; Birthplace of the goddess of destruction, Kali
+Mudra (learn and often sit in this mudra) --&gt; Varuna Mudra
+Food/Dietary Recommendation (should intake) --&gt; Light, easily digestible foods
+Yoga Posture/Asana (should do these yogas) --&gt; Ardha Matsyendrasana, Dhanurasana, Setu Bandhasana
 Tarot Card/Divination Symbol --&gt; Death
-Hindu Festivals/Holidays --&gt; Navratri
-Chakra/Energy Center --&gt; Muladhara
-Yantra/Sacred Geometry --&gt; Kali Yantra
-Spiritual Practice/Sadhana --&gt; Surrender and letting go
-Metal/Mineral --&gt; Lead
-Aromatherapy/Essential Oils --&gt; Eucalyptus, Frankincense, Myrrh
+Hindu Festivals/Holidays (do sadhna on these festivals) --&gt; Navratri
+Chakra/Energy Center (do puja, meditation for this chakra) --&gt; Muladhara
+Yantra/Sacred Geometry (can keep this yantra in puja sthal) --&gt; Kali Yantra
+Spiritual Practice/Sadhana (must observe daily) --&gt; Surrender and letting go
+Metal/Mineral (natural affliliation) --&gt; Lead
+Aromatherapy/Essential Oils (should apply these) --&gt; Eucalyptus, Frankincense, Myrrh
 Personality Traits/Characteristics --&gt; Transformational, intense, secretive
-Mythological Story/Legend --&gt; Nritti, goddess of destruction
-Sound/Mantra --&gt; Om Nrittaye Namaha
-Flower --&gt; Yellow Marigold
+Mythological Story/Legend (must read these stories) --&gt; Nritti, goddess of destruction
+Sound/Mantra (must chant this mantra) --&gt; Om Nrittaye Namaha
+Flower (keep these nearby) --&gt; Yellow Marigold
 Prana --&gt; Apana Vayu
 Varna --&gt; Sudra
 Taste --&gt; Bitter
-Dosha Element --&gt; Vata
+Dosha Element (must keep the element in check, learn more from ayurveda) --&gt; Vata
 </v>
       </c>
       <c r="AW20" s="5" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">Nakshatra --&gt; Mula
+        <v xml:space="preserve">Nakshatra (Moon Nakshatra) --&gt; Mula
 </v>
       </c>
       <c r="AX20" s="5" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">Ruling Deity --&gt; Nirriti
+        <v xml:space="preserve">Ruling Deity (Main deity) --&gt; Nirriti
 </v>
       </c>
       <c r="AY20" s="5" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">Symbol --&gt; Roots or Tail of Lion
+        <v xml:space="preserve">Symbol (can keep symbol/painting of same in bedroom or desktop) --&gt; Roots or Tail of Lion
 </v>
       </c>
       <c r="AZ20" s="5" t="str">
@@ -12654,17 +12726,17 @@
       </c>
       <c r="BE20" s="5" t="str">
         <f t="shared" si="11"/>
-        <v xml:space="preserve">Purpose --&gt; Liberation
+        <v xml:space="preserve">Purpose (one should strive for) --&gt; Liberation
 </v>
       </c>
       <c r="BF20" s="5" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">Tree --&gt; Dhatura
+        <v xml:space="preserve">Tree (offer reverance or have it in house if possible) --&gt; Dhatura
 </v>
       </c>
       <c r="BG20" s="5" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">Gemstone --&gt; Cat's Eye
+        <v xml:space="preserve">Gemstone (natural gemstone) --&gt; Cat's Eye
 </v>
       </c>
       <c r="BH20" s="5" t="str">
@@ -12679,17 +12751,17 @@
       </c>
       <c r="BJ20" s="5" t="str">
         <f t="shared" si="16"/>
-        <v xml:space="preserve">Color --&gt; Red
+        <v xml:space="preserve">Color (natural effinity) --&gt; Red
 </v>
       </c>
       <c r="BK20" s="5" t="str">
         <f t="shared" si="17"/>
-        <v xml:space="preserve">Planet --&gt; Ketu
+        <v xml:space="preserve">Planet (ruling planet) --&gt; Ketu
 </v>
       </c>
       <c r="BL20" s="5" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">Mantra --&gt; Om Mule Namaha
+        <v xml:space="preserve">Mantra (one must chant daily) --&gt; Om Mule Namaha
 </v>
       </c>
       <c r="BM20" s="5" t="str">
@@ -12734,7 +12806,7 @@
       </c>
       <c r="BU20" s="5" t="str">
         <f t="shared" si="27"/>
-        <v xml:space="preserve">Health Issues --&gt; Joint pains, muscle problems
+        <v xml:space="preserve">Health Issues (should take care) --&gt; Joint pains, muscle problems
 </v>
       </c>
       <c r="BV20" s="5" t="str">
@@ -12744,22 +12816,22 @@
       </c>
       <c r="BW20" s="5" t="str">
         <f t="shared" si="29"/>
-        <v xml:space="preserve">Historical/Mythological Significance --&gt; Birthplace of the goddess of destruction, Kali
+        <v xml:space="preserve">Historical/Mythological Significance (must read these stories) --&gt; Birthplace of the goddess of destruction, Kali
 </v>
       </c>
       <c r="BX20" s="5" t="str">
         <f t="shared" si="30"/>
-        <v xml:space="preserve">Mudra --&gt; Varuna Mudra
+        <v xml:space="preserve">Mudra (learn and often sit in this mudra) --&gt; Varuna Mudra
 </v>
       </c>
       <c r="BY20" s="5" t="str">
         <f t="shared" si="31"/>
-        <v xml:space="preserve">Food/Dietary Recommendation --&gt; Light, easily digestible foods
+        <v xml:space="preserve">Food/Dietary Recommendation (should intake) --&gt; Light, easily digestible foods
 </v>
       </c>
       <c r="BZ20" s="5" t="str">
         <f t="shared" si="32"/>
-        <v xml:space="preserve">Yoga Posture/Asana --&gt; Ardha Matsyendrasana, Dhanurasana, Setu Bandhasana
+        <v xml:space="preserve">Yoga Posture/Asana (should do these yogas) --&gt; Ardha Matsyendrasana, Dhanurasana, Setu Bandhasana
 </v>
       </c>
       <c r="CA20" s="5" t="str">
@@ -12769,32 +12841,32 @@
       </c>
       <c r="CB20" s="5" t="str">
         <f t="shared" si="34"/>
-        <v xml:space="preserve">Hindu Festivals/Holidays --&gt; Navratri
+        <v xml:space="preserve">Hindu Festivals/Holidays (do sadhna on these festivals) --&gt; Navratri
 </v>
       </c>
       <c r="CC20" s="5" t="str">
         <f t="shared" si="35"/>
-        <v xml:space="preserve">Chakra/Energy Center --&gt; Muladhara
+        <v xml:space="preserve">Chakra/Energy Center (do puja, meditation for this chakra) --&gt; Muladhara
 </v>
       </c>
       <c r="CD20" s="5" t="str">
         <f t="shared" si="36"/>
-        <v xml:space="preserve">Yantra/Sacred Geometry --&gt; Kali Yantra
+        <v xml:space="preserve">Yantra/Sacred Geometry (can keep this yantra in puja sthal) --&gt; Kali Yantra
 </v>
       </c>
       <c r="CE20" s="5" t="str">
         <f t="shared" si="37"/>
-        <v xml:space="preserve">Spiritual Practice/Sadhana --&gt; Surrender and letting go
+        <v xml:space="preserve">Spiritual Practice/Sadhana (must observe daily) --&gt; Surrender and letting go
 </v>
       </c>
       <c r="CF20" s="5" t="str">
         <f t="shared" si="38"/>
-        <v xml:space="preserve">Metal/Mineral --&gt; Lead
+        <v xml:space="preserve">Metal/Mineral (natural affliliation) --&gt; Lead
 </v>
       </c>
       <c r="CG20" s="5" t="str">
         <f t="shared" si="39"/>
-        <v xml:space="preserve">Aromatherapy/Essential Oils --&gt; Eucalyptus, Frankincense, Myrrh
+        <v xml:space="preserve">Aromatherapy/Essential Oils (should apply these) --&gt; Eucalyptus, Frankincense, Myrrh
 </v>
       </c>
       <c r="CH20" s="5" t="str">
@@ -12804,17 +12876,17 @@
       </c>
       <c r="CI20" s="5" t="str">
         <f t="shared" si="41"/>
-        <v xml:space="preserve">Mythological Story/Legend --&gt; Nritti, goddess of destruction
+        <v xml:space="preserve">Mythological Story/Legend (must read these stories) --&gt; Nritti, goddess of destruction
 </v>
       </c>
       <c r="CJ20" s="5" t="str">
         <f t="shared" si="42"/>
-        <v xml:space="preserve">Sound/Mantra --&gt; Om Nrittaye Namaha
+        <v xml:space="preserve">Sound/Mantra (must chant this mantra) --&gt; Om Nrittaye Namaha
 </v>
       </c>
       <c r="CK20" s="5" t="str">
         <f t="shared" si="43"/>
-        <v xml:space="preserve">Flower --&gt; Yellow Marigold
+        <v xml:space="preserve">Flower (keep these nearby) --&gt; Yellow Marigold
 </v>
       </c>
       <c r="CL20" s="5" t="str">
@@ -12834,7 +12906,7 @@
       </c>
       <c r="CO20" s="5" t="str">
         <f t="shared" si="47"/>
-        <v xml:space="preserve">Dosha Element --&gt; Vata
+        <v xml:space="preserve">Dosha Element (must keep the element in check, learn more from ayurveda) --&gt; Vata
 </v>
       </c>
     </row>
@@ -12979,22 +13051,22 @@
       </c>
       <c r="AU21" s="5" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">Nakshatra --&gt; Purva Ashadha
-Ruling Deity --&gt; Apah
-Symbol --&gt; Elephant Tusk or Fan
+        <v xml:space="preserve">Nakshatra (Moon Nakshatra) --&gt; Purva Ashadha
+Ruling Deity (Main deity) --&gt; Apah
+Symbol (can keep symbol/painting of same in bedroom or desktop) --&gt; Elephant Tusk or Fan
 Animal --&gt; Male Monkey
 Nature --&gt; Sattva
 Gender --&gt; Female
 Dosha --&gt; Pitta
 Guna --&gt; Sattva
-Purpose --&gt; Fortunate and Accomplished
-Tree --&gt; Ashvattha
-Gemstone --&gt; Blue Sapphire
+Purpose (one should strive for) --&gt; Fortunate and Accomplished
+Tree (offer reverance or have it in house if possible) --&gt; Ashvattha
+Gemstone (natural gemstone) --&gt; Blue Sapphire
 Yoga --&gt; Vishwadeva
 Plant/Flower --&gt; Ashvattha
-Color --&gt; Golden
-Planet --&gt; Venus
-Mantra --&gt; Om Apah Namaha
+Color (natural effinity) --&gt; Golden
+Planet (ruling planet) --&gt; Venus
+Mantra (one must chant daily) --&gt; Om Apah Namaha
 Body Temperament --&gt; Fiery
 Career/Profession --&gt; Athletes, Musicians, Entrepreneurs
 Compatibility --&gt; Mula, Uttarashadha, Shravana, Dhanishta, Shatabhisha
@@ -13003,47 +13075,47 @@
 Lucky Directions --&gt; East
 Auspicious Activities --&gt; Starting new ventures, seeking blessings, spiritual practices
 Inauspicious Activities --&gt; Conflicts, legal issues, theft
-Health Issues --&gt; Hip and back problems, arthritis
+Health Issues (should take care) --&gt; Hip and back problems, arthritis
 Prayers or Rituals --&gt; Worship Lord Apas
-Historical/Mythological Significance --&gt; Birthplace of the gods, the Ashwini Kumaras
-Mudra --&gt; Abhaya Mudra
-Food/Dietary Recommendation --&gt; Light and nutritious meals, fresh fruits and vegetables
-Yoga Posture/Asana --&gt; Ardha Matsyendrasana, Hanumanasana, Parighasana
+Historical/Mythological Significance (must read these stories) --&gt; Birthplace of the gods, the Ashwini Kumaras
+Mudra (learn and often sit in this mudra) --&gt; Abhaya Mudra
+Food/Dietary Recommendation (should intake) --&gt; Light and nutritious meals, fresh fruits and vegetables
+Yoga Posture/Asana (should do these yogas) --&gt; Ardha Matsyendrasana, Hanumanasana, Parighasana
 Tarot Card/Divination Symbol --&gt; The Wheel of Fortune
-Hindu Festivals/Holidays --&gt; Guru Purnima
-Chakra/Energy Center --&gt; Manipura
-Yantra/Sacred Geometry --&gt; Surya Yantra
-Spiritual Practice/Sadhana --&gt; Bhakti yoga and devotion to God
-Metal/Mineral --&gt; Gold
-Aromatherapy/Essential Oils --&gt; Frankincense, Sandalwood, Rose
+Hindu Festivals/Holidays (do sadhna on these festivals) --&gt; Guru Purnima
+Chakra/Energy Center (do puja, meditation for this chakra) --&gt; Manipura
+Yantra/Sacred Geometry (can keep this yantra in puja sthal) --&gt; Surya Yantra
+Spiritual Practice/Sadhana (must observe daily) --&gt; Bhakti yoga and devotion to God
+Metal/Mineral (natural affliliation) --&gt; Gold
+Aromatherapy/Essential Oils (should apply these) --&gt; Frankincense, Sandalwood, Rose
 Personality Traits/Characteristics --&gt; Optimistic, generous, creative
-Mythological Story/Legend --&gt; Apasara Urvashi
-Sound/Mantra --&gt; Om Namo Narayana
-Flower --&gt; Palash
+Mythological Story/Legend (must read these stories) --&gt; Apasara Urvashi
+Sound/Mantra (must chant this mantra) --&gt; Om Namo Narayana
+Flower (keep these nearby) --&gt; Palash
 Prana --&gt; Samana Vayu
 Varna --&gt; Kshatriya
 Taste --&gt; Bitter
-Dosha Element --&gt; Vata
+Dosha Element (must keep the element in check, learn more from ayurveda) --&gt; Vata
 </v>
       </c>
       <c r="AV21" s="5" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">Nakshatra --&gt; Purva Ashadha
-Ruling Deity --&gt; Apah
-Symbol --&gt; Elephant Tusk or Fan
+        <v xml:space="preserve">Nakshatra (Moon Nakshatra) --&gt; Purva Ashadha
+Ruling Deity (Main deity) --&gt; Apah
+Symbol (can keep symbol/painting of same in bedroom or desktop) --&gt; Elephant Tusk or Fan
 Animal --&gt; Male Monkey
 Nature --&gt; Sattva
 Gender --&gt; Female
 Dosha --&gt; Pitta
 Guna --&gt; Sattva
-Purpose --&gt; Fortunate and Accomplished
-Tree --&gt; Ashvattha
-Gemstone --&gt; Blue Sapphire
+Purpose (one should strive for) --&gt; Fortunate and Accomplished
+Tree (offer reverance or have it in house if possible) --&gt; Ashvattha
+Gemstone (natural gemstone) --&gt; Blue Sapphire
 Yoga --&gt; Vishwadeva
 Plant/Flower --&gt; Ashvattha
-Color --&gt; Golden
-Planet --&gt; Venus
-Mantra --&gt; Om Apah Namaha
+Color (natural effinity) --&gt; Golden
+Planet (ruling planet) --&gt; Venus
+Mantra (one must chant daily) --&gt; Om Apah Namaha
 Body Temperament --&gt; Fiery
 Career/Profession --&gt; Athletes, Musicians, Entrepreneurs
 Compatibility --&gt; Mula, Uttarashadha, Shravana, Dhanishta, Shatabhisha
@@ -13052,42 +13124,42 @@
 Lucky Directions --&gt; East
 Auspicious Activities --&gt; Starting new ventures, seeking blessings, spiritual practices
 Inauspicious Activities --&gt; Conflicts, legal issues, theft
-Health Issues --&gt; Hip and back problems, arthritis
+Health Issues (should take care) --&gt; Hip and back problems, arthritis
 Prayers or Rituals --&gt; Worship Lord Apas
-Historical/Mythological Significance --&gt; Birthplace of the gods, the Ashwini Kumaras
-Mudra --&gt; Abhaya Mudra
-Food/Dietary Recommendation --&gt; Light and nutritious meals, fresh fruits and vegetables
-Yoga Posture/Asana --&gt; Ardha Matsyendrasana, Hanumanasana, Parighasana
+Historical/Mythological Significance (must read these stories) --&gt; Birthplace of the gods, the Ashwini Kumaras
+Mudra (learn and often sit in this mudra) --&gt; Abhaya Mudra
+Food/Dietary Recommendation (should intake) --&gt; Light and nutritious meals, fresh fruits and vegetables
+Yoga Posture/Asana (should do these yogas) --&gt; Ardha Matsyendrasana, Hanumanasana, Parighasana
 Tarot Card/Divination Symbol --&gt; The Wheel of Fortune
-Hindu Festivals/Holidays --&gt; Guru Purnima
-Chakra/Energy Center --&gt; Manipura
-Yantra/Sacred Geometry --&gt; Surya Yantra
-Spiritual Practice/Sadhana --&gt; Bhakti yoga and devotion to God
-Metal/Mineral --&gt; Gold
-Aromatherapy/Essential Oils --&gt; Frankincense, Sandalwood, Rose
+Hindu Festivals/Holidays (do sadhna on these festivals) --&gt; Guru Purnima
+Chakra/Energy Center (do puja, meditation for this chakra) --&gt; Manipura
+Yantra/Sacred Geometry (can keep this yantra in puja sthal) --&gt; Surya Yantra
+Spiritual Practice/Sadhana (must observe daily) --&gt; Bhakti yoga and devotion to God
+Metal/Mineral (natural affliliation) --&gt; Gold
+Aromatherapy/Essential Oils (should apply these) --&gt; Frankincense, Sandalwood, Rose
 Personality Traits/Characteristics --&gt; Optimistic, generous, creative
-Mythological Story/Legend --&gt; Apasara Urvashi
-Sound/Mantra --&gt; Om Namo Narayana
-Flower --&gt; Palash
+Mythological Story/Legend (must read these stories) --&gt; Apasara Urvashi
+Sound/Mantra (must chant this mantra) --&gt; Om Namo Narayana
+Flower (keep these nearby) --&gt; Palash
 Prana --&gt; Samana Vayu
 Varna --&gt; Kshatriya
 Taste --&gt; Bitter
-Dosha Element --&gt; Vata
+Dosha Element (must keep the element in check, learn more from ayurveda) --&gt; Vata
 </v>
       </c>
       <c r="AW21" s="5" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">Nakshatra --&gt; Purva Ashadha
+        <v xml:space="preserve">Nakshatra (Moon Nakshatra) --&gt; Purva Ashadha
 </v>
       </c>
       <c r="AX21" s="5" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">Ruling Deity --&gt; Apah
+        <v xml:space="preserve">Ruling Deity (Main deity) --&gt; Apah
 </v>
       </c>
       <c r="AY21" s="5" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">Symbol --&gt; Elephant Tusk or Fan
+        <v xml:space="preserve">Symbol (can keep symbol/painting of same in bedroom or desktop) --&gt; Elephant Tusk or Fan
 </v>
       </c>
       <c r="AZ21" s="5" t="str">
@@ -13117,17 +13189,17 @@
       </c>
       <c r="BE21" s="5" t="str">
         <f t="shared" si="11"/>
-        <v xml:space="preserve">Purpose --&gt; Fortunate and Accomplished
+        <v xml:space="preserve">Purpose (one should strive for) --&gt; Fortunate and Accomplished
 </v>
       </c>
       <c r="BF21" s="5" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">Tree --&gt; Ashvattha
+        <v xml:space="preserve">Tree (offer reverance or have it in house if possible) --&gt; Ashvattha
 </v>
       </c>
       <c r="BG21" s="5" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">Gemstone --&gt; Blue Sapphire
+        <v xml:space="preserve">Gemstone (natural gemstone) --&gt; Blue Sapphire
 </v>
       </c>
       <c r="BH21" s="5" t="str">
@@ -13142,17 +13214,17 @@
       </c>
       <c r="BJ21" s="5" t="str">
         <f t="shared" si="16"/>
-        <v xml:space="preserve">Color --&gt; Golden
+        <v xml:space="preserve">Color (natural effinity) --&gt; Golden
 </v>
       </c>
       <c r="BK21" s="5" t="str">
         <f t="shared" si="17"/>
-        <v xml:space="preserve">Planet --&gt; Venus
+        <v xml:space="preserve">Planet (ruling planet) --&gt; Venus
 </v>
       </c>
       <c r="BL21" s="5" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">Mantra --&gt; Om Apah Namaha
+        <v xml:space="preserve">Mantra (one must chant daily) --&gt; Om Apah Namaha
 </v>
       </c>
       <c r="BM21" s="5" t="str">
@@ -13197,7 +13269,7 @@
       </c>
       <c r="BU21" s="5" t="str">
         <f t="shared" si="27"/>
-        <v xml:space="preserve">Health Issues --&gt; Hip and back problems, arthritis
+        <v xml:space="preserve">Health Issues (should take care) --&gt; Hip and back problems, arthritis
 </v>
       </c>
       <c r="BV21" s="5" t="str">
@@ -13207,22 +13279,22 @@
       </c>
       <c r="BW21" s="5" t="str">
         <f t="shared" si="29"/>
-        <v xml:space="preserve">Historical/Mythological Significance --&gt; Birthplace of the gods, the Ashwini Kumaras
+        <v xml:space="preserve">Historical/Mythological Significance (must read these stories) --&gt; Birthplace of the gods, the Ashwini Kumaras
 </v>
       </c>
       <c r="BX21" s="5" t="str">
         <f t="shared" si="30"/>
-        <v xml:space="preserve">Mudra --&gt; Abhaya Mudra
+        <v xml:space="preserve">Mudra (learn and often sit in this mudra) --&gt; Abhaya Mudra
 </v>
       </c>
       <c r="BY21" s="5" t="str">
         <f t="shared" si="31"/>
-        <v xml:space="preserve">Food/Dietary Recommendation --&gt; Light and nutritious meals, fresh fruits and vegetables
+        <v xml:space="preserve">Food/Dietary Recommendation (should intake) --&gt; Light and nutritious meals, fresh fruits and vegetables
 </v>
       </c>
       <c r="BZ21" s="5" t="str">
         <f t="shared" si="32"/>
-        <v xml:space="preserve">Yoga Posture/Asana --&gt; Ardha Matsyendrasana, Hanumanasana, Parighasana
+        <v xml:space="preserve">Yoga Posture/Asana (should do these yogas) --&gt; Ardha Matsyendrasana, Hanumanasana, Parighasana
 </v>
       </c>
       <c r="CA21" s="5" t="str">
@@ -13232,32 +13304,32 @@
       </c>
       <c r="CB21" s="5" t="str">
         <f t="shared" si="34"/>
-        <v xml:space="preserve">Hindu Festivals/Holidays --&gt; Guru Purnima
+        <v xml:space="preserve">Hindu Festivals/Holidays (do sadhna on these festivals) --&gt; Guru Purnima
 </v>
       </c>
       <c r="CC21" s="5" t="str">
         <f t="shared" si="35"/>
-        <v xml:space="preserve">Chakra/Energy Center --&gt; Manipura
+        <v xml:space="preserve">Chakra/Energy Center (do puja, meditation for this chakra) --&gt; Manipura
 </v>
       </c>
       <c r="CD21" s="5" t="str">
         <f t="shared" si="36"/>
-        <v xml:space="preserve">Yantra/Sacred Geometry --&gt; Surya Yantra
+        <v xml:space="preserve">Yantra/Sacred Geometry (can keep this yantra in puja sthal) --&gt; Surya Yantra
 </v>
       </c>
       <c r="CE21" s="5" t="str">
         <f t="shared" si="37"/>
-        <v xml:space="preserve">Spiritual Practice/Sadhana --&gt; Bhakti yoga and devotion to God
+        <v xml:space="preserve">Spiritual Practice/Sadhana (must observe daily) --&gt; Bhakti yoga and devotion to God
 </v>
       </c>
       <c r="CF21" s="5" t="str">
         <f t="shared" si="38"/>
-        <v xml:space="preserve">Metal/Mineral --&gt; Gold
+        <v xml:space="preserve">Metal/Mineral (natural affliliation) --&gt; Gold
 </v>
       </c>
       <c r="CG21" s="5" t="str">
         <f t="shared" si="39"/>
-        <v xml:space="preserve">Aromatherapy/Essential Oils --&gt; Frankincense, Sandalwood, Rose
+        <v xml:space="preserve">Aromatherapy/Essential Oils (should apply these) --&gt; Frankincense, Sandalwood, Rose
 </v>
       </c>
       <c r="CH21" s="5" t="str">
@@ -13267,17 +13339,17 @@
       </c>
       <c r="CI21" s="5" t="str">
         <f t="shared" si="41"/>
-        <v xml:space="preserve">Mythological Story/Legend --&gt; Apasara Urvashi
+        <v xml:space="preserve">Mythological Story/Legend (must read these stories) --&gt; Apasara Urvashi
 </v>
       </c>
       <c r="CJ21" s="5" t="str">
         <f t="shared" si="42"/>
-        <v xml:space="preserve">Sound/Mantra --&gt; Om Namo Narayana
+        <v xml:space="preserve">Sound/Mantra (must chant this mantra) --&gt; Om Namo Narayana
 </v>
       </c>
       <c r="CK21" s="5" t="str">
         <f t="shared" si="43"/>
-        <v xml:space="preserve">Flower --&gt; Palash
+        <v xml:space="preserve">Flower (keep these nearby) --&gt; Palash
 </v>
       </c>
       <c r="CL21" s="5" t="str">
@@ -13297,7 +13369,7 @@
       </c>
       <c r="CO21" s="5" t="str">
         <f t="shared" si="47"/>
-        <v xml:space="preserve">Dosha Element --&gt; Vata
+        <v xml:space="preserve">Dosha Element (must keep the element in check, learn more from ayurveda) --&gt; Vata
 </v>
       </c>
     </row>
@@ -13442,22 +13514,22 @@
       </c>
       <c r="AU22" s="5" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">Nakshatra --&gt; Uttara Ashadha
-Ruling Deity --&gt; Vishvadevas
-Symbol --&gt; Tusk of an Elephant
+        <v xml:space="preserve">Nakshatra (Moon Nakshatra) --&gt; Uttara Ashadha
+Ruling Deity (Main deity) --&gt; Vishvadevas
+Symbol (can keep symbol/painting of same in bedroom or desktop) --&gt; Tusk of an Elephant
 Animal --&gt; Male Mongoose
 Nature --&gt; Rajas
 Gender --&gt; Male
 Dosha --&gt; Vata
 Guna --&gt; Rajas
-Purpose --&gt; Courage and Determination
-Tree --&gt; Arjuna
-Gemstone --&gt; Blue Sapphire
+Purpose (one should strive for) --&gt; Courage and Determination
+Tree (offer reverance or have it in house if possible) --&gt; Arjuna
+Gemstone (natural gemstone) --&gt; Blue Sapphire
 Yoga --&gt; Ugra
 Plant/Flower --&gt; Arjuna
-Color --&gt; Red
-Planet --&gt; Sun
-Mantra --&gt; Om Vishvadevaya Namaha
+Color (natural effinity) --&gt; Red
+Planet (ruling planet) --&gt; Sun
+Mantra (one must chant daily) --&gt; Om Vishvadevaya Namaha
 Body Temperament --&gt; Earthy
 Career/Profession --&gt; Leaders, Managers, Politicians
 Compatibility --&gt; Mula, Purvashadha, Shravana, Dhanishta, Shatabhisha
@@ -13466,47 +13538,47 @@
 Lucky Directions --&gt; North
 Auspicious Activities --&gt; Starting new ventures, seeking blessings, spiritual practices
 Inauspicious Activities --&gt; Conflicts, legal issues, theft
-Health Issues --&gt; Digestive issues, skin problems
+Health Issues (should take care) --&gt; Digestive issues, skin problems
 Prayers or Rituals --&gt; Worship Lord Vishvadeva
-Historical/Mythological Significance --&gt; Birthplace of the Sun god's charioteer, Arun
-Mudra --&gt; Ganesha Mudra
-Food/Dietary Recommendation --&gt; Light and wholesome meals, fresh fruits and vegetables
-Yoga Posture/Asana --&gt; Vrikshasana, Natarajasana, Navasana
+Historical/Mythological Significance (must read these stories) --&gt; Birthplace of the Sun god's charioteer, Arun
+Mudra (learn and often sit in this mudra) --&gt; Ganesha Mudra
+Food/Dietary Recommendation (should intake) --&gt; Light and wholesome meals, fresh fruits and vegetables
+Yoga Posture/Asana (should do these yogas) --&gt; Vrikshasana, Natarajasana, Navasana
 Tarot Card/Divination Symbol --&gt; The World
-Hindu Festivals/Holidays --&gt; Makar Sankranti
-Chakra/Energy Center --&gt; Vishuddha
-Yantra/Sacred Geometry --&gt; Sri Yantra
-Spiritual Practice/Sadhana --&gt; Meditation and self-reflection
-Metal/Mineral --&gt; Silver
-Aromatherapy/Essential Oils --&gt; Lavender, Rosemary, Cedarwood
+Hindu Festivals/Holidays (do sadhna on these festivals) --&gt; Makar Sankranti
+Chakra/Energy Center (do puja, meditation for this chakra) --&gt; Vishuddha
+Yantra/Sacred Geometry (can keep this yantra in puja sthal) --&gt; Sri Yantra
+Spiritual Practice/Sadhana (must observe daily) --&gt; Meditation and self-reflection
+Metal/Mineral (natural affliliation) --&gt; Silver
+Aromatherapy/Essential Oils (should apply these) --&gt; Lavender, Rosemary, Cedarwood
 Personality Traits/Characteristics --&gt; Disciplined, determined, responsible
-Mythological Story/Legend --&gt; Sun God Surya
-Sound/Mantra --&gt; Om Bhur Bhuva Swaha
-Flower --&gt; Marigold
+Mythological Story/Legend (must read these stories) --&gt; Sun God Surya
+Sound/Mantra (must chant this mantra) --&gt; Om Bhur Bhuva Swaha
+Flower (keep these nearby) --&gt; Marigold
 Prana --&gt; Vyana Vayu
 Varna --&gt; Kshatriya
 Taste --&gt; Astringent
-Dosha Element --&gt; Pitta
+Dosha Element (must keep the element in check, learn more from ayurveda) --&gt; Pitta
 </v>
       </c>
       <c r="AV22" s="5" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">Nakshatra --&gt; Uttara Ashadha
-Ruling Deity --&gt; Vishvadevas
-Symbol --&gt; Tusk of an Elephant
+        <v xml:space="preserve">Nakshatra (Moon Nakshatra) --&gt; Uttara Ashadha
+Ruling Deity (Main deity) --&gt; Vishvadevas
+Symbol (can keep symbol/painting of same in bedroom or desktop) --&gt; Tusk of an Elephant
 Animal --&gt; Male Mongoose
 Nature --&gt; Rajas
 Gender --&gt; Male
 Dosha --&gt; Vata
 Guna --&gt; Rajas
-Purpose --&gt; Courage and Determination
-Tree --&gt; Arjuna
-Gemstone --&gt; Blue Sapphire
+Purpose (one should strive for) --&gt; Courage and Determination
+Tree (offer reverance or have it in house if possible) --&gt; Arjuna
+Gemstone (natural gemstone) --&gt; Blue Sapphire
 Yoga --&gt; Ugra
 Plant/Flower --&gt; Arjuna
-Color --&gt; Red
-Planet --&gt; Sun
-Mantra --&gt; Om Vishvadevaya Namaha
+Color (natural effinity) --&gt; Red
+Planet (ruling planet) --&gt; Sun
+Mantra (one must chant daily) --&gt; Om Vishvadevaya Namaha
 Body Temperament --&gt; Earthy
 Career/Profession --&gt; Leaders, Managers, Politicians
 Compatibility --&gt; Mula, Purvashadha, Shravana, Dhanishta, Shatabhisha
@@ -13515,42 +13587,42 @@
 Lucky Directions --&gt; North
 Auspicious Activities --&gt; Starting new ventures, seeking blessings, spiritual practices
 Inauspicious Activities --&gt; Conflicts, legal issues, theft
-Health Issues --&gt; Digestive issues, skin problems
+Health Issues (should take care) --&gt; Digestive issues, skin problems
 Prayers or Rituals --&gt; Worship Lord Vishvadeva
-Historical/Mythological Significance --&gt; Birthplace of the Sun god's charioteer, Arun
-Mudra --&gt; Ganesha Mudra
-Food/Dietary Recommendation --&gt; Light and wholesome meals, fresh fruits and vegetables
-Yoga Posture/Asana --&gt; Vrikshasana, Natarajasana, Navasana
+Historical/Mythological Significance (must read these stories) --&gt; Birthplace of the Sun god's charioteer, Arun
+Mudra (learn and often sit in this mudra) --&gt; Ganesha Mudra
+Food/Dietary Recommendation (should intake) --&gt; Light and wholesome meals, fresh fruits and vegetables
+Yoga Posture/Asana (should do these yogas) --&gt; Vrikshasana, Natarajasana, Navasana
 Tarot Card/Divination Symbol --&gt; The World
-Hindu Festivals/Holidays --&gt; Makar Sankranti
-Chakra/Energy Center --&gt; Vishuddha
-Yantra/Sacred Geometry --&gt; Sri Yantra
-Spiritual Practice/Sadhana --&gt; Meditation and self-reflection
-Metal/Mineral --&gt; Silver
-Aromatherapy/Essential Oils --&gt; Lavender, Rosemary, Cedarwood
+Hindu Festivals/Holidays (do sadhna on these festivals) --&gt; Makar Sankranti
+Chakra/Energy Center (do puja, meditation for this chakra) --&gt; Vishuddha
+Yantra/Sacred Geometry (can keep this yantra in puja sthal) --&gt; Sri Yantra
+Spiritual Practice/Sadhana (must observe daily) --&gt; Meditation and self-reflection
+Metal/Mineral (natural affliliation) --&gt; Silver
+Aromatherapy/Essential Oils (should apply these) --&gt; Lavender, Rosemary, Cedarwood
 Personality Traits/Characteristics --&gt; Disciplined, determined, responsible
-Mythological Story/Legend --&gt; Sun God Surya
-Sound/Mantra --&gt; Om Bhur Bhuva Swaha
-Flower --&gt; Marigold
+Mythological Story/Legend (must read these stories) --&gt; Sun God Surya
+Sound/Mantra (must chant this mantra) --&gt; Om Bhur Bhuva Swaha
+Flower (keep these nearby) --&gt; Marigold
 Prana --&gt; Vyana Vayu
 Varna --&gt; Kshatriya
 Taste --&gt; Astringent
-Dosha Element --&gt; Pitta
+Dosha Element (must keep the element in check, learn more from ayurveda) --&gt; Pitta
 </v>
       </c>
       <c r="AW22" s="5" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">Nakshatra --&gt; Uttara Ashadha
+        <v xml:space="preserve">Nakshatra (Moon Nakshatra) --&gt; Uttara Ashadha
 </v>
       </c>
       <c r="AX22" s="5" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">Ruling Deity --&gt; Vishvadevas
+        <v xml:space="preserve">Ruling Deity (Main deity) --&gt; Vishvadevas
 </v>
       </c>
       <c r="AY22" s="5" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">Symbol --&gt; Tusk of an Elephant
+        <v xml:space="preserve">Symbol (can keep symbol/painting of same in bedroom or desktop) --&gt; Tusk of an Elephant
 </v>
       </c>
       <c r="AZ22" s="5" t="str">
@@ -13580,17 +13652,17 @@
       </c>
       <c r="BE22" s="5" t="str">
         <f t="shared" si="11"/>
-        <v xml:space="preserve">Purpose --&gt; Courage and Determination
+        <v xml:space="preserve">Purpose (one should strive for) --&gt; Courage and Determination
 </v>
       </c>
       <c r="BF22" s="5" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">Tree --&gt; Arjuna
+        <v xml:space="preserve">Tree (offer reverance or have it in house if possible) --&gt; Arjuna
 </v>
       </c>
       <c r="BG22" s="5" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">Gemstone --&gt; Blue Sapphire
+        <v xml:space="preserve">Gemstone (natural gemstone) --&gt; Blue Sapphire
 </v>
       </c>
       <c r="BH22" s="5" t="str">
@@ -13605,17 +13677,17 @@
       </c>
       <c r="BJ22" s="5" t="str">
         <f t="shared" si="16"/>
-        <v xml:space="preserve">Color --&gt; Red
+        <v xml:space="preserve">Color (natural effinity) --&gt; Red
 </v>
       </c>
       <c r="BK22" s="5" t="str">
         <f t="shared" si="17"/>
-        <v xml:space="preserve">Planet --&gt; Sun
+        <v xml:space="preserve">Planet (ruling planet) --&gt; Sun
 </v>
       </c>
       <c r="BL22" s="5" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">Mantra --&gt; Om Vishvadevaya Namaha
+        <v xml:space="preserve">Mantra (one must chant daily) --&gt; Om Vishvadevaya Namaha
 </v>
       </c>
       <c r="BM22" s="5" t="str">
@@ -13660,7 +13732,7 @@
       </c>
       <c r="BU22" s="5" t="str">
         <f t="shared" si="27"/>
-        <v xml:space="preserve">Health Issues --&gt; Digestive issues, skin problems
+        <v xml:space="preserve">Health Issues (should take care) --&gt; Digestive issues, skin problems
 </v>
       </c>
       <c r="BV22" s="5" t="str">
@@ -13670,22 +13742,22 @@
       </c>
       <c r="BW22" s="5" t="str">
         <f t="shared" si="29"/>
-        <v xml:space="preserve">Historical/Mythological Significance --&gt; Birthplace of the Sun god's charioteer, Arun
+        <v xml:space="preserve">Historical/Mythological Significance (must read these stories) --&gt; Birthplace of the Sun god's charioteer, Arun
 </v>
       </c>
       <c r="BX22" s="5" t="str">
         <f t="shared" si="30"/>
-        <v xml:space="preserve">Mudra --&gt; Ganesha Mudra
+        <v xml:space="preserve">Mudra (learn and often sit in this mudra) --&gt; Ganesha Mudra
 </v>
       </c>
       <c r="BY22" s="5" t="str">
         <f t="shared" si="31"/>
-        <v xml:space="preserve">Food/Dietary Recommendation --&gt; Light and wholesome meals, fresh fruits and vegetables
+        <v xml:space="preserve">Food/Dietary Recommendation (should intake) --&gt; Light and wholesome meals, fresh fruits and vegetables
 </v>
       </c>
       <c r="BZ22" s="5" t="str">
         <f t="shared" si="32"/>
-        <v xml:space="preserve">Yoga Posture/Asana --&gt; Vrikshasana, Natarajasana, Navasana
+        <v xml:space="preserve">Yoga Posture/Asana (should do these yogas) --&gt; Vrikshasana, Natarajasana, Navasana
 </v>
       </c>
       <c r="CA22" s="5" t="str">
@@ -13695,32 +13767,32 @@
       </c>
       <c r="CB22" s="5" t="str">
         <f t="shared" si="34"/>
-        <v xml:space="preserve">Hindu Festivals/Holidays --&gt; Makar Sankranti
+        <v xml:space="preserve">Hindu Festivals/Holidays (do sadhna on these festivals) --&gt; Makar Sankranti
 </v>
       </c>
       <c r="CC22" s="5" t="str">
         <f t="shared" si="35"/>
-        <v xml:space="preserve">Chakra/Energy Center --&gt; Vishuddha
+        <v xml:space="preserve">Chakra/Energy Center (do puja, meditation for this chakra) --&gt; Vishuddha
 </v>
       </c>
       <c r="CD22" s="5" t="str">
         <f t="shared" si="36"/>
-        <v xml:space="preserve">Yantra/Sacred Geometry --&gt; Sri Yantra
+        <v xml:space="preserve">Yantra/Sacred Geometry (can keep this yantra in puja sthal) --&gt; Sri Yantra
 </v>
       </c>
       <c r="CE22" s="5" t="str">
         <f t="shared" si="37"/>
-        <v xml:space="preserve">Spiritual Practice/Sadhana --&gt; Meditation and self-reflection
+        <v xml:space="preserve">Spiritual Practice/Sadhana (must observe daily) --&gt; Meditation and self-reflection
 </v>
       </c>
       <c r="CF22" s="5" t="str">
         <f t="shared" si="38"/>
-        <v xml:space="preserve">Metal/Mineral --&gt; Silver
+        <v xml:space="preserve">Metal/Mineral (natural affliliation) --&gt; Silver
 </v>
       </c>
       <c r="CG22" s="5" t="str">
         <f t="shared" si="39"/>
-        <v xml:space="preserve">Aromatherapy/Essential Oils --&gt; Lavender, Rosemary, Cedarwood
+        <v xml:space="preserve">Aromatherapy/Essential Oils (should apply these) --&gt; Lavender, Rosemary, Cedarwood
 </v>
       </c>
       <c r="CH22" s="5" t="str">
@@ -13730,17 +13802,17 @@
       </c>
       <c r="CI22" s="5" t="str">
         <f t="shared" si="41"/>
-        <v xml:space="preserve">Mythological Story/Legend --&gt; Sun God Surya
+        <v xml:space="preserve">Mythological Story/Legend (must read these stories) --&gt; Sun God Surya
 </v>
       </c>
       <c r="CJ22" s="5" t="str">
         <f t="shared" si="42"/>
-        <v xml:space="preserve">Sound/Mantra --&gt; Om Bhur Bhuva Swaha
+        <v xml:space="preserve">Sound/Mantra (must chant this mantra) --&gt; Om Bhur Bhuva Swaha
 </v>
       </c>
       <c r="CK22" s="5" t="str">
         <f t="shared" si="43"/>
-        <v xml:space="preserve">Flower --&gt; Marigold
+        <v xml:space="preserve">Flower (keep these nearby) --&gt; Marigold
 </v>
       </c>
       <c r="CL22" s="5" t="str">
@@ -13760,7 +13832,7 @@
       </c>
       <c r="CO22" s="5" t="str">
         <f t="shared" si="47"/>
-        <v xml:space="preserve">Dosha Element --&gt; Pitta
+        <v xml:space="preserve">Dosha Element (must keep the element in check, learn more from ayurveda) --&gt; Pitta
 </v>
       </c>
     </row>
@@ -13905,22 +13977,22 @@
       </c>
       <c r="AU23" s="5" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">Nakshatra --&gt; Shravana
-Ruling Deity --&gt; Vishnu
-Symbol --&gt; Three Footprints or Ear
+        <v xml:space="preserve">Nakshatra (Moon Nakshatra) --&gt; Shravana
+Ruling Deity (Main deity) --&gt; Vishnu
+Symbol (can keep symbol/painting of same in bedroom or desktop) --&gt; Three Footprints or Ear
 Animal --&gt; Male Monkey
 Nature --&gt; Rajas
 Gender --&gt; Female
 Dosha --&gt; Vata
 Guna --&gt; Rajas
-Purpose --&gt; Learning and Acquiring Knowledge
-Tree --&gt; Shami
-Gemstone --&gt; Blue Sapphire
+Purpose (one should strive for) --&gt; Learning and Acquiring Knowledge
+Tree (offer reverance or have it in house if possible) --&gt; Shami
+Gemstone (natural gemstone) --&gt; Blue Sapphire
 Yoga --&gt; Vishram
 Plant/Flower --&gt; Lotus
-Color --&gt; Black
-Planet --&gt; Moon
-Mantra --&gt; Om Vishnave Namaha
+Color (natural effinity) --&gt; Black
+Planet (ruling planet) --&gt; Moon
+Mantra (one must chant daily) --&gt; Om Vishnave Namaha
 Body Temperament --&gt; Earthy
 Career/Profession --&gt; Scientists, Researchers, Engineers
 Compatibility --&gt; Uttarashadha, Purvabhadrapada, Dhanishta, Shatabhisha, Purva Bhadrapada
@@ -13929,47 +14001,47 @@
 Lucky Directions --&gt; West
 Auspicious Activities --&gt; Seeking blessings, spiritual practices, starting new ventures
 Inauspicious Activities --&gt; Conflicts, legal issues, theft
-Health Issues --&gt; Ear and throat problems, arthritis
+Health Issues (should take care) --&gt; Ear and throat problems, arthritis
 Prayers or Rituals --&gt; Worship Lord Vishnu
-Historical/Mythological Significance --&gt; Associated with the goddess Saraswati
-Mudra --&gt; Jnana Mudra
-Food/Dietary Recommendation --&gt; Light and cooling meals, fresh fruits and vegetables
-Yoga Posture/Asana --&gt; Trikonasana, Matsyasana, Bhujangasana
+Historical/Mythological Significance (must read these stories) --&gt; Associated with the goddess Saraswati
+Mudra (learn and often sit in this mudra) --&gt; Jnana Mudra
+Food/Dietary Recommendation (should intake) --&gt; Light and cooling meals, fresh fruits and vegetables
+Yoga Posture/Asana (should do these yogas) --&gt; Trikonasana, Matsyasana, Bhujangasana
 Tarot Card/Divination Symbol --&gt; The Hermit
-Hindu Festivals/Holidays --&gt; Shravana Nakshatra
-Chakra/Energy Center --&gt; Ajna
-Yantra/Sacred Geometry --&gt; Sarva Yantra
-Spiritual Practice/Sadhana --&gt; Meditation and inner wisdom
-Metal/Mineral --&gt; Iron
-Aromatherapy/Essential Oils --&gt; Jasmine, Lavender, Sandalwood
+Hindu Festivals/Holidays (do sadhna on these festivals) --&gt; Shravana Nakshatra
+Chakra/Energy Center (do puja, meditation for this chakra) --&gt; Ajna
+Yantra/Sacred Geometry (can keep this yantra in puja sthal) --&gt; Sarva Yantra
+Spiritual Practice/Sadhana (must observe daily) --&gt; Meditation and inner wisdom
+Metal/Mineral (natural affliliation) --&gt; Iron
+Aromatherapy/Essential Oils (should apply these) --&gt; Jasmine, Lavender, Sandalwood
 Personality Traits/Characteristics --&gt; Wise, intuitive, perceptive
-Mythological Story/Legend --&gt; King Janaka
-Sound/Mantra --&gt; Om Namah Shivaya
-Flower --&gt; Lotus
+Mythological Story/Legend (must read these stories) --&gt; King Janaka
+Sound/Mantra (must chant this mantra) --&gt; Om Namah Shivaya
+Flower (keep these nearby) --&gt; Lotus
 Prana --&gt; Vyana Vayu
 Varna --&gt; Vata
 Taste --&gt; Astringent
-Dosha Element --&gt; Vata
+Dosha Element (must keep the element in check, learn more from ayurveda) --&gt; Vata
 </v>
       </c>
       <c r="AV23" s="5" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">Nakshatra --&gt; Shravana
-Ruling Deity --&gt; Vishnu
-Symbol --&gt; Three Footprints or Ear
+        <v xml:space="preserve">Nakshatra (Moon Nakshatra) --&gt; Shravana
+Ruling Deity (Main deity) --&gt; Vishnu
+Symbol (can keep symbol/painting of same in bedroom or desktop) --&gt; Three Footprints or Ear
 Animal --&gt; Male Monkey
 Nature --&gt; Rajas
 Gender --&gt; Female
 Dosha --&gt; Vata
 Guna --&gt; Rajas
-Purpose --&gt; Learning and Acquiring Knowledge
-Tree --&gt; Shami
-Gemstone --&gt; Blue Sapphire
+Purpose (one should strive for) --&gt; Learning and Acquiring Knowledge
+Tree (offer reverance or have it in house if possible) --&gt; Shami
+Gemstone (natural gemstone) --&gt; Blue Sapphire
 Yoga --&gt; Vishram
 Plant/Flower --&gt; Lotus
-Color --&gt; Black
-Planet --&gt; Moon
-Mantra --&gt; Om Vishnave Namaha
+Color (natural effinity) --&gt; Black
+Planet (ruling planet) --&gt; Moon
+Mantra (one must chant daily) --&gt; Om Vishnave Namaha
 Body Temperament --&gt; Earthy
 Career/Profession --&gt; Scientists, Researchers, Engineers
 Compatibility --&gt; Uttarashadha, Purvabhadrapada, Dhanishta, Shatabhisha, Purva Bhadrapada
@@ -13978,42 +14050,42 @@
 Lucky Directions --&gt; West
 Auspicious Activities --&gt; Seeking blessings, spiritual practices, starting new ventures
 Inauspicious Activities --&gt; Conflicts, legal issues, theft
-Health Issues --&gt; Ear and throat problems, arthritis
+Health Issues (should take care) --&gt; Ear and throat problems, arthritis
 Prayers or Rituals --&gt; Worship Lord Vishnu
-Historical/Mythological Significance --&gt; Associated with the goddess Saraswati
-Mudra --&gt; Jnana Mudra
-Food/Dietary Recommendation --&gt; Light and cooling meals, fresh fruits and vegetables
-Yoga Posture/Asana --&gt; Trikonasana, Matsyasana, Bhujangasana
+Historical/Mythological Significance (must read these stories) --&gt; Associated with the goddess Saraswati
+Mudra (learn and often sit in this mudra) --&gt; Jnana Mudra
+Food/Dietary Recommendation (should intake) --&gt; Light and cooling meals, fresh fruits and vegetables
+Yoga Posture/Asana (should do these yogas) --&gt; Trikonasana, Matsyasana, Bhujangasana
 Tarot Card/Divination Symbol --&gt; The Hermit
-Hindu Festivals/Holidays --&gt; Shravana Nakshatra
-Chakra/Energy Center --&gt; Ajna
-Yantra/Sacred Geometry --&gt; Sarva Yantra
-Spiritual Practice/Sadhana --&gt; Meditation and inner wisdom
-Metal/Mineral --&gt; Iron
-Aromatherapy/Essential Oils --&gt; Jasmine, Lavender, Sandalwood
+Hindu Festivals/Holidays (do sadhna on these festivals) --&gt; Shravana Nakshatra
+Chakra/Energy Center (do puja, meditation for this chakra) --&gt; Ajna
+Yantra/Sacred Geometry (can keep this yantra in puja sthal) --&gt; Sarva Yantra
+Spiritual Practice/Sadhana (must observe daily) --&gt; Meditation and inner wisdom
+Metal/Mineral (natural affliliation) --&gt; Iron
+Aromatherapy/Essential Oils (should apply these) --&gt; Jasmine, Lavender, Sandalwood
 Personality Traits/Characteristics --&gt; Wise, intuitive, perceptive
-Mythological Story/Legend --&gt; King Janaka
-Sound/Mantra --&gt; Om Namah Shivaya
-Flower --&gt; Lotus
+Mythological Story/Legend (must read these stories) --&gt; King Janaka
+Sound/Mantra (must chant this mantra) --&gt; Om Namah Shivaya
+Flower (keep these nearby) --&gt; Lotus
 Prana --&gt; Vyana Vayu
 Varna --&gt; Vata
 Taste --&gt; Astringent
-Dosha Element --&gt; Vata
+Dosha Element (must keep the element in check, learn more from ayurveda) --&gt; Vata
 </v>
       </c>
       <c r="AW23" s="5" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">Nakshatra --&gt; Shravana
+        <v xml:space="preserve">Nakshatra (Moon Nakshatra) --&gt; Shravana
 </v>
       </c>
       <c r="AX23" s="5" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">Ruling Deity --&gt; Vishnu
+        <v xml:space="preserve">Ruling Deity (Main deity) --&gt; Vishnu
 </v>
       </c>
       <c r="AY23" s="5" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">Symbol --&gt; Three Footprints or Ear
+        <v xml:space="preserve">Symbol (can keep symbol/painting of same in bedroom or desktop) --&gt; Three Footprints or Ear
 </v>
       </c>
       <c r="AZ23" s="5" t="str">
@@ -14043,17 +14115,17 @@
       </c>
       <c r="BE23" s="5" t="str">
         <f t="shared" si="11"/>
-        <v xml:space="preserve">Purpose --&gt; Learning and Acquiring Knowledge
+        <v xml:space="preserve">Purpose (one should strive for) --&gt; Learning and Acquiring Knowledge
 </v>
       </c>
       <c r="BF23" s="5" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">Tree --&gt; Shami
+        <v xml:space="preserve">Tree (offer reverance or have it in house if possible) --&gt; Shami
 </v>
       </c>
       <c r="BG23" s="5" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">Gemstone --&gt; Blue Sapphire
+        <v xml:space="preserve">Gemstone (natural gemstone) --&gt; Blue Sapphire
 </v>
       </c>
       <c r="BH23" s="5" t="str">
@@ -14068,17 +14140,17 @@
       </c>
       <c r="BJ23" s="5" t="str">
         <f t="shared" si="16"/>
-        <v xml:space="preserve">Color --&gt; Black
+        <v xml:space="preserve">Color (natural effinity) --&gt; Black
 </v>
       </c>
       <c r="BK23" s="5" t="str">
         <f t="shared" si="17"/>
-        <v xml:space="preserve">Planet --&gt; Moon
+        <v xml:space="preserve">Planet (ruling planet) --&gt; Moon
 </v>
       </c>
       <c r="BL23" s="5" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">Mantra --&gt; Om Vishnave Namaha
+        <v xml:space="preserve">Mantra (one must chant daily) --&gt; Om Vishnave Namaha
 </v>
       </c>
       <c r="BM23" s="5" t="str">
@@ -14123,7 +14195,7 @@
       </c>
       <c r="BU23" s="5" t="str">
         <f t="shared" si="27"/>
-        <v xml:space="preserve">Health Issues --&gt; Ear and throat problems, arthritis
+        <v xml:space="preserve">Health Issues (should take care) --&gt; Ear and throat problems, arthritis
 </v>
       </c>
       <c r="BV23" s="5" t="str">
@@ -14133,22 +14205,22 @@
       </c>
       <c r="BW23" s="5" t="str">
         <f t="shared" si="29"/>
-        <v xml:space="preserve">Historical/Mythological Significance --&gt; Associated with the goddess Saraswati
+        <v xml:space="preserve">Historical/Mythological Significance (must read these stories) --&gt; Associated with the goddess Saraswati
 </v>
       </c>
       <c r="BX23" s="5" t="str">
         <f t="shared" si="30"/>
-        <v xml:space="preserve">Mudra --&gt; Jnana Mudra
+        <v xml:space="preserve">Mudra (learn and often sit in this mudra) --&gt; Jnana Mudra
 </v>
       </c>
       <c r="BY23" s="5" t="str">
         <f t="shared" si="31"/>
-        <v xml:space="preserve">Food/Dietary Recommendation --&gt; Light and cooling meals, fresh fruits and vegetables
+        <v xml:space="preserve">Food/Dietary Recommendation (should intake) --&gt; Light and cooling meals, fresh fruits and vegetables
 </v>
       </c>
       <c r="BZ23" s="5" t="str">
         <f t="shared" si="32"/>
-        <v xml:space="preserve">Yoga Posture/Asana --&gt; Trikonasana, Matsyasana, Bhujangasana
+        <v xml:space="preserve">Yoga Posture/Asana (should do these yogas) --&gt; Trikonasana, Matsyasana, Bhujangasana
 </v>
       </c>
       <c r="CA23" s="5" t="str">
@@ -14158,32 +14230,32 @@
       </c>
       <c r="CB23" s="5" t="str">
         <f t="shared" si="34"/>
-        <v xml:space="preserve">Hindu Festivals/Holidays --&gt; Shravana Nakshatra
+        <v xml:space="preserve">Hindu Festivals/Holidays (do sadhna on these festivals) --&gt; Shravana Nakshatra
 </v>
       </c>
       <c r="CC23" s="5" t="str">
         <f t="shared" si="35"/>
-        <v xml:space="preserve">Chakra/Energy Center --&gt; Ajna
+        <v xml:space="preserve">Chakra/Energy Center (do puja, meditation for this chakra) --&gt; Ajna
 </v>
       </c>
       <c r="CD23" s="5" t="str">
         <f t="shared" si="36"/>
-        <v xml:space="preserve">Yantra/Sacred Geometry --&gt; Sarva Yantra
+        <v xml:space="preserve">Yantra/Sacred Geometry (can keep this yantra in puja sthal) --&gt; Sarva Yantra
 </v>
       </c>
       <c r="CE23" s="5" t="str">
         <f t="shared" si="37"/>
-        <v xml:space="preserve">Spiritual Practice/Sadhana --&gt; Meditation and inner wisdom
+        <v xml:space="preserve">Spiritual Practice/Sadhana (must observe daily) --&gt; Meditation and inner wisdom
 </v>
       </c>
       <c r="CF23" s="5" t="str">
         <f t="shared" si="38"/>
-        <v xml:space="preserve">Metal/Mineral --&gt; Iron
+        <v xml:space="preserve">Metal/Mineral (natural affliliation) --&gt; Iron
 </v>
       </c>
       <c r="CG23" s="5" t="str">
         <f t="shared" si="39"/>
-        <v xml:space="preserve">Aromatherapy/Essential Oils --&gt; Jasmine, Lavender, Sandalwood
+        <v xml:space="preserve">Aromatherapy/Essential Oils (should apply these) --&gt; Jasmine, Lavender, Sandalwood
 </v>
       </c>
       <c r="CH23" s="5" t="str">
@@ -14193,17 +14265,17 @@
       </c>
       <c r="CI23" s="5" t="str">
         <f t="shared" si="41"/>
-        <v xml:space="preserve">Mythological Story/Legend --&gt; King Janaka
+        <v xml:space="preserve">Mythological Story/Legend (must read these stories) --&gt; King Janaka
 </v>
       </c>
       <c r="CJ23" s="5" t="str">
         <f t="shared" si="42"/>
-        <v xml:space="preserve">Sound/Mantra --&gt; Om Namah Shivaya
+        <v xml:space="preserve">Sound/Mantra (must chant this mantra) --&gt; Om Namah Shivaya
 </v>
       </c>
       <c r="CK23" s="5" t="str">
         <f t="shared" si="43"/>
-        <v xml:space="preserve">Flower --&gt; Lotus
+        <v xml:space="preserve">Flower (keep these nearby) --&gt; Lotus
 </v>
       </c>
       <c r="CL23" s="5" t="str">
@@ -14223,7 +14295,7 @@
       </c>
       <c r="CO23" s="5" t="str">
         <f t="shared" si="47"/>
-        <v xml:space="preserve">Dosha Element --&gt; Vata
+        <v xml:space="preserve">Dosha Element (must keep the element in check, learn more from ayurveda) --&gt; Vata
 </v>
       </c>
     </row>
@@ -14368,22 +14440,22 @@
       </c>
       <c r="AU24" s="5" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">Nakshatra --&gt; Dhanishta
-Ruling Deity --&gt; Vasus
-Symbol --&gt; Drum or Flute
+        <v xml:space="preserve">Nakshatra (Moon Nakshatra) --&gt; Dhanishta
+Ruling Deity (Main deity) --&gt; Vasus
+Symbol (can keep symbol/painting of same in bedroom or desktop) --&gt; Drum or Flute
 Animal --&gt; Female Lion
 Nature --&gt; Sattva
 Gender --&gt; Male
 Dosha --&gt; Pitta
 Guna --&gt; Sattva
-Purpose --&gt; Wealth, Prosperity, and Good Fortune
-Tree --&gt; Kadamba
-Gemstone --&gt; Gomedhikam
+Purpose (one should strive for) --&gt; Wealth, Prosperity, and Good Fortune
+Tree (offer reverance or have it in house if possible) --&gt; Kadamba
+Gemstone (natural gemstone) --&gt; Gomedhikam
 Yoga --&gt; Shoola
 Plant/Flower --&gt; Apamarga
-Color --&gt; Brown
-Planet --&gt; Mars
-Mantra --&gt; Om Vasave Namaha
+Color (natural effinity) --&gt; Brown
+Planet (ruling planet) --&gt; Mars
+Mantra (one must chant daily) --&gt; Om Vasave Namaha
 Body Temperament --&gt; Fiery
 Career/Profession --&gt; Entertainers, Musicians, Athletes
 Compatibility --&gt; Mula, Purvashadha, Uttarashadha, Shravana, Shatabhisha
@@ -14392,47 +14464,47 @@
 Lucky Directions --&gt; South
 Auspicious Activities --&gt; Starting new ventures, seeking knowledge, artistic pursuits
 Inauspicious Activities --&gt; Conflicts, legal issues, theft
-Health Issues --&gt; Leg and bone problems, arthritis
+Health Issues (should take care) --&gt; Leg and bone problems, arthritis
 Prayers or Rituals --&gt; Worship Lord Vasu
-Historical/Mythological Significance --&gt; Birthplace of the Vasus, a group of divine beings
-Mudra --&gt; Vayu Mudra
-Food/Dietary Recommendation --&gt; Light, nutritious and easily digestible food
-Yoga Posture/Asana --&gt; Gomukhasana, Vrikshasana, Tadasana
+Historical/Mythological Significance (must read these stories) --&gt; Birthplace of the Vasus, a group of divine beings
+Mudra (learn and often sit in this mudra) --&gt; Vayu Mudra
+Food/Dietary Recommendation (should intake) --&gt; Light, nutritious and easily digestible food
+Yoga Posture/Asana (should do these yogas) --&gt; Gomukhasana, Vrikshasana, Tadasana
 Tarot Card/Divination Symbol --&gt; The Star
-Hindu Festivals/Holidays --&gt; Shivaratri
-Chakra/Energy Center --&gt; Vishuddha
-Yantra/Sacred Geometry --&gt; Sri Yantra
-Spiritual Practice/Sadhana --&gt; Chanting and meditation
-Metal/Mineral --&gt; Gold
-Aromatherapy/Essential Oils --&gt; Frankincense, Myrrh, Sandalwood
+Hindu Festivals/Holidays (do sadhna on these festivals) --&gt; Shivaratri
+Chakra/Energy Center (do puja, meditation for this chakra) --&gt; Vishuddha
+Yantra/Sacred Geometry (can keep this yantra in puja sthal) --&gt; Sri Yantra
+Spiritual Practice/Sadhana (must observe daily) --&gt; Chanting and meditation
+Metal/Mineral (natural affliliation) --&gt; Gold
+Aromatherapy/Essential Oils (should apply these) --&gt; Frankincense, Myrrh, Sandalwood
 Personality Traits/Characteristics --&gt; Success-oriented, friendly, and ambitious
-Mythological Story/Legend --&gt; The divine architect Vishwakarma
-Sound/Mantra --&gt; Om Shri Vishnave Namaha
-Flower --&gt; Drumstick Flower
+Mythological Story/Legend (must read these stories) --&gt; The divine architect Vishwakarma
+Sound/Mantra (must chant this mantra) --&gt; Om Shri Vishnave Namaha
+Flower (keep these nearby) --&gt; Drumstick Flower
 Prana --&gt; Prana Vayu
 Varna --&gt; Pitta
 Taste --&gt; Bitter
-Dosha Element --&gt; Kapha
+Dosha Element (must keep the element in check, learn more from ayurveda) --&gt; Kapha
 </v>
       </c>
       <c r="AV24" s="5" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">Nakshatra --&gt; Dhanishta
-Ruling Deity --&gt; Vasus
-Symbol --&gt; Drum or Flute
+        <v xml:space="preserve">Nakshatra (Moon Nakshatra) --&gt; Dhanishta
+Ruling Deity (Main deity) --&gt; Vasus
+Symbol (can keep symbol/painting of same in bedroom or desktop) --&gt; Drum or Flute
 Animal --&gt; Female Lion
 Nature --&gt; Sattva
 Gender --&gt; Male
 Dosha --&gt; Pitta
 Guna --&gt; Sattva
-Purpose --&gt; Wealth, Prosperity, and Good Fortune
-Tree --&gt; Kadamba
-Gemstone --&gt; Gomedhikam
+Purpose (one should strive for) --&gt; Wealth, Prosperity, and Good Fortune
+Tree (offer reverance or have it in house if possible) --&gt; Kadamba
+Gemstone (natural gemstone) --&gt; Gomedhikam
 Yoga --&gt; Shoola
 Plant/Flower --&gt; Apamarga
-Color --&gt; Brown
-Planet --&gt; Mars
-Mantra --&gt; Om Vasave Namaha
+Color (natural effinity) --&gt; Brown
+Planet (ruling planet) --&gt; Mars
+Mantra (one must chant daily) --&gt; Om Vasave Namaha
 Body Temperament --&gt; Fiery
 Career/Profession --&gt; Entertainers, Musicians, Athletes
 Compatibility --&gt; Mula, Purvashadha, Uttarashadha, Shravana, Shatabhisha
@@ -14441,42 +14513,42 @@
 Lucky Directions --&gt; South
 Auspicious Activities --&gt; Starting new ventures, seeking knowledge, artistic pursuits
 Inauspicious Activities --&gt; Conflicts, legal issues, theft
-Health Issues --&gt; Leg and bone problems, arthritis
+Health Issues (should take care) --&gt; Leg and bone problems, arthritis
 Prayers or Rituals --&gt; Worship Lord Vasu
-Historical/Mythological Significance --&gt; Birthplace of the Vasus, a group of divine beings
-Mudra --&gt; Vayu Mudra
-Food/Dietary Recommendation --&gt; Light, nutritious and easily digestible food
-Yoga Posture/Asana --&gt; Gomukhasana, Vrikshasana, Tadasana
+Historical/Mythological Significance (must read these stories) --&gt; Birthplace of the Vasus, a group of divine beings
+Mudra (learn and often sit in this mudra) --&gt; Vayu Mudra
+Food/Dietary Recommendation (should intake) --&gt; Light, nutritious and easily digestible food
+Yoga Posture/Asana (should do these yogas) --&gt; Gomukhasana, Vrikshasana, Tadasana
 Tarot Card/Divination Symbol --&gt; The Star
-Hindu Festivals/Holidays --&gt; Shivaratri
-Chakra/Energy Center --&gt; Vishuddha
-Yantra/Sacred Geometry --&gt; Sri Yantra
-Spiritual Practice/Sadhana --&gt; Chanting and meditation
-Metal/Mineral --&gt; Gold
-Aromatherapy/Essential Oils --&gt; Frankincense, Myrrh, Sandalwood
+Hindu Festivals/Holidays (do sadhna on these festivals) --&gt; Shivaratri
+Chakra/Energy Center (do puja, meditation for this chakra) --&gt; Vishuddha
+Yantra/Sacred Geometry (can keep this yantra in puja sthal) --&gt; Sri Yantra
+Spiritual Practice/Sadhana (must observe daily) --&gt; Chanting and meditation
+Metal/Mineral (natural affliliation) --&gt; Gold
+Aromatherapy/Essential Oils (should apply these) --&gt; Frankincense, Myrrh, Sandalwood
 Personality Traits/Characteristics --&gt; Success-oriented, friendly, and ambitious
-Mythological Story/Legend --&gt; The divine architect Vishwakarma
-Sound/Mantra --&gt; Om Shri Vishnave Namaha
-Flower --&gt; Drumstick Flower
+Mythological Story/Legend (must read these stories) --&gt; The divine architect Vishwakarma
+Sound/Mantra (must chant this mantra) --&gt; Om Shri Vishnave Namaha
+Flower (keep these nearby) --&gt; Drumstick Flower
 Prana --&gt; Prana Vayu
 Varna --&gt; Pitta
 Taste --&gt; Bitter
-Dosha Element --&gt; Kapha
+Dosha Element (must keep the element in check, learn more from ayurveda) --&gt; Kapha
 </v>
       </c>
       <c r="AW24" s="5" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">Nakshatra --&gt; Dhanishta
+        <v xml:space="preserve">Nakshatra (Moon Nakshatra) --&gt; Dhanishta
 </v>
       </c>
       <c r="AX24" s="5" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">Ruling Deity --&gt; Vasus
+        <v xml:space="preserve">Ruling Deity (Main deity) --&gt; Vasus
 </v>
       </c>
       <c r="AY24" s="5" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">Symbol --&gt; Drum or Flute
+        <v xml:space="preserve">Symbol (can keep symbol/painting of same in bedroom or desktop) --&gt; Drum or Flute
 </v>
       </c>
       <c r="AZ24" s="5" t="str">
@@ -14506,17 +14578,17 @@
       </c>
       <c r="BE24" s="5" t="str">
         <f t="shared" si="11"/>
-        <v xml:space="preserve">Purpose --&gt; Wealth, Prosperity, and Good Fortune
+        <v xml:space="preserve">Purpose (one should strive for) --&gt; Wealth, Prosperity, and Good Fortune
 </v>
       </c>
       <c r="BF24" s="5" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">Tree --&gt; Kadamba
+        <v xml:space="preserve">Tree (offer reverance or have it in house if possible) --&gt; Kadamba
 </v>
       </c>
       <c r="BG24" s="5" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">Gemstone --&gt; Gomedhikam
+        <v xml:space="preserve">Gemstone (natural gemstone) --&gt; Gomedhikam
 </v>
       </c>
       <c r="BH24" s="5" t="str">
@@ -14531,17 +14603,17 @@
       </c>
       <c r="BJ24" s="5" t="str">
         <f t="shared" si="16"/>
-        <v xml:space="preserve">Color --&gt; Brown
+        <v xml:space="preserve">Color (natural effinity) --&gt; Brown
 </v>
       </c>
       <c r="BK24" s="5" t="str">
         <f t="shared" si="17"/>
-        <v xml:space="preserve">Planet --&gt; Mars
+        <v xml:space="preserve">Planet (ruling planet) --&gt; Mars
 </v>
       </c>
       <c r="BL24" s="5" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">Mantra --&gt; Om Vasave Namaha
+        <v xml:space="preserve">Mantra (one must chant daily) --&gt; Om Vasave Namaha
 </v>
       </c>
       <c r="BM24" s="5" t="str">
@@ -14586,7 +14658,7 @@
       </c>
       <c r="BU24" s="5" t="str">
         <f t="shared" si="27"/>
-        <v xml:space="preserve">Health Issues --&gt; Leg and bone problems, arthritis
+        <v xml:space="preserve">Health Issues (should take care) --&gt; Leg and bone problems, arthritis
 </v>
       </c>
       <c r="BV24" s="5" t="str">
@@ -14596,22 +14668,22 @@
       </c>
       <c r="BW24" s="5" t="str">
         <f t="shared" si="29"/>
-        <v xml:space="preserve">Historical/Mythological Significance --&gt; Birthplace of the Vasus, a group of divine beings
+        <v xml:space="preserve">Historical/Mythological Significance (must read these stories) --&gt; Birthplace of the Vasus, a group of divine beings
 </v>
       </c>
       <c r="BX24" s="5" t="str">
         <f t="shared" si="30"/>
-        <v xml:space="preserve">Mudra --&gt; Vayu Mudra
+        <v xml:space="preserve">Mudra (learn and often sit in this mudra) --&gt; Vayu Mudra
 </v>
       </c>
       <c r="BY24" s="5" t="str">
         <f t="shared" si="31"/>
-        <v xml:space="preserve">Food/Dietary Recommendation --&gt; Light, nutritious and easily digestible food
+        <v xml:space="preserve">Food/Dietary Recommendation (should intake) --&gt; Light, nutritious and easily digestible food
 </v>
       </c>
       <c r="BZ24" s="5" t="str">
         <f t="shared" si="32"/>
-        <v xml:space="preserve">Yoga Posture/Asana --&gt; Gomukhasana, Vrikshasana, Tadasana
+        <v xml:space="preserve">Yoga Posture/Asana (should do these yogas) --&gt; Gomukhasana, Vrikshasana, Tadasana
 </v>
       </c>
       <c r="CA24" s="5" t="str">
@@ -14621,32 +14693,32 @@
       </c>
       <c r="CB24" s="5" t="str">
         <f t="shared" si="34"/>
-        <v xml:space="preserve">Hindu Festivals/Holidays --&gt; Shivaratri
+        <v xml:space="preserve">Hindu Festivals/Holidays (do sadhna on these festivals) --&gt; Shivaratri
 </v>
       </c>
       <c r="CC24" s="5" t="str">
         <f t="shared" si="35"/>
-        <v xml:space="preserve">Chakra/Energy Center --&gt; Vishuddha
+        <v xml:space="preserve">Chakra/Energy Center (do puja, meditation for this chakra) --&gt; Vishuddha
 </v>
       </c>
       <c r="CD24" s="5" t="str">
         <f t="shared" si="36"/>
-        <v xml:space="preserve">Yantra/Sacred Geometry --&gt; Sri Yantra
+        <v xml:space="preserve">Yantra/Sacred Geometry (can keep this yantra in puja sthal) --&gt; Sri Yantra
 </v>
       </c>
       <c r="CE24" s="5" t="str">
         <f t="shared" si="37"/>
-        <v xml:space="preserve">Spiritual Practice/Sadhana --&gt; Chanting and meditation
+        <v xml:space="preserve">Spiritual Practice/Sadhana (must observe daily) --&gt; Chanting and meditation
 </v>
       </c>
       <c r="CF24" s="5" t="str">
         <f t="shared" si="38"/>
-        <v xml:space="preserve">Metal/Mineral --&gt; Gold
+        <v xml:space="preserve">Metal/Mineral (natural affliliation) --&gt; Gold
 </v>
       </c>
       <c r="CG24" s="5" t="str">
         <f t="shared" si="39"/>
-        <v xml:space="preserve">Aromatherapy/Essential Oils --&gt; Frankincense, Myrrh, Sandalwood
+        <v xml:space="preserve">Aromatherapy/Essential Oils (should apply these) --&gt; Frankincense, Myrrh, Sandalwood
 </v>
       </c>
       <c r="CH24" s="5" t="str">
@@ -14656,17 +14728,17 @@
       </c>
       <c r="CI24" s="5" t="str">
         <f t="shared" si="41"/>
-        <v xml:space="preserve">Mythological Story/Legend --&gt; The divine architect Vishwakarma
+        <v xml:space="preserve">Mythological Story/Legend (must read these stories) --&gt; The divine architect Vishwakarma
 </v>
       </c>
       <c r="CJ24" s="5" t="str">
         <f t="shared" si="42"/>
-        <v xml:space="preserve">Sound/Mantra --&gt; Om Shri Vishnave Namaha
+        <v xml:space="preserve">Sound/Mantra (must chant this mantra) --&gt; Om Shri Vishnave Namaha
 </v>
       </c>
       <c r="CK24" s="5" t="str">
         <f t="shared" si="43"/>
-        <v xml:space="preserve">Flower --&gt; Drumstick Flower
+        <v xml:space="preserve">Flower (keep these nearby) --&gt; Drumstick Flower
 </v>
       </c>
       <c r="CL24" s="5" t="str">
@@ -14686,7 +14758,7 @@
       </c>
       <c r="CO24" s="5" t="str">
         <f t="shared" si="47"/>
-        <v xml:space="preserve">Dosha Element --&gt; Kapha
+        <v xml:space="preserve">Dosha Element (must keep the element in check, learn more from ayurveda) --&gt; Kapha
 </v>
       </c>
     </row>
@@ -14831,22 +14903,22 @@
       </c>
       <c r="AU25" s="5" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">Nakshatra --&gt; Shatabhisha
-Ruling Deity --&gt; Varuna
-Symbol --&gt; Empty Circle or One Thousand Healers
+        <v xml:space="preserve">Nakshatra (Moon Nakshatra) --&gt; Shatabhisha
+Ruling Deity (Main deity) --&gt; Varuna
+Symbol (can keep symbol/painting of same in bedroom or desktop) --&gt; Empty Circle or One Thousand Healers
 Animal --&gt; Male Horse
 Nature --&gt; Tamas
 Gender --&gt; Male
 Dosha --&gt; Vata
 Guna --&gt; Tamas
-Purpose --&gt; Spiritual Healing and Transformation
-Tree --&gt; Shami
-Gemstone --&gt; Cat's Eye
+Purpose (one should strive for) --&gt; Spiritual Healing and Transformation
+Tree (offer reverance or have it in house if possible) --&gt; Shami
+Gemstone (natural gemstone) --&gt; Cat's Eye
 Yoga --&gt; Mitra
 Plant/Flower --&gt; Kusha
-Color --&gt; Black
-Planet --&gt; Rahu
-Mantra --&gt; Om Varunaaya Namaha
+Color (natural effinity) --&gt; Black
+Planet (ruling planet) --&gt; Rahu
+Mantra (one must chant daily) --&gt; Om Varunaaya Namaha
 Body Temperament --&gt; Airy
 Career/Profession --&gt; Healers, Psychics, Astrologers
 Compatibility --&gt; Purvabhadrapada, Uttarabhadrapada, Shravana, Dhanishta, Shatabhisha
@@ -14855,47 +14927,47 @@
 Lucky Directions --&gt; North
 Auspicious Activities --&gt; Seeking blessings, spiritual practices, starting new ventures
 Inauspicious Activities --&gt; Conflicts, legal issues, theft
-Health Issues --&gt; Leg and bone problems, arthritis
+Health Issues (should take care) --&gt; Leg and bone problems, arthritis
 Prayers or Rituals --&gt; Worship Lord Varuna
-Historical/Mythological Significance --&gt; Associated with the goddess Saraswati
-Mudra --&gt; Gyan Mudra
-Food/Dietary Recommendation --&gt; Light and wholesome meals, grains, and vegetables
-Yoga Posture/Asana --&gt; Sukhasana, Ardha Matsyendrasana, Viparita Karani
+Historical/Mythological Significance (must read these stories) --&gt; Associated with the goddess Saraswati
+Mudra (learn and often sit in this mudra) --&gt; Gyan Mudra
+Food/Dietary Recommendation (should intake) --&gt; Light and wholesome meals, grains, and vegetables
+Yoga Posture/Asana (should do these yogas) --&gt; Sukhasana, Ardha Matsyendrasana, Viparita Karani
 Tarot Card/Divination Symbol --&gt; The Fool
-Hindu Festivals/Holidays --&gt; Maha Shivaratri
-Chakra/Energy Center --&gt; Sahasrara
-Yantra/Sacred Geometry --&gt; Flower of Life
-Spiritual Practice/Sadhana --&gt; Chanting and meditation
-Metal/Mineral --&gt; Rahu
-Aromatherapy/Essential Oils --&gt; Peppermint, Eucalyptus, Frankincense
+Hindu Festivals/Holidays (do sadhna on these festivals) --&gt; Maha Shivaratri
+Chakra/Energy Center (do puja, meditation for this chakra) --&gt; Sahasrara
+Yantra/Sacred Geometry (can keep this yantra in puja sthal) --&gt; Flower of Life
+Spiritual Practice/Sadhana (must observe daily) --&gt; Chanting and meditation
+Metal/Mineral (natural affliliation) --&gt; Rahu
+Aromatherapy/Essential Oils (should apply these) --&gt; Peppermint, Eucalyptus, Frankincense
 Personality Traits/Characteristics --&gt; Creative, inventive, and unconventional
-Mythological Story/Legend --&gt; The group of 100 physicians called Ashvins
-Sound/Mantra --&gt; Om Sham Shanicharaya Namah
-Flower --&gt; White Lilly
+Mythological Story/Legend (must read these stories) --&gt; The group of 100 physicians called Ashvins
+Sound/Mantra (must chant this mantra) --&gt; Om Sham Shanicharaya Namah
+Flower (keep these nearby) --&gt; White Lilly
 Prana --&gt; Samana Vayu
 Varna --&gt; Kapha
 Taste --&gt; Astringent
-Dosha Element --&gt; Vata
+Dosha Element (must keep the element in check, learn more from ayurveda) --&gt; Vata
 </v>
       </c>
       <c r="AV25" s="5" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">Nakshatra --&gt; Shatabhisha
-Ruling Deity --&gt; Varuna
-Symbol --&gt; Empty Circle or One Thousand Healers
+        <v xml:space="preserve">Nakshatra (Moon Nakshatra) --&gt; Shatabhisha
+Ruling Deity (Main deity) --&gt; Varuna
+Symbol (can keep symbol/painting of same in bedroom or desktop) --&gt; Empty Circle or One Thousand Healers
 Animal --&gt; Male Horse
 Nature --&gt; Tamas
 Gender --&gt; Male
 Dosha --&gt; Vata
 Guna --&gt; Tamas
-Purpose --&gt; Spiritual Healing and Transformation
-Tree --&gt; Shami
-Gemstone --&gt; Cat's Eye
+Purpose (one should strive for) --&gt; Spiritual Healing and Transformation
+Tree (offer reverance or have it in house if possible) --&gt; Shami
+Gemstone (natural gemstone) --&gt; Cat's Eye
 Yoga --&gt; Mitra
 Plant/Flower --&gt; Kusha
-Color --&gt; Black
-Planet --&gt; Rahu
-Mantra --&gt; Om Varunaaya Namaha
+Color (natural effinity) --&gt; Black
+Planet (ruling planet) --&gt; Rahu
+Mantra (one must chant daily) --&gt; Om Varunaaya Namaha
 Body Temperament --&gt; Airy
 Career/Profession --&gt; Healers, Psychics, Astrologers
 Compatibility --&gt; Purvabhadrapada, Uttarabhadrapada, Shravana, Dhanishta, Shatabhisha
@@ -14904,42 +14976,42 @@
 Lucky Directions --&gt; North
 Auspicious Activities --&gt; Seeking blessings, spiritual practices, starting new ventures
 Inauspicious Activities --&gt; Conflicts, legal issues, theft
-Health Issues --&gt; Leg and bone problems, arthritis
+Health Issues (should take care) --&gt; Leg and bone problems, arthritis
 Prayers or Rituals --&gt; Worship Lord Varuna
-Historical/Mythological Significance --&gt; Associated with the goddess Saraswati
-Mudra --&gt; Gyan Mudra
-Food/Dietary Recommendation --&gt; Light and wholesome meals, grains, and vegetables
-Yoga Posture/Asana --&gt; Sukhasana, Ardha Matsyendrasana, Viparita Karani
+Historical/Mythological Significance (must read these stories) --&gt; Associated with the goddess Saraswati
+Mudra (learn and often sit in this mudra) --&gt; Gyan Mudra
+Food/Dietary Recommendation (should intake) --&gt; Light and wholesome meals, grains, and vegetables
+Yoga Posture/Asana (should do these yogas) --&gt; Sukhasana, Ardha Matsyendrasana, Viparita Karani
 Tarot Card/Divination Symbol --&gt; The Fool
-Hindu Festivals/Holidays --&gt; Maha Shivaratri
-Chakra/Energy Center --&gt; Sahasrara
-Yantra/Sacred Geometry --&gt; Flower of Life
-Spiritual Practice/Sadhana --&gt; Chanting and meditation
-Metal/Mineral --&gt; Rahu
-Aromatherapy/Essential Oils --&gt; Peppermint, Eucalyptus, Frankincense
+Hindu Festivals/Holidays (do sadhna on these festivals) --&gt; Maha Shivaratri
+Chakra/Energy Center (do puja, meditation for this chakra) --&gt; Sahasrara
+Yantra/Sacred Geometry (can keep this yantra in puja sthal) --&gt; Flower of Life
+Spiritual Practice/Sadhana (must observe daily) --&gt; Chanting and meditation
+Metal/Mineral (natural affliliation) --&gt; Rahu
+Aromatherapy/Essential Oils (should apply these) --&gt; Peppermint, Eucalyptus, Frankincense
 Personality Traits/Characteristics --&gt; Creative, inventive, and unconventional
-Mythological Story/Legend --&gt; The group of 100 physicians called Ashvins
-Sound/Mantra --&gt; Om Sham Shanicharaya Namah
-Flower --&gt; White Lilly
+Mythological Story/Legend (must read these stories) --&gt; The group of 100 physicians called Ashvins
+Sound/Mantra (must chant this mantra) --&gt; Om Sham Shanicharaya Namah
+Flower (keep these nearby) --&gt; White Lilly
 Prana --&gt; Samana Vayu
 Varna --&gt; Kapha
 Taste --&gt; Astringent
-Dosha Element --&gt; Vata
+Dosha Element (must keep the element in check, learn more from ayurveda) --&gt; Vata
 </v>
       </c>
       <c r="AW25" s="5" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">Nakshatra --&gt; Shatabhisha
+        <v xml:space="preserve">Nakshatra (Moon Nakshatra) --&gt; Shatabhisha
 </v>
       </c>
       <c r="AX25" s="5" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">Ruling Deity --&gt; Varuna
+        <v xml:space="preserve">Ruling Deity (Main deity) --&gt; Varuna
 </v>
       </c>
       <c r="AY25" s="5" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">Symbol --&gt; Empty Circle or One Thousand Healers
+        <v xml:space="preserve">Symbol (can keep symbol/painting of same in bedroom or desktop) --&gt; Empty Circle or One Thousand Healers
 </v>
       </c>
       <c r="AZ25" s="5" t="str">
@@ -14969,17 +15041,17 @@
       </c>
       <c r="BE25" s="5" t="str">
         <f t="shared" si="11"/>
-        <v xml:space="preserve">Purpose --&gt; Spiritual Healing and Transformation
+        <v xml:space="preserve">Purpose (one should strive for) --&gt; Spiritual Healing and Transformation
 </v>
       </c>
       <c r="BF25" s="5" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">Tree --&gt; Shami
+        <v xml:space="preserve">Tree (offer reverance or have it in house if possible) --&gt; Shami
 </v>
       </c>
       <c r="BG25" s="5" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">Gemstone --&gt; Cat's Eye
+        <v xml:space="preserve">Gemstone (natural gemstone) --&gt; Cat's Eye
 </v>
       </c>
       <c r="BH25" s="5" t="str">
@@ -14994,17 +15066,17 @@
       </c>
       <c r="BJ25" s="5" t="str">
         <f t="shared" si="16"/>
-        <v xml:space="preserve">Color --&gt; Black
+        <v xml:space="preserve">Color (natural effinity) --&gt; Black
 </v>
       </c>
       <c r="BK25" s="5" t="str">
         <f t="shared" si="17"/>
-        <v xml:space="preserve">Planet --&gt; Rahu
+        <v xml:space="preserve">Planet (ruling planet) --&gt; Rahu
 </v>
       </c>
       <c r="BL25" s="5" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">Mantra --&gt; Om Varunaaya Namaha
+        <v xml:space="preserve">Mantra (one must chant daily) --&gt; Om Varunaaya Namaha
 </v>
       </c>
       <c r="BM25" s="5" t="str">
@@ -15049,7 +15121,7 @@
       </c>
       <c r="BU25" s="5" t="str">
         <f t="shared" si="27"/>
-        <v xml:space="preserve">Health Issues --&gt; Leg and bone problems, arthritis
+        <v xml:space="preserve">Health Issues (should take care) --&gt; Leg and bone problems, arthritis
 </v>
       </c>
       <c r="BV25" s="5" t="str">
@@ -15059,22 +15131,22 @@
       </c>
       <c r="BW25" s="5" t="str">
         <f t="shared" si="29"/>
-        <v xml:space="preserve">Historical/Mythological Significance --&gt; Associated with the goddess Saraswati
+        <v xml:space="preserve">Historical/Mythological Significance (must read these stories) --&gt; Associated with the goddess Saraswati
 </v>
       </c>
       <c r="BX25" s="5" t="str">
         <f t="shared" si="30"/>
-        <v xml:space="preserve">Mudra --&gt; Gyan Mudra
+        <v xml:space="preserve">Mudra (learn and often sit in this mudra) --&gt; Gyan Mudra
 </v>
       </c>
       <c r="BY25" s="5" t="str">
         <f t="shared" si="31"/>
-        <v xml:space="preserve">Food/Dietary Recommendation --&gt; Light and wholesome meals, grains, and vegetables
+        <v xml:space="preserve">Food/Dietary Recommendation (should intake) --&gt; Light and wholesome meals, grains, and vegetables
 </v>
       </c>
       <c r="BZ25" s="5" t="str">
         <f t="shared" si="32"/>
-        <v xml:space="preserve">Yoga Posture/Asana --&gt; Sukhasana, Ardha Matsyendrasana, Viparita Karani
+        <v xml:space="preserve">Yoga Posture/Asana (should do these yogas) --&gt; Sukhasana, Ardha Matsyendrasana, Viparita Karani
 </v>
       </c>
       <c r="CA25" s="5" t="str">
@@ -15084,32 +15156,32 @@
       </c>
       <c r="CB25" s="5" t="str">
         <f t="shared" si="34"/>
-        <v xml:space="preserve">Hindu Festivals/Holidays --&gt; Maha Shivaratri
+        <v xml:space="preserve">Hindu Festivals/Holidays (do sadhna on these festivals) --&gt; Maha Shivaratri
 </v>
       </c>
       <c r="CC25" s="5" t="str">
         <f t="shared" si="35"/>
-        <v xml:space="preserve">Chakra/Energy Center --&gt; Sahasrara
+        <v xml:space="preserve">Chakra/Energy Center (do puja, meditation for this chakra) --&gt; Sahasrara
 </v>
       </c>
       <c r="CD25" s="5" t="str">
         <f t="shared" si="36"/>
-        <v xml:space="preserve">Yantra/Sacred Geometry --&gt; Flower of Life
+        <v xml:space="preserve">Yantra/Sacred Geometry (can keep this yantra in puja sthal) --&gt; Flower of Life
 </v>
       </c>
       <c r="CE25" s="5" t="str">
         <f t="shared" si="37"/>
-        <v xml:space="preserve">Spiritual Practice/Sadhana --&gt; Chanting and meditation
+        <v xml:space="preserve">Spiritual Practice/Sadhana (must observe daily) --&gt; Chanting and meditation
 </v>
       </c>
       <c r="CF25" s="5" t="str">
         <f t="shared" si="38"/>
-        <v xml:space="preserve">Metal/Mineral --&gt; Rahu
+        <v xml:space="preserve">Metal/Mineral (natural affliliation) --&gt; Rahu
 </v>
       </c>
       <c r="CG25" s="5" t="str">
         <f t="shared" si="39"/>
-        <v xml:space="preserve">Aromatherapy/Essential Oils --&gt; Peppermint, Eucalyptus, Frankincense
+        <v xml:space="preserve">Aromatherapy/Essential Oils (should apply these) --&gt; Peppermint, Eucalyptus, Frankincense
 </v>
       </c>
       <c r="CH25" s="5" t="str">
@@ -15119,17 +15191,17 @@
       </c>
       <c r="CI25" s="5" t="str">
         <f t="shared" si="41"/>
-        <v xml:space="preserve">Mythological Story/Legend --&gt; The group of 100 physicians called Ashvins
+        <v xml:space="preserve">Mythological Story/Legend (must read these stories) --&gt; The group of 100 physicians called Ashvins
 </v>
       </c>
       <c r="CJ25" s="5" t="str">
         <f t="shared" si="42"/>
-        <v xml:space="preserve">Sound/Mantra --&gt; Om Sham Shanicharaya Namah
+        <v xml:space="preserve">Sound/Mantra (must chant this mantra) --&gt; Om Sham Shanicharaya Namah
 </v>
       </c>
       <c r="CK25" s="5" t="str">
         <f t="shared" si="43"/>
-        <v xml:space="preserve">Flower --&gt; White Lilly
+        <v xml:space="preserve">Flower (keep these nearby) --&gt; White Lilly
 </v>
       </c>
       <c r="CL25" s="5" t="str">
@@ -15149,7 +15221,7 @@
       </c>
       <c r="CO25" s="5" t="str">
         <f t="shared" si="47"/>
-        <v xml:space="preserve">Dosha Element --&gt; Vata
+        <v xml:space="preserve">Dosha Element (must keep the element in check, learn more from ayurveda) --&gt; Vata
 </v>
       </c>
     </row>
@@ -15294,22 +15366,22 @@
       </c>
       <c r="AU26" s="5" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">Nakshatra --&gt; Purva Bhadrapada
-Ruling Deity --&gt; Aja Ekapad
-Symbol --&gt; Front Legs of a Funeral Cot or Bed
+        <v xml:space="preserve">Nakshatra (Moon Nakshatra) --&gt; Purva Bhadrapada
+Ruling Deity (Main deity) --&gt; Aja Ekapad
+Symbol (can keep symbol/painting of same in bedroom or desktop) --&gt; Front Legs of a Funeral Cot or Bed
 Animal --&gt; Male Lion
 Nature --&gt; Rajas
 Gender --&gt; Female
 Dosha --&gt; Kapha
 Guna --&gt; Rajas
-Purpose --&gt; Spiritual Awakening and Enlightenment
-Tree --&gt; Ashvattha
-Gemstone --&gt; Gomedhikam
+Purpose (one should strive for) --&gt; Spiritual Awakening and Enlightenment
+Tree (offer reverance or have it in house if possible) --&gt; Ashvattha
+Gemstone (natural gemstone) --&gt; Gomedhikam
 Yoga --&gt; Siddha
 Plant/Flower --&gt; Mandara
-Color --&gt; Golden
-Planet --&gt; Jupiter
-Mantra --&gt; Om Ajaikapadaya Namaha
+Color (natural effinity) --&gt; Golden
+Planet (ruling planet) --&gt; Jupiter
+Mantra (one must chant daily) --&gt; Om Ajaikapadaya Namaha
 Body Temperament --&gt; Watery
 Career/Profession --&gt; Spiritual Gurus, Healers, Astrologers
 Compatibility --&gt; Shravana, Dhanishta, Shatabhisha, Uttarabhadrapada, Revati
@@ -15318,47 +15390,47 @@
 Lucky Directions --&gt; West
 Auspicious Activities --&gt; Seeking blessings, spiritual practices, starting new ventures
 Inauspicious Activities --&gt; Conflicts, legal issues, theft
-Health Issues --&gt; Foot and ankle problems, skin issues
+Health Issues (should take care) --&gt; Foot and ankle problems, skin issues
 Prayers or Rituals --&gt; Worship Lord Ajaikapada
-Historical/Mythological Significance --&gt; Birthplace of the serpent king, Ajaikapada
-Mudra --&gt; Ganesha Mudra
-Food/Dietary Recommendation --&gt; Fresh fruits, vegetables, and grains
-Yoga Posture/Asana --&gt; Padmasana, Gomukhasana, Pavanamuktasana
+Historical/Mythological Significance (must read these stories) --&gt; Birthplace of the serpent king, Ajaikapada
+Mudra (learn and often sit in this mudra) --&gt; Ganesha Mudra
+Food/Dietary Recommendation (should intake) --&gt; Fresh fruits, vegetables, and grains
+Yoga Posture/Asana (should do these yogas) --&gt; Padmasana, Gomukhasana, Pavanamuktasana
 Tarot Card/Divination Symbol --&gt; Ten of Swords
-Hindu Festivals/Holidays --&gt; Holi
-Chakra/Energy Center --&gt; Manipura
-Yantra/Sacred Geometry --&gt; Sri Yantra
-Spiritual Practice/Sadhana --&gt; Chanting and meditation
-Metal/Mineral --&gt; Gold
-Aromatherapy/Essential Oils --&gt; Frankincense, Myrrh, Cedarwood
+Hindu Festivals/Holidays (do sadhna on these festivals) --&gt; Holi
+Chakra/Energy Center (do puja, meditation for this chakra) --&gt; Manipura
+Yantra/Sacred Geometry (can keep this yantra in puja sthal) --&gt; Sri Yantra
+Spiritual Practice/Sadhana (must observe daily) --&gt; Chanting and meditation
+Metal/Mineral (natural affliliation) --&gt; Gold
+Aromatherapy/Essential Oils (should apply these) --&gt; Frankincense, Myrrh, Cedarwood
 Personality Traits/Characteristics --&gt; Compassionate, intuitive, and imaginative
-Mythological Story/Legend --&gt; The story of the demon Hiranyakashipu and his son Prahlada
-Sound/Mantra --&gt; Om Gam Ganapataye Namaha
-Flower --&gt; Nagakesar
+Mythological Story/Legend (must read these stories) --&gt; The story of the demon Hiranyakashipu and his son Prahlada
+Sound/Mantra (must chant this mantra) --&gt; Om Gam Ganapataye Namaha
+Flower (keep these nearby) --&gt; Nagakesar
 Prana --&gt; Apana Vayu
 Varna --&gt; Vata
 Taste --&gt; Astringent
-Dosha Element --&gt; Vata
+Dosha Element (must keep the element in check, learn more from ayurveda) --&gt; Vata
 </v>
       </c>
       <c r="AV26" s="5" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">Nakshatra --&gt; Purva Bhadrapada
-Ruling Deity --&gt; Aja Ekapad
-Symbol --&gt; Front Legs of a Funeral Cot or Bed
+        <v xml:space="preserve">Nakshatra (Moon Nakshatra) --&gt; Purva Bhadrapada
+Ruling Deity (Main deity) --&gt; Aja Ekapad
+Symbol (can keep symbol/painting of same in bedroom or desktop) --&gt; Front Legs of a Funeral Cot or Bed
 Animal --&gt; Male Lion
 Nature --&gt; Rajas
 Gender --&gt; Female
 Dosha --&gt; Kapha
 Guna --&gt; Rajas
-Purpose --&gt; Spiritual Awakening and Enlightenment
-Tree --&gt; Ashvattha
-Gemstone --&gt; Gomedhikam
+Purpose (one should strive for) --&gt; Spiritual Awakening and Enlightenment
+Tree (offer reverance or have it in house if possible) --&gt; Ashvattha
+Gemstone (natural gemstone) --&gt; Gomedhikam
 Yoga --&gt; Siddha
 Plant/Flower --&gt; Mandara
-Color --&gt; Golden
-Planet --&gt; Jupiter
-Mantra --&gt; Om Ajaikapadaya Namaha
+Color (natural effinity) --&gt; Golden
+Planet (ruling planet) --&gt; Jupiter
+Mantra (one must chant daily) --&gt; Om Ajaikapadaya Namaha
 Body Temperament --&gt; Watery
 Career/Profession --&gt; Spiritual Gurus, Healers, Astrologers
 Compatibility --&gt; Shravana, Dhanishta, Shatabhisha, Uttarabhadrapada, Revati
@@ -15367,42 +15439,42 @@
 Lucky Directions --&gt; West
 Auspicious Activities --&gt; Seeking blessings, spiritual practices, starting new ventures
 Inauspicious Activities --&gt; Conflicts, legal issues, theft
-Health Issues --&gt; Foot and ankle problems, skin issues
+Health Issues (should take care) --&gt; Foot and ankle problems, skin issues
 Prayers or Rituals --&gt; Worship Lord Ajaikapada
-Historical/Mythological Significance --&gt; Birthplace of the serpent king, Ajaikapada
-Mudra --&gt; Ganesha Mudra
-Food/Dietary Recommendation --&gt; Fresh fruits, vegetables, and grains
-Yoga Posture/Asana --&gt; Padmasana, Gomukhasana, Pavanamuktasana
+Historical/Mythological Significance (must read these stories) --&gt; Birthplace of the serpent king, Ajaikapada
+Mudra (learn and often sit in this mudra) --&gt; Ganesha Mudra
+Food/Dietary Recommendation (should intake) --&gt; Fresh fruits, vegetables, and grains
+Yoga Posture/Asana (should do these yogas) --&gt; Padmasana, Gomukhasana, Pavanamuktasana
 Tarot Card/Divination Symbol --&gt; Ten of Swords
-Hindu Festivals/Holidays --&gt; Holi
-Chakra/Energy Center --&gt; Manipura
-Yantra/Sacred Geometry --&gt; Sri Yantra
-Spiritual Practice/Sadhana --&gt; Chanting and meditation
-Metal/Mineral --&gt; Gold
-Aromatherapy/Essential Oils --&gt; Frankincense, Myrrh, Cedarwood
+Hindu Festivals/Holidays (do sadhna on these festivals) --&gt; Holi
+Chakra/Energy Center (do puja, meditation for this chakra) --&gt; Manipura
+Yantra/Sacred Geometry (can keep this yantra in puja sthal) --&gt; Sri Yantra
+Spiritual Practice/Sadhana (must observe daily) --&gt; Chanting and meditation
+Metal/Mineral (natural affliliation) --&gt; Gold
+Aromatherapy/Essential Oils (should apply these) --&gt; Frankincense, Myrrh, Cedarwood
 Personality Traits/Characteristics --&gt; Compassionate, intuitive, and imaginative
-Mythological Story/Legend --&gt; The story of the demon Hiranyakashipu and his son Prahlada
-Sound/Mantra --&gt; Om Gam Ganapataye Namaha
-Flower --&gt; Nagakesar
+Mythological Story/Legend (must read these stories) --&gt; The story of the demon Hiranyakashipu and his son Prahlada
+Sound/Mantra (must chant this mantra) --&gt; Om Gam Ganapataye Namaha
+Flower (keep these nearby) --&gt; Nagakesar
 Prana --&gt; Apana Vayu
 Varna --&gt; Vata
 Taste --&gt; Astringent
-Dosha Element --&gt; Vata
+Dosha Element (must keep the element in check, learn more from ayurveda) --&gt; Vata
 </v>
       </c>
       <c r="AW26" s="5" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">Nakshatra --&gt; Purva Bhadrapada
+        <v xml:space="preserve">Nakshatra (Moon Nakshatra) --&gt; Purva Bhadrapada
 </v>
       </c>
       <c r="AX26" s="5" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">Ruling Deity --&gt; Aja Ekapad
+        <v xml:space="preserve">Ruling Deity (Main deity) --&gt; Aja Ekapad
 </v>
       </c>
       <c r="AY26" s="5" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">Symbol --&gt; Front Legs of a Funeral Cot or Bed
+        <v xml:space="preserve">Symbol (can keep symbol/painting of same in bedroom or desktop) --&gt; Front Legs of a Funeral Cot or Bed
 </v>
       </c>
       <c r="AZ26" s="5" t="str">
@@ -15432,17 +15504,17 @@
       </c>
       <c r="BE26" s="5" t="str">
         <f t="shared" si="11"/>
-        <v xml:space="preserve">Purpose --&gt; Spiritual Awakening and Enlightenment
+        <v xml:space="preserve">Purpose (one should strive for) --&gt; Spiritual Awakening and Enlightenment
 </v>
       </c>
       <c r="BF26" s="5" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">Tree --&gt; Ashvattha
+        <v xml:space="preserve">Tree (offer reverance or have it in house if possible) --&gt; Ashvattha
 </v>
       </c>
       <c r="BG26" s="5" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">Gemstone --&gt; Gomedhikam
+        <v xml:space="preserve">Gemstone (natural gemstone) --&gt; Gomedhikam
 </v>
       </c>
       <c r="BH26" s="5" t="str">
@@ -15457,17 +15529,17 @@
       </c>
       <c r="BJ26" s="5" t="str">
         <f t="shared" si="16"/>
-        <v xml:space="preserve">Color --&gt; Golden
+        <v xml:space="preserve">Color (natural effinity) --&gt; Golden
 </v>
       </c>
       <c r="BK26" s="5" t="str">
         <f t="shared" si="17"/>
-        <v xml:space="preserve">Planet --&gt; Jupiter
+        <v xml:space="preserve">Planet (ruling planet) --&gt; Jupiter
 </v>
       </c>
       <c r="BL26" s="5" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">Mantra --&gt; Om Ajaikapadaya Namaha
+        <v xml:space="preserve">Mantra (one must chant daily) --&gt; Om Ajaikapadaya Namaha
 </v>
       </c>
       <c r="BM26" s="5" t="str">
@@ -15512,7 +15584,7 @@
       </c>
       <c r="BU26" s="5" t="str">
         <f t="shared" si="27"/>
-        <v xml:space="preserve">Health Issues --&gt; Foot and ankle problems, skin issues
+        <v xml:space="preserve">Health Issues (should take care) --&gt; Foot and ankle problems, skin issues
 </v>
       </c>
       <c r="BV26" s="5" t="str">
@@ -15522,22 +15594,22 @@
       </c>
       <c r="BW26" s="5" t="str">
         <f t="shared" si="29"/>
-        <v xml:space="preserve">Historical/Mythological Significance --&gt; Birthplace of the serpent king, Ajaikapada
+        <v xml:space="preserve">Historical/Mythological Significance (must read these stories) --&gt; Birthplace of the serpent king, Ajaikapada
 </v>
       </c>
       <c r="BX26" s="5" t="str">
         <f t="shared" si="30"/>
-        <v xml:space="preserve">Mudra --&gt; Ganesha Mudra
+        <v xml:space="preserve">Mudra (learn and often sit in this mudra) --&gt; Ganesha Mudra
 </v>
       </c>
       <c r="BY26" s="5" t="str">
         <f t="shared" si="31"/>
-        <v xml:space="preserve">Food/Dietary Recommendation --&gt; Fresh fruits, vegetables, and grains
+        <v xml:space="preserve">Food/Dietary Recommendation (should intake) --&gt; Fresh fruits, vegetables, and grains
 </v>
       </c>
       <c r="BZ26" s="5" t="str">
         <f t="shared" si="32"/>
-        <v xml:space="preserve">Yoga Posture/Asana --&gt; Padmasana, Gomukhasana, Pavanamuktasana
+        <v xml:space="preserve">Yoga Posture/Asana (should do these yogas) --&gt; Padmasana, Gomukhasana, Pavanamuktasana
 </v>
       </c>
       <c r="CA26" s="5" t="str">
@@ -15547,32 +15619,32 @@
       </c>
       <c r="CB26" s="5" t="str">
         <f t="shared" si="34"/>
-        <v xml:space="preserve">Hindu Festivals/Holidays --&gt; Holi
+        <v xml:space="preserve">Hindu Festivals/Holidays (do sadhna on these festivals) --&gt; Holi
 </v>
       </c>
       <c r="CC26" s="5" t="str">
         <f t="shared" si="35"/>
-        <v xml:space="preserve">Chakra/Energy Center --&gt; Manipura
+        <v xml:space="preserve">Chakra/Energy Center (do puja, meditation for this chakra) --&gt; Manipura
 </v>
       </c>
       <c r="CD26" s="5" t="str">
         <f t="shared" si="36"/>
-        <v xml:space="preserve">Yantra/Sacred Geometry --&gt; Sri Yantra
+        <v xml:space="preserve">Yantra/Sacred Geometry (can keep this yantra in puja sthal) --&gt; Sri Yantra
 </v>
       </c>
       <c r="CE26" s="5" t="str">
         <f t="shared" si="37"/>
-        <v xml:space="preserve">Spiritual Practice/Sadhana --&gt; Chanting and meditation
+        <v xml:space="preserve">Spiritual Practice/Sadhana (must observe daily) --&gt; Chanting and meditation
 </v>
       </c>
       <c r="CF26" s="5" t="str">
         <f t="shared" si="38"/>
-        <v xml:space="preserve">Metal/Mineral --&gt; Gold
+        <v xml:space="preserve">Metal/Mineral (natural affliliation) --&gt; Gold
 </v>
       </c>
       <c r="CG26" s="5" t="str">
         <f t="shared" si="39"/>
-        <v xml:space="preserve">Aromatherapy/Essential Oils --&gt; Frankincense, Myrrh, Cedarwood
+        <v xml:space="preserve">Aromatherapy/Essential Oils (should apply these) --&gt; Frankincense, Myrrh, Cedarwood
 </v>
       </c>
       <c r="CH26" s="5" t="str">
@@ -15582,17 +15654,17 @@
       </c>
       <c r="CI26" s="5" t="str">
         <f t="shared" si="41"/>
-        <v xml:space="preserve">Mythological Story/Legend --&gt; The story of the demon Hiranyakashipu and his son Prahlada
+        <v xml:space="preserve">Mythological Story/Legend (must read these stories) --&gt; The story of the demon Hiranyakashipu and his son Prahlada
 </v>
       </c>
       <c r="CJ26" s="5" t="str">
         <f t="shared" si="42"/>
-        <v xml:space="preserve">Sound/Mantra --&gt; Om Gam Ganapataye Namaha
+        <v xml:space="preserve">Sound/Mantra (must chant this mantra) --&gt; Om Gam Ganapataye Namaha
 </v>
       </c>
       <c r="CK26" s="5" t="str">
         <f t="shared" si="43"/>
-        <v xml:space="preserve">Flower --&gt; Nagakesar
+        <v xml:space="preserve">Flower (keep these nearby) --&gt; Nagakesar
 </v>
       </c>
       <c r="CL26" s="5" t="str">
@@ -15612,7 +15684,7 @@
       </c>
       <c r="CO26" s="5" t="str">
         <f t="shared" si="47"/>
-        <v xml:space="preserve">Dosha Element --&gt; Vata
+        <v xml:space="preserve">Dosha Element (must keep the element in check, learn more from ayurveda) --&gt; Vata
 </v>
       </c>
     </row>
@@ -15757,22 +15829,22 @@
       </c>
       <c r="AU27" s="5" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">Nakshatra --&gt; Uttara Bhadrapada
-Ruling Deity --&gt; Ahirbudhnya
-Symbol --&gt; Back Legs of a Funeral Cot or Bed
+        <v xml:space="preserve">Nakshatra (Moon Nakshatra) --&gt; Uttara Bhadrapada
+Ruling Deity (Main deity) --&gt; Ahirbudhnya
+Symbol (can keep symbol/painting of same in bedroom or desktop) --&gt; Back Legs of a Funeral Cot or Bed
 Animal --&gt; Female Cow
 Nature --&gt; Tamas
 Gender --&gt; Male
 Dosha --&gt; Vata
 Guna --&gt; Tamas
-Purpose --&gt; Spiritual Healing and Liberation
-Tree --&gt; Sami
-Gemstone --&gt; Hessonite
+Purpose (one should strive for) --&gt; Spiritual Healing and Liberation
+Tree (offer reverance or have it in house if possible) --&gt; Sami
+Gemstone (natural gemstone) --&gt; Hessonite
 Yoga --&gt; Sadhya
 Plant/Flower --&gt; Madar
-Color --&gt; Dark Blue
-Planet --&gt; Saturn
-Mantra --&gt; Om Ahirbudhnyaya Namaha
+Color (natural effinity) --&gt; Dark Blue
+Planet (ruling planet) --&gt; Saturn
+Mantra (one must chant daily) --&gt; Om Ahirbudhnyaya Namaha
 Body Temperament --&gt; Watery
 Career/Profession --&gt; Spiritual Teachers, Healers, Psychologists
 Compatibility --&gt; Purva Bhadrapada, Revati, Shatabhisha, Poorva Phalguni, Hasta
@@ -15781,47 +15853,47 @@
 Lucky Directions --&gt; North
 Auspicious Activities --&gt; Seeking blessings, spiritual practices, starting new ventures
 Inauspicious Activities --&gt; Conflicts, legal issues, theft
-Health Issues --&gt; Foot and ankle problems, skin issues
+Health Issues (should take care) --&gt; Foot and ankle problems, skin issues
 Prayers or Rituals --&gt; Worship Lord Ahirbudhnya
-Historical/Mythological Significance --&gt; Birthplace of the demon king, Hiranyakashipu
-Mudra --&gt; Abhaya Mudra
-Food/Dietary Recommendation --&gt; Light and nutritious meals, grains, and vegetables
-Yoga Posture/Asana --&gt; Vajrasana, Matsyasana, Paschimottanasana
+Historical/Mythological Significance (must read these stories) --&gt; Birthplace of the demon king, Hiranyakashipu
+Mudra (learn and often sit in this mudra) --&gt; Abhaya Mudra
+Food/Dietary Recommendation (should intake) --&gt; Light and nutritious meals, grains, and vegetables
+Yoga Posture/Asana (should do these yogas) --&gt; Vajrasana, Matsyasana, Paschimottanasana
 Tarot Card/Divination Symbol --&gt; Eight of Cups
-Hindu Festivals/Holidays --&gt; Mahashivratri
-Chakra/Energy Center --&gt; Manipura
-Yantra/Sacred Geometry --&gt; Sri Yantra
-Spiritual Practice/Sadhana --&gt; Chanting and meditation
-Metal/Mineral --&gt; Iron
-Aromatherapy/Essential Oils --&gt; Patchouli, Frankincense, Myrrh
+Hindu Festivals/Holidays (do sadhna on these festivals) --&gt; Mahashivratri
+Chakra/Energy Center (do puja, meditation for this chakra) --&gt; Manipura
+Yantra/Sacred Geometry (can keep this yantra in puja sthal) --&gt; Sri Yantra
+Spiritual Practice/Sadhana (must observe daily) --&gt; Chanting and meditation
+Metal/Mineral (natural affliliation) --&gt; Iron
+Aromatherapy/Essential Oils (should apply these) --&gt; Patchouli, Frankincense, Myrrh
 Personality Traits/Characteristics --&gt; Wise, spiritual, and introspective
-Mythological Story/Legend --&gt; The story of the demon Andhaka and Lord Shiva
-Sound/Mantra --&gt; Om Namo Bhagavate Vasudevaya
-Flower --&gt; Ashoka
+Mythological Story/Legend (must read these stories) --&gt; The story of the demon Andhaka and Lord Shiva
+Sound/Mantra (must chant this mantra) --&gt; Om Namo Bhagavate Vasudevaya
+Flower (keep these nearby) --&gt; Ashoka
 Prana --&gt; Udana Vayu
 Varna --&gt; Kapha
 Taste --&gt; Sweet
-Dosha Element --&gt; Kapha
+Dosha Element (must keep the element in check, learn more from ayurveda) --&gt; Kapha
 </v>
       </c>
       <c r="AV27" s="5" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">Nakshatra --&gt; Uttara Bhadrapada
-Ruling Deity --&gt; Ahirbudhnya
-Symbol --&gt; Back Legs of a Funeral Cot or Bed
+        <v xml:space="preserve">Nakshatra (Moon Nakshatra) --&gt; Uttara Bhadrapada
+Ruling Deity (Main deity) --&gt; Ahirbudhnya
+Symbol (can keep symbol/painting of same in bedroom or desktop) --&gt; Back Legs of a Funeral Cot or Bed
 Animal --&gt; Female Cow
 Nature --&gt; Tamas
 Gender --&gt; Male
 Dosha --&gt; Vata
 Guna --&gt; Tamas
-Purpose --&gt; Spiritual Healing and Liberation
-Tree --&gt; Sami
-Gemstone --&gt; Hessonite
+Purpose (one should strive for) --&gt; Spiritual Healing and Liberation
+Tree (offer reverance or have it in house if possible) --&gt; Sami
+Gemstone (natural gemstone) --&gt; Hessonite
 Yoga --&gt; Sadhya
 Plant/Flower --&gt; Madar
-Color --&gt; Dark Blue
-Planet --&gt; Saturn
-Mantra --&gt; Om Ahirbudhnyaya Namaha
+Color (natural effinity) --&gt; Dark Blue
+Planet (ruling planet) --&gt; Saturn
+Mantra (one must chant daily) --&gt; Om Ahirbudhnyaya Namaha
 Body Temperament --&gt; Watery
 Career/Profession --&gt; Spiritual Teachers, Healers, Psychologists
 Compatibility --&gt; Purva Bhadrapada, Revati, Shatabhisha, Poorva Phalguni, Hasta
@@ -15830,42 +15902,42 @@
 Lucky Directions --&gt; North
 Auspicious Activities --&gt; Seeking blessings, spiritual practices, starting new ventures
 Inauspicious Activities --&gt; Conflicts, legal issues, theft
-Health Issues --&gt; Foot and ankle problems, skin issues
+Health Issues (should take care) --&gt; Foot and ankle problems, skin issues
 Prayers or Rituals --&gt; Worship Lord Ahirbudhnya
-Historical/Mythological Significance --&gt; Birthplace of the demon king, Hiranyakashipu
-Mudra --&gt; Abhaya Mudra
-Food/Dietary Recommendation --&gt; Light and nutritious meals, grains, and vegetables
-Yoga Posture/Asana --&gt; Vajrasana, Matsyasana, Paschimottanasana
+Historical/Mythological Significance (must read these stories) --&gt; Birthplace of the demon king, Hiranyakashipu
+Mudra (learn and often sit in this mudra) --&gt; Abhaya Mudra
+Food/Dietary Recommendation (should intake) --&gt; Light and nutritious meals, grains, and vegetables
+Yoga Posture/Asana (should do these yogas) --&gt; Vajrasana, Matsyasana, Paschimottanasana
 Tarot Card/Divination Symbol --&gt; Eight of Cups
-Hindu Festivals/Holidays --&gt; Mahashivratri
-Chakra/Energy Center --&gt; Manipura
-Yantra/Sacred Geometry --&gt; Sri Yantra
-Spiritual Practice/Sadhana --&gt; Chanting and meditation
-Metal/Mineral --&gt; Iron
-Aromatherapy/Essential Oils --&gt; Patchouli, Frankincense, Myrrh
+Hindu Festivals/Holidays (do sadhna on these festivals) --&gt; Mahashivratri
+Chakra/Energy Center (do puja, meditation for this chakra) --&gt; Manipura
+Yantra/Sacred Geometry (can keep this yantra in puja sthal) --&gt; Sri Yantra
+Spiritual Practice/Sadhana (must observe daily) --&gt; Chanting and meditation
+Metal/Mineral (natural affliliation) --&gt; Iron
+Aromatherapy/Essential Oils (should apply these) --&gt; Patchouli, Frankincense, Myrrh
 Personality Traits/Characteristics --&gt; Wise, spiritual, and introspective
-Mythological Story/Legend --&gt; The story of the demon Andhaka and Lord Shiva
-Sound/Mantra --&gt; Om Namo Bhagavate Vasudevaya
-Flower --&gt; Ashoka
+Mythological Story/Legend (must read these stories) --&gt; The story of the demon Andhaka and Lord Shiva
+Sound/Mantra (must chant this mantra) --&gt; Om Namo Bhagavate Vasudevaya
+Flower (keep these nearby) --&gt; Ashoka
 Prana --&gt; Udana Vayu
 Varna --&gt; Kapha
 Taste --&gt; Sweet
-Dosha Element --&gt; Kapha
+Dosha Element (must keep the element in check, learn more from ayurveda) --&gt; Kapha
 </v>
       </c>
       <c r="AW27" s="5" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">Nakshatra --&gt; Uttara Bhadrapada
+        <v xml:space="preserve">Nakshatra (Moon Nakshatra) --&gt; Uttara Bhadrapada
 </v>
       </c>
       <c r="AX27" s="5" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">Ruling Deity --&gt; Ahirbudhnya
+        <v xml:space="preserve">Ruling Deity (Main deity) --&gt; Ahirbudhnya
 </v>
       </c>
       <c r="AY27" s="5" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">Symbol --&gt; Back Legs of a Funeral Cot or Bed
+        <v xml:space="preserve">Symbol (can keep symbol/painting of same in bedroom or desktop) --&gt; Back Legs of a Funeral Cot or Bed
 </v>
       </c>
       <c r="AZ27" s="5" t="str">
@@ -15895,17 +15967,17 @@
       </c>
       <c r="BE27" s="5" t="str">
         <f t="shared" si="11"/>
-        <v xml:space="preserve">Purpose --&gt; Spiritual Healing and Liberation
+        <v xml:space="preserve">Purpose (one should strive for) --&gt; Spiritual Healing and Liberation
 </v>
       </c>
       <c r="BF27" s="5" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">Tree --&gt; Sami
+        <v xml:space="preserve">Tree (offer reverance or have it in house if possible) --&gt; Sami
 </v>
       </c>
       <c r="BG27" s="5" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">Gemstone --&gt; Hessonite
+        <v xml:space="preserve">Gemstone (natural gemstone) --&gt; Hessonite
 </v>
       </c>
       <c r="BH27" s="5" t="str">
@@ -15920,17 +15992,17 @@
       </c>
       <c r="BJ27" s="5" t="str">
         <f t="shared" si="16"/>
-        <v xml:space="preserve">Color --&gt; Dark Blue
+        <v xml:space="preserve">Color (natural effinity) --&gt; Dark Blue
 </v>
       </c>
       <c r="BK27" s="5" t="str">
         <f t="shared" si="17"/>
-        <v xml:space="preserve">Planet --&gt; Saturn
+        <v xml:space="preserve">Planet (ruling planet) --&gt; Saturn
 </v>
       </c>
       <c r="BL27" s="5" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">Mantra --&gt; Om Ahirbudhnyaya Namaha
+        <v xml:space="preserve">Mantra (one must chant daily) --&gt; Om Ahirbudhnyaya Namaha
 </v>
       </c>
       <c r="BM27" s="5" t="str">
@@ -15975,7 +16047,7 @@
       </c>
       <c r="BU27" s="5" t="str">
         <f t="shared" si="27"/>
-        <v xml:space="preserve">Health Issues --&gt; Foot and ankle problems, skin issues
+        <v xml:space="preserve">Health Issues (should take care) --&gt; Foot and ankle problems, skin issues
 </v>
       </c>
       <c r="BV27" s="5" t="str">
@@ -15985,22 +16057,22 @@
       </c>
       <c r="BW27" s="5" t="str">
         <f t="shared" si="29"/>
-        <v xml:space="preserve">Historical/Mythological Significance --&gt; Birthplace of the demon king, Hiranyakashipu
+        <v xml:space="preserve">Historical/Mythological Significance (must read these stories) --&gt; Birthplace of the demon king, Hiranyakashipu
 </v>
       </c>
       <c r="BX27" s="5" t="str">
         <f t="shared" si="30"/>
-        <v xml:space="preserve">Mudra --&gt; Abhaya Mudra
+        <v xml:space="preserve">Mudra (learn and often sit in this mudra) --&gt; Abhaya Mudra
 </v>
       </c>
       <c r="BY27" s="5" t="str">
         <f t="shared" si="31"/>
-        <v xml:space="preserve">Food/Dietary Recommendation --&gt; Light and nutritious meals, grains, and vegetables
+        <v xml:space="preserve">Food/Dietary Recommendation (should intake) --&gt; Light and nutritious meals, grains, and vegetables
 </v>
       </c>
       <c r="BZ27" s="5" t="str">
         <f t="shared" si="32"/>
-        <v xml:space="preserve">Yoga Posture/Asana --&gt; Vajrasana, Matsyasana, Paschimottanasana
+        <v xml:space="preserve">Yoga Posture/Asana (should do these yogas) --&gt; Vajrasana, Matsyasana, Paschimottanasana
 </v>
       </c>
       <c r="CA27" s="5" t="str">
@@ -16010,32 +16082,32 @@
       </c>
       <c r="CB27" s="5" t="str">
         <f t="shared" si="34"/>
-        <v xml:space="preserve">Hindu Festivals/Holidays --&gt; Mahashivratri
+        <v xml:space="preserve">Hindu Festivals/Holidays (do sadhna on these festivals) --&gt; Mahashivratri
 </v>
       </c>
       <c r="CC27" s="5" t="str">
         <f t="shared" si="35"/>
-        <v xml:space="preserve">Chakra/Energy Center --&gt; Manipura
+        <v xml:space="preserve">Chakra/Energy Center (do puja, meditation for this chakra) --&gt; Manipura
 </v>
       </c>
       <c r="CD27" s="5" t="str">
         <f t="shared" si="36"/>
-        <v xml:space="preserve">Yantra/Sacred Geometry --&gt; Sri Yantra
+        <v xml:space="preserve">Yantra/Sacred Geometry (can keep this yantra in puja sthal) --&gt; Sri Yantra
 </v>
       </c>
       <c r="CE27" s="5" t="str">
         <f t="shared" si="37"/>
-        <v xml:space="preserve">Spiritual Practice/Sadhana --&gt; Chanting and meditation
+        <v xml:space="preserve">Spiritual Practice/Sadhana (must observe daily) --&gt; Chanting and meditation
 </v>
       </c>
       <c r="CF27" s="5" t="str">
         <f t="shared" si="38"/>
-        <v xml:space="preserve">Metal/Mineral --&gt; Iron
+        <v xml:space="preserve">Metal/Mineral (natural affliliation) --&gt; Iron
 </v>
       </c>
       <c r="CG27" s="5" t="str">
         <f t="shared" si="39"/>
-        <v xml:space="preserve">Aromatherapy/Essential Oils --&gt; Patchouli, Frankincense, Myrrh
+        <v xml:space="preserve">Aromatherapy/Essential Oils (should apply these) --&gt; Patchouli, Frankincense, Myrrh
 </v>
       </c>
       <c r="CH27" s="5" t="str">
@@ -16045,17 +16117,17 @@
       </c>
       <c r="CI27" s="5" t="str">
         <f t="shared" si="41"/>
-        <v xml:space="preserve">Mythological Story/Legend --&gt; The story of the demon Andhaka and Lord Shiva
+        <v xml:space="preserve">Mythological Story/Legend (must read these stories) --&gt; The story of the demon Andhaka and Lord Shiva
 </v>
       </c>
       <c r="CJ27" s="5" t="str">
         <f t="shared" si="42"/>
-        <v xml:space="preserve">Sound/Mantra --&gt; Om Namo Bhagavate Vasudevaya
+        <v xml:space="preserve">Sound/Mantra (must chant this mantra) --&gt; Om Namo Bhagavate Vasudevaya
 </v>
       </c>
       <c r="CK27" s="5" t="str">
         <f t="shared" si="43"/>
-        <v xml:space="preserve">Flower --&gt; Ashoka
+        <v xml:space="preserve">Flower (keep these nearby) --&gt; Ashoka
 </v>
       </c>
       <c r="CL27" s="5" t="str">
@@ -16075,7 +16147,7 @@
       </c>
       <c r="CO27" s="5" t="str">
         <f t="shared" si="47"/>
-        <v xml:space="preserve">Dosha Element --&gt; Kapha
+        <v xml:space="preserve">Dosha Element (must keep the element in check, learn more from ayurveda) --&gt; Kapha
 </v>
       </c>
     </row>
@@ -16220,22 +16292,22 @@
       </c>
       <c r="AU28" s="5" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">Nakshatra --&gt; Revati
-Ruling Deity --&gt; Pushan
-Symbol --&gt; Fish or Drum
+        <v xml:space="preserve">Nakshatra (Moon Nakshatra) --&gt; Revati
+Ruling Deity (Main deity) --&gt; Pushan
+Symbol (can keep symbol/painting of same in bedroom or desktop) --&gt; Fish or Drum
 Animal --&gt; Female Elephant
 Nature --&gt; Sattva
 Gender --&gt; Female
 Dosha --&gt; Pitta
 Guna --&gt; Sattva
-Purpose --&gt; Completion and Fruition
-Tree --&gt; Ashvattha
-Gemstone --&gt; Pearl
+Purpose (one should strive for) --&gt; Completion and Fruition
+Tree (offer reverance or have it in house if possible) --&gt; Ashvattha
+Gemstone (natural gemstone) --&gt; Pearl
 Yoga --&gt; Vaidhriti
 Plant/Flower --&gt; Arka
-Color --&gt; Yellow
-Planet --&gt; Mercury
-Mantra --&gt; Om Pushne Namaha
+Color (natural effinity) --&gt; Yellow
+Planet (ruling planet) --&gt; Mercury
+Mantra (one must chant daily) --&gt; Om Pushne Namaha
 Body Temperament --&gt; Watery
 Career/Profession --&gt; Poets, Musicians, Spiritual Healers
 Compatibility --&gt; Uttarabhadrapada, Purva Bhadrapada, Ashwini, Bharani, Krittika
@@ -16244,47 +16316,47 @@
 Lucky Directions --&gt; West
 Auspicious Activities --&gt; Starting new ventures, seeking blessings, spiritual practices
 Inauspicious Activities --&gt; Conflicts, legal issues, theft
-Health Issues --&gt; Foot and ankle problems, skin issues
+Health Issues (should take care) --&gt; Foot and ankle problems, skin issues
 Prayers or Rituals --&gt; Worship Lord Pushan
-Historical/Mythological Significance --&gt; Associated with the god of death, Yama
-Mudra --&gt; Maha Mrityunjaya Mudra
-Food/Dietary Recommendation --&gt; Fresh fruits, vegetables, and grains
-Yoga Posture/Asana --&gt; Halasana, Shavasana, Matsyasana
+Historical/Mythological Significance (must read these stories) --&gt; Associated with the god of death, Yama
+Mudra (learn and often sit in this mudra) --&gt; Maha Mrityunjaya Mudra
+Food/Dietary Recommendation (should intake) --&gt; Fresh fruits, vegetables, and grains
+Yoga Posture/Asana (should do these yogas) --&gt; Halasana, Shavasana, Matsyasana
 Tarot Card/Divination Symbol --&gt; The High Priestess
-Hindu Festivals/Holidays --&gt; Holi, Ram Navami
-Chakra/Energy Center --&gt; Manipura
-Yantra/Sacred Geometry --&gt; Sri Yantra
-Spiritual Practice/Sadhana --&gt; Meditation and self-reflection
-Metal/Mineral --&gt; Gold
-Aromatherapy/Essential Oils --&gt; Lavender, Rose, Myrrh
+Hindu Festivals/Holidays (do sadhna on these festivals) --&gt; Holi, Ram Navami
+Chakra/Energy Center (do puja, meditation for this chakra) --&gt; Manipura
+Yantra/Sacred Geometry (can keep this yantra in puja sthal) --&gt; Sri Yantra
+Spiritual Practice/Sadhana (must observe daily) --&gt; Meditation and self-reflection
+Metal/Mineral (natural affliliation) --&gt; Gold
+Aromatherapy/Essential Oils (should apply these) --&gt; Lavender, Rose, Myrrh
 Personality Traits/Characteristics --&gt; Compassionate, intuitive, and imaginative
-Mythological Story/Legend --&gt; The story of the king Chitraketu and the curse of the sage Angiras
-Sound/Mantra --&gt; Om Namah Shivaya
-Flower --&gt; Jasmine
+Mythological Story/Legend (must read these stories) --&gt; The story of the king Chitraketu and the curse of the sage Angiras
+Sound/Mantra (must chant this mantra) --&gt; Om Namah Shivaya
+Flower (keep these nearby) --&gt; Jasmine
 Prana --&gt; Samana Vayu
 Varna --&gt; Pitta
 Taste --&gt; Astringent
-Dosha Element --&gt; Pitta
+Dosha Element (must keep the element in check, learn more from ayurveda) --&gt; Pitta
 </v>
       </c>
       <c r="AV28" s="5" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">Nakshatra --&gt; Revati
-Ruling Deity --&gt; Pushan
-Symbol --&gt; Fish or Drum
+        <v xml:space="preserve">Nakshatra (Moon Nakshatra) --&gt; Revati
+Ruling Deity (Main deity) --&gt; Pushan
+Symbol (can keep symbol/painting of same in bedroom or desktop) --&gt; Fish or Drum
 Animal --&gt; Female Elephant
 Nature --&gt; Sattva
 Gender --&gt; Female
 Dosha --&gt; Pitta
 Guna --&gt; Sattva
-Purpose --&gt; Completion and Fruition
-Tree --&gt; Ashvattha
-Gemstone --&gt; Pearl
+Purpose (one should strive for) --&gt; Completion and Fruition
+Tree (offer reverance or have it in house if possible) --&gt; Ashvattha
+Gemstone (natural gemstone) --&gt; Pearl
 Yoga --&gt; Vaidhriti
 Plant/Flower --&gt; Arka
-Color --&gt; Yellow
-Planet --&gt; Mercury
-Mantra --&gt; Om Pushne Namaha
+Color (natural effinity) --&gt; Yellow
+Planet (ruling planet) --&gt; Mercury
+Mantra (one must chant daily) --&gt; Om Pushne Namaha
 Body Temperament --&gt; Watery
 Career/Profession --&gt; Poets, Musicians, Spiritual Healers
 Compatibility --&gt; Uttarabhadrapada, Purva Bhadrapada, Ashwini, Bharani, Krittika
@@ -16293,42 +16365,42 @@
 Lucky Directions --&gt; West
 Auspicious Activities --&gt; Starting new ventures, seeking blessings, spiritual practices
 Inauspicious Activities --&gt; Conflicts, legal issues, theft
-Health Issues --&gt; Foot and ankle problems, skin issues
+Health Issues (should take care) --&gt; Foot and ankle problems, skin issues
 Prayers or Rituals --&gt; Worship Lord Pushan
-Historical/Mythological Significance --&gt; Associated with the god of death, Yama
-Mudra --&gt; Maha Mrityunjaya Mudra
-Food/Dietary Recommendation --&gt; Fresh fruits, vegetables, and grains
-Yoga Posture/Asana --&gt; Halasana, Shavasana, Matsyasana
+Historical/Mythological Significance (must read these stories) --&gt; Associated with the god of death, Yama
+Mudra (learn and often sit in this mudra) --&gt; Maha Mrityunjaya Mudra
+Food/Dietary Recommendation (should intake) --&gt; Fresh fruits, vegetables, and grains
+Yoga Posture/Asana (should do these yogas) --&gt; Halasana, Shavasana, Matsyasana
 Tarot Card/Divination Symbol --&gt; The High Priestess
-Hindu Festivals/Holidays --&gt; Holi, Ram Navami
-Chakra/Energy Center --&gt; Manipura
-Yantra/Sacred Geometry --&gt; Sri Yantra
-Spiritual Practice/Sadhana --&gt; Meditation and self-reflection
-Metal/Mineral --&gt; Gold
-Aromatherapy/Essential Oils --&gt; Lavender, Rose, Myrrh
+Hindu Festivals/Holidays (do sadhna on these festivals) --&gt; Holi, Ram Navami
+Chakra/Energy Center (do puja, meditation for this chakra) --&gt; Manipura
+Yantra/Sacred Geometry (can keep this yantra in puja sthal) --&gt; Sri Yantra
+Spiritual Practice/Sadhana (must observe daily) --&gt; Meditation and self-reflection
+Metal/Mineral (natural affliliation) --&gt; Gold
+Aromatherapy/Essential Oils (should apply these) --&gt; Lavender, Rose, Myrrh
 Personality Traits/Characteristics --&gt; Compassionate, intuitive, and imaginative
-Mythological Story/Legend --&gt; The story of the king Chitraketu and the curse of the sage Angiras
-Sound/Mantra --&gt; Om Namah Shivaya
-Flower --&gt; Jasmine
+Mythological Story/Legend (must read these stories) --&gt; The story of the king Chitraketu and the curse of the sage Angiras
+Sound/Mantra (must chant this mantra) --&gt; Om Namah Shivaya
+Flower (keep these nearby) --&gt; Jasmine
 Prana --&gt; Samana Vayu
 Varna --&gt; Pitta
 Taste --&gt; Astringent
-Dosha Element --&gt; Pitta
+Dosha Element (must keep the element in check, learn more from ayurveda) --&gt; Pitta
 </v>
       </c>
       <c r="AW28" s="5" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">Nakshatra --&gt; Revati
+        <v xml:space="preserve">Nakshatra (Moon Nakshatra) --&gt; Revati
 </v>
       </c>
       <c r="AX28" s="5" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">Ruling Deity --&gt; Pushan
+        <v xml:space="preserve">Ruling Deity (Main deity) --&gt; Pushan
 </v>
       </c>
       <c r="AY28" s="5" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">Symbol --&gt; Fish or Drum
+        <v xml:space="preserve">Symbol (can keep symbol/painting of same in bedroom or desktop) --&gt; Fish or Drum
 </v>
       </c>
       <c r="AZ28" s="5" t="str">
@@ -16358,17 +16430,17 @@
       </c>
       <c r="BE28" s="5" t="str">
         <f t="shared" si="11"/>
-        <v xml:space="preserve">Purpose --&gt; Completion and Fruition
+        <v xml:space="preserve">Purpose (one should strive for) --&gt; Completion and Fruition
 </v>
       </c>
       <c r="BF28" s="5" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">Tree --&gt; Ashvattha
+        <v xml:space="preserve">Tree (offer reverance or have it in house if possible) --&gt; Ashvattha
 </v>
       </c>
       <c r="BG28" s="5" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">Gemstone --&gt; Pearl
+        <v xml:space="preserve">Gemstone (natural gemstone) --&gt; Pearl
 </v>
       </c>
       <c r="BH28" s="5" t="str">
@@ -16383,17 +16455,17 @@
       </c>
       <c r="BJ28" s="5" t="str">
         <f t="shared" si="16"/>
-        <v xml:space="preserve">Color --&gt; Yellow
+        <v xml:space="preserve">Color (natural effinity) --&gt; Yellow
 </v>
       </c>
       <c r="BK28" s="5" t="str">
         <f t="shared" si="17"/>
-        <v xml:space="preserve">Planet --&gt; Mercury
+        <v xml:space="preserve">Planet (ruling planet) --&gt; Mercury
 </v>
       </c>
       <c r="BL28" s="5" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">Mantra --&gt; Om Pushne Namaha
+        <v xml:space="preserve">Mantra (one must chant daily) --&gt; Om Pushne Namaha
 </v>
       </c>
       <c r="BM28" s="5" t="str">
@@ -16438,7 +16510,7 @@
       </c>
       <c r="BU28" s="5" t="str">
         <f t="shared" si="27"/>
-        <v xml:space="preserve">Health Issues --&gt; Foot and ankle problems, skin issues
+        <v xml:space="preserve">Health Issues (should take care) --&gt; Foot and ankle problems, skin issues
 </v>
       </c>
       <c r="BV28" s="5" t="str">
@@ -16448,22 +16520,22 @@
       </c>
       <c r="BW28" s="5" t="str">
         <f t="shared" si="29"/>
-        <v xml:space="preserve">Historical/Mythological Significance --&gt; Associated with the god of death, Yama
+        <v xml:space="preserve">Historical/Mythological Significance (must read these stories) --&gt; Associated with the god of death, Yama
 </v>
       </c>
       <c r="BX28" s="5" t="str">
         <f t="shared" si="30"/>
-        <v xml:space="preserve">Mudra --&gt; Maha Mrityunjaya Mudra
+        <v xml:space="preserve">Mudra (learn and often sit in this mudra) --&gt; Maha Mrityunjaya Mudra
 </v>
       </c>
       <c r="BY28" s="5" t="str">
         <f t="shared" si="31"/>
-        <v xml:space="preserve">Food/Dietary Recommendation --&gt; Fresh fruits, vegetables, and grains
+        <v xml:space="preserve">Food/Dietary Recommendation (should intake) --&gt; Fresh fruits, vegetables, and grains
 </v>
       </c>
       <c r="BZ28" s="5" t="str">
         <f t="shared" si="32"/>
-        <v xml:space="preserve">Yoga Posture/Asana --&gt; Halasana, Shavasana, Matsyasana
+        <v xml:space="preserve">Yoga Posture/Asana (should do these yogas) --&gt; Halasana, Shavasana, Matsyasana
 </v>
       </c>
       <c r="CA28" s="5" t="str">
@@ -16473,32 +16545,32 @@
       </c>
       <c r="CB28" s="5" t="str">
         <f t="shared" si="34"/>
-        <v xml:space="preserve">Hindu Festivals/Holidays --&gt; Holi, Ram Navami
+        <v xml:space="preserve">Hindu Festivals/Holidays (do sadhna on these festivals) --&gt; Holi, Ram Navami
 </v>
       </c>
       <c r="CC28" s="5" t="str">
         <f t="shared" si="35"/>
-        <v xml:space="preserve">Chakra/Energy Center --&gt; Manipura
+        <v xml:space="preserve">Chakra/Energy Center (do puja, meditation for this chakra) --&gt; Manipura
 </v>
       </c>
       <c r="CD28" s="5" t="str">
         <f t="shared" si="36"/>
-        <v xml:space="preserve">Yantra/Sacred Geometry --&gt; Sri Yantra
+        <v xml:space="preserve">Yantra/Sacred Geometry (can keep this yantra in puja sthal) --&gt; Sri Yantra
 </v>
       </c>
       <c r="CE28" s="5" t="str">
         <f t="shared" si="37"/>
-        <v xml:space="preserve">Spiritual Practice/Sadhana --&gt; Meditation and self-reflection
+        <v xml:space="preserve">Spiritual Practice/Sadhana (must observe daily) --&gt; Meditation and self-reflection
 </v>
       </c>
       <c r="CF28" s="5" t="str">
         <f t="shared" si="38"/>
-        <v xml:space="preserve">Metal/Mineral --&gt; Gold
+        <v xml:space="preserve">Metal/Mineral (natural affliliation) --&gt; Gold
 </v>
       </c>
       <c r="CG28" s="5" t="str">
         <f t="shared" si="39"/>
-        <v xml:space="preserve">Aromatherapy/Essential Oils --&gt; Lavender, Rose, Myrrh
+        <v xml:space="preserve">Aromatherapy/Essential Oils (should apply these) --&gt; Lavender, Rose, Myrrh
 </v>
       </c>
       <c r="CH28" s="5" t="str">
@@ -16508,17 +16580,17 @@
       </c>
       <c r="CI28" s="5" t="str">
         <f t="shared" si="41"/>
-        <v xml:space="preserve">Mythological Story/Legend --&gt; The story of the king Chitraketu and the curse of the sage Angiras
+        <v xml:space="preserve">Mythological Story/Legend (must read these stories) --&gt; The story of the king Chitraketu and the curse of the sage Angiras
 </v>
       </c>
       <c r="CJ28" s="5" t="str">
         <f t="shared" si="42"/>
-        <v xml:space="preserve">Sound/Mantra --&gt; Om Namah Shivaya
+        <v xml:space="preserve">Sound/Mantra (must chant this mantra) --&gt; Om Namah Shivaya
 </v>
       </c>
       <c r="CK28" s="5" t="str">
         <f t="shared" si="43"/>
-        <v xml:space="preserve">Flower --&gt; Jasmine
+        <v xml:space="preserve">Flower (keep these nearby) --&gt; Jasmine
 </v>
       </c>
       <c r="CL28" s="5" t="str">
@@ -16538,7 +16610,7 @@
       </c>
       <c r="CO28" s="5" t="str">
         <f t="shared" si="47"/>
-        <v xml:space="preserve">Dosha Element --&gt; Pitta
+        <v xml:space="preserve">Dosha Element (must keep the element in check, learn more from ayurveda) --&gt; Pitta
 </v>
       </c>
     </row>
